--- a/output/宿泊業.xlsx
+++ b/output/宿泊業.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B817DC-178E-4163-9AF3-DB5860AAAEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D00532-58C7-430B-87CB-9D1BBABAA028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="2550" windowWidth="25635" windowHeight="17640" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
+    <workbookView xWindow="5880" yWindow="2235" windowWidth="21360" windowHeight="15075" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="1094">
   <si>
     <t>業種(飲食業）</t>
   </si>
@@ -2725,9 +2725,6 @@
     <t>ワラベウタノヤド　ユノハラ</t>
   </si>
   <si>
-    <t>﻿""</t>
-  </si>
-  <si>
     <t>田代地区多目的交流館　(たしろ亭)</t>
   </si>
   <si>
@@ -3251,6 +3248,69 @@
   </si>
   <si>
     <t>山形市大字土坂376-15</t>
+  </si>
+  <si>
+    <t>あいかも会館</t>
+  </si>
+  <si>
+    <t>アイカモカイカン</t>
+  </si>
+  <si>
+    <t>村山市大字本飯田1477</t>
+  </si>
+  <si>
+    <t>太田宝積坊</t>
+  </si>
+  <si>
+    <t>オオタホウシャクボウ</t>
+  </si>
+  <si>
+    <t>鶴岡市羽黒町手向字手向282-2</t>
+  </si>
+  <si>
+    <t>酒田　時を奏でる宿　若葉旅館</t>
+  </si>
+  <si>
+    <t>サカタ　トキヲカナデルヤド　ワカバリョカン</t>
+  </si>
+  <si>
+    <t>酒田市本町2-3-9</t>
+  </si>
+  <si>
+    <t>宿坊　神林勝金</t>
+  </si>
+  <si>
+    <t>シュクボウ　カンバヤシカツカネ</t>
+  </si>
+  <si>
+    <t>鶴岡市羽黒町手向字手向３</t>
+  </si>
+  <si>
+    <t>天童グランドホテル舞鶴荘</t>
+  </si>
+  <si>
+    <t>テンドウグランドホテルマイヅルソウ</t>
+  </si>
+  <si>
+    <t>天童市鎌田本町2-4-51</t>
+  </si>
+  <si>
+    <t>羽黒山　三光院</t>
+  </si>
+  <si>
+    <t>ハグロサン　サンコウイン</t>
+  </si>
+  <si>
+    <t>鶴岡市羽黒町手向字手向92</t>
+  </si>
+  <si>
+    <t>ビジネスホテル丹泉</t>
+  </si>
+  <si>
+    <t>ビジネスホテルタンセン</t>
+  </si>
+  <si>
+    <t>南陽市郡山1052-8</t>
   </si>
 </sst>
 </file>
@@ -3617,10 +3677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA919E-F71A-4DC0-BB86-57B9BD20D6E7}">
-  <dimension ref="A1:K354"/>
+  <dimension ref="A1:K361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3764,7 +3824,7 @@
         <v>9910041</v>
       </c>
       <c r="F5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H5" s="1">
         <v>44480</v>
@@ -3787,16 +3847,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>898</v>
+      </c>
+      <c r="D6" t="s">
         <v>899</v>
-      </c>
-      <c r="D6" t="s">
-        <v>900</v>
       </c>
       <c r="E6">
         <v>9900503</v>
       </c>
       <c r="F6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H6" s="1">
         <v>44392</v>
@@ -3970,7 +4030,7 @@
         <v>9995401</v>
       </c>
       <c r="F12" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H12" s="1">
         <v>44378</v>
@@ -4144,7 +4204,7 @@
         <v>9996403</v>
       </c>
       <c r="F18" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H18" s="1">
         <v>44442</v>
@@ -4167,16 +4227,16 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
+        <v>900</v>
+      </c>
+      <c r="D19" t="s">
         <v>901</v>
-      </c>
-      <c r="D19" t="s">
-        <v>902</v>
       </c>
       <c r="E19">
         <v>9996314</v>
       </c>
       <c r="F19" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H19" s="1">
         <v>44424</v>
@@ -4199,16 +4259,16 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>902</v>
+      </c>
+      <c r="D20" t="s">
         <v>903</v>
-      </c>
-      <c r="D20" t="s">
-        <v>904</v>
       </c>
       <c r="E20">
         <v>9920351</v>
       </c>
       <c r="F20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H20" s="1">
         <v>44337</v>
@@ -4228,16 +4288,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
+        <v>958</v>
+      </c>
+      <c r="D21" t="s">
         <v>959</v>
-      </c>
-      <c r="D21" t="s">
-        <v>960</v>
       </c>
       <c r="E21">
         <v>9902375</v>
       </c>
       <c r="F21" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H21" s="1">
         <v>44519</v>
@@ -4701,7 +4761,7 @@
         <v>9991452</v>
       </c>
       <c r="F37" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H37" s="1">
         <v>44414</v>
@@ -4730,7 +4790,7 @@
         <v>9991522</v>
       </c>
       <c r="F38" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H38" s="1">
         <v>44414</v>
@@ -4759,7 +4819,7 @@
         <v>9991522</v>
       </c>
       <c r="F39" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H39" s="1">
         <v>44435</v>
@@ -5310,16 +5370,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
+        <v>920</v>
+      </c>
+      <c r="D58" t="s">
         <v>921</v>
-      </c>
-      <c r="D58" t="s">
-        <v>922</v>
       </c>
       <c r="E58">
         <v>9993112</v>
       </c>
       <c r="F58" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H58" s="1">
         <v>44391</v>
@@ -5371,16 +5431,16 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D60" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E60">
         <v>9993112</v>
       </c>
       <c r="F60" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H60" s="1">
         <v>44368</v>
@@ -6021,7 +6081,7 @@
         <v>9995301</v>
       </c>
       <c r="F82" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H82" s="1">
         <v>44329</v>
@@ -6044,16 +6104,16 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
+        <v>925</v>
+      </c>
+      <c r="D83" t="s">
         <v>926</v>
-      </c>
-      <c r="D83" t="s">
-        <v>927</v>
       </c>
       <c r="E83">
         <v>9995521</v>
       </c>
       <c r="F83" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H83" s="1">
         <v>44364</v>
@@ -6076,16 +6136,16 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
+        <v>927</v>
+      </c>
+      <c r="D84" t="s">
         <v>928</v>
-      </c>
-      <c r="D84" t="s">
-        <v>929</v>
       </c>
       <c r="E84">
         <v>9995311</v>
       </c>
       <c r="F84" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H84" s="1">
         <v>44363</v>
@@ -6340,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="C93" t="s">
+        <v>932</v>
+      </c>
+      <c r="D93" t="s">
         <v>933</v>
-      </c>
-      <c r="D93" t="s">
-        <v>934</v>
       </c>
       <c r="E93">
         <v>9900721</v>
       </c>
       <c r="F93" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H93" s="1">
         <v>44491</v>
@@ -6378,7 +6438,7 @@
         <v>9900731</v>
       </c>
       <c r="F94" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H94" s="1">
         <v>44410</v>
@@ -6401,16 +6461,16 @@
         <v>11</v>
       </c>
       <c r="C95" t="s">
+        <v>930</v>
+      </c>
+      <c r="D95" t="s">
         <v>931</v>
-      </c>
-      <c r="D95" t="s">
-        <v>932</v>
       </c>
       <c r="E95">
         <v>9900733</v>
       </c>
       <c r="F95" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H95" s="1">
         <v>44365</v>
@@ -6439,7 +6499,7 @@
         <v>9900734</v>
       </c>
       <c r="F96" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H96" s="1">
         <v>44389</v>
@@ -6468,7 +6528,7 @@
         <v>9900734</v>
       </c>
       <c r="F97" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H97" s="1">
         <v>44454</v>
@@ -6497,7 +6557,7 @@
         <v>9900734</v>
       </c>
       <c r="F98" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H98" s="1">
         <v>44389</v>
@@ -6526,7 +6586,7 @@
         <v>9900721</v>
       </c>
       <c r="F99" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H99" s="1">
         <v>44454</v>
@@ -6546,16 +6606,16 @@
         <v>11</v>
       </c>
       <c r="C100" t="s">
+        <v>972</v>
+      </c>
+      <c r="D100" t="s">
         <v>973</v>
-      </c>
-      <c r="D100" t="s">
-        <v>974</v>
       </c>
       <c r="E100">
         <v>9900721</v>
       </c>
       <c r="F100" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H100" s="1">
         <v>44518</v>
@@ -6584,7 +6644,7 @@
         <v>9900721</v>
       </c>
       <c r="F101" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H101" s="1">
         <v>44463</v>
@@ -6613,7 +6673,7 @@
         <v>9900721</v>
       </c>
       <c r="F102" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H102" s="1">
         <v>44433</v>
@@ -6642,7 +6702,7 @@
         <v>9990121</v>
       </c>
       <c r="F103" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H103" s="1">
         <v>44454</v>
@@ -6671,7 +6731,7 @@
         <v>9990121</v>
       </c>
       <c r="F104" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H104" s="1">
         <v>44453</v>
@@ -6816,7 +6876,7 @@
         <v>9994134</v>
       </c>
       <c r="F109" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H109" s="1">
         <v>44439</v>
@@ -6845,7 +6905,7 @@
         <v>9960301</v>
       </c>
       <c r="F110" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H110" s="1">
         <v>44406</v>
@@ -6874,7 +6934,7 @@
         <v>9960301</v>
       </c>
       <c r="F111" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H111" s="1">
         <v>44396</v>
@@ -6903,7 +6963,7 @@
         <v>9960301</v>
       </c>
       <c r="F112" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H112" s="1">
         <v>44351</v>
@@ -6932,7 +6992,7 @@
         <v>9960301</v>
       </c>
       <c r="F113" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H113" s="1">
         <v>44474</v>
@@ -6961,7 +7021,7 @@
         <v>9960301</v>
       </c>
       <c r="F114" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H114" s="1">
         <v>44438</v>
@@ -6990,7 +7050,7 @@
         <v>9960301</v>
       </c>
       <c r="F115" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H115" s="1">
         <v>44452</v>
@@ -7019,7 +7079,7 @@
         <v>9960301</v>
       </c>
       <c r="F116" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H116" s="1">
         <v>44369</v>
@@ -7068,16 +7128,16 @@
         <v>11</v>
       </c>
       <c r="C118" t="s">
+        <v>987</v>
+      </c>
+      <c r="D118" t="s">
         <v>988</v>
-      </c>
-      <c r="D118" t="s">
-        <v>989</v>
       </c>
       <c r="E118">
         <v>9960301</v>
       </c>
       <c r="F118" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H118" s="1">
         <v>44508</v>
@@ -7338,7 +7398,7 @@
         <v>9901302</v>
       </c>
       <c r="F127" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H127" s="1">
         <v>44406</v>
@@ -7448,16 +7508,16 @@
         <v>11</v>
       </c>
       <c r="C131" t="s">
+        <v>935</v>
+      </c>
+      <c r="D131" t="s">
         <v>936</v>
-      </c>
-      <c r="D131" t="s">
-        <v>937</v>
       </c>
       <c r="E131">
         <v>9930075</v>
       </c>
       <c r="F131" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H131" s="1">
         <v>44371</v>
@@ -7480,16 +7540,16 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
+        <v>938</v>
+      </c>
+      <c r="D132" t="s">
         <v>939</v>
-      </c>
-      <c r="D132" t="s">
-        <v>940</v>
       </c>
       <c r="E132">
         <v>9930075</v>
       </c>
       <c r="F132" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H132" s="1">
         <v>44371</v>
@@ -7563,9 +7623,6 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>898</v>
-      </c>
       <c r="B135" t="s">
         <v>11</v>
       </c>
@@ -7718,16 +7775,16 @@
         <v>11</v>
       </c>
       <c r="C140" t="s">
+        <v>940</v>
+      </c>
+      <c r="D140" t="s">
         <v>941</v>
-      </c>
-      <c r="D140" t="s">
-        <v>942</v>
       </c>
       <c r="E140">
         <v>9997463</v>
       </c>
       <c r="F140" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H140" s="1">
         <v>44392</v>
@@ -8075,7 +8132,7 @@
         <v>9920351</v>
       </c>
       <c r="F152" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H152" s="1">
         <v>44350</v>
@@ -8098,16 +8155,16 @@
         <v>11</v>
       </c>
       <c r="C153" t="s">
+        <v>905</v>
+      </c>
+      <c r="D153" t="s">
         <v>906</v>
-      </c>
-      <c r="D153" t="s">
-        <v>907</v>
       </c>
       <c r="E153">
         <v>9920351</v>
       </c>
       <c r="F153" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H153" s="1">
         <v>44350</v>
@@ -8136,7 +8193,7 @@
         <v>9920342</v>
       </c>
       <c r="F154" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H154" s="1">
         <v>44357</v>
@@ -8165,7 +8222,7 @@
         <v>9992174</v>
       </c>
       <c r="F155" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H155" s="1">
         <v>44474</v>
@@ -8188,16 +8245,16 @@
         <v>11</v>
       </c>
       <c r="C156" t="s">
+        <v>907</v>
+      </c>
+      <c r="D156" t="s">
         <v>908</v>
-      </c>
-      <c r="D156" t="s">
-        <v>909</v>
       </c>
       <c r="E156">
         <v>9996101</v>
       </c>
       <c r="F156" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H156" s="1">
         <v>44418</v>
@@ -8226,7 +8283,7 @@
         <v>9996211</v>
       </c>
       <c r="F157" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H157" s="1">
         <v>44370</v>
@@ -8255,7 +8312,7 @@
         <v>9996211</v>
       </c>
       <c r="F158" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H158" s="1">
         <v>44426</v>
@@ -8284,7 +8341,7 @@
         <v>9996211</v>
       </c>
       <c r="F159" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H159" s="1">
         <v>44377</v>
@@ -8313,7 +8370,7 @@
         <v>9996211</v>
       </c>
       <c r="F160" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H160" s="1">
         <v>44369</v>
@@ -8342,7 +8399,7 @@
         <v>9996211</v>
       </c>
       <c r="F161" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H161" s="1">
         <v>44342</v>
@@ -8371,7 +8428,7 @@
         <v>9996211</v>
       </c>
       <c r="F162" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H162" s="1">
         <v>44385</v>
@@ -8400,7 +8457,7 @@
         <v>9996105</v>
       </c>
       <c r="F163" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H163" s="1">
         <v>44343</v>
@@ -8429,7 +8486,7 @@
         <v>9996105</v>
       </c>
       <c r="F164" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H164" s="1">
         <v>44418</v>
@@ -8458,7 +8515,7 @@
         <v>9996105</v>
       </c>
       <c r="F165" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H165" s="1">
         <v>44356</v>
@@ -8487,7 +8544,7 @@
         <v>9996105</v>
       </c>
       <c r="F166" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H166" s="1">
         <v>44407</v>
@@ -8516,7 +8573,7 @@
         <v>9996105</v>
       </c>
       <c r="F167" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H167" s="1">
         <v>44418</v>
@@ -8545,7 +8602,7 @@
         <v>9996105</v>
       </c>
       <c r="F168" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H168" s="1">
         <v>44393</v>
@@ -8574,7 +8631,7 @@
         <v>9996105</v>
       </c>
       <c r="F169" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H169" s="1">
         <v>44407</v>
@@ -8719,7 +8776,7 @@
         <v>9995203</v>
       </c>
       <c r="F174" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H174" s="1">
         <v>44434</v>
@@ -8748,7 +8805,7 @@
         <v>9995205</v>
       </c>
       <c r="F175" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H175" s="1">
         <v>44414</v>
@@ -8777,7 +8834,7 @@
         <v>9995205</v>
       </c>
       <c r="F176" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H176" s="1">
         <v>44393</v>
@@ -8806,7 +8863,7 @@
         <v>9995205</v>
       </c>
       <c r="F177" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H177" s="1">
         <v>44406</v>
@@ -9000,16 +9057,16 @@
         <v>11</v>
       </c>
       <c r="C184" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D184" t="s">
         <v>1014</v>
-      </c>
-      <c r="D184" t="s">
-        <v>1015</v>
       </c>
       <c r="E184">
         <v>9970752</v>
       </c>
       <c r="F184" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H184" s="1">
         <v>44511</v>
@@ -10227,7 +10284,7 @@
         <v>9940022</v>
       </c>
       <c r="F226" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H226" s="1">
         <v>44501</v>
@@ -10334,16 +10391,16 @@
         <v>11</v>
       </c>
       <c r="C230" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D230" t="s">
         <v>1018</v>
-      </c>
-      <c r="D230" t="s">
-        <v>1019</v>
       </c>
       <c r="E230">
         <v>9993702</v>
       </c>
       <c r="F230" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H230" s="1">
         <v>44505</v>
@@ -10865,7 +10922,7 @@
         <v>9920832</v>
       </c>
       <c r="F248" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H248" s="1">
         <v>44363</v>
@@ -10894,7 +10951,7 @@
         <v>9990424</v>
       </c>
       <c r="F249" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H249" s="1">
         <v>44491</v>
@@ -10917,16 +10974,16 @@
         <v>11</v>
       </c>
       <c r="C250" t="s">
+        <v>943</v>
+      </c>
+      <c r="D250" t="s">
         <v>944</v>
-      </c>
-      <c r="D250" t="s">
-        <v>945</v>
       </c>
       <c r="E250">
         <v>9990605</v>
       </c>
       <c r="F250" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H250" s="1">
         <v>44491</v>
@@ -10955,7 +11012,7 @@
         <v>9990602</v>
       </c>
       <c r="F251" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H251" s="1">
         <v>44392</v>
@@ -10984,7 +11041,7 @@
         <v>9994333</v>
       </c>
       <c r="F252" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H252" s="1">
         <v>44463</v>
@@ -11013,7 +11070,7 @@
         <v>9994333</v>
       </c>
       <c r="F253" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H253" s="1">
         <v>44463</v>
@@ -11042,7 +11099,7 @@
         <v>9994333</v>
       </c>
       <c r="F254" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H254" s="1">
         <v>44489</v>
@@ -11062,16 +11119,16 @@
         <v>11</v>
       </c>
       <c r="C255" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D255" t="s">
         <v>1028</v>
-      </c>
-      <c r="D255" t="s">
-        <v>1029</v>
       </c>
       <c r="E255">
         <v>9994333</v>
       </c>
       <c r="F255" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H255" s="1">
         <v>44511</v>
@@ -11100,7 +11157,7 @@
         <v>9994333</v>
       </c>
       <c r="F256" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H256" s="1">
         <v>44361</v>
@@ -11129,7 +11186,7 @@
         <v>9994333</v>
       </c>
       <c r="F257" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H257" s="1">
         <v>44446</v>
@@ -11158,7 +11215,7 @@
         <v>9994333</v>
       </c>
       <c r="F258" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H258" s="1">
         <v>44386</v>
@@ -11187,7 +11244,7 @@
         <v>9994333</v>
       </c>
       <c r="F259" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H259" s="1">
         <v>44463</v>
@@ -11239,16 +11296,16 @@
         <v>11</v>
       </c>
       <c r="C261" t="s">
+        <v>945</v>
+      </c>
+      <c r="D261" t="s">
         <v>946</v>
-      </c>
-      <c r="D261" t="s">
-        <v>947</v>
       </c>
       <c r="E261">
         <v>9920027</v>
       </c>
       <c r="F261" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H261" s="1">
         <v>44480</v>
@@ -11268,16 +11325,16 @@
         <v>11</v>
       </c>
       <c r="C262" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D262" t="s">
         <v>1035</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1036</v>
       </c>
       <c r="E262">
         <v>9920027</v>
       </c>
       <c r="F262" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H262" s="1">
         <v>44518</v>
@@ -11442,16 +11499,16 @@
         <v>11</v>
       </c>
       <c r="C268" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D268" t="s">
         <v>1038</v>
-      </c>
-      <c r="D268" t="s">
-        <v>1039</v>
       </c>
       <c r="E268">
         <v>9920076</v>
       </c>
       <c r="F268" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H268" s="1">
         <v>44510</v>
@@ -11612,9 +11669,6 @@
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A274" t="s">
-        <v>898</v>
-      </c>
       <c r="B274" t="s">
         <v>11</v>
       </c>
@@ -11657,7 +11711,7 @@
         <v>9921472</v>
       </c>
       <c r="F275" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H275" s="1">
         <v>44440</v>
@@ -11686,7 +11740,7 @@
         <v>9921472</v>
       </c>
       <c r="F276" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H276" s="1">
         <v>44431</v>
@@ -11715,7 +11769,7 @@
         <v>9921472</v>
       </c>
       <c r="F277" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H277" s="1">
         <v>44463</v>
@@ -11744,7 +11798,7 @@
         <v>9921472</v>
       </c>
       <c r="F278" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H278" s="1">
         <v>44463</v>
@@ -11773,7 +11827,7 @@
         <v>9921303</v>
       </c>
       <c r="F279" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H279" s="1">
         <v>44449</v>
@@ -11802,7 +11856,7 @@
         <v>9921303</v>
       </c>
       <c r="F280" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H280" s="1">
         <v>44480</v>
@@ -11831,7 +11885,7 @@
         <v>9921461</v>
       </c>
       <c r="F281" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H281" s="1">
         <v>44448</v>
@@ -11854,16 +11908,16 @@
         <v>11</v>
       </c>
       <c r="C282" t="s">
+        <v>951</v>
+      </c>
+      <c r="D282" t="s">
         <v>952</v>
-      </c>
-      <c r="D282" t="s">
-        <v>953</v>
       </c>
       <c r="E282">
         <v>9921461</v>
       </c>
       <c r="F282" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H282" s="1">
         <v>44365</v>
@@ -11892,7 +11946,7 @@
         <v>9921461</v>
       </c>
       <c r="F283" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H283" s="1">
         <v>44498</v>
@@ -11921,7 +11975,7 @@
         <v>9921461</v>
       </c>
       <c r="F284" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H284" s="1">
         <v>44391</v>
@@ -11950,7 +12004,7 @@
         <v>9921471</v>
       </c>
       <c r="F285" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H285" s="1">
         <v>44357</v>
@@ -12089,16 +12143,16 @@
         <v>11</v>
       </c>
       <c r="C290" t="s">
+        <v>948</v>
+      </c>
+      <c r="D290" t="s">
         <v>949</v>
-      </c>
-      <c r="D290" t="s">
-        <v>950</v>
       </c>
       <c r="E290">
         <v>9920039</v>
       </c>
       <c r="F290" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H290" s="1">
         <v>44393</v>
@@ -12147,16 +12201,16 @@
         <v>11</v>
       </c>
       <c r="C292" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D292" t="s">
         <v>1052</v>
-      </c>
-      <c r="D292" t="s">
-        <v>1053</v>
       </c>
       <c r="E292">
         <v>9920039</v>
       </c>
       <c r="F292" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H292" s="1">
         <v>44512</v>
@@ -12411,16 +12465,16 @@
         <v>11</v>
       </c>
       <c r="C301" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D301" t="s">
         <v>1055</v>
-      </c>
-      <c r="D301" t="s">
-        <v>1056</v>
       </c>
       <c r="E301">
         <v>9900039</v>
       </c>
       <c r="F301" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H301" s="1">
         <v>44505</v>
@@ -12668,9 +12722,6 @@
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A310" t="s">
-        <v>898</v>
-      </c>
       <c r="B310" t="s">
         <v>11</v>
       </c>
@@ -12707,16 +12758,16 @@
         <v>11</v>
       </c>
       <c r="C311" t="s">
+        <v>909</v>
+      </c>
+      <c r="D311" t="s">
         <v>910</v>
-      </c>
-      <c r="D311" t="s">
-        <v>911</v>
       </c>
       <c r="E311">
         <v>9900031</v>
       </c>
       <c r="F311" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H311" s="1">
         <v>44495</v>
@@ -12797,16 +12848,16 @@
         <v>11</v>
       </c>
       <c r="C314" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D314" t="s">
         <v>1058</v>
-      </c>
-      <c r="D314" t="s">
-        <v>1059</v>
       </c>
       <c r="E314">
         <v>9902241</v>
       </c>
       <c r="F314" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H314" s="1">
         <v>44515</v>
@@ -13119,16 +13170,16 @@
         <v>11</v>
       </c>
       <c r="C325" t="s">
+        <v>912</v>
+      </c>
+      <c r="D325" t="s">
         <v>913</v>
-      </c>
-      <c r="D325" t="s">
-        <v>914</v>
       </c>
       <c r="E325">
         <v>9902301</v>
       </c>
       <c r="F325" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H325" s="1">
         <v>44361</v>
@@ -13267,16 +13318,16 @@
         <v>11</v>
       </c>
       <c r="C330" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D330" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E330">
         <v>9902301</v>
       </c>
       <c r="F330" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H330" s="1">
         <v>44501</v>
@@ -13441,16 +13492,16 @@
         <v>11</v>
       </c>
       <c r="C336" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D336" t="s">
         <v>1061</v>
-      </c>
-      <c r="D336" t="s">
-        <v>1062</v>
       </c>
       <c r="E336">
         <v>9902301</v>
       </c>
       <c r="F336" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H336" s="1">
         <v>44512</v>
@@ -13528,7 +13579,7 @@
         <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D339" t="s">
         <v>210</v>
@@ -13708,16 +13759,16 @@
         <v>11</v>
       </c>
       <c r="C345" t="s">
+        <v>917</v>
+      </c>
+      <c r="D345" t="s">
         <v>918</v>
-      </c>
-      <c r="D345" t="s">
-        <v>919</v>
       </c>
       <c r="E345">
         <v>9902301</v>
       </c>
       <c r="F345" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H345" s="1">
         <v>44324</v>
@@ -13824,16 +13875,16 @@
         <v>11</v>
       </c>
       <c r="C349" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D349" t="s">
         <v>1065</v>
-      </c>
-      <c r="D349" t="s">
-        <v>1066</v>
       </c>
       <c r="E349">
         <v>9902301</v>
       </c>
       <c r="F349" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H349" s="1">
         <v>44508</v>
@@ -13891,7 +13942,7 @@
         <v>9902311</v>
       </c>
       <c r="F351" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H351" s="1">
         <v>44385</v>
@@ -13920,7 +13971,7 @@
         <v>9902311</v>
       </c>
       <c r="F352" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H352" s="1">
         <v>44348</v>
@@ -13949,7 +14000,7 @@
         <v>9902311</v>
       </c>
       <c r="F353" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H353" s="1">
         <v>44330</v>
@@ -13972,16 +14023,16 @@
         <v>11</v>
       </c>
       <c r="C354" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D354" t="s">
         <v>1071</v>
-      </c>
-      <c r="D354" t="s">
-        <v>1072</v>
       </c>
       <c r="E354">
         <v>9902405</v>
       </c>
       <c r="F354" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H354" s="1">
         <v>44519</v>
@@ -13994,6 +14045,215 @@
       </c>
       <c r="K354">
         <v>140.37522229999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A355" t="s">
+        <v>11</v>
+      </c>
+      <c r="B355" t="s">
+        <v>11</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E355">
+        <v>9950003</v>
+      </c>
+      <c r="F355" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H355" s="1">
+        <v>44526</v>
+      </c>
+      <c r="I355" t="s">
+        <v>196</v>
+      </c>
+      <c r="J355">
+        <v>38.526221229999997</v>
+      </c>
+      <c r="K355">
+        <v>140.37699739999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B356" t="s">
+        <v>11</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E356">
+        <v>9970211</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H356" s="1">
+        <v>44525</v>
+      </c>
+      <c r="I356" t="s">
+        <v>25</v>
+      </c>
+      <c r="J356">
+        <v>38.715818949999999</v>
+      </c>
+      <c r="K356">
+        <v>139.95465569999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A357" t="s">
+        <v>11</v>
+      </c>
+      <c r="B357" t="s">
+        <v>11</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E357">
+        <v>9980043</v>
+      </c>
+      <c r="F357" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H357" s="1">
+        <v>44526</v>
+      </c>
+      <c r="I357" t="s">
+        <v>121</v>
+      </c>
+      <c r="J357">
+        <v>38.913559960000001</v>
+      </c>
+      <c r="K357">
+        <v>139.8364799</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B358" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E358">
+        <v>9970211</v>
+      </c>
+      <c r="F358" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H358" s="1">
+        <v>44525</v>
+      </c>
+      <c r="I358" t="s">
+        <v>25</v>
+      </c>
+      <c r="J358">
+        <v>38.705283919999999</v>
+      </c>
+      <c r="K358">
+        <v>139.96459340000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B359" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E359">
+        <v>9940025</v>
+      </c>
+      <c r="F359" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H359" s="1">
+        <v>44525</v>
+      </c>
+      <c r="I359" t="s">
+        <v>79</v>
+      </c>
+      <c r="J359">
+        <v>38.358693000000002</v>
+      </c>
+      <c r="K359">
+        <v>140.38335140000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E360">
+        <v>9970211</v>
+      </c>
+      <c r="F360" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H360" s="1">
+        <v>44525</v>
+      </c>
+      <c r="I360" t="s">
+        <v>25</v>
+      </c>
+      <c r="J360">
+        <v>38.708565530000001</v>
+      </c>
+      <c r="K360">
+        <v>139.9610606</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B361" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E361">
+        <v>9992241</v>
+      </c>
+      <c r="F361" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H361" s="1">
+        <v>44530</v>
+      </c>
+      <c r="I361" t="s">
+        <v>15</v>
+      </c>
+      <c r="J361">
+        <v>38.04563812</v>
+      </c>
+      <c r="K361">
+        <v>140.1502481</v>
       </c>
     </row>
   </sheetData>

--- a/output/宿泊業.xlsx
+++ b/output/宿泊業.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7C2E72-1F95-451B-B026-9407BA9E777C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F56E0DA-A307-4ECD-A40D-8AE8A68ACD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11115" yWindow="2340" windowWidth="21360" windowHeight="15075" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
+    <workbookView xWindow="13140" yWindow="1725" windowWidth="17745" windowHeight="18195" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="1112">
   <si>
     <t>業種(飲食業）</t>
   </si>
@@ -3347,6 +3347,24 @@
   </si>
   <si>
     <t>長井市ままの上4-10</t>
+  </si>
+  <si>
+    <t>高砂屋旅館</t>
+  </si>
+  <si>
+    <t>タカサゴヤリョカン</t>
+  </si>
+  <si>
+    <t>米沢市小野川町2427</t>
+  </si>
+  <si>
+    <t>とまれ屋旅館</t>
+  </si>
+  <si>
+    <t>トマレヤリョカン</t>
+  </si>
+  <si>
+    <t>新庄市沖の町6-5</t>
   </si>
 </sst>
 </file>
@@ -3713,15 +3731,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA919E-F71A-4DC0-BB86-57B9BD20D6E7}">
-  <dimension ref="A1:K366"/>
+  <dimension ref="A1:K368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -7721,28 +7739,28 @@
         <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>341</v>
+        <v>1106</v>
       </c>
       <c r="D137" t="s">
-        <v>342</v>
+        <v>1107</v>
       </c>
       <c r="E137">
-        <v>9920821</v>
+        <v>9920076</v>
       </c>
       <c r="F137" t="s">
-        <v>343</v>
+        <v>1108</v>
       </c>
       <c r="H137" s="1">
-        <v>44448</v>
+        <v>44536</v>
       </c>
       <c r="I137" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="J137">
-        <v>38.19470261</v>
+        <v>37.879921000000003</v>
       </c>
       <c r="K137">
-        <v>140.11131660000001</v>
+        <v>140.05514400000001</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
@@ -7750,28 +7768,28 @@
         <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D138" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E138">
-        <v>9900406</v>
+        <v>9920821</v>
       </c>
       <c r="F138" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="H138" s="1">
-        <v>44477</v>
+        <v>44448</v>
       </c>
       <c r="I138" t="s">
-        <v>357</v>
+        <v>192</v>
       </c>
       <c r="J138">
-        <v>38.326990840000001</v>
+        <v>38.19470261</v>
       </c>
       <c r="K138">
-        <v>140.255065</v>
+        <v>140.11131660000001</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
@@ -7779,28 +7797,28 @@
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D139" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E139">
-        <v>9902301</v>
+        <v>9900406</v>
       </c>
       <c r="F139" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H139" s="1">
-        <v>44347</v>
+        <v>44477</v>
       </c>
       <c r="I139" t="s">
-        <v>32</v>
+        <v>357</v>
       </c>
       <c r="J139">
-        <v>38.169733399999998</v>
+        <v>38.326990840000001</v>
       </c>
       <c r="K139">
-        <v>140.40098230000001</v>
+        <v>140.255065</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
@@ -7808,28 +7826,28 @@
         <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D140" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E140">
-        <v>9996401</v>
+        <v>9902301</v>
       </c>
       <c r="F140" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H140" s="1">
-        <v>44453</v>
+        <v>44347</v>
       </c>
       <c r="I140" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="J140">
-        <v>38.766098700000001</v>
+        <v>38.169733399999998</v>
       </c>
       <c r="K140">
-        <v>140.053166</v>
+        <v>140.40098230000001</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
@@ -7837,28 +7855,28 @@
         <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D141" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E141">
-        <v>9902301</v>
+        <v>9996401</v>
       </c>
       <c r="F141" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H141" s="1">
-        <v>44461</v>
+        <v>44453</v>
       </c>
       <c r="I141" t="s">
-        <v>32</v>
+        <v>350</v>
       </c>
       <c r="J141">
-        <v>38.161280439999999</v>
+        <v>38.766098700000001</v>
       </c>
       <c r="K141">
-        <v>140.39394759999999</v>
+        <v>140.053166</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
@@ -7866,89 +7884,89 @@
         <v>11</v>
       </c>
       <c r="C142" t="s">
+        <v>351</v>
+      </c>
+      <c r="D142" t="s">
+        <v>352</v>
+      </c>
+      <c r="E142">
+        <v>9902301</v>
+      </c>
+      <c r="F142" t="s">
+        <v>353</v>
+      </c>
+      <c r="H142" s="1">
+        <v>44461</v>
+      </c>
+      <c r="I142" t="s">
+        <v>32</v>
+      </c>
+      <c r="J142">
+        <v>38.161280439999999</v>
+      </c>
+      <c r="K142">
+        <v>140.39394759999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
         <v>358</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D143" t="s">
         <v>359</v>
       </c>
-      <c r="E142">
+      <c r="E143">
         <v>9996105</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F143" t="s">
         <v>1007</v>
       </c>
-      <c r="H142" s="1">
+      <c r="H143" s="1">
         <v>44393</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I143" t="s">
         <v>48</v>
       </c>
-      <c r="J142">
+      <c r="J143">
         <v>38.712054010000003</v>
       </c>
-      <c r="K142">
+      <c r="K143">
         <v>140.55382560000001</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>11</v>
-      </c>
-      <c r="B143" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" t="s">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
         <v>898</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D144" t="s">
         <v>899</v>
       </c>
-      <c r="E143">
+      <c r="E144">
         <v>9900503</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F144" t="s">
         <v>954</v>
       </c>
-      <c r="H143" s="1">
+      <c r="H144" s="1">
         <v>44392</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I144" t="s">
         <v>144</v>
       </c>
-      <c r="J143">
+      <c r="J144">
         <v>38.4484937</v>
       </c>
-      <c r="K143">
+      <c r="K144">
         <v>140.2335539</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B144" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" t="s">
-        <v>360</v>
-      </c>
-      <c r="D144" t="s">
-        <v>360</v>
-      </c>
-      <c r="E144">
-        <v>9930011</v>
-      </c>
-      <c r="F144" t="s">
-        <v>361</v>
-      </c>
-      <c r="H144" s="1">
-        <v>44396</v>
-      </c>
-      <c r="I144" t="s">
-        <v>58</v>
-      </c>
-      <c r="J144">
-        <v>38.101388999999998</v>
-      </c>
-      <c r="K144">
-        <v>140.04332529999999</v>
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.4">
@@ -7956,28 +7974,28 @@
         <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D145" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E145">
-        <v>9997204</v>
+        <v>9930011</v>
       </c>
       <c r="F145" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H145" s="1">
-        <v>44404</v>
+        <v>44396</v>
       </c>
       <c r="I145" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="J145">
-        <v>38.615384630000001</v>
+        <v>38.101388999999998</v>
       </c>
       <c r="K145">
-        <v>139.60561659999999</v>
+        <v>140.04332529999999</v>
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.4">
@@ -7985,28 +8003,28 @@
         <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D146" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E146">
-        <v>9960301</v>
+        <v>9997204</v>
       </c>
       <c r="F146" t="s">
-        <v>980</v>
+        <v>364</v>
       </c>
       <c r="H146" s="1">
-        <v>44406</v>
+        <v>44404</v>
       </c>
       <c r="I146" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J146">
-        <v>38.608500960000001</v>
+        <v>38.615384630000001</v>
       </c>
       <c r="K146">
-        <v>140.1669493</v>
+        <v>139.60561659999999</v>
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.4">
@@ -8014,28 +8032,28 @@
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D147" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E147">
-        <v>9970752</v>
+        <v>9960301</v>
       </c>
       <c r="F147" t="s">
-        <v>369</v>
+        <v>980</v>
       </c>
       <c r="H147" s="1">
-        <v>44413</v>
+        <v>44406</v>
       </c>
       <c r="I147" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J147">
-        <v>38.693018189999997</v>
+        <v>38.608500960000001</v>
       </c>
       <c r="K147">
-        <v>139.76950020000001</v>
+        <v>140.1669493</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.4">
@@ -8043,28 +8061,28 @@
         <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D148" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E148">
-        <v>9970532</v>
+        <v>9970752</v>
       </c>
       <c r="F148" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H148" s="1">
-        <v>44475</v>
+        <v>44413</v>
       </c>
       <c r="I148" t="s">
         <v>25</v>
       </c>
       <c r="J148">
-        <v>38.573732759999999</v>
+        <v>38.693018189999997</v>
       </c>
       <c r="K148">
-        <v>139.9208031</v>
+        <v>139.76950020000001</v>
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.4">
@@ -8072,28 +8090,28 @@
         <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D149" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E149">
-        <v>9992211</v>
+        <v>9970532</v>
       </c>
       <c r="F149" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H149" s="1">
-        <v>44410</v>
+        <v>44475</v>
       </c>
       <c r="I149" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J149">
-        <v>38.050577599999997</v>
+        <v>38.573732759999999</v>
       </c>
       <c r="K149">
-        <v>140.1689681</v>
+        <v>139.9208031</v>
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.4">
@@ -8101,28 +8119,28 @@
         <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D150" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E150">
-        <v>9910041</v>
+        <v>9992211</v>
       </c>
       <c r="F150" t="s">
-        <v>953</v>
+        <v>375</v>
       </c>
       <c r="H150" s="1">
-        <v>44480</v>
+        <v>44410</v>
       </c>
       <c r="I150" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="J150">
-        <v>38.363664100000001</v>
+        <v>38.050577599999997</v>
       </c>
       <c r="K150">
-        <v>140.25826950000001</v>
+        <v>140.1689681</v>
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.4">
@@ -8130,28 +8148,28 @@
         <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D151" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E151">
-        <v>9980281</v>
+        <v>9910041</v>
       </c>
       <c r="F151" t="s">
-        <v>385</v>
+        <v>953</v>
       </c>
       <c r="H151" s="1">
-        <v>44488</v>
+        <v>44480</v>
       </c>
       <c r="I151" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="J151">
-        <v>39.189449099999997</v>
+        <v>38.363664100000001</v>
       </c>
       <c r="K151">
-        <v>139.54874699999999</v>
+        <v>140.25826950000001</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.4">
@@ -8159,28 +8177,28 @@
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D152" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E152">
-        <v>9998531</v>
+        <v>9980281</v>
       </c>
       <c r="F152" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H152" s="1">
-        <v>44342</v>
+        <v>44488</v>
       </c>
       <c r="I152" t="s">
-        <v>283</v>
+        <v>121</v>
       </c>
       <c r="J152">
-        <v>39.066695899999999</v>
+        <v>39.189449099999997</v>
       </c>
       <c r="K152">
-        <v>139.87433300000001</v>
+        <v>139.54874699999999</v>
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.4">
@@ -8188,28 +8206,28 @@
         <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D153" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E153">
-        <v>9998521</v>
+        <v>9998531</v>
       </c>
       <c r="F153" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H153" s="1">
-        <v>44361</v>
+        <v>44342</v>
       </c>
       <c r="I153" t="s">
         <v>283</v>
       </c>
       <c r="J153">
-        <v>39.0988592</v>
+        <v>39.066695899999999</v>
       </c>
       <c r="K153">
-        <v>140.0440705</v>
+        <v>139.87433300000001</v>
       </c>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.4">
@@ -8217,28 +8235,28 @@
         <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D154" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E154">
-        <v>9970752</v>
+        <v>9998521</v>
       </c>
       <c r="F154" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H154" s="1">
-        <v>44487</v>
+        <v>44361</v>
       </c>
       <c r="I154" t="s">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="J154">
-        <v>38.693366789999999</v>
+        <v>39.0988592</v>
       </c>
       <c r="K154">
-        <v>139.76965269999999</v>
+        <v>140.0440705</v>
       </c>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.4">
@@ -8246,28 +8264,28 @@
         <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D155" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E155">
-        <v>9980023</v>
+        <v>9970752</v>
       </c>
       <c r="F155" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H155" s="1">
-        <v>44354</v>
+        <v>44487</v>
       </c>
       <c r="I155" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="J155">
-        <v>38.920925080000004</v>
+        <v>38.693366789999999</v>
       </c>
       <c r="K155">
-        <v>139.84454049999999</v>
+        <v>139.76965269999999</v>
       </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.4">
@@ -8275,28 +8293,28 @@
         <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D156" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E156">
-        <v>9991362</v>
+        <v>9980023</v>
       </c>
       <c r="F156" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H156" s="1">
-        <v>44397</v>
+        <v>44354</v>
       </c>
       <c r="I156" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J156">
-        <v>38.058467</v>
+        <v>38.920925080000004</v>
       </c>
       <c r="K156">
-        <v>139.74850799999999</v>
+        <v>139.84454049999999</v>
       </c>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.4">
@@ -8304,28 +8322,28 @@
         <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D157" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E157">
-        <v>9920472</v>
+        <v>9991362</v>
       </c>
       <c r="F157" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H157" s="1">
-        <v>44438</v>
+        <v>44397</v>
       </c>
       <c r="I157" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="J157">
-        <v>38.07023598</v>
+        <v>38.058467</v>
       </c>
       <c r="K157">
-        <v>140.15642639999999</v>
+        <v>139.74850799999999</v>
       </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.4">
@@ -8333,28 +8351,28 @@
         <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>1085</v>
+        <v>401</v>
       </c>
       <c r="D158" t="s">
-        <v>1086</v>
+        <v>402</v>
       </c>
       <c r="E158">
-        <v>9940025</v>
+        <v>9920472</v>
       </c>
       <c r="F158" t="s">
-        <v>1087</v>
+        <v>403</v>
       </c>
       <c r="H158" s="1">
-        <v>44525</v>
+        <v>44438</v>
       </c>
       <c r="I158" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="J158">
-        <v>38.358693000000002</v>
+        <v>38.07023598</v>
       </c>
       <c r="K158">
-        <v>140.38335140000001</v>
+        <v>140.15642639999999</v>
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.4">
@@ -8362,28 +8380,28 @@
         <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="D159" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="E159">
-        <v>9940034</v>
+        <v>9940025</v>
       </c>
       <c r="F159" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="H159" s="1">
-        <v>44533</v>
+        <v>44525</v>
       </c>
       <c r="I159" t="s">
         <v>79</v>
       </c>
       <c r="J159">
-        <v>38.359467250000002</v>
+        <v>38.358693000000002</v>
       </c>
       <c r="K159">
-        <v>140.37161180000001</v>
+        <v>140.38335140000001</v>
       </c>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.4">
@@ -8391,28 +8409,28 @@
         <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>404</v>
+        <v>1099</v>
       </c>
       <c r="D160" t="s">
-        <v>405</v>
+        <v>1100</v>
       </c>
       <c r="E160">
-        <v>9940024</v>
+        <v>9940034</v>
       </c>
       <c r="F160" t="s">
-        <v>406</v>
+        <v>1101</v>
       </c>
       <c r="H160" s="1">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="I160" t="s">
         <v>79</v>
       </c>
       <c r="J160">
-        <v>38.358968660000002</v>
+        <v>38.359467250000002</v>
       </c>
       <c r="K160">
-        <v>140.38633809999999</v>
+        <v>140.37161180000001</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.4">
@@ -8420,28 +8438,28 @@
         <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D161" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E161">
-        <v>9993141</v>
+        <v>9940024</v>
       </c>
       <c r="F161" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H161" s="1">
-        <v>44324</v>
+        <v>44357</v>
       </c>
       <c r="I161" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="J161">
-        <v>38.157778759999999</v>
+        <v>38.358968660000002</v>
       </c>
       <c r="K161">
-        <v>140.27243279999999</v>
+        <v>140.38633809999999</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.4">
@@ -8449,28 +8467,28 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D162" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E162">
-        <v>9970031</v>
+        <v>9993141</v>
       </c>
       <c r="F162" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H162" s="1">
-        <v>44398</v>
+        <v>44324</v>
       </c>
       <c r="I162" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J162">
-        <v>38.739002319999997</v>
+        <v>38.157778759999999</v>
       </c>
       <c r="K162">
-        <v>139.8327137</v>
+        <v>140.27243279999999</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.4">
@@ -8478,28 +8496,28 @@
         <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D163" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E163">
-        <v>9900827</v>
+        <v>9970031</v>
       </c>
       <c r="F163" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H163" s="1">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="I163" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J163">
-        <v>38.2503168</v>
+        <v>38.739002319999997</v>
       </c>
       <c r="K163">
-        <v>140.3238929</v>
+        <v>139.8327137</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.4">
@@ -8507,28 +8525,28 @@
         <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D164" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E164">
-        <v>9920026</v>
+        <v>9900827</v>
       </c>
       <c r="F164" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H164" s="1">
-        <v>44382</v>
+        <v>44343</v>
       </c>
       <c r="I164" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J164">
-        <v>37.906802800000001</v>
+        <v>38.2503168</v>
       </c>
       <c r="K164">
-        <v>140.12836239999999</v>
+        <v>140.3238929</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.4">
@@ -8536,28 +8554,28 @@
         <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D165" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E165">
-        <v>9921472</v>
+        <v>9920026</v>
       </c>
       <c r="F165" t="s">
-        <v>1040</v>
+        <v>418</v>
       </c>
       <c r="H165" s="1">
-        <v>44440</v>
+        <v>44382</v>
       </c>
       <c r="I165" t="s">
         <v>36</v>
       </c>
       <c r="J165">
-        <v>37.781742549999997</v>
+        <v>37.906802800000001</v>
       </c>
       <c r="K165">
-        <v>140.1183417</v>
+        <v>140.12836239999999</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.4">
@@ -8565,28 +8583,28 @@
         <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>421</v>
+        <v>1109</v>
       </c>
       <c r="D166" t="s">
-        <v>422</v>
+        <v>1110</v>
       </c>
       <c r="E166">
-        <v>9921303</v>
+        <v>9960023</v>
       </c>
       <c r="F166" t="s">
-        <v>1045</v>
+        <v>1111</v>
       </c>
       <c r="H166" s="1">
-        <v>44480</v>
+        <v>44536</v>
       </c>
       <c r="I166" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="J166">
-        <v>37.78224084</v>
+        <v>38.763345311517902</v>
       </c>
       <c r="K166">
-        <v>140.22733059999999</v>
+        <v>140.30227487116301</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.4">
@@ -8594,28 +8612,28 @@
         <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D167" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E167">
-        <v>9970029</v>
+        <v>9921472</v>
       </c>
       <c r="F167" t="s">
-        <v>425</v>
+        <v>1040</v>
       </c>
       <c r="H167" s="1">
-        <v>44361</v>
+        <v>44440</v>
       </c>
       <c r="I167" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J167">
-        <v>38.736218299999997</v>
+        <v>37.781742549999997</v>
       </c>
       <c r="K167">
-        <v>139.83617820000001</v>
+        <v>140.1183417</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.4">
@@ -8623,28 +8641,28 @@
         <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D168" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E168">
-        <v>9993114</v>
+        <v>9921303</v>
       </c>
       <c r="F168" t="s">
-        <v>276</v>
+        <v>1045</v>
       </c>
       <c r="H168" s="1">
-        <v>44398</v>
+        <v>44480</v>
       </c>
       <c r="I168" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J168">
-        <v>38.12544003</v>
+        <v>37.78224084</v>
       </c>
       <c r="K168">
-        <v>140.39363829999999</v>
+        <v>140.22733059999999</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.4">
@@ -8652,28 +8670,28 @@
         <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D169" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E169">
-        <v>9920478</v>
+        <v>9970029</v>
       </c>
       <c r="F169" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H169" s="1">
-        <v>44447</v>
+        <v>44361</v>
       </c>
       <c r="I169" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J169">
-        <v>38.069729440000003</v>
+        <v>38.736218299999997</v>
       </c>
       <c r="K169">
-        <v>140.09838049999999</v>
+        <v>139.83617820000001</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.4">
@@ -8681,28 +8699,28 @@
         <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D170" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E170">
-        <v>9960301</v>
+        <v>9993114</v>
       </c>
       <c r="F170" t="s">
-        <v>432</v>
+        <v>276</v>
       </c>
       <c r="H170" s="1">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="I170" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="J170">
-        <v>38.606835670000002</v>
+        <v>38.12544003</v>
       </c>
       <c r="K170">
-        <v>140.16565729999999</v>
+        <v>140.39363829999999</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.4">
@@ -8710,60 +8728,57 @@
         <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D171" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E171">
-        <v>9993292</v>
+        <v>9920478</v>
       </c>
       <c r="F171" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H171" s="1">
-        <v>44324</v>
+        <v>44447</v>
       </c>
       <c r="I171" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J171">
-        <v>38.14807364</v>
+        <v>38.069729440000003</v>
       </c>
       <c r="K171">
-        <v>140.26123480000001</v>
+        <v>140.09838049999999</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
-        <v>11</v>
-      </c>
       <c r="B172" t="s">
         <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>1057</v>
+        <v>430</v>
       </c>
       <c r="D172" t="s">
-        <v>1058</v>
+        <v>431</v>
       </c>
       <c r="E172">
-        <v>9902241</v>
+        <v>9960301</v>
       </c>
       <c r="F172" t="s">
-        <v>1059</v>
+        <v>432</v>
       </c>
       <c r="H172" s="1">
-        <v>44515</v>
+        <v>44391</v>
       </c>
       <c r="I172" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="J172">
-        <v>38.274130720000002</v>
+        <v>38.606835670000002</v>
       </c>
       <c r="K172">
-        <v>140.41498319999999</v>
+        <v>140.16565729999999</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.4">
@@ -8771,57 +8786,60 @@
         <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D173" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E173">
-        <v>9996403</v>
+        <v>9993292</v>
       </c>
       <c r="F173" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H173" s="1">
-        <v>44442</v>
+        <v>44324</v>
       </c>
       <c r="I173" t="s">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="J173">
-        <v>38.687224399999998</v>
+        <v>38.14807364</v>
       </c>
       <c r="K173">
-        <v>140.16037309999999</v>
+        <v>140.26123480000001</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
       <c r="B174" t="s">
         <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>439</v>
+        <v>1057</v>
       </c>
       <c r="D174" t="s">
-        <v>440</v>
+        <v>1058</v>
       </c>
       <c r="E174">
-        <v>9995301</v>
+        <v>9902241</v>
       </c>
       <c r="F174" t="s">
-        <v>964</v>
+        <v>1059</v>
       </c>
       <c r="H174" s="1">
-        <v>44329</v>
+        <v>44515</v>
       </c>
       <c r="I174" t="s">
-        <v>441</v>
+        <v>32</v>
       </c>
       <c r="J174">
-        <v>38.894387899999998</v>
+        <v>38.274130720000002</v>
       </c>
       <c r="K174">
-        <v>140.25449090000001</v>
+        <v>140.41498319999999</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.4">
@@ -8829,16 +8847,16 @@
         <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D175" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E175">
         <v>9996403</v>
       </c>
       <c r="F175" t="s">
-        <v>956</v>
+        <v>438</v>
       </c>
       <c r="H175" s="1">
         <v>44442</v>
@@ -8847,10 +8865,10 @@
         <v>350</v>
       </c>
       <c r="J175">
-        <v>38.681855900000002</v>
+        <v>38.687224399999998</v>
       </c>
       <c r="K175">
-        <v>140.16474210000001</v>
+        <v>140.16037309999999</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.4">
@@ -8858,28 +8876,28 @@
         <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D176" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E176">
-        <v>9996403</v>
+        <v>9995301</v>
       </c>
       <c r="F176" t="s">
-        <v>446</v>
+        <v>964</v>
       </c>
       <c r="H176" s="1">
-        <v>44442</v>
+        <v>44329</v>
       </c>
       <c r="I176" t="s">
-        <v>350</v>
+        <v>441</v>
       </c>
       <c r="J176">
-        <v>38.662841399999998</v>
+        <v>38.894387899999998</v>
       </c>
       <c r="K176">
-        <v>140.16824020000001</v>
+        <v>140.25449090000001</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.4">
@@ -8887,150 +8905,150 @@
         <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D177" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E177">
-        <v>9921471</v>
+        <v>9996403</v>
       </c>
       <c r="F177" t="s">
-        <v>1050</v>
+        <v>956</v>
       </c>
       <c r="H177" s="1">
-        <v>44357</v>
+        <v>44442</v>
       </c>
       <c r="I177" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="J177">
-        <v>37.846435739999997</v>
+        <v>38.681855900000002</v>
       </c>
       <c r="K177">
-        <v>140.09000069999999</v>
+        <v>140.16474210000001</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
-        <v>11</v>
-      </c>
       <c r="B178" t="s">
         <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>900</v>
+        <v>444</v>
       </c>
       <c r="D178" t="s">
-        <v>901</v>
+        <v>445</v>
       </c>
       <c r="E178">
-        <v>9996314</v>
+        <v>9996403</v>
       </c>
       <c r="F178" t="s">
-        <v>957</v>
+        <v>446</v>
       </c>
       <c r="H178" s="1">
-        <v>44424</v>
+        <v>44442</v>
       </c>
       <c r="I178" t="s">
         <v>350</v>
       </c>
       <c r="J178">
-        <v>38.769334200000003</v>
+        <v>38.662841399999998</v>
       </c>
       <c r="K178">
-        <v>140.1958243</v>
+        <v>140.16824020000001</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
-        <v>11</v>
-      </c>
       <c r="B179" t="s">
         <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>925</v>
+        <v>447</v>
       </c>
       <c r="D179" t="s">
-        <v>926</v>
+        <v>448</v>
       </c>
       <c r="E179">
-        <v>9995521</v>
+        <v>9921471</v>
       </c>
       <c r="F179" t="s">
-        <v>965</v>
+        <v>1050</v>
       </c>
       <c r="H179" s="1">
-        <v>44364</v>
+        <v>44357</v>
       </c>
       <c r="I179" t="s">
-        <v>441</v>
+        <v>36</v>
       </c>
       <c r="J179">
-        <v>38.886569190000003</v>
+        <v>37.846435739999997</v>
       </c>
       <c r="K179">
-        <v>140.21355829999999</v>
+        <v>140.09000069999999</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
       <c r="B180" t="s">
         <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>449</v>
+        <v>900</v>
       </c>
       <c r="D180" t="s">
-        <v>450</v>
+        <v>901</v>
       </c>
       <c r="E180">
-        <v>9996403</v>
+        <v>9996314</v>
       </c>
       <c r="F180" t="s">
-        <v>451</v>
+        <v>957</v>
       </c>
       <c r="H180" s="1">
-        <v>44468</v>
+        <v>44424</v>
       </c>
       <c r="I180" t="s">
         <v>350</v>
       </c>
       <c r="J180">
-        <v>38.676610599999997</v>
+        <v>38.769334200000003</v>
       </c>
       <c r="K180">
-        <v>140.16416910000001</v>
+        <v>140.1958243</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>11</v>
+      </c>
       <c r="B181" t="s">
         <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>452</v>
+        <v>925</v>
       </c>
       <c r="D181" t="s">
-        <v>453</v>
+        <v>926</v>
       </c>
       <c r="E181">
-        <v>9995203</v>
+        <v>9995521</v>
       </c>
       <c r="F181" t="s">
-        <v>1009</v>
+        <v>965</v>
       </c>
       <c r="H181" s="1">
-        <v>44434</v>
+        <v>44364</v>
       </c>
       <c r="I181" t="s">
-        <v>152</v>
+        <v>441</v>
       </c>
       <c r="J181">
-        <v>38.786266300000001</v>
+        <v>38.886569190000003</v>
       </c>
       <c r="K181">
-        <v>140.21882020000001</v>
+        <v>140.21355829999999</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.4">
@@ -9038,28 +9056,28 @@
         <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D182" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E182">
-        <v>9993114</v>
+        <v>9996403</v>
       </c>
       <c r="F182" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H182" s="1">
-        <v>44407</v>
+        <v>44468</v>
       </c>
       <c r="I182" t="s">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="J182">
-        <v>38.12480987</v>
+        <v>38.676610599999997</v>
       </c>
       <c r="K182">
-        <v>140.39388650000001</v>
+        <v>140.16416910000001</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.4">
@@ -9067,28 +9085,28 @@
         <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D183" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E183">
-        <v>9994333</v>
+        <v>9995203</v>
       </c>
       <c r="F183" t="s">
-        <v>1032</v>
+        <v>1009</v>
       </c>
       <c r="H183" s="1">
-        <v>44386</v>
+        <v>44434</v>
       </c>
       <c r="I183" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J183">
-        <v>38.569377850000002</v>
+        <v>38.786266300000001</v>
       </c>
       <c r="K183">
-        <v>140.53152080000001</v>
+        <v>140.21882020000001</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.4">
@@ -9096,60 +9114,57 @@
         <v>11</v>
       </c>
       <c r="C184" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D184" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E184">
-        <v>9993702</v>
+        <v>9993114</v>
       </c>
       <c r="F184" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H184" s="1">
-        <v>44383</v>
+        <v>44407</v>
       </c>
       <c r="I184" t="s">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="J184">
-        <v>38.458720290000002</v>
+        <v>38.12480987</v>
       </c>
       <c r="K184">
-        <v>140.39158119999999</v>
+        <v>140.39388650000001</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
-        <v>11</v>
-      </c>
       <c r="B185" t="s">
         <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>938</v>
+        <v>457</v>
       </c>
       <c r="D185" t="s">
-        <v>939</v>
+        <v>458</v>
       </c>
       <c r="E185">
-        <v>9930075</v>
+        <v>9994333</v>
       </c>
       <c r="F185" t="s">
-        <v>937</v>
+        <v>1032</v>
       </c>
       <c r="H185" s="1">
-        <v>44371</v>
+        <v>44386</v>
       </c>
       <c r="I185" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J185">
-        <v>38.120222230000003</v>
+        <v>38.569377850000002</v>
       </c>
       <c r="K185">
-        <v>140.0332889</v>
+        <v>140.53152080000001</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.4">
@@ -9157,57 +9172,60 @@
         <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>1088</v>
+        <v>459</v>
       </c>
       <c r="D186" t="s">
-        <v>1089</v>
+        <v>460</v>
       </c>
       <c r="E186">
-        <v>9970211</v>
+        <v>9993702</v>
       </c>
       <c r="F186" t="s">
-        <v>1090</v>
+        <v>461</v>
       </c>
       <c r="H186" s="1">
-        <v>44525</v>
+        <v>44383</v>
       </c>
       <c r="I186" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="J186">
-        <v>38.708565530000001</v>
+        <v>38.458720290000002</v>
       </c>
       <c r="K186">
-        <v>139.9610606</v>
+        <v>140.39158119999999</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>11</v>
+      </c>
       <c r="B187" t="s">
         <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>972</v>
+        <v>938</v>
       </c>
       <c r="D187" t="s">
-        <v>973</v>
+        <v>939</v>
       </c>
       <c r="E187">
-        <v>9900721</v>
+        <v>9930075</v>
       </c>
       <c r="F187" t="s">
-        <v>974</v>
+        <v>937</v>
       </c>
       <c r="H187" s="1">
-        <v>44518</v>
+        <v>44371</v>
       </c>
       <c r="I187" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J187">
-        <v>38.393942029999998</v>
+        <v>38.120222230000003</v>
       </c>
       <c r="K187">
-        <v>139.99477329999999</v>
+        <v>140.0332889</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.4">
@@ -9215,28 +9233,28 @@
         <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="D188" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="E188">
-        <v>9994333</v>
+        <v>9970211</v>
       </c>
       <c r="F188" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="H188" s="1">
-        <v>44532</v>
+        <v>44525</v>
       </c>
       <c r="I188" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="J188">
-        <v>38.569261079999997</v>
+        <v>38.708565530000001</v>
       </c>
       <c r="K188">
-        <v>140.53184089999999</v>
+        <v>139.9610606</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.4">
@@ -9244,28 +9262,28 @@
         <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>462</v>
+        <v>972</v>
       </c>
       <c r="D189" t="s">
-        <v>463</v>
+        <v>973</v>
       </c>
       <c r="E189">
-        <v>9993242</v>
+        <v>9900721</v>
       </c>
       <c r="F189" t="s">
-        <v>464</v>
+        <v>974</v>
       </c>
       <c r="H189" s="1">
-        <v>44324</v>
+        <v>44518</v>
       </c>
       <c r="I189" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J189">
-        <v>38.148244339999998</v>
+        <v>38.393942029999998</v>
       </c>
       <c r="K189">
-        <v>140.26273</v>
+        <v>139.99477329999999</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.4">
@@ -9273,28 +9291,28 @@
         <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>465</v>
+        <v>1102</v>
       </c>
       <c r="D190" t="s">
-        <v>466</v>
+        <v>1103</v>
       </c>
       <c r="E190">
-        <v>9993156</v>
+        <v>9994333</v>
       </c>
       <c r="F190" t="s">
-        <v>467</v>
+        <v>1104</v>
       </c>
       <c r="H190" s="1">
-        <v>44453</v>
+        <v>44532</v>
       </c>
       <c r="I190" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="J190">
-        <v>38.160390120000002</v>
+        <v>38.569261079999997</v>
       </c>
       <c r="K190">
-        <v>140.27623800000001</v>
+        <v>140.53184089999999</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.4">
@@ -9302,28 +9320,28 @@
         <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D191" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E191">
-        <v>9971117</v>
+        <v>9993242</v>
       </c>
       <c r="F191" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H191" s="1">
-        <v>44342</v>
+        <v>44324</v>
       </c>
       <c r="I191" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J191">
-        <v>38.787796870000001</v>
+        <v>38.148244339999998</v>
       </c>
       <c r="K191">
-        <v>139.7607749</v>
+        <v>140.26273</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.4">
@@ -9331,28 +9349,28 @@
         <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D192" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E192">
-        <v>9971201</v>
+        <v>9993156</v>
       </c>
       <c r="F192" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H192" s="1">
-        <v>44334</v>
+        <v>44453</v>
       </c>
       <c r="I192" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J192">
-        <v>38.782334319999997</v>
+        <v>38.160390120000002</v>
       </c>
       <c r="K192">
-        <v>139.7538232</v>
+        <v>140.27623800000001</v>
       </c>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.4">
@@ -9360,28 +9378,28 @@
         <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D193" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E193">
-        <v>9970752</v>
+        <v>9971117</v>
       </c>
       <c r="F193" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H193" s="1">
-        <v>44487</v>
+        <v>44342</v>
       </c>
       <c r="I193" t="s">
         <v>25</v>
       </c>
       <c r="J193">
-        <v>38.693626639999998</v>
+        <v>38.787796870000001</v>
       </c>
       <c r="K193">
-        <v>139.7693539</v>
+        <v>139.7607749</v>
       </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.4">
@@ -9389,28 +9407,28 @@
         <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D194" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E194">
-        <v>9993242</v>
+        <v>9971201</v>
       </c>
       <c r="F194" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H194" s="1">
-        <v>44354</v>
+        <v>44334</v>
       </c>
       <c r="I194" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J194">
-        <v>38.147948659999997</v>
+        <v>38.782334319999997</v>
       </c>
       <c r="K194">
-        <v>140.26235840000001</v>
+        <v>139.7538232</v>
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.4">
@@ -9418,31 +9436,28 @@
         <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D195" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E195">
-        <v>9993114</v>
+        <v>9970752</v>
       </c>
       <c r="F195" t="s">
-        <v>482</v>
-      </c>
-      <c r="G195" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="H195" s="1">
-        <v>44432</v>
+        <v>44487</v>
       </c>
       <c r="I195" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J195">
-        <v>38.125705570000001</v>
+        <v>38.693626639999998</v>
       </c>
       <c r="K195">
-        <v>140.39327700000001</v>
+        <v>139.7693539</v>
       </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.4">
@@ -9450,28 +9465,28 @@
         <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D196" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E196">
-        <v>9995205</v>
+        <v>9993242</v>
       </c>
       <c r="F196" t="s">
-        <v>1012</v>
+        <v>479</v>
       </c>
       <c r="H196" s="1">
-        <v>44406</v>
+        <v>44354</v>
       </c>
       <c r="I196" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="J196">
-        <v>38.807391789999997</v>
+        <v>38.147948659999997</v>
       </c>
       <c r="K196">
-        <v>140.19906159999999</v>
+        <v>140.26235840000001</v>
       </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.4">
@@ -9479,28 +9494,31 @@
         <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D197" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E197">
-        <v>9997204</v>
+        <v>9993114</v>
       </c>
       <c r="F197" t="s">
-        <v>488</v>
+        <v>482</v>
+      </c>
+      <c r="G197" t="s">
+        <v>483</v>
       </c>
       <c r="H197" s="1">
-        <v>44324</v>
+        <v>44432</v>
       </c>
       <c r="I197" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J197">
-        <v>38.614911990000003</v>
+        <v>38.125705570000001</v>
       </c>
       <c r="K197">
-        <v>139.60723110000001</v>
+        <v>140.39327700000001</v>
       </c>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.4">
@@ -9508,28 +9526,28 @@
         <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D198" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E198">
-        <v>9993702</v>
+        <v>9995205</v>
       </c>
       <c r="F198" t="s">
-        <v>491</v>
+        <v>1012</v>
       </c>
       <c r="H198" s="1">
-        <v>44396</v>
+        <v>44406</v>
       </c>
       <c r="I198" t="s">
-        <v>324</v>
+        <v>152</v>
       </c>
       <c r="J198">
-        <v>38.458225200000001</v>
+        <v>38.807391789999997</v>
       </c>
       <c r="K198">
-        <v>140.38943649999999</v>
+        <v>140.19906159999999</v>
       </c>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.4">
@@ -9537,28 +9555,28 @@
         <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D199" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E199">
-        <v>9960301</v>
+        <v>9997204</v>
       </c>
       <c r="F199" t="s">
-        <v>985</v>
+        <v>488</v>
       </c>
       <c r="H199" s="1">
-        <v>44452</v>
+        <v>44324</v>
       </c>
       <c r="I199" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J199">
-        <v>38.606919320000003</v>
+        <v>38.614911990000003</v>
       </c>
       <c r="K199">
-        <v>140.16582740000001</v>
+        <v>139.60723110000001</v>
       </c>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.4">
@@ -9566,28 +9584,28 @@
         <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="D200" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="E200">
-        <v>9900039</v>
+        <v>9993702</v>
       </c>
       <c r="F200" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="H200" s="1">
-        <v>44398</v>
+        <v>44396</v>
       </c>
       <c r="I200" t="s">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="J200">
-        <v>38.249989309999997</v>
+        <v>38.458225200000001</v>
       </c>
       <c r="K200">
-        <v>140.33010039999999</v>
+        <v>140.38943649999999</v>
       </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.4">
@@ -9595,28 +9613,28 @@
         <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="D201" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="E201">
-        <v>9900039</v>
+        <v>9960301</v>
       </c>
       <c r="F201" t="s">
-        <v>513</v>
+        <v>985</v>
       </c>
       <c r="H201" s="1">
-        <v>44491</v>
+        <v>44452</v>
       </c>
       <c r="I201" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="J201">
-        <v>38.245077600000002</v>
+        <v>38.606919320000003</v>
       </c>
       <c r="K201">
-        <v>140.32910140000001</v>
+        <v>140.16582740000001</v>
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.4">
@@ -9624,28 +9642,28 @@
         <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D202" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E202">
-        <v>9930066</v>
+        <v>9900039</v>
       </c>
       <c r="F202" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H202" s="1">
-        <v>44413</v>
+        <v>44398</v>
       </c>
       <c r="I202" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="J202">
-        <v>38.090310840000001</v>
+        <v>38.249989309999997</v>
       </c>
       <c r="K202">
-        <v>140.03695279999999</v>
+        <v>140.33010039999999</v>
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
@@ -9653,28 +9671,28 @@
         <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D203" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E203">
-        <v>9940025</v>
+        <v>9900039</v>
       </c>
       <c r="F203" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H203" s="1">
-        <v>44324</v>
+        <v>44491</v>
       </c>
       <c r="I203" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="J203">
-        <v>38.35763747</v>
+        <v>38.245077600000002</v>
       </c>
       <c r="K203">
-        <v>140.380134</v>
+        <v>140.32910140000001</v>
       </c>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
@@ -9682,28 +9700,28 @@
         <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D204" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E204">
-        <v>9994227</v>
+        <v>9930066</v>
       </c>
       <c r="F204" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H204" s="1">
-        <v>44455</v>
+        <v>44413</v>
       </c>
       <c r="I204" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="J204">
-        <v>38.605867750000002</v>
+        <v>38.090310840000001</v>
       </c>
       <c r="K204">
-        <v>140.4039295</v>
+        <v>140.03695279999999</v>
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.4">
@@ -9711,28 +9729,28 @@
         <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>1091</v>
+        <v>516</v>
       </c>
       <c r="D205" t="s">
-        <v>1092</v>
+        <v>517</v>
       </c>
       <c r="E205">
-        <v>9992241</v>
+        <v>9940025</v>
       </c>
       <c r="F205" t="s">
-        <v>1093</v>
+        <v>518</v>
       </c>
       <c r="H205" s="1">
-        <v>44530</v>
+        <v>44324</v>
       </c>
       <c r="I205" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="J205">
-        <v>38.04563812</v>
+        <v>38.35763747</v>
       </c>
       <c r="K205">
-        <v>140.1502481</v>
+        <v>140.380134</v>
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.4">
@@ -9740,28 +9758,28 @@
         <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D206" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E206">
-        <v>9940057</v>
+        <v>9994227</v>
       </c>
       <c r="F206" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H206" s="1">
-        <v>44414</v>
+        <v>44455</v>
       </c>
       <c r="I206" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="J206">
-        <v>38.320275219999999</v>
+        <v>38.605867750000002</v>
       </c>
       <c r="K206">
-        <v>140.3683336</v>
+        <v>140.4039295</v>
       </c>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.4">
@@ -9769,28 +9787,28 @@
         <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>494</v>
+        <v>1091</v>
       </c>
       <c r="D207" t="s">
-        <v>495</v>
+        <v>1092</v>
       </c>
       <c r="E207">
-        <v>9993511</v>
+        <v>9992241</v>
       </c>
       <c r="F207" t="s">
-        <v>496</v>
+        <v>1093</v>
       </c>
       <c r="H207" s="1">
-        <v>44390</v>
+        <v>44530</v>
       </c>
       <c r="I207" t="s">
-        <v>497</v>
+        <v>15</v>
       </c>
       <c r="J207">
-        <v>38.417398970000001</v>
+        <v>38.04563812</v>
       </c>
       <c r="K207">
-        <v>140.32186780000001</v>
+        <v>140.1502481</v>
       </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.4">
@@ -9798,28 +9816,28 @@
         <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="D208" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="E208">
-        <v>9900402</v>
+        <v>9940057</v>
       </c>
       <c r="F208" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="H208" s="1">
-        <v>44391</v>
+        <v>44414</v>
       </c>
       <c r="I208" t="s">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="J208">
-        <v>38.341159900000001</v>
+        <v>38.320275219999999</v>
       </c>
       <c r="K208">
-        <v>140.27563689999999</v>
+        <v>140.3683336</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.4">
@@ -9827,28 +9845,28 @@
         <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>525</v>
+        <v>494</v>
       </c>
       <c r="D209" t="s">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="E209">
-        <v>9940025</v>
+        <v>9993511</v>
       </c>
       <c r="F209" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="H209" s="1">
-        <v>44363</v>
+        <v>44390</v>
       </c>
       <c r="I209" t="s">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="J209">
-        <v>38.359386270000002</v>
+        <v>38.417398970000001</v>
       </c>
       <c r="K209">
-        <v>140.3820063</v>
+        <v>140.32186780000001</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.4">
@@ -9856,28 +9874,28 @@
         <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D210" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E210">
-        <v>9996105</v>
+        <v>9900402</v>
       </c>
       <c r="F210" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H210" s="1">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="I210" t="s">
-        <v>48</v>
+        <v>357</v>
       </c>
       <c r="J210">
-        <v>38.707967449999998</v>
+        <v>38.341159900000001</v>
       </c>
       <c r="K210">
-        <v>140.55149589999999</v>
+        <v>140.27563689999999</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.4">
@@ -9885,31 +9903,28 @@
         <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="D211" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="E211">
-        <v>9993114</v>
+        <v>9940025</v>
       </c>
       <c r="F211" t="s">
-        <v>482</v>
-      </c>
-      <c r="G211" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="H211" s="1">
-        <v>44391</v>
+        <v>44363</v>
       </c>
       <c r="I211" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="J211">
-        <v>38.124542429999998</v>
+        <v>38.359386270000002</v>
       </c>
       <c r="K211">
-        <v>140.39495199999999</v>
+        <v>140.3820063</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.4">
@@ -9917,28 +9932,28 @@
         <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D212" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E212">
-        <v>9902333</v>
+        <v>9996105</v>
       </c>
       <c r="F212" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H212" s="1">
-        <v>44372</v>
+        <v>44446</v>
       </c>
       <c r="I212" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J212">
-        <v>38.21228378</v>
+        <v>38.707967449999998</v>
       </c>
       <c r="K212">
-        <v>140.33508800000001</v>
+        <v>140.55149589999999</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.4">
@@ -9946,28 +9961,31 @@
         <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="D213" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="E213">
-        <v>9971201</v>
+        <v>9993114</v>
       </c>
       <c r="F213" t="s">
-        <v>530</v>
+        <v>482</v>
+      </c>
+      <c r="G213" t="s">
+        <v>483</v>
       </c>
       <c r="H213" s="1">
-        <v>44348</v>
+        <v>44391</v>
       </c>
       <c r="I213" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J213">
-        <v>38.779910139999998</v>
+        <v>38.124542429999998</v>
       </c>
       <c r="K213">
-        <v>139.75145649999999</v>
+        <v>140.39495199999999</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.4">
@@ -9975,28 +9993,28 @@
         <v>11</v>
       </c>
       <c r="C214" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="D214" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="E214">
-        <v>9920023</v>
+        <v>9902333</v>
       </c>
       <c r="F214" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="H214" s="1">
-        <v>44328</v>
+        <v>44372</v>
       </c>
       <c r="I214" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J214">
-        <v>37.919593650000003</v>
+        <v>38.21228378</v>
       </c>
       <c r="K214">
-        <v>140.12033030000001</v>
+        <v>140.33508800000001</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.4">
@@ -10004,28 +10022,28 @@
         <v>11</v>
       </c>
       <c r="C215" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D215" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E215">
-        <v>9993720</v>
+        <v>9971201</v>
       </c>
       <c r="F215" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H215" s="1">
-        <v>44431</v>
+        <v>44348</v>
       </c>
       <c r="I215" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="J215">
-        <v>38.428425130000001</v>
+        <v>38.779910139999998</v>
       </c>
       <c r="K215">
-        <v>140.38397399999999</v>
+        <v>139.75145649999999</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.4">
@@ -10033,28 +10051,28 @@
         <v>11</v>
       </c>
       <c r="C216" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D216" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E216">
-        <v>9960301</v>
+        <v>9920023</v>
       </c>
       <c r="F216" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="H216" s="1">
-        <v>44447</v>
+        <v>44328</v>
       </c>
       <c r="I216" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="J216">
-        <v>38.608330559999999</v>
+        <v>37.919593650000003</v>
       </c>
       <c r="K216">
-        <v>140.1661751</v>
+        <v>140.12033030000001</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.4">
@@ -10062,28 +10080,28 @@
         <v>11</v>
       </c>
       <c r="C217" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D217" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E217">
-        <v>9920076</v>
+        <v>9993720</v>
       </c>
       <c r="F217" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H217" s="1">
-        <v>44344</v>
+        <v>44431</v>
       </c>
       <c r="I217" t="s">
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="J217">
-        <v>37.879841800000001</v>
+        <v>38.428425130000001</v>
       </c>
       <c r="K217">
-        <v>140.05561349999999</v>
+        <v>140.38397399999999</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.4">
@@ -10091,28 +10109,28 @@
         <v>11</v>
       </c>
       <c r="C218" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D218" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E218">
-        <v>9993112</v>
+        <v>9960301</v>
       </c>
       <c r="F218" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="H218" s="1">
-        <v>44369</v>
+        <v>44447</v>
       </c>
       <c r="I218" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="J218">
-        <v>38.15990274</v>
+        <v>38.608330559999999</v>
       </c>
       <c r="K218">
-        <v>140.37795510000001</v>
+        <v>140.1661751</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.4">
@@ -10120,28 +10138,28 @@
         <v>11</v>
       </c>
       <c r="C219" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D219" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E219">
-        <v>9921461</v>
+        <v>9920076</v>
       </c>
       <c r="F219" t="s">
-        <v>1048</v>
+        <v>542</v>
       </c>
       <c r="H219" s="1">
-        <v>44498</v>
+        <v>44344</v>
       </c>
       <c r="I219" t="s">
         <v>36</v>
       </c>
       <c r="J219">
-        <v>37.776938520000002</v>
+        <v>37.879841800000001</v>
       </c>
       <c r="K219">
-        <v>140.13559369999999</v>
+        <v>140.05561349999999</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.4">
@@ -10149,28 +10167,28 @@
         <v>11</v>
       </c>
       <c r="C220" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D220" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E220">
         <v>9993112</v>
       </c>
       <c r="F220" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H220" s="1">
-        <v>44375</v>
+        <v>44369</v>
       </c>
       <c r="I220" t="s">
         <v>45</v>
       </c>
       <c r="J220">
-        <v>38.159695249999999</v>
+        <v>38.15990274</v>
       </c>
       <c r="K220">
-        <v>140.37950280000001</v>
+        <v>140.37795510000001</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.4">
@@ -10178,585 +10196,585 @@
         <v>11</v>
       </c>
       <c r="C221" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D221" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E221">
-        <v>9993112</v>
+        <v>9921461</v>
       </c>
       <c r="F221" t="s">
-        <v>551</v>
+        <v>1048</v>
       </c>
       <c r="H221" s="1">
-        <v>44441</v>
+        <v>44498</v>
       </c>
       <c r="I221" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J221">
-        <v>38.159045169999999</v>
+        <v>37.776938520000002</v>
       </c>
       <c r="K221">
-        <v>140.37854129999999</v>
+        <v>140.13559369999999</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A222" t="s">
-        <v>11</v>
-      </c>
       <c r="B222" t="s">
         <v>11</v>
       </c>
       <c r="C222" t="s">
-        <v>920</v>
+        <v>546</v>
       </c>
       <c r="D222" t="s">
-        <v>921</v>
+        <v>546</v>
       </c>
       <c r="E222">
         <v>9993112</v>
       </c>
       <c r="F222" t="s">
-        <v>922</v>
+        <v>547</v>
       </c>
       <c r="H222" s="1">
-        <v>44391</v>
+        <v>44375</v>
       </c>
       <c r="I222" t="s">
         <v>45</v>
       </c>
       <c r="J222">
-        <v>38.159705500000001</v>
+        <v>38.159695249999999</v>
       </c>
       <c r="K222">
-        <v>140.37882300000001</v>
+        <v>140.37950280000001</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A223" t="s">
-        <v>11</v>
-      </c>
       <c r="B223" t="s">
         <v>11</v>
       </c>
       <c r="C223" t="s">
-        <v>923</v>
+        <v>549</v>
       </c>
       <c r="D223" t="s">
-        <v>923</v>
+        <v>550</v>
       </c>
       <c r="E223">
         <v>9993112</v>
       </c>
       <c r="F223" t="s">
-        <v>924</v>
+        <v>551</v>
       </c>
       <c r="H223" s="1">
-        <v>44368</v>
+        <v>44441</v>
       </c>
       <c r="I223" t="s">
         <v>45</v>
       </c>
       <c r="J223">
-        <v>38.159917239999999</v>
+        <v>38.159045169999999</v>
       </c>
       <c r="K223">
-        <v>140.37790770000001</v>
+        <v>140.37854129999999</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A224" t="s">
+        <v>11</v>
+      </c>
       <c r="B224" t="s">
         <v>11</v>
       </c>
       <c r="C224" t="s">
-        <v>552</v>
+        <v>920</v>
       </c>
       <c r="D224" t="s">
-        <v>552</v>
+        <v>921</v>
       </c>
       <c r="E224">
         <v>9993112</v>
       </c>
       <c r="F224" t="s">
-        <v>553</v>
+        <v>922</v>
       </c>
       <c r="H224" s="1">
-        <v>44504</v>
+        <v>44391</v>
       </c>
       <c r="I224" t="s">
         <v>45</v>
       </c>
       <c r="J224">
-        <v>38.15983877</v>
+        <v>38.159705500000001</v>
       </c>
       <c r="K224">
-        <v>140.37913789999999</v>
-      </c>
-    </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.4">
+        <v>140.37882300000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
+        <v>11</v>
+      </c>
       <c r="B225" t="s">
         <v>11</v>
       </c>
       <c r="C225" t="s">
-        <v>554</v>
+        <v>923</v>
       </c>
       <c r="D225" t="s">
-        <v>554</v>
+        <v>923</v>
       </c>
       <c r="E225">
         <v>9993112</v>
       </c>
       <c r="F225" t="s">
-        <v>555</v>
+        <v>924</v>
       </c>
       <c r="H225" s="1">
-        <v>44441</v>
+        <v>44368</v>
       </c>
       <c r="I225" t="s">
         <v>45</v>
       </c>
       <c r="J225">
-        <v>38.159430370000003</v>
+        <v>38.159917239999999</v>
       </c>
       <c r="K225">
-        <v>140.37863239999999</v>
-      </c>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.4">
+        <v>140.37790770000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B226" t="s">
         <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D226" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E226">
         <v>9993112</v>
       </c>
       <c r="F226" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H226" s="1">
-        <v>44412</v>
+        <v>44504</v>
       </c>
       <c r="I226" t="s">
         <v>45</v>
       </c>
       <c r="J226">
+        <v>38.15983877</v>
+      </c>
+      <c r="K226">
+        <v>140.37913789999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" t="s">
+        <v>554</v>
+      </c>
+      <c r="D227" t="s">
+        <v>554</v>
+      </c>
+      <c r="E227">
+        <v>9993112</v>
+      </c>
+      <c r="F227" t="s">
+        <v>555</v>
+      </c>
+      <c r="H227" s="1">
+        <v>44441</v>
+      </c>
+      <c r="I227" t="s">
+        <v>45</v>
+      </c>
+      <c r="J227">
+        <v>38.159430370000003</v>
+      </c>
+      <c r="K227">
+        <v>140.37863239999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" t="s">
+        <v>556</v>
+      </c>
+      <c r="D228" t="s">
+        <v>556</v>
+      </c>
+      <c r="E228">
+        <v>9993112</v>
+      </c>
+      <c r="F228" t="s">
+        <v>557</v>
+      </c>
+      <c r="H228" s="1">
+        <v>44412</v>
+      </c>
+      <c r="I228" t="s">
+        <v>45</v>
+      </c>
+      <c r="J228">
         <v>38.159571919999998</v>
       </c>
-      <c r="K226">
+      <c r="K228">
         <v>140.37917049999999</v>
       </c>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B227" t="s">
-        <v>11</v>
-      </c>
-      <c r="C227" t="s">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B229" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" t="s">
         <v>558</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D229" t="s">
         <v>558</v>
-      </c>
-      <c r="E227">
-        <v>9921461</v>
-      </c>
-      <c r="F227" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H227" s="1">
-        <v>44448</v>
-      </c>
-      <c r="I227" t="s">
-        <v>36</v>
-      </c>
-      <c r="J227">
-        <v>37.776980100000003</v>
-      </c>
-      <c r="K227">
-        <v>140.13519239999999</v>
-      </c>
-    </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B228" t="s">
-        <v>11</v>
-      </c>
-      <c r="C228" t="s">
-        <v>559</v>
-      </c>
-      <c r="D228" t="s">
-        <v>560</v>
-      </c>
-      <c r="E228">
-        <v>9921121</v>
-      </c>
-      <c r="F228" t="s">
-        <v>561</v>
-      </c>
-      <c r="H228" s="1">
-        <v>44413</v>
-      </c>
-      <c r="I228" t="s">
-        <v>36</v>
-      </c>
-      <c r="J228">
-        <v>37.862133700000001</v>
-      </c>
-      <c r="K228">
-        <v>140.2382672</v>
-      </c>
-    </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B229" t="s">
-        <v>11</v>
-      </c>
-      <c r="C229" t="s">
-        <v>562</v>
-      </c>
-      <c r="D229" t="s">
-        <v>563</v>
       </c>
       <c r="E229">
         <v>9921461</v>
       </c>
       <c r="F229" t="s">
-        <v>564</v>
+        <v>1046</v>
       </c>
       <c r="H229" s="1">
-        <v>44498</v>
+        <v>44448</v>
       </c>
       <c r="I229" t="s">
         <v>36</v>
       </c>
       <c r="J229">
+        <v>37.776980100000003</v>
+      </c>
+      <c r="K229">
+        <v>140.13519239999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B230" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" t="s">
+        <v>559</v>
+      </c>
+      <c r="D230" t="s">
+        <v>560</v>
+      </c>
+      <c r="E230">
+        <v>9921121</v>
+      </c>
+      <c r="F230" t="s">
+        <v>561</v>
+      </c>
+      <c r="H230" s="1">
+        <v>44413</v>
+      </c>
+      <c r="I230" t="s">
+        <v>36</v>
+      </c>
+      <c r="J230">
+        <v>37.862133700000001</v>
+      </c>
+      <c r="K230">
+        <v>140.2382672</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B231" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" t="s">
+        <v>562</v>
+      </c>
+      <c r="D231" t="s">
+        <v>563</v>
+      </c>
+      <c r="E231">
+        <v>9921461</v>
+      </c>
+      <c r="F231" t="s">
+        <v>564</v>
+      </c>
+      <c r="H231" s="1">
+        <v>44498</v>
+      </c>
+      <c r="I231" t="s">
+        <v>36</v>
+      </c>
+      <c r="J231">
         <v>37.777220800000002</v>
       </c>
-      <c r="K229">
+      <c r="K231">
         <v>140.135728</v>
       </c>
     </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B230" t="s">
-        <v>11</v>
-      </c>
-      <c r="C230" t="s">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B232" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" t="s">
         <v>565</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D232" t="s">
         <v>566</v>
       </c>
-      <c r="E230">
+      <c r="E232">
         <v>9993112</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F232" t="s">
         <v>567</v>
       </c>
-      <c r="H230" s="1">
+      <c r="H232" s="1">
         <v>44476</v>
-      </c>
-      <c r="I230" t="s">
-        <v>45</v>
-      </c>
-      <c r="J230">
-        <v>38.159483809999998</v>
-      </c>
-      <c r="K230">
-        <v>140.37947550000001</v>
-      </c>
-    </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B231" t="s">
-        <v>11</v>
-      </c>
-      <c r="C231" t="s">
-        <v>568</v>
-      </c>
-      <c r="D231" t="s">
-        <v>569</v>
-      </c>
-      <c r="E231">
-        <v>9993114</v>
-      </c>
-      <c r="F231" t="s">
-        <v>570</v>
-      </c>
-      <c r="H231" s="1">
-        <v>44391</v>
-      </c>
-      <c r="I231" t="s">
-        <v>45</v>
-      </c>
-      <c r="J231">
-        <v>38.124378900000004</v>
-      </c>
-      <c r="K231">
-        <v>140.40869029999999</v>
-      </c>
-    </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" t="s">
-        <v>11</v>
-      </c>
-      <c r="C232" t="s">
-        <v>571</v>
-      </c>
-      <c r="D232" t="s">
-        <v>571</v>
-      </c>
-      <c r="E232">
-        <v>9993114</v>
-      </c>
-      <c r="F232" t="s">
-        <v>276</v>
-      </c>
-      <c r="H232" s="1">
-        <v>44398</v>
       </c>
       <c r="I232" t="s">
         <v>45</v>
       </c>
       <c r="J232">
-        <v>38.124849230000002</v>
+        <v>38.159483809999998</v>
       </c>
       <c r="K232">
-        <v>140.39355649999999</v>
-      </c>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.4">
+        <v>140.37947550000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B233" t="s">
         <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D233" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E233">
-        <v>9921461</v>
+        <v>9993114</v>
       </c>
       <c r="F233" t="s">
-        <v>1049</v>
+        <v>570</v>
       </c>
       <c r="H233" s="1">
         <v>44391</v>
       </c>
       <c r="I233" t="s">
+        <v>45</v>
+      </c>
+      <c r="J233">
+        <v>38.124378900000004</v>
+      </c>
+      <c r="K233">
+        <v>140.40869029999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B234" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" t="s">
+        <v>571</v>
+      </c>
+      <c r="D234" t="s">
+        <v>571</v>
+      </c>
+      <c r="E234">
+        <v>9993114</v>
+      </c>
+      <c r="F234" t="s">
+        <v>276</v>
+      </c>
+      <c r="H234" s="1">
+        <v>44398</v>
+      </c>
+      <c r="I234" t="s">
+        <v>45</v>
+      </c>
+      <c r="J234">
+        <v>38.124849230000002</v>
+      </c>
+      <c r="K234">
+        <v>140.39355649999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B235" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" t="s">
+        <v>572</v>
+      </c>
+      <c r="D235" t="s">
+        <v>573</v>
+      </c>
+      <c r="E235">
+        <v>9921461</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H235" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I235" t="s">
         <v>36</v>
       </c>
-      <c r="J233">
+      <c r="J235">
         <v>37.77772324</v>
       </c>
-      <c r="K233">
+      <c r="K235">
         <v>140.13578699999999</v>
       </c>
     </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B234" t="s">
-        <v>11</v>
-      </c>
-      <c r="C234" t="s">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B236" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" t="s">
         <v>576</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D236" t="s">
         <v>577</v>
       </c>
-      <c r="E234">
+      <c r="E236">
         <v>9902301</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F236" t="s">
         <v>578</v>
       </c>
-      <c r="H234" s="1">
+      <c r="H236" s="1">
         <v>44413</v>
       </c>
-      <c r="I234" t="s">
+      <c r="I236" t="s">
         <v>32</v>
       </c>
-      <c r="J234">
+      <c r="J236">
         <v>38.162945700000002</v>
       </c>
-      <c r="K234">
+      <c r="K236">
         <v>140.39471090000001</v>
       </c>
     </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B235" t="s">
-        <v>11</v>
-      </c>
-      <c r="C235" t="s">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B237" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" t="s">
         <v>574</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D237" t="s">
         <v>574</v>
       </c>
-      <c r="E235">
+      <c r="E237">
         <v>9993114</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F237" t="s">
         <v>575</v>
       </c>
-      <c r="H235" s="1">
+      <c r="H237" s="1">
         <v>44501</v>
       </c>
-      <c r="I235" t="s">
+      <c r="I237" t="s">
         <v>45</v>
       </c>
-      <c r="J235">
+      <c r="J237">
         <v>38.125451310000003</v>
       </c>
-      <c r="K235">
+      <c r="K237">
         <v>140.39358139999999</v>
       </c>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B236" t="s">
-        <v>11</v>
-      </c>
-      <c r="C236" t="s">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B238" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" t="s">
         <v>579</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D238" t="s">
         <v>580</v>
       </c>
-      <c r="E236">
+      <c r="E238">
         <v>9920076</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F238" t="s">
         <v>581</v>
       </c>
-      <c r="H236" s="1">
+      <c r="H238" s="1">
         <v>44372</v>
       </c>
-      <c r="I236" t="s">
+      <c r="I238" t="s">
         <v>36</v>
       </c>
-      <c r="J236">
+      <c r="J238">
         <v>37.880881309999999</v>
       </c>
-      <c r="K236">
+      <c r="K238">
         <v>140.05243150000001</v>
       </c>
     </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B237" t="s">
-        <v>11</v>
-      </c>
-      <c r="C237" t="s">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B239" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239" t="s">
         <v>582</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D239" t="s">
         <v>583</v>
       </c>
-      <c r="E237">
+      <c r="E239">
         <v>9970021</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F239" t="s">
         <v>584</v>
       </c>
-      <c r="H237" s="1">
+      <c r="H239" s="1">
         <v>44427</v>
-      </c>
-      <c r="I237" t="s">
-        <v>25</v>
-      </c>
-      <c r="J237">
-        <v>38.736110500000002</v>
-      </c>
-      <c r="K237">
-        <v>139.83616559999999</v>
-      </c>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B238" t="s">
-        <v>11</v>
-      </c>
-      <c r="C238" t="s">
-        <v>585</v>
-      </c>
-      <c r="D238" t="s">
-        <v>586</v>
-      </c>
-      <c r="E238">
-        <v>9996211</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H238" s="1">
-        <v>44342</v>
-      </c>
-      <c r="I238" t="s">
-        <v>48</v>
-      </c>
-      <c r="J238">
-        <v>38.754444530000001</v>
-      </c>
-      <c r="K238">
-        <v>140.4125779</v>
-      </c>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B239" t="s">
-        <v>11</v>
-      </c>
-      <c r="C239" t="s">
-        <v>587</v>
-      </c>
-      <c r="D239" t="s">
-        <v>588</v>
-      </c>
-      <c r="E239">
-        <v>9970011</v>
-      </c>
-      <c r="F239" t="s">
-        <v>589</v>
-      </c>
-      <c r="H239" s="1">
-        <v>44333</v>
       </c>
       <c r="I239" t="s">
         <v>25</v>
       </c>
       <c r="J239">
-        <v>38.739648559999999</v>
+        <v>38.736110500000002</v>
       </c>
       <c r="K239">
-        <v>139.83698649999999</v>
-      </c>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.4">
+        <v>139.83616559999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B240" t="s">
         <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D240" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E240">
-        <v>9990602</v>
+        <v>9996211</v>
       </c>
       <c r="F240" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="H240" s="1">
-        <v>44392</v>
+        <v>44342</v>
       </c>
       <c r="I240" t="s">
-        <v>304</v>
+        <v>48</v>
       </c>
       <c r="J240">
-        <v>38.062876950000003</v>
+        <v>38.754444530000001</v>
       </c>
       <c r="K240">
-        <v>139.99177370000001</v>
+        <v>140.4125779</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.4">
@@ -10764,28 +10782,28 @@
         <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D241" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E241">
-        <v>9960002</v>
+        <v>9970011</v>
       </c>
       <c r="F241" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H241" s="1">
-        <v>44453</v>
+        <v>44333</v>
       </c>
       <c r="I241" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="J241">
-        <v>38.750298600000001</v>
+        <v>38.739648559999999</v>
       </c>
       <c r="K241">
-        <v>140.31033439999999</v>
+        <v>139.83698649999999</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.4">
@@ -10793,28 +10811,28 @@
         <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D242" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E242">
-        <v>9900031</v>
+        <v>9990602</v>
       </c>
       <c r="F242" t="s">
-        <v>595</v>
+        <v>1023</v>
       </c>
       <c r="H242" s="1">
-        <v>44357</v>
+        <v>44392</v>
       </c>
       <c r="I242" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="J242">
-        <v>38.246562859999997</v>
+        <v>38.062876950000003</v>
       </c>
       <c r="K242">
-        <v>140.33349150000001</v>
+        <v>139.99177370000001</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.4">
@@ -10822,28 +10840,28 @@
         <v>11</v>
       </c>
       <c r="C243" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D243" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E243">
-        <v>9900039</v>
+        <v>9960002</v>
       </c>
       <c r="F243" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H243" s="1">
-        <v>44424</v>
+        <v>44453</v>
       </c>
       <c r="I243" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="J243">
-        <v>38.250842540000001</v>
+        <v>38.750298600000001</v>
       </c>
       <c r="K243">
-        <v>140.32959650000001</v>
+        <v>140.31033439999999</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.4">
@@ -10851,28 +10869,28 @@
         <v>11</v>
       </c>
       <c r="C244" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D244" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E244">
-        <v>9980828</v>
+        <v>9900031</v>
       </c>
       <c r="F244" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="H244" s="1">
-        <v>44386</v>
+        <v>44357</v>
       </c>
       <c r="I244" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="J244">
-        <v>38.891120200000003</v>
+        <v>38.246562859999997</v>
       </c>
       <c r="K244">
-        <v>139.85003080000001</v>
+        <v>140.33349150000001</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.4">
@@ -10880,28 +10898,28 @@
         <v>11</v>
       </c>
       <c r="C245" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D245" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E245">
-        <v>9970857</v>
+        <v>9900039</v>
       </c>
       <c r="F245" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="H245" s="1">
-        <v>44351</v>
+        <v>44424</v>
       </c>
       <c r="I245" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J245">
-        <v>38.735079769999999</v>
+        <v>38.250842540000001</v>
       </c>
       <c r="K245">
-        <v>139.79695459999999</v>
+        <v>140.32959650000001</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.4">
@@ -10909,28 +10927,28 @@
         <v>11</v>
       </c>
       <c r="C246" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D246" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E246">
-        <v>9930041</v>
+        <v>9980828</v>
       </c>
       <c r="F246" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H246" s="1">
-        <v>44329</v>
+        <v>44386</v>
       </c>
       <c r="I246" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="J246">
-        <v>38.090858420000004</v>
+        <v>38.891120200000003</v>
       </c>
       <c r="K246">
-        <v>140.03452160000001</v>
+        <v>139.85003080000001</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.4">
@@ -10938,28 +10956,28 @@
         <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D247" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E247">
-        <v>9940025</v>
+        <v>9970857</v>
       </c>
       <c r="F247" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H247" s="1">
-        <v>44426</v>
+        <v>44351</v>
       </c>
       <c r="I247" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J247">
-        <v>38.359594250000001</v>
+        <v>38.735079769999999</v>
       </c>
       <c r="K247">
-        <v>140.3813701</v>
+        <v>139.79695459999999</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.4">
@@ -10967,60 +10985,57 @@
         <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D248" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E248">
-        <v>9902301</v>
+        <v>9930041</v>
       </c>
       <c r="F248" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H248" s="1">
-        <v>44413</v>
+        <v>44329</v>
       </c>
       <c r="I248" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J248">
-        <v>38.171771300000003</v>
+        <v>38.090858420000004</v>
       </c>
       <c r="K248">
-        <v>140.3965523</v>
+        <v>140.03452160000001</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A249" t="s">
-        <v>11</v>
-      </c>
       <c r="B249" t="s">
         <v>11</v>
       </c>
       <c r="C249" t="s">
-        <v>945</v>
+        <v>607</v>
       </c>
       <c r="D249" t="s">
-        <v>946</v>
+        <v>608</v>
       </c>
       <c r="E249">
-        <v>9920027</v>
+        <v>9940025</v>
       </c>
       <c r="F249" t="s">
-        <v>947</v>
+        <v>609</v>
       </c>
       <c r="H249" s="1">
-        <v>44480</v>
+        <v>44426</v>
       </c>
       <c r="I249" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="J249">
-        <v>37.90953391</v>
+        <v>38.359594250000001</v>
       </c>
       <c r="K249">
-        <v>140.1267192</v>
+        <v>140.3813701</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.4">
@@ -11028,57 +11043,60 @@
         <v>11</v>
       </c>
       <c r="C250" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D250" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E250">
-        <v>9900031</v>
+        <v>9902301</v>
       </c>
       <c r="F250" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H250" s="1">
-        <v>44357</v>
+        <v>44413</v>
       </c>
       <c r="I250" t="s">
         <v>32</v>
       </c>
       <c r="J250">
-        <v>38.245843729999997</v>
+        <v>38.171771300000003</v>
       </c>
       <c r="K250">
-        <v>140.3345741</v>
+        <v>140.3965523</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
+        <v>11</v>
+      </c>
       <c r="B251" t="s">
         <v>11</v>
       </c>
       <c r="C251" t="s">
-        <v>614</v>
+        <v>945</v>
       </c>
       <c r="D251" t="s">
-        <v>615</v>
+        <v>946</v>
       </c>
       <c r="E251">
-        <v>9900038</v>
+        <v>9920027</v>
       </c>
       <c r="F251" t="s">
-        <v>616</v>
+        <v>947</v>
       </c>
       <c r="H251" s="1">
-        <v>44491</v>
+        <v>44480</v>
       </c>
       <c r="I251" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J251">
-        <v>38.243262999999999</v>
+        <v>37.90953391</v>
       </c>
       <c r="K251">
-        <v>140.32729140000001</v>
+        <v>140.1267192</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.4">
@@ -11086,28 +11104,28 @@
         <v>11</v>
       </c>
       <c r="C252" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D252" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E252">
-        <v>9902301</v>
+        <v>9900031</v>
       </c>
       <c r="F252" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="H252" s="1">
-        <v>44361</v>
+        <v>44357</v>
       </c>
       <c r="I252" t="s">
         <v>32</v>
       </c>
       <c r="J252">
-        <v>38.16336673</v>
+        <v>38.245843729999997</v>
       </c>
       <c r="K252">
-        <v>140.3952347</v>
+        <v>140.3345741</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.4">
@@ -11115,31 +11133,28 @@
         <v>11</v>
       </c>
       <c r="C253" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D253" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E253">
-        <v>9900039</v>
+        <v>9900038</v>
       </c>
       <c r="F253" t="s">
-        <v>622</v>
-      </c>
-      <c r="G253" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="H253" s="1">
-        <v>44463</v>
+        <v>44491</v>
       </c>
       <c r="I253" t="s">
         <v>32</v>
       </c>
       <c r="J253">
-        <v>38.248550610000002</v>
+        <v>38.243262999999999</v>
       </c>
       <c r="K253">
-        <v>140.33044630000001</v>
+        <v>140.32729140000001</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.4">
@@ -11147,28 +11162,28 @@
         <v>11</v>
       </c>
       <c r="C254" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D254" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E254">
-        <v>9900031</v>
+        <v>9902301</v>
       </c>
       <c r="F254" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="H254" s="1">
-        <v>44355</v>
+        <v>44361</v>
       </c>
       <c r="I254" t="s">
         <v>32</v>
       </c>
       <c r="J254">
-        <v>38.249477120000002</v>
+        <v>38.16336673</v>
       </c>
       <c r="K254">
-        <v>140.33468619999999</v>
+        <v>140.3952347</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.4">
@@ -11176,28 +11191,31 @@
         <v>11</v>
       </c>
       <c r="C255" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D255" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E255">
-        <v>9995205</v>
+        <v>9900039</v>
       </c>
       <c r="F255" t="s">
-        <v>1011</v>
+        <v>622</v>
+      </c>
+      <c r="G255" t="s">
+        <v>623</v>
       </c>
       <c r="H255" s="1">
-        <v>44393</v>
+        <v>44463</v>
       </c>
       <c r="I255" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="J255">
-        <v>38.815128020000003</v>
+        <v>38.248550610000002</v>
       </c>
       <c r="K255">
-        <v>140.1523803</v>
+        <v>140.33044630000001</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.4">
@@ -11205,28 +11223,28 @@
         <v>11</v>
       </c>
       <c r="C256" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D256" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E256">
-        <v>9910031</v>
+        <v>9900031</v>
       </c>
       <c r="F256" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H256" s="1">
-        <v>44441</v>
+        <v>44355</v>
       </c>
       <c r="I256" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="J256">
-        <v>38.374331699999999</v>
+        <v>38.249477120000002</v>
       </c>
       <c r="K256">
-        <v>140.2736318</v>
+        <v>140.33468619999999</v>
       </c>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.4">
@@ -11234,28 +11252,28 @@
         <v>11</v>
       </c>
       <c r="C257" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D257" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E257">
-        <v>9997464</v>
+        <v>9995205</v>
       </c>
       <c r="F257" t="s">
-        <v>632</v>
+        <v>1011</v>
       </c>
       <c r="H257" s="1">
-        <v>44334</v>
+        <v>44393</v>
       </c>
       <c r="I257" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="J257">
-        <v>38.725201050000003</v>
+        <v>38.815128020000003</v>
       </c>
       <c r="K257">
-        <v>139.6940457</v>
+        <v>140.1523803</v>
       </c>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.4">
@@ -11263,28 +11281,28 @@
         <v>11</v>
       </c>
       <c r="C258" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D258" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E258">
-        <v>9995401</v>
+        <v>9910031</v>
       </c>
       <c r="F258" t="s">
-        <v>955</v>
+        <v>629</v>
       </c>
       <c r="H258" s="1">
-        <v>44378</v>
+        <v>44441</v>
       </c>
       <c r="I258" t="s">
-        <v>635</v>
+        <v>144</v>
       </c>
       <c r="J258">
-        <v>38.916760099999998</v>
+        <v>38.374331699999999</v>
       </c>
       <c r="K258">
-        <v>140.3937182</v>
+        <v>140.2736318</v>
       </c>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.4">
@@ -11292,28 +11310,28 @@
         <v>11</v>
       </c>
       <c r="C259" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D259" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E259">
-        <v>9901574</v>
+        <v>9997464</v>
       </c>
       <c r="F259" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="H259" s="1">
-        <v>44427</v>
+        <v>44334</v>
       </c>
       <c r="I259" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="J259">
-        <v>38.304984449999999</v>
+        <v>38.725201050000003</v>
       </c>
       <c r="K259">
-        <v>140.05849129999999</v>
+        <v>139.6940457</v>
       </c>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.4">
@@ -11321,28 +11339,28 @@
         <v>11</v>
       </c>
       <c r="C260" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D260" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E260">
-        <v>9910041</v>
+        <v>9995401</v>
       </c>
       <c r="F260" t="s">
-        <v>640</v>
+        <v>955</v>
       </c>
       <c r="H260" s="1">
-        <v>44449</v>
+        <v>44378</v>
       </c>
       <c r="I260" t="s">
-        <v>144</v>
+        <v>635</v>
       </c>
       <c r="J260">
-        <v>38.36403206</v>
+        <v>38.916760099999998</v>
       </c>
       <c r="K260">
-        <v>140.256371</v>
+        <v>140.3937182</v>
       </c>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.4">
@@ -11350,28 +11368,28 @@
         <v>11</v>
       </c>
       <c r="C261" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D261" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E261">
-        <v>9910053</v>
+        <v>9901574</v>
       </c>
       <c r="F261" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H261" s="1">
-        <v>44397</v>
+        <v>44427</v>
       </c>
       <c r="I261" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
       <c r="J261">
-        <v>38.371741299999996</v>
+        <v>38.304984449999999</v>
       </c>
       <c r="K261">
-        <v>140.2736486</v>
+        <v>140.05849129999999</v>
       </c>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.4">
@@ -11379,28 +11397,28 @@
         <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D262" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E262">
-        <v>9970028</v>
+        <v>9910041</v>
       </c>
       <c r="F262" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="H262" s="1">
-        <v>44404</v>
+        <v>44449</v>
       </c>
       <c r="I262" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="J262">
-        <v>38.731767320000003</v>
+        <v>38.36403206</v>
       </c>
       <c r="K262">
-        <v>139.8332369</v>
+        <v>140.256371</v>
       </c>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.4">
@@ -11408,28 +11426,28 @@
         <v>11</v>
       </c>
       <c r="C263" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D263" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E263">
-        <v>9900042</v>
+        <v>9910053</v>
       </c>
       <c r="F263" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="H263" s="1">
-        <v>44413</v>
+        <v>44397</v>
       </c>
       <c r="I263" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="J263">
-        <v>38.253592400000002</v>
+        <v>38.371741299999996</v>
       </c>
       <c r="K263">
-        <v>140.33972879999999</v>
+        <v>140.2736486</v>
       </c>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.4">
@@ -11437,28 +11455,28 @@
         <v>11</v>
       </c>
       <c r="C264" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D264" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E264">
-        <v>9910031</v>
+        <v>9970028</v>
       </c>
       <c r="F264" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H264" s="1">
-        <v>44413</v>
+        <v>44404</v>
       </c>
       <c r="I264" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="J264">
-        <v>38.374873899999997</v>
+        <v>38.731767320000003</v>
       </c>
       <c r="K264">
-        <v>140.27410180000001</v>
+        <v>139.8332369</v>
       </c>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.4">
@@ -11466,28 +11484,28 @@
         <v>11</v>
       </c>
       <c r="C265" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D265" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E265">
-        <v>9920031</v>
+        <v>9900042</v>
       </c>
       <c r="F265" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="H265" s="1">
-        <v>44440</v>
+        <v>44413</v>
       </c>
       <c r="I265" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J265">
-        <v>37.908717500000002</v>
+        <v>38.253592400000002</v>
       </c>
       <c r="K265">
-        <v>140.11518150000001</v>
+        <v>140.33972879999999</v>
       </c>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.4">
@@ -11495,28 +11513,28 @@
         <v>11</v>
       </c>
       <c r="C266" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D266" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E266">
-        <v>9971117</v>
+        <v>9910031</v>
       </c>
       <c r="F266" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="H266" s="1">
         <v>44413</v>
       </c>
       <c r="I266" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="J266">
-        <v>38.784716029999998</v>
+        <v>38.374873899999997</v>
       </c>
       <c r="K266">
-        <v>139.75978140000001</v>
+        <v>140.27410180000001</v>
       </c>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.4">
@@ -11524,28 +11542,28 @@
         <v>11</v>
       </c>
       <c r="C267" t="s">
-        <v>1054</v>
+        <v>652</v>
       </c>
       <c r="D267" t="s">
-        <v>1055</v>
+        <v>653</v>
       </c>
       <c r="E267">
-        <v>9900039</v>
+        <v>9920031</v>
       </c>
       <c r="F267" t="s">
-        <v>1056</v>
+        <v>654</v>
       </c>
       <c r="H267" s="1">
-        <v>44505</v>
+        <v>44440</v>
       </c>
       <c r="I267" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J267">
-        <v>38.249645000000001</v>
+        <v>37.908717500000002</v>
       </c>
       <c r="K267">
-        <v>140.32948709999999</v>
+        <v>140.11518150000001</v>
       </c>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.4">
@@ -11553,28 +11571,28 @@
         <v>11</v>
       </c>
       <c r="C268" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D268" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E268">
-        <v>9940024</v>
+        <v>9971117</v>
       </c>
       <c r="F268" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H268" s="1">
-        <v>44349</v>
+        <v>44413</v>
       </c>
       <c r="I268" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J268">
-        <v>38.361099959999997</v>
+        <v>38.784716029999998</v>
       </c>
       <c r="K268">
-        <v>140.38315130000001</v>
+        <v>139.75978140000001</v>
       </c>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.4">
@@ -11582,28 +11600,28 @@
         <v>11</v>
       </c>
       <c r="C269" t="s">
-        <v>661</v>
+        <v>1054</v>
       </c>
       <c r="D269" t="s">
-        <v>662</v>
+        <v>1055</v>
       </c>
       <c r="E269">
-        <v>9920033</v>
+        <v>9900039</v>
       </c>
       <c r="F269" t="s">
-        <v>663</v>
+        <v>1056</v>
       </c>
       <c r="H269" s="1">
-        <v>44358</v>
+        <v>44505</v>
       </c>
       <c r="I269" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J269">
-        <v>37.900386449999999</v>
+        <v>38.249645000000001</v>
       </c>
       <c r="K269">
-        <v>140.120743</v>
+        <v>140.32948709999999</v>
       </c>
     </row>
     <row r="270" spans="2:11" x14ac:dyDescent="0.4">
@@ -11611,28 +11629,28 @@
         <v>11</v>
       </c>
       <c r="C270" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D270" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E270">
-        <v>9920039</v>
+        <v>9940024</v>
       </c>
       <c r="F270" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="H270" s="1">
-        <v>44370</v>
+        <v>44349</v>
       </c>
       <c r="I270" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="J270">
-        <v>37.910604669999998</v>
+        <v>38.361099959999997</v>
       </c>
       <c r="K270">
-        <v>140.11131839999999</v>
+        <v>140.38315130000001</v>
       </c>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.4">
@@ -11640,28 +11658,28 @@
         <v>11</v>
       </c>
       <c r="C271" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D271" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E271">
-        <v>9902301</v>
+        <v>9920033</v>
       </c>
       <c r="F271" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="H271" s="1">
-        <v>44355</v>
+        <v>44358</v>
       </c>
       <c r="I271" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J271">
-        <v>38.162662410000003</v>
+        <v>37.900386449999999</v>
       </c>
       <c r="K271">
-        <v>140.3922091</v>
+        <v>140.120743</v>
       </c>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.4">
@@ -11669,959 +11687,959 @@
         <v>11</v>
       </c>
       <c r="C272" t="s">
+        <v>664</v>
+      </c>
+      <c r="D272" t="s">
+        <v>665</v>
+      </c>
+      <c r="E272">
+        <v>9920039</v>
+      </c>
+      <c r="F272" t="s">
+        <v>666</v>
+      </c>
+      <c r="H272" s="1">
+        <v>44370</v>
+      </c>
+      <c r="I272" t="s">
+        <v>36</v>
+      </c>
+      <c r="J272">
+        <v>37.910604669999998</v>
+      </c>
+      <c r="K272">
+        <v>140.11131839999999</v>
+      </c>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B273" t="s">
+        <v>11</v>
+      </c>
+      <c r="C273" t="s">
+        <v>667</v>
+      </c>
+      <c r="D273" t="s">
+        <v>668</v>
+      </c>
+      <c r="E273">
+        <v>9902301</v>
+      </c>
+      <c r="F273" t="s">
+        <v>669</v>
+      </c>
+      <c r="H273" s="1">
+        <v>44355</v>
+      </c>
+      <c r="I273" t="s">
+        <v>32</v>
+      </c>
+      <c r="J273">
+        <v>38.162662410000003</v>
+      </c>
+      <c r="K273">
+        <v>140.3922091</v>
+      </c>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B274" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274" t="s">
         <v>670</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D274" t="s">
         <v>671</v>
       </c>
-      <c r="E272">
+      <c r="E274">
         <v>9900039</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F274" t="s">
         <v>672</v>
       </c>
-      <c r="H272" s="1">
+      <c r="H274" s="1">
         <v>44326</v>
-      </c>
-      <c r="I272" t="s">
-        <v>32</v>
-      </c>
-      <c r="J272">
-        <v>38.24830283</v>
-      </c>
-      <c r="K272">
-        <v>140.32761880000001</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B273" t="s">
-        <v>11</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D273" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E273">
-        <v>9920039</v>
-      </c>
-      <c r="F273" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H273" s="1">
-        <v>44512</v>
-      </c>
-      <c r="I273" t="s">
-        <v>36</v>
-      </c>
-      <c r="J273">
-        <v>37.912169990000002</v>
-      </c>
-      <c r="K273">
-        <v>140.11018379999999</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B274" t="s">
-        <v>11</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D274" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E274">
-        <v>9902301</v>
-      </c>
-      <c r="F274" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H274" s="1">
-        <v>44508</v>
       </c>
       <c r="I274" t="s">
         <v>32</v>
       </c>
       <c r="J274">
-        <v>38.165301900000003</v>
+        <v>38.24830283</v>
       </c>
       <c r="K274">
-        <v>140.3987703</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.4">
+        <v>140.32761880000001</v>
+      </c>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B275" t="s">
         <v>11</v>
       </c>
       <c r="C275" t="s">
-        <v>673</v>
+        <v>1051</v>
       </c>
       <c r="D275" t="s">
-        <v>674</v>
+        <v>1052</v>
       </c>
       <c r="E275">
-        <v>9980834</v>
+        <v>9920039</v>
       </c>
       <c r="F275" t="s">
-        <v>675</v>
+        <v>1053</v>
       </c>
       <c r="H275" s="1">
-        <v>44357</v>
+        <v>44512</v>
       </c>
       <c r="I275" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="J275">
-        <v>38.907936499999998</v>
+        <v>37.912169990000002</v>
       </c>
       <c r="K275">
-        <v>139.8354989</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.4">
+        <v>140.11018379999999</v>
+      </c>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B276" t="s">
         <v>11</v>
       </c>
       <c r="C276" t="s">
-        <v>676</v>
+        <v>1064</v>
       </c>
       <c r="D276" t="s">
-        <v>676</v>
+        <v>1065</v>
       </c>
       <c r="E276">
         <v>9902301</v>
       </c>
       <c r="F276" t="s">
-        <v>677</v>
+        <v>1066</v>
       </c>
       <c r="H276" s="1">
-        <v>44452</v>
+        <v>44508</v>
       </c>
       <c r="I276" t="s">
         <v>32</v>
       </c>
       <c r="J276">
+        <v>38.165301900000003</v>
+      </c>
+      <c r="K276">
+        <v>140.3987703</v>
+      </c>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B277" t="s">
+        <v>11</v>
+      </c>
+      <c r="C277" t="s">
+        <v>673</v>
+      </c>
+      <c r="D277" t="s">
+        <v>674</v>
+      </c>
+      <c r="E277">
+        <v>9980834</v>
+      </c>
+      <c r="F277" t="s">
+        <v>675</v>
+      </c>
+      <c r="H277" s="1">
+        <v>44357</v>
+      </c>
+      <c r="I277" t="s">
+        <v>121</v>
+      </c>
+      <c r="J277">
+        <v>38.907936499999998</v>
+      </c>
+      <c r="K277">
+        <v>139.8354989</v>
+      </c>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B278" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" t="s">
+        <v>676</v>
+      </c>
+      <c r="D278" t="s">
+        <v>676</v>
+      </c>
+      <c r="E278">
+        <v>9902301</v>
+      </c>
+      <c r="F278" t="s">
+        <v>677</v>
+      </c>
+      <c r="H278" s="1">
+        <v>44452</v>
+      </c>
+      <c r="I278" t="s">
+        <v>32</v>
+      </c>
+      <c r="J278">
         <v>38.164980110000002</v>
       </c>
-      <c r="K276">
+      <c r="K278">
         <v>140.39450220000001</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B277" t="s">
-        <v>11</v>
-      </c>
-      <c r="C277" t="s">
+    <row r="279" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B279" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" t="s">
         <v>678</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D279" t="s">
         <v>679</v>
       </c>
-      <c r="E277">
+      <c r="E279">
         <v>9960002</v>
       </c>
-      <c r="F277" t="s">
+      <c r="F279" t="s">
         <v>680</v>
       </c>
-      <c r="H277" s="1">
+      <c r="H279" s="1">
         <v>44487</v>
       </c>
-      <c r="I277" t="s">
+      <c r="I279" t="s">
         <v>156</v>
       </c>
-      <c r="J277">
+      <c r="J279">
         <v>38.763232100000003</v>
       </c>
-      <c r="K277">
+      <c r="K279">
         <v>140.30699999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B278" t="s">
-        <v>11</v>
-      </c>
-      <c r="C278" t="s">
+    <row r="280" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" t="s">
         <v>681</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D280" t="s">
         <v>682</v>
       </c>
-      <c r="E278">
+      <c r="E280">
         <v>9970047</v>
       </c>
-      <c r="F278" t="s">
+      <c r="F280" t="s">
         <v>683</v>
       </c>
-      <c r="H278" s="1">
+      <c r="H280" s="1">
         <v>44455</v>
       </c>
-      <c r="I278" t="s">
+      <c r="I280" t="s">
         <v>25</v>
       </c>
-      <c r="J278">
+      <c r="J280">
         <v>38.7355971</v>
       </c>
-      <c r="K278">
+      <c r="K280">
         <v>139.80807279999999</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B279" t="s">
-        <v>11</v>
-      </c>
-      <c r="C279" t="s">
+    <row r="281" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281" t="s">
         <v>684</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D281" t="s">
         <v>685</v>
       </c>
-      <c r="E279">
+      <c r="E281">
         <v>9902331</v>
       </c>
-      <c r="F279" t="s">
+      <c r="F281" t="s">
         <v>686</v>
       </c>
-      <c r="H279" s="1">
+      <c r="H281" s="1">
         <v>44488</v>
       </c>
-      <c r="I279" t="s">
+      <c r="I281" t="s">
         <v>32</v>
       </c>
-      <c r="J279">
+      <c r="J281">
         <v>38.21666561</v>
       </c>
-      <c r="K279">
+      <c r="K281">
         <v>140.3231753</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B280" t="s">
-        <v>11</v>
-      </c>
-      <c r="C280" t="s">
+    <row r="282" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B282" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" t="s">
         <v>687</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D282" t="s">
         <v>688</v>
       </c>
-      <c r="E280">
+      <c r="E282">
         <v>9940025</v>
       </c>
-      <c r="F280" t="s">
+      <c r="F282" t="s">
         <v>689</v>
       </c>
-      <c r="H280" s="1">
+      <c r="H282" s="1">
         <v>44351</v>
       </c>
-      <c r="I280" t="s">
+      <c r="I282" t="s">
         <v>79</v>
       </c>
-      <c r="J280">
+      <c r="J282">
         <v>38.358273189999998</v>
       </c>
-      <c r="K280">
+      <c r="K282">
         <v>140.38260249999999</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B281" t="s">
-        <v>11</v>
-      </c>
-      <c r="C281" t="s">
+    <row r="283" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B283" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283" t="s">
         <v>690</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D283" t="s">
         <v>691</v>
       </c>
-      <c r="E281">
+      <c r="E283">
         <v>9940025</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F283" t="s">
         <v>692</v>
       </c>
-      <c r="H281" s="1">
+      <c r="H283" s="1">
         <v>44385</v>
       </c>
-      <c r="I281" t="s">
+      <c r="I283" t="s">
         <v>79</v>
       </c>
-      <c r="J281">
+      <c r="J283">
         <v>38.358837719999997</v>
       </c>
-      <c r="K281">
+      <c r="K283">
         <v>140.3806921</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B282" t="s">
-        <v>11</v>
-      </c>
-      <c r="C282" t="s">
+    <row r="284" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B284" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284" t="s">
         <v>693</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D284" t="s">
         <v>694</v>
       </c>
-      <c r="E282">
+      <c r="E284">
         <v>9992211</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F284" t="s">
         <v>695</v>
       </c>
-      <c r="H282" s="1">
+      <c r="H284" s="1">
         <v>44384</v>
       </c>
-      <c r="I282" t="s">
+      <c r="I284" t="s">
         <v>15</v>
       </c>
-      <c r="J282">
+      <c r="J284">
         <v>38.045697760000003</v>
       </c>
-      <c r="K282">
+      <c r="K284">
         <v>140.16713390000001</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B283" t="s">
-        <v>11</v>
-      </c>
-      <c r="C283" t="s">
+    <row r="285" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B285" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" t="s">
         <v>696</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D285" t="s">
         <v>697</v>
       </c>
-      <c r="E283">
+      <c r="E285">
         <v>9997464</v>
       </c>
-      <c r="F283" t="s">
+      <c r="F285" t="s">
         <v>698</v>
       </c>
-      <c r="H283" s="1">
+      <c r="H285" s="1">
         <v>44456</v>
       </c>
-      <c r="I283" t="s">
+      <c r="I285" t="s">
         <v>25</v>
       </c>
-      <c r="J283">
+      <c r="J285">
         <v>38.720860010000003</v>
       </c>
-      <c r="K283">
+      <c r="K285">
         <v>139.68945859999999</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B284" t="s">
-        <v>11</v>
-      </c>
-      <c r="C284" t="s">
+    <row r="286" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" t="s">
         <v>699</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D286" t="s">
         <v>700</v>
-      </c>
-      <c r="E284">
-        <v>9960301</v>
-      </c>
-      <c r="F284" t="s">
-        <v>701</v>
-      </c>
-      <c r="H284" s="1">
-        <v>44447</v>
-      </c>
-      <c r="I284" t="s">
-        <v>85</v>
-      </c>
-      <c r="J284">
-        <v>38.607474170000003</v>
-      </c>
-      <c r="K284">
-        <v>140.16669390000001</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B285" t="s">
-        <v>11</v>
-      </c>
-      <c r="C285" t="s">
-        <v>702</v>
-      </c>
-      <c r="D285" t="s">
-        <v>703</v>
-      </c>
-      <c r="E285">
-        <v>9900734</v>
-      </c>
-      <c r="F285" t="s">
-        <v>704</v>
-      </c>
-      <c r="H285" s="1">
-        <v>44383</v>
-      </c>
-      <c r="I285" t="s">
-        <v>18</v>
-      </c>
-      <c r="J285">
-        <v>38.491204699999997</v>
-      </c>
-      <c r="K285">
-        <v>140.00007450000001</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B286" t="s">
-        <v>11</v>
-      </c>
-      <c r="C286" t="s">
-        <v>705</v>
-      </c>
-      <c r="D286" t="s">
-        <v>706</v>
       </c>
       <c r="E286">
         <v>9960301</v>
       </c>
       <c r="F286" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="H286" s="1">
-        <v>44483</v>
+        <v>44447</v>
       </c>
       <c r="I286" t="s">
         <v>85</v>
       </c>
       <c r="J286">
+        <v>38.607474170000003</v>
+      </c>
+      <c r="K286">
+        <v>140.16669390000001</v>
+      </c>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B287" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287" t="s">
+        <v>702</v>
+      </c>
+      <c r="D287" t="s">
+        <v>703</v>
+      </c>
+      <c r="E287">
+        <v>9900734</v>
+      </c>
+      <c r="F287" t="s">
+        <v>704</v>
+      </c>
+      <c r="H287" s="1">
+        <v>44383</v>
+      </c>
+      <c r="I287" t="s">
+        <v>18</v>
+      </c>
+      <c r="J287">
+        <v>38.491204699999997</v>
+      </c>
+      <c r="K287">
+        <v>140.00007450000001</v>
+      </c>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B288" t="s">
+        <v>11</v>
+      </c>
+      <c r="C288" t="s">
+        <v>705</v>
+      </c>
+      <c r="D288" t="s">
+        <v>706</v>
+      </c>
+      <c r="E288">
+        <v>9960301</v>
+      </c>
+      <c r="F288" t="s">
+        <v>707</v>
+      </c>
+      <c r="H288" s="1">
+        <v>44483</v>
+      </c>
+      <c r="I288" t="s">
+        <v>85</v>
+      </c>
+      <c r="J288">
         <v>38.607840019999998</v>
       </c>
-      <c r="K286">
+      <c r="K288">
         <v>140.16668300000001</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B287" t="s">
-        <v>11</v>
-      </c>
-      <c r="C287" t="s">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B289" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289" t="s">
         <v>708</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D289" t="s">
         <v>709</v>
       </c>
-      <c r="E287">
+      <c r="E289">
         <v>9996211</v>
       </c>
-      <c r="F287" t="s">
+      <c r="F289" t="s">
         <v>997</v>
       </c>
-      <c r="H287" s="1">
+      <c r="H289" s="1">
         <v>44426</v>
       </c>
-      <c r="I287" t="s">
+      <c r="I289" t="s">
         <v>48</v>
       </c>
-      <c r="J287">
+      <c r="J289">
         <v>38.754166159999997</v>
       </c>
-      <c r="K287">
+      <c r="K289">
         <v>140.41070740000001</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A288" t="s">
-        <v>11</v>
-      </c>
-      <c r="B288" t="s">
-        <v>11</v>
-      </c>
-      <c r="C288" t="s">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A290" t="s">
+        <v>11</v>
+      </c>
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" t="s">
         <v>927</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D290" t="s">
         <v>928</v>
       </c>
-      <c r="E288">
+      <c r="E290">
         <v>9995311</v>
       </c>
-      <c r="F288" t="s">
+      <c r="F290" t="s">
         <v>929</v>
       </c>
-      <c r="H288" s="1">
+      <c r="H290" s="1">
         <v>44363</v>
       </c>
-      <c r="I288" t="s">
+      <c r="I290" t="s">
         <v>441</v>
       </c>
-      <c r="J288">
+      <c r="J290">
         <v>38.866926489999997</v>
       </c>
-      <c r="K288">
+      <c r="K290">
         <v>140.28156279999999</v>
       </c>
     </row>
-    <row r="289" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B289" t="s">
-        <v>11</v>
-      </c>
-      <c r="C289" t="s">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B291" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" t="s">
         <v>1034</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D291" t="s">
         <v>1035</v>
       </c>
-      <c r="E289">
+      <c r="E291">
         <v>9920027</v>
       </c>
-      <c r="F289" t="s">
+      <c r="F291" t="s">
         <v>1036</v>
       </c>
-      <c r="H289" s="1">
+      <c r="H291" s="1">
         <v>44518</v>
       </c>
-      <c r="I289" t="s">
+      <c r="I291" t="s">
         <v>36</v>
       </c>
-      <c r="J289">
+      <c r="J291">
         <v>37.910426020000003</v>
       </c>
-      <c r="K289">
+      <c r="K291">
         <v>140.12193930000001</v>
       </c>
     </row>
-    <row r="290" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B290" t="s">
-        <v>11</v>
-      </c>
-      <c r="C290" t="s">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B292" t="s">
+        <v>11</v>
+      </c>
+      <c r="C292" t="s">
         <v>710</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D292" t="s">
         <v>711</v>
       </c>
-      <c r="E290">
+      <c r="E292">
         <v>9996105</v>
       </c>
-      <c r="F290" t="s">
+      <c r="F292" t="s">
         <v>1008</v>
       </c>
-      <c r="H290" s="1">
+      <c r="H292" s="1">
         <v>44407</v>
       </c>
-      <c r="I290" t="s">
+      <c r="I292" t="s">
         <v>48</v>
       </c>
-      <c r="J290">
+      <c r="J292">
         <v>38.71033302</v>
       </c>
-      <c r="K290">
+      <c r="K292">
         <v>140.55333619999999</v>
       </c>
     </row>
-    <row r="291" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B291" t="s">
-        <v>11</v>
-      </c>
-      <c r="C291" t="s">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293" t="s">
         <v>712</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D293" t="s">
         <v>713</v>
       </c>
-      <c r="E291">
+      <c r="E293">
         <v>9980281</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F293" t="s">
         <v>714</v>
       </c>
-      <c r="H291" s="1">
+      <c r="H293" s="1">
         <v>44428</v>
       </c>
-      <c r="I291" t="s">
+      <c r="I293" t="s">
         <v>121</v>
       </c>
-      <c r="J291">
+      <c r="J293">
         <v>39.186396459999997</v>
       </c>
-      <c r="K291">
+      <c r="K293">
         <v>139.54693040000001</v>
       </c>
     </row>
-    <row r="292" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B292" t="s">
-        <v>11</v>
-      </c>
-      <c r="C292" t="s">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" t="s">
         <v>715</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D294" t="s">
         <v>716</v>
       </c>
-      <c r="E292">
+      <c r="E294">
         <v>9902301</v>
       </c>
-      <c r="F292" t="s">
+      <c r="F294" t="s">
         <v>717</v>
       </c>
-      <c r="H292" s="1">
+      <c r="H294" s="1">
         <v>44455</v>
       </c>
-      <c r="I292" t="s">
+      <c r="I294" t="s">
         <v>32</v>
       </c>
-      <c r="J292">
+      <c r="J294">
         <v>38.168863819999999</v>
       </c>
-      <c r="K292">
+      <c r="K294">
         <v>140.3977668</v>
       </c>
     </row>
-    <row r="293" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B293" t="s">
-        <v>11</v>
-      </c>
-      <c r="C293" t="s">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" t="s">
         <v>718</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D295" t="s">
         <v>719</v>
       </c>
-      <c r="E293">
+      <c r="E295">
         <v>9997126</v>
       </c>
-      <c r="F293" t="s">
+      <c r="F295" t="s">
         <v>720</v>
       </c>
-      <c r="H293" s="1">
+      <c r="H295" s="1">
         <v>44434</v>
       </c>
-      <c r="I293" t="s">
+      <c r="I295" t="s">
         <v>25</v>
       </c>
-      <c r="J293">
+      <c r="J295">
         <v>38.557965160000002</v>
       </c>
-      <c r="K293">
+      <c r="K295">
         <v>139.54645260000001</v>
       </c>
     </row>
-    <row r="294" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B294" t="s">
-        <v>11</v>
-      </c>
-      <c r="C294" t="s">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B296" t="s">
+        <v>11</v>
+      </c>
+      <c r="C296" t="s">
         <v>721</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D296" t="s">
         <v>722</v>
       </c>
-      <c r="E294">
+      <c r="E296">
         <v>9997126</v>
       </c>
-      <c r="F294" t="s">
+      <c r="F296" t="s">
         <v>723</v>
       </c>
-      <c r="H294" s="1">
+      <c r="H296" s="1">
         <v>44384</v>
       </c>
-      <c r="I294" t="s">
+      <c r="I296" t="s">
         <v>25</v>
       </c>
-      <c r="J294">
+      <c r="J296">
         <v>38.558639919999997</v>
       </c>
-      <c r="K294">
+      <c r="K296">
         <v>139.54853080000001</v>
       </c>
     </row>
-    <row r="295" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B295" t="s">
-        <v>11</v>
-      </c>
-      <c r="C295" t="s">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B297" t="s">
+        <v>11</v>
+      </c>
+      <c r="C297" t="s">
         <v>724</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D297" t="s">
         <v>725</v>
       </c>
-      <c r="E295">
+      <c r="E297">
         <v>9991522</v>
       </c>
-      <c r="F295" t="s">
+      <c r="F297" t="s">
         <v>963</v>
       </c>
-      <c r="H295" s="1">
+      <c r="H297" s="1">
         <v>44435</v>
       </c>
-      <c r="I295" t="s">
+      <c r="I297" t="s">
         <v>130</v>
       </c>
-      <c r="J295">
+      <c r="J297">
         <v>37.953314640000002</v>
       </c>
-      <c r="K295">
+      <c r="K297">
         <v>139.66479659999999</v>
       </c>
     </row>
-    <row r="296" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B296" t="s">
-        <v>11</v>
-      </c>
-      <c r="C296" t="s">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B298" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" t="s">
         <v>726</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D298" t="s">
         <v>727</v>
       </c>
-      <c r="E296">
+      <c r="E298">
         <v>9991452</v>
       </c>
-      <c r="F296" t="s">
+      <c r="F298" t="s">
         <v>728</v>
       </c>
-      <c r="H296" s="1">
+      <c r="H298" s="1">
         <v>44414</v>
       </c>
-      <c r="I296" t="s">
+      <c r="I298" t="s">
         <v>130</v>
       </c>
-      <c r="J296">
+      <c r="J298">
         <v>38.15220987</v>
       </c>
-      <c r="K296">
+      <c r="K298">
         <v>139.7801135</v>
       </c>
     </row>
-    <row r="297" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B297" t="s">
-        <v>11</v>
-      </c>
-      <c r="C297" t="s">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B299" t="s">
+        <v>11</v>
+      </c>
+      <c r="C299" t="s">
         <v>729</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D299" t="s">
         <v>730</v>
       </c>
-      <c r="E297">
+      <c r="E299">
         <v>9900721</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F299" t="s">
         <v>975</v>
       </c>
-      <c r="H297" s="1">
+      <c r="H299" s="1">
         <v>44463</v>
       </c>
-      <c r="I297" t="s">
+      <c r="I299" t="s">
         <v>18</v>
       </c>
-      <c r="J297">
+      <c r="J299">
         <v>38.39626423</v>
       </c>
-      <c r="K297">
+      <c r="K299">
         <v>139.9943418</v>
       </c>
     </row>
-    <row r="298" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B298" t="s">
-        <v>11</v>
-      </c>
-      <c r="C298" t="s">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B300" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" t="s">
         <v>731</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D300" t="s">
         <v>732</v>
       </c>
-      <c r="E298">
+      <c r="E300">
         <v>9996403</v>
       </c>
-      <c r="F298" t="s">
+      <c r="F300" t="s">
         <v>733</v>
       </c>
-      <c r="H298" s="1">
+      <c r="H300" s="1">
         <v>44442</v>
       </c>
-      <c r="I298" t="s">
+      <c r="I300" t="s">
         <v>350</v>
       </c>
-      <c r="J298">
+      <c r="J300">
         <v>38.6768754</v>
       </c>
-      <c r="K298">
+      <c r="K300">
         <v>140.16444419999999</v>
       </c>
     </row>
-    <row r="299" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B299" t="s">
-        <v>11</v>
-      </c>
-      <c r="C299" t="s">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B301" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" t="s">
         <v>734</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D301" t="s">
         <v>735</v>
       </c>
-      <c r="E299">
+      <c r="E301">
         <v>9980281</v>
       </c>
-      <c r="F299" t="s">
+      <c r="F301" t="s">
         <v>736</v>
       </c>
-      <c r="H299" s="1">
+      <c r="H301" s="1">
         <v>44488</v>
       </c>
-      <c r="I299" t="s">
+      <c r="I301" t="s">
         <v>121</v>
       </c>
-      <c r="J299">
+      <c r="J301">
         <v>39.188121000000002</v>
       </c>
-      <c r="K299">
+      <c r="K301">
         <v>139.54785519999999</v>
       </c>
     </row>
-    <row r="300" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B300" t="s">
-        <v>11</v>
-      </c>
-      <c r="C300" t="s">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B302" t="s">
+        <v>11</v>
+      </c>
+      <c r="C302" t="s">
         <v>737</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D302" t="s">
         <v>738</v>
       </c>
-      <c r="E300">
+      <c r="E302">
         <v>9993702</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F302" t="s">
         <v>739</v>
       </c>
-      <c r="H300" s="1">
+      <c r="H302" s="1">
         <v>44456</v>
       </c>
-      <c r="I300" t="s">
+      <c r="I302" t="s">
         <v>324</v>
       </c>
-      <c r="J300">
+      <c r="J302">
         <v>38.458598209999998</v>
       </c>
-      <c r="K300">
+      <c r="K302">
         <v>140.3904095</v>
       </c>
     </row>
-    <row r="301" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B301" t="s">
-        <v>11</v>
-      </c>
-      <c r="C301" t="s">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B303" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" t="s">
         <v>740</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D303" t="s">
         <v>741</v>
       </c>
-      <c r="E301">
+      <c r="E303">
         <v>9970034</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F303" t="s">
         <v>742</v>
       </c>
-      <c r="H301" s="1">
+      <c r="H303" s="1">
         <v>44368</v>
       </c>
-      <c r="I301" t="s">
+      <c r="I303" t="s">
         <v>25</v>
       </c>
-      <c r="J301">
+      <c r="J303">
         <v>38.729259849999998</v>
       </c>
-      <c r="K301">
+      <c r="K303">
         <v>139.83199020000001</v>
       </c>
     </row>
-    <row r="302" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B302" t="s">
-        <v>11</v>
-      </c>
-      <c r="C302" t="s">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B304" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" t="s">
         <v>743</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D304" t="s">
         <v>744</v>
       </c>
-      <c r="E302">
+      <c r="E304">
         <v>9950038</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F304" t="s">
         <v>745</v>
       </c>
-      <c r="H302" s="1">
+      <c r="H304" s="1">
         <v>44411</v>
       </c>
-      <c r="I302" t="s">
+      <c r="I304" t="s">
         <v>196</v>
       </c>
-      <c r="J302">
+      <c r="J304">
         <v>38.477221819999997</v>
       </c>
-      <c r="K302">
+      <c r="K304">
         <v>140.385873</v>
-      </c>
-    </row>
-    <row r="303" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B303" t="s">
-        <v>11</v>
-      </c>
-      <c r="C303" t="s">
-        <v>746</v>
-      </c>
-      <c r="D303" t="s">
-        <v>747</v>
-      </c>
-      <c r="E303">
-        <v>9993242</v>
-      </c>
-      <c r="F303" t="s">
-        <v>748</v>
-      </c>
-      <c r="H303" s="1">
-        <v>44329</v>
-      </c>
-      <c r="I303" t="s">
-        <v>45</v>
-      </c>
-      <c r="J303">
-        <v>38.150745239999999</v>
-      </c>
-      <c r="K303">
-        <v>140.2603896</v>
-      </c>
-    </row>
-    <row r="304" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B304" t="s">
-        <v>11</v>
-      </c>
-      <c r="C304" t="s">
-        <v>749</v>
-      </c>
-      <c r="D304" t="s">
-        <v>750</v>
-      </c>
-      <c r="E304">
-        <v>9902301</v>
-      </c>
-      <c r="F304" t="s">
-        <v>751</v>
-      </c>
-      <c r="H304" s="1">
-        <v>44413</v>
-      </c>
-      <c r="I304" t="s">
-        <v>32</v>
-      </c>
-      <c r="J304">
-        <v>38.168247899999997</v>
-      </c>
-      <c r="K304">
-        <v>140.3976893</v>
       </c>
     </row>
     <row r="305" spans="2:11" x14ac:dyDescent="0.4">
@@ -12629,28 +12647,28 @@
         <v>11</v>
       </c>
       <c r="C305" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D305" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E305">
-        <v>9902301</v>
+        <v>9993242</v>
       </c>
       <c r="F305" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="H305" s="1">
-        <v>44435</v>
+        <v>44329</v>
       </c>
       <c r="I305" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J305">
-        <v>38.168000980000002</v>
+        <v>38.150745239999999</v>
       </c>
       <c r="K305">
-        <v>140.3997172</v>
+        <v>140.2603896</v>
       </c>
     </row>
     <row r="306" spans="2:11" x14ac:dyDescent="0.4">
@@ -12658,28 +12676,28 @@
         <v>11</v>
       </c>
       <c r="C306" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D306" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E306">
-        <v>9994116</v>
+        <v>9902301</v>
       </c>
       <c r="F306" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="H306" s="1">
-        <v>44392</v>
+        <v>44413</v>
       </c>
       <c r="I306" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J306">
-        <v>38.594754160000001</v>
+        <v>38.168247899999997</v>
       </c>
       <c r="K306">
-        <v>140.37505440000001</v>
+        <v>140.3976893</v>
       </c>
     </row>
     <row r="307" spans="2:11" x14ac:dyDescent="0.4">
@@ -12687,28 +12705,28 @@
         <v>11</v>
       </c>
       <c r="C307" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D307" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E307">
-        <v>9992211</v>
+        <v>9902301</v>
       </c>
       <c r="F307" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="H307" s="1">
-        <v>44364</v>
+        <v>44435</v>
       </c>
       <c r="I307" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J307">
-        <v>38.048641349999997</v>
+        <v>38.168000980000002</v>
       </c>
       <c r="K307">
-        <v>140.168351</v>
+        <v>140.3997172</v>
       </c>
     </row>
     <row r="308" spans="2:11" x14ac:dyDescent="0.4">
@@ -12716,28 +12734,28 @@
         <v>11</v>
       </c>
       <c r="C308" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D308" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E308">
-        <v>9970345</v>
+        <v>9994116</v>
       </c>
       <c r="F308" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="H308" s="1">
-        <v>44382</v>
+        <v>44392</v>
       </c>
       <c r="I308" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J308">
-        <v>38.67038728</v>
+        <v>38.594754160000001</v>
       </c>
       <c r="K308">
-        <v>139.84516410000001</v>
+        <v>140.37505440000001</v>
       </c>
     </row>
     <row r="309" spans="2:11" x14ac:dyDescent="0.4">
@@ -12745,28 +12763,28 @@
         <v>11</v>
       </c>
       <c r="C309" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D309" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E309">
-        <v>9950209</v>
+        <v>9992211</v>
       </c>
       <c r="F309" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="H309" s="1">
-        <v>44438</v>
+        <v>44364</v>
       </c>
       <c r="I309" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="J309">
-        <v>38.485837529999998</v>
+        <v>38.048641349999997</v>
       </c>
       <c r="K309">
-        <v>140.34476309999999</v>
+        <v>140.168351</v>
       </c>
     </row>
     <row r="310" spans="2:11" x14ac:dyDescent="0.4">
@@ -12774,28 +12792,28 @@
         <v>11</v>
       </c>
       <c r="C310" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D310" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E310">
-        <v>9908580</v>
+        <v>9970345</v>
       </c>
       <c r="F310" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="H310" s="1">
-        <v>44343</v>
+        <v>44382</v>
       </c>
       <c r="I310" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J310">
-        <v>38.249882360000001</v>
+        <v>38.67038728</v>
       </c>
       <c r="K310">
-        <v>140.3273796</v>
+        <v>139.84516410000001</v>
       </c>
     </row>
     <row r="311" spans="2:11" x14ac:dyDescent="0.4">
@@ -12803,28 +12821,28 @@
         <v>11</v>
       </c>
       <c r="C311" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D311" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E311">
-        <v>9900043</v>
+        <v>9950209</v>
       </c>
       <c r="F311" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="H311" s="1">
-        <v>44396</v>
+        <v>44438</v>
       </c>
       <c r="I311" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="J311">
-        <v>38.250672639999998</v>
+        <v>38.485837529999998</v>
       </c>
       <c r="K311">
-        <v>140.3372924</v>
+        <v>140.34476309999999</v>
       </c>
     </row>
     <row r="312" spans="2:11" x14ac:dyDescent="0.4">
@@ -12832,28 +12850,28 @@
         <v>11</v>
       </c>
       <c r="C312" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D312" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E312">
-        <v>9971201</v>
+        <v>9908580</v>
       </c>
       <c r="F312" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="H312" s="1">
-        <v>44413</v>
+        <v>44343</v>
       </c>
       <c r="I312" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J312">
-        <v>38.782519430000001</v>
+        <v>38.249882360000001</v>
       </c>
       <c r="K312">
-        <v>139.75266360000001</v>
+        <v>140.3273796</v>
       </c>
     </row>
     <row r="313" spans="2:11" x14ac:dyDescent="0.4">
@@ -12861,28 +12879,28 @@
         <v>11</v>
       </c>
       <c r="C313" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D313" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E313">
-        <v>9993702</v>
+        <v>9900043</v>
       </c>
       <c r="F313" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="H313" s="1">
-        <v>44336</v>
+        <v>44396</v>
       </c>
       <c r="I313" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="J313">
-        <v>38.462047499999997</v>
+        <v>38.250672639999998</v>
       </c>
       <c r="K313">
-        <v>140.38916589999999</v>
+        <v>140.3372924</v>
       </c>
     </row>
     <row r="314" spans="2:11" x14ac:dyDescent="0.4">
@@ -12890,28 +12908,28 @@
         <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D314" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E314">
-        <v>9900039</v>
+        <v>9971201</v>
       </c>
       <c r="F314" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="H314" s="1">
-        <v>44368</v>
+        <v>44413</v>
       </c>
       <c r="I314" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J314">
-        <v>38.245823000000001</v>
+        <v>38.782519430000001</v>
       </c>
       <c r="K314">
-        <v>140.3314426</v>
+        <v>139.75266360000001</v>
       </c>
     </row>
     <row r="315" spans="2:11" x14ac:dyDescent="0.4">
@@ -12919,28 +12937,28 @@
         <v>11</v>
       </c>
       <c r="C315" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D315" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E315">
-        <v>9900042</v>
+        <v>9993702</v>
       </c>
       <c r="F315" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="H315" s="1">
-        <v>44328</v>
+        <v>44336</v>
       </c>
       <c r="I315" t="s">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="J315">
-        <v>38.25364269</v>
+        <v>38.462047499999997</v>
       </c>
       <c r="K315">
-        <v>140.338966</v>
+        <v>140.38916589999999</v>
       </c>
     </row>
     <row r="316" spans="2:11" x14ac:dyDescent="0.4">
@@ -12948,28 +12966,28 @@
         <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D316" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E316">
         <v>9900039</v>
       </c>
       <c r="F316" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H316" s="1">
-        <v>44419</v>
+        <v>44368</v>
       </c>
       <c r="I316" t="s">
         <v>32</v>
       </c>
       <c r="J316">
-        <v>38.250739289999999</v>
+        <v>38.245823000000001</v>
       </c>
       <c r="K316">
-        <v>140.32919509999999</v>
+        <v>140.3314426</v>
       </c>
     </row>
     <row r="317" spans="2:11" x14ac:dyDescent="0.4">
@@ -12977,28 +12995,28 @@
         <v>11</v>
       </c>
       <c r="C317" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D317" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="E317">
-        <v>9960301</v>
+        <v>9900042</v>
       </c>
       <c r="F317" t="s">
-        <v>986</v>
+        <v>784</v>
       </c>
       <c r="H317" s="1">
-        <v>44369</v>
+        <v>44328</v>
       </c>
       <c r="I317" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="J317">
-        <v>38.60674822</v>
+        <v>38.25364269</v>
       </c>
       <c r="K317">
-        <v>140.1654868</v>
+        <v>140.338966</v>
       </c>
     </row>
     <row r="318" spans="2:11" x14ac:dyDescent="0.4">
@@ -13006,28 +13024,28 @@
         <v>11</v>
       </c>
       <c r="C318" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D318" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E318">
-        <v>9960301</v>
+        <v>9900039</v>
       </c>
       <c r="F318" t="s">
-        <v>984</v>
+        <v>787</v>
       </c>
       <c r="H318" s="1">
-        <v>44438</v>
+        <v>44419</v>
       </c>
       <c r="I318" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="J318">
-        <v>38.607394960000001</v>
+        <v>38.250739289999999</v>
       </c>
       <c r="K318">
-        <v>140.1654398</v>
+        <v>140.32919509999999</v>
       </c>
     </row>
     <row r="319" spans="2:11" x14ac:dyDescent="0.4">
@@ -13035,28 +13053,28 @@
         <v>11</v>
       </c>
       <c r="C319" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D319" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E319">
-        <v>9971201</v>
+        <v>9960301</v>
       </c>
       <c r="F319" t="s">
-        <v>794</v>
+        <v>986</v>
       </c>
       <c r="H319" s="1">
-        <v>44364</v>
+        <v>44369</v>
       </c>
       <c r="I319" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J319">
-        <v>38.779253789999999</v>
+        <v>38.60674822</v>
       </c>
       <c r="K319">
-        <v>139.75050529999999</v>
+        <v>140.1654868</v>
       </c>
     </row>
     <row r="320" spans="2:11" x14ac:dyDescent="0.4">
@@ -13064,28 +13082,28 @@
         <v>11</v>
       </c>
       <c r="C320" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D320" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E320">
-        <v>9902311</v>
+        <v>9960301</v>
       </c>
       <c r="F320" t="s">
-        <v>1069</v>
+        <v>984</v>
       </c>
       <c r="H320" s="1">
-        <v>44330</v>
+        <v>44438</v>
       </c>
       <c r="I320" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="J320">
-        <v>38.190605499999997</v>
+        <v>38.607394960000001</v>
       </c>
       <c r="K320">
-        <v>140.3031819</v>
+        <v>140.1654398</v>
       </c>
     </row>
     <row r="321" spans="2:11" x14ac:dyDescent="0.4">
@@ -13093,28 +13111,28 @@
         <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D321" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E321">
-        <v>9996105</v>
+        <v>9971201</v>
       </c>
       <c r="F321" t="s">
-        <v>1006</v>
+        <v>794</v>
       </c>
       <c r="H321" s="1">
-        <v>44418</v>
+        <v>44364</v>
       </c>
       <c r="I321" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J321">
-        <v>38.710625299999997</v>
+        <v>38.779253789999999</v>
       </c>
       <c r="K321">
-        <v>140.5528879</v>
+        <v>139.75050529999999</v>
       </c>
     </row>
     <row r="322" spans="2:11" x14ac:dyDescent="0.4">
@@ -13122,28 +13140,28 @@
         <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D322" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E322">
-        <v>9971201</v>
+        <v>9902311</v>
       </c>
       <c r="F322" t="s">
-        <v>801</v>
+        <v>1069</v>
       </c>
       <c r="H322" s="1">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="I322" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J322">
-        <v>38.777857930000003</v>
+        <v>38.190605499999997</v>
       </c>
       <c r="K322">
-        <v>139.7491555</v>
+        <v>140.3031819</v>
       </c>
     </row>
     <row r="323" spans="2:11" x14ac:dyDescent="0.4">
@@ -13151,28 +13169,28 @@
         <v>11</v>
       </c>
       <c r="C323" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D323" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E323">
-        <v>9900734</v>
+        <v>9996105</v>
       </c>
       <c r="F323" t="s">
-        <v>970</v>
+        <v>1006</v>
       </c>
       <c r="H323" s="1">
-        <v>44389</v>
+        <v>44418</v>
       </c>
       <c r="I323" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J323">
-        <v>38.490909809999998</v>
+        <v>38.710625299999997</v>
       </c>
       <c r="K323">
-        <v>140.00017260000001</v>
+        <v>140.5528879</v>
       </c>
     </row>
     <row r="324" spans="2:11" x14ac:dyDescent="0.4">
@@ -13180,28 +13198,28 @@
         <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D324" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E324">
-        <v>9970752</v>
+        <v>9971201</v>
       </c>
       <c r="F324" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="H324" s="1">
-        <v>44348</v>
+        <v>44327</v>
       </c>
       <c r="I324" t="s">
         <v>25</v>
       </c>
       <c r="J324">
-        <v>38.693684470000001</v>
+        <v>38.777857930000003</v>
       </c>
       <c r="K324">
-        <v>139.76950120000001</v>
+        <v>139.7491555</v>
       </c>
     </row>
     <row r="325" spans="2:11" x14ac:dyDescent="0.4">
@@ -13209,28 +13227,28 @@
         <v>11</v>
       </c>
       <c r="C325" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D325" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E325">
-        <v>9921472</v>
+        <v>9900734</v>
       </c>
       <c r="F325" t="s">
-        <v>1041</v>
+        <v>970</v>
       </c>
       <c r="H325" s="1">
-        <v>44431</v>
+        <v>44389</v>
       </c>
       <c r="I325" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J325">
-        <v>37.779575579999999</v>
+        <v>38.490909809999998</v>
       </c>
       <c r="K325">
-        <v>140.1190665</v>
+        <v>140.00017260000001</v>
       </c>
     </row>
     <row r="326" spans="2:11" x14ac:dyDescent="0.4">
@@ -13238,28 +13256,28 @@
         <v>11</v>
       </c>
       <c r="C326" t="s">
-        <v>1013</v>
+        <v>804</v>
       </c>
       <c r="D326" t="s">
-        <v>1014</v>
+        <v>805</v>
       </c>
       <c r="E326">
         <v>9970752</v>
       </c>
       <c r="F326" t="s">
-        <v>1015</v>
+        <v>806</v>
       </c>
       <c r="H326" s="1">
-        <v>44511</v>
+        <v>44348</v>
       </c>
       <c r="I326" t="s">
         <v>25</v>
       </c>
       <c r="J326">
-        <v>38.693074439999997</v>
+        <v>38.693684470000001</v>
       </c>
       <c r="K326">
-        <v>139.7692188</v>
+        <v>139.76950120000001</v>
       </c>
     </row>
     <row r="327" spans="2:11" x14ac:dyDescent="0.4">
@@ -13267,28 +13285,28 @@
         <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D327" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E327">
-        <v>9970532</v>
+        <v>9921472</v>
       </c>
       <c r="F327" t="s">
-        <v>811</v>
+        <v>1041</v>
       </c>
       <c r="H327" s="1">
-        <v>44389</v>
+        <v>44431</v>
       </c>
       <c r="I327" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J327">
-        <v>38.540455790000003</v>
+        <v>37.779575579999999</v>
       </c>
       <c r="K327">
-        <v>139.976012</v>
+        <v>140.1190665</v>
       </c>
     </row>
     <row r="328" spans="2:11" x14ac:dyDescent="0.4">
@@ -13296,28 +13314,28 @@
         <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>812</v>
+        <v>1013</v>
       </c>
       <c r="D328" t="s">
-        <v>813</v>
+        <v>1014</v>
       </c>
       <c r="E328">
-        <v>9920342</v>
+        <v>9970752</v>
       </c>
       <c r="F328" t="s">
-        <v>993</v>
+        <v>1015</v>
       </c>
       <c r="H328" s="1">
-        <v>44357</v>
+        <v>44511</v>
       </c>
       <c r="I328" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="J328">
-        <v>38.038003799999998</v>
+        <v>38.693074439999997</v>
       </c>
       <c r="K328">
-        <v>140.20047030000001</v>
+        <v>139.7692188</v>
       </c>
     </row>
     <row r="329" spans="2:11" x14ac:dyDescent="0.4">
@@ -13325,28 +13343,28 @@
         <v>11</v>
       </c>
       <c r="C329" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D329" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E329">
-        <v>9940025</v>
+        <v>9970532</v>
       </c>
       <c r="F329" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="H329" s="1">
-        <v>44349</v>
+        <v>44389</v>
       </c>
       <c r="I329" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J329">
-        <v>38.358845479999999</v>
+        <v>38.540455790000003</v>
       </c>
       <c r="K329">
-        <v>140.3833851</v>
+        <v>139.976012</v>
       </c>
     </row>
     <row r="330" spans="2:11" x14ac:dyDescent="0.4">
@@ -13354,28 +13372,28 @@
         <v>11</v>
       </c>
       <c r="C330" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="D330" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E330">
-        <v>9997652</v>
+        <v>9920342</v>
       </c>
       <c r="F330" t="s">
-        <v>819</v>
+        <v>993</v>
       </c>
       <c r="H330" s="1">
-        <v>44377</v>
+        <v>44357</v>
       </c>
       <c r="I330" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="J330">
-        <v>38.747437349999998</v>
+        <v>38.038003799999998</v>
       </c>
       <c r="K330">
-        <v>139.9719862</v>
+        <v>140.20047030000001</v>
       </c>
     </row>
     <row r="331" spans="2:11" x14ac:dyDescent="0.4">
@@ -13383,28 +13401,28 @@
         <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D331" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E331">
-        <v>9921205</v>
+        <v>9940025</v>
       </c>
       <c r="F331" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="H331" s="1">
-        <v>44466</v>
+        <v>44349</v>
       </c>
       <c r="I331" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="J331">
-        <v>37.858201540000003</v>
+        <v>38.358845479999999</v>
       </c>
       <c r="K331">
-        <v>140.1575172</v>
+        <v>140.3833851</v>
       </c>
     </row>
     <row r="332" spans="2:11" x14ac:dyDescent="0.4">
@@ -13412,28 +13430,28 @@
         <v>11</v>
       </c>
       <c r="C332" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D332" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E332">
-        <v>9997202</v>
+        <v>9997652</v>
       </c>
       <c r="F332" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="H332" s="1">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="I332" t="s">
         <v>25</v>
       </c>
       <c r="J332">
-        <v>38.637827000000001</v>
+        <v>38.747437349999998</v>
       </c>
       <c r="K332">
-        <v>139.704306</v>
+        <v>139.9719862</v>
       </c>
     </row>
     <row r="333" spans="2:11" x14ac:dyDescent="0.4">
@@ -13441,28 +13459,28 @@
         <v>11</v>
       </c>
       <c r="C333" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D333" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E333">
-        <v>9971201</v>
+        <v>9921205</v>
       </c>
       <c r="F333" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="H333" s="1">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="I333" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J333">
-        <v>38.778699860000003</v>
+        <v>37.858201540000003</v>
       </c>
       <c r="K333">
-        <v>139.7505682</v>
+        <v>140.1575172</v>
       </c>
     </row>
     <row r="334" spans="2:11" x14ac:dyDescent="0.4">
@@ -13470,28 +13488,28 @@
         <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D334" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E334">
-        <v>9996211</v>
+        <v>9997202</v>
       </c>
       <c r="F334" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="H334" s="1">
-        <v>44358</v>
+        <v>44469</v>
       </c>
       <c r="I334" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J334">
-        <v>38.754119469999999</v>
+        <v>38.637827000000001</v>
       </c>
       <c r="K334">
-        <v>140.4135521</v>
+        <v>139.704306</v>
       </c>
     </row>
     <row r="335" spans="2:11" x14ac:dyDescent="0.4">
@@ -13499,28 +13517,28 @@
         <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D335" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E335">
-        <v>9920076</v>
+        <v>9971201</v>
       </c>
       <c r="F335" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="H335" s="1">
-        <v>44461</v>
+        <v>44389</v>
       </c>
       <c r="I335" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J335">
-        <v>37.880526600000003</v>
+        <v>38.778699860000003</v>
       </c>
       <c r="K335">
-        <v>140.0546411</v>
+        <v>139.7505682</v>
       </c>
     </row>
     <row r="336" spans="2:11" x14ac:dyDescent="0.4">
@@ -13528,28 +13546,28 @@
         <v>11</v>
       </c>
       <c r="C336" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D336" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E336">
-        <v>9996105</v>
+        <v>9996211</v>
       </c>
       <c r="F336" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="H336" s="1">
-        <v>44434</v>
+        <v>44358</v>
       </c>
       <c r="I336" t="s">
         <v>48</v>
       </c>
       <c r="J336">
-        <v>38.71136336</v>
+        <v>38.754119469999999</v>
       </c>
       <c r="K336">
-        <v>140.55079929999999</v>
+        <v>140.4135521</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.4">
@@ -13557,28 +13575,28 @@
         <v>11</v>
       </c>
       <c r="C337" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="D337" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E337">
-        <v>9960301</v>
+        <v>9920076</v>
       </c>
       <c r="F337" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="H337" s="1">
-        <v>44334</v>
+        <v>44461</v>
       </c>
       <c r="I337" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="J337">
-        <v>38.609262280000003</v>
+        <v>37.880526600000003</v>
       </c>
       <c r="K337">
-        <v>140.16743550000001</v>
+        <v>140.0546411</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.4">
@@ -13586,28 +13604,28 @@
         <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D338" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="E338">
-        <v>9992221</v>
+        <v>9996105</v>
       </c>
       <c r="F338" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="H338" s="1">
-        <v>44410</v>
+        <v>44434</v>
       </c>
       <c r="I338" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="J338">
-        <v>38.04562438</v>
+        <v>38.71136336</v>
       </c>
       <c r="K338">
-        <v>140.1659842</v>
+        <v>140.55079929999999</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.4">
@@ -13615,28 +13633,28 @@
         <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="D339" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E339">
-        <v>9997464</v>
+        <v>9960301</v>
       </c>
       <c r="F339" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="H339" s="1">
-        <v>44328</v>
+        <v>44334</v>
       </c>
       <c r="I339" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J339">
-        <v>38.724612</v>
+        <v>38.609262280000003</v>
       </c>
       <c r="K339">
-        <v>139.6921208</v>
+        <v>140.16743550000001</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.4">
@@ -13644,28 +13662,28 @@
         <v>11</v>
       </c>
       <c r="C340" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="D340" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="E340">
-        <v>9902301</v>
+        <v>9992221</v>
       </c>
       <c r="F340" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="H340" s="1">
-        <v>44375</v>
+        <v>44410</v>
       </c>
       <c r="I340" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J340">
-        <v>38.168401070000002</v>
+        <v>38.04562438</v>
       </c>
       <c r="K340">
-        <v>140.39698039999999</v>
+        <v>140.1659842</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.4">
@@ -13673,28 +13691,28 @@
         <v>11</v>
       </c>
       <c r="C341" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D341" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="E341">
-        <v>9970752</v>
+        <v>9997464</v>
       </c>
       <c r="F341" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="H341" s="1">
-        <v>44342</v>
+        <v>44328</v>
       </c>
       <c r="I341" t="s">
         <v>25</v>
       </c>
       <c r="J341">
-        <v>38.693463209999997</v>
+        <v>38.724612</v>
       </c>
       <c r="K341">
-        <v>139.7694367</v>
+        <v>139.6921208</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.4">
@@ -13702,60 +13720,57 @@
         <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D342" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E342">
-        <v>9991452</v>
+        <v>9902301</v>
       </c>
       <c r="F342" t="s">
-        <v>961</v>
+        <v>849</v>
       </c>
       <c r="H342" s="1">
-        <v>44414</v>
+        <v>44375</v>
       </c>
       <c r="I342" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="J342">
-        <v>38.160279950000003</v>
+        <v>38.168401070000002</v>
       </c>
       <c r="K342">
-        <v>139.78839550000001</v>
+        <v>140.39698039999999</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A343" t="s">
-        <v>11</v>
-      </c>
       <c r="B343" t="s">
         <v>11</v>
       </c>
       <c r="C343" t="s">
-        <v>940</v>
+        <v>850</v>
       </c>
       <c r="D343" t="s">
-        <v>941</v>
+        <v>851</v>
       </c>
       <c r="E343">
-        <v>9997463</v>
+        <v>9970752</v>
       </c>
       <c r="F343" t="s">
-        <v>942</v>
+        <v>852</v>
       </c>
       <c r="H343" s="1">
-        <v>44392</v>
+        <v>44342</v>
       </c>
       <c r="I343" t="s">
         <v>25</v>
       </c>
       <c r="J343">
-        <v>38.703204100000001</v>
+        <v>38.693463209999997</v>
       </c>
       <c r="K343">
-        <v>139.66686379999999</v>
+        <v>139.7694367</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.4">
@@ -13763,57 +13778,60 @@
         <v>11</v>
       </c>
       <c r="C344" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D344" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E344">
-        <v>9996211</v>
+        <v>9991452</v>
       </c>
       <c r="F344" t="s">
-        <v>1001</v>
+        <v>961</v>
       </c>
       <c r="H344" s="1">
-        <v>44385</v>
+        <v>44414</v>
       </c>
       <c r="I344" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="J344">
-        <v>38.754193219999998</v>
+        <v>38.160279950000003</v>
       </c>
       <c r="K344">
-        <v>140.41247619999999</v>
+        <v>139.78839550000001</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A345" t="s">
+        <v>11</v>
+      </c>
       <c r="B345" t="s">
         <v>11</v>
       </c>
       <c r="C345" t="s">
-        <v>857</v>
+        <v>940</v>
       </c>
       <c r="D345" t="s">
-        <v>858</v>
+        <v>941</v>
       </c>
       <c r="E345">
-        <v>9993242</v>
+        <v>9997463</v>
       </c>
       <c r="F345" t="s">
-        <v>859</v>
+        <v>942</v>
       </c>
       <c r="H345" s="1">
-        <v>44453</v>
+        <v>44392</v>
       </c>
       <c r="I345" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J345">
-        <v>38.14876142</v>
+        <v>38.703204100000001</v>
       </c>
       <c r="K345">
-        <v>140.26266129999999</v>
+        <v>139.66686379999999</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.4">
@@ -13821,28 +13839,28 @@
         <v>11</v>
       </c>
       <c r="C346" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D346" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E346">
-        <v>9994333</v>
+        <v>9996211</v>
       </c>
       <c r="F346" t="s">
-        <v>1031</v>
+        <v>1001</v>
       </c>
       <c r="H346" s="1">
-        <v>44446</v>
+        <v>44385</v>
       </c>
       <c r="I346" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="J346">
-        <v>38.569570179999999</v>
+        <v>38.754193219999998</v>
       </c>
       <c r="K346">
-        <v>140.53128799999999</v>
+        <v>140.41247619999999</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.4">
@@ -13850,28 +13868,28 @@
         <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="D347" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E347">
-        <v>9994333</v>
+        <v>9993242</v>
       </c>
       <c r="F347" t="s">
-        <v>1030</v>
+        <v>859</v>
       </c>
       <c r="H347" s="1">
-        <v>44361</v>
+        <v>44453</v>
       </c>
       <c r="I347" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="J347">
-        <v>38.569601370000001</v>
+        <v>38.14876142</v>
       </c>
       <c r="K347">
-        <v>140.53120129999999</v>
+        <v>140.26266129999999</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.4">
@@ -13879,28 +13897,28 @@
         <v>11</v>
       </c>
       <c r="C348" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D348" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E348">
-        <v>9996105</v>
+        <v>9994333</v>
       </c>
       <c r="F348" t="s">
-        <v>1003</v>
+        <v>1031</v>
       </c>
       <c r="H348" s="1">
-        <v>44418</v>
+        <v>44446</v>
       </c>
       <c r="I348" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="J348">
-        <v>38.709274710000003</v>
+        <v>38.569570179999999</v>
       </c>
       <c r="K348">
-        <v>140.5548297</v>
+        <v>140.53128799999999</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.4">
@@ -13908,28 +13926,28 @@
         <v>11</v>
       </c>
       <c r="C349" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D349" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E349">
-        <v>9930001</v>
+        <v>9994333</v>
       </c>
       <c r="F349" t="s">
-        <v>1105</v>
+        <v>1030</v>
       </c>
       <c r="H349" s="1">
-        <v>44532</v>
+        <v>44361</v>
       </c>
       <c r="I349" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J349">
-        <v>38.10774481</v>
+        <v>38.569601370000001</v>
       </c>
       <c r="K349">
-        <v>140.039852</v>
+        <v>140.53120129999999</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.4">
@@ -13937,28 +13955,28 @@
         <v>11</v>
       </c>
       <c r="C350" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D350" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E350">
-        <v>9902301</v>
+        <v>9996105</v>
       </c>
       <c r="F350" t="s">
-        <v>868</v>
+        <v>1003</v>
       </c>
       <c r="H350" s="1">
-        <v>44347</v>
+        <v>44418</v>
       </c>
       <c r="I350" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J350">
-        <v>38.168008010000001</v>
+        <v>38.709274710000003</v>
       </c>
       <c r="K350">
-        <v>140.39562839999999</v>
+        <v>140.5548297</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.4">
@@ -13966,28 +13984,28 @@
         <v>11</v>
       </c>
       <c r="C351" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D351" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E351">
-        <v>9920351</v>
+        <v>9930001</v>
       </c>
       <c r="F351" t="s">
-        <v>991</v>
+        <v>1105</v>
       </c>
       <c r="H351" s="1">
-        <v>44350</v>
+        <v>44532</v>
       </c>
       <c r="I351" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="J351">
-        <v>38.000407600000003</v>
+        <v>38.10774481</v>
       </c>
       <c r="K351">
-        <v>140.1957989</v>
+        <v>140.039852</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.4">
@@ -13995,28 +14013,28 @@
         <v>11</v>
       </c>
       <c r="C352" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="D352" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E352">
-        <v>9980281</v>
+        <v>9902301</v>
       </c>
       <c r="F352" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="H352" s="1">
-        <v>44482</v>
+        <v>44347</v>
       </c>
       <c r="I352" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="J352">
-        <v>39.187297039999997</v>
+        <v>38.168008010000001</v>
       </c>
       <c r="K352">
-        <v>139.54744959999999</v>
+        <v>140.39562839999999</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.4">
@@ -14024,28 +14042,28 @@
         <v>11</v>
       </c>
       <c r="C353" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D353" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="E353">
-        <v>9993702</v>
+        <v>9920351</v>
       </c>
       <c r="F353" t="s">
-        <v>876</v>
+        <v>991</v>
       </c>
       <c r="H353" s="1">
-        <v>44390</v>
+        <v>44350</v>
       </c>
       <c r="I353" t="s">
-        <v>324</v>
+        <v>140</v>
       </c>
       <c r="J353">
-        <v>38.45775742</v>
+        <v>38.000407600000003</v>
       </c>
       <c r="K353">
-        <v>140.38918129999999</v>
+        <v>140.1957989</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.4">
@@ -14053,28 +14071,28 @@
         <v>11</v>
       </c>
       <c r="C354" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D354" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E354">
-        <v>9900734</v>
+        <v>9980281</v>
       </c>
       <c r="F354" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="H354" s="1">
-        <v>44389</v>
+        <v>44482</v>
       </c>
       <c r="I354" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="J354">
-        <v>38.491993919999999</v>
+        <v>39.187297039999997</v>
       </c>
       <c r="K354">
-        <v>139.99943529999999</v>
+        <v>139.54744959999999</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.4">
@@ -14082,28 +14100,28 @@
         <v>11</v>
       </c>
       <c r="C355" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D355" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E355">
-        <v>9997463</v>
+        <v>9993702</v>
       </c>
       <c r="F355" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="H355" s="1">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="I355" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="J355">
-        <v>38.686920800000003</v>
+        <v>38.45775742</v>
       </c>
       <c r="K355">
-        <v>139.67781149999999</v>
+        <v>140.38918129999999</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.4">
@@ -14111,28 +14129,28 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D356" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E356">
-        <v>9993242</v>
+        <v>9900734</v>
       </c>
       <c r="F356" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="H356" s="1">
-        <v>44439</v>
+        <v>44389</v>
       </c>
       <c r="I356" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J356">
-        <v>38.147896009999997</v>
+        <v>38.491993919999999</v>
       </c>
       <c r="K356">
-        <v>140.26258870000001</v>
+        <v>139.99943529999999</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.4">
@@ -14140,28 +14158,28 @@
         <v>11</v>
       </c>
       <c r="C357" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="D357" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E357">
-        <v>9992211</v>
+        <v>9997463</v>
       </c>
       <c r="F357" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="H357" s="1">
-        <v>44414</v>
+        <v>44461</v>
       </c>
       <c r="I357" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J357">
-        <v>38.05026676</v>
+        <v>38.686920800000003</v>
       </c>
       <c r="K357">
-        <v>140.16726919999999</v>
+        <v>139.67781149999999</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.4">
@@ -14169,28 +14187,28 @@
         <v>11</v>
       </c>
       <c r="C358" t="s">
-        <v>987</v>
+        <v>883</v>
       </c>
       <c r="D358" t="s">
-        <v>988</v>
+        <v>884</v>
       </c>
       <c r="E358">
-        <v>9960301</v>
+        <v>9993242</v>
       </c>
       <c r="F358" t="s">
-        <v>989</v>
+        <v>885</v>
       </c>
       <c r="H358" s="1">
-        <v>44508</v>
+        <v>44439</v>
       </c>
       <c r="I358" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="J358">
-        <v>38.607975099999997</v>
+        <v>38.147896009999997</v>
       </c>
       <c r="K358">
-        <v>140.1671412</v>
+        <v>140.26258870000001</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.4">
@@ -14198,92 +14216,86 @@
         <v>11</v>
       </c>
       <c r="C359" t="s">
+        <v>886</v>
+      </c>
+      <c r="D359" t="s">
+        <v>887</v>
+      </c>
+      <c r="E359">
+        <v>9992211</v>
+      </c>
+      <c r="F359" t="s">
+        <v>888</v>
+      </c>
+      <c r="H359" s="1">
+        <v>44414</v>
+      </c>
+      <c r="I359" t="s">
+        <v>15</v>
+      </c>
+      <c r="J359">
+        <v>38.05026676</v>
+      </c>
+      <c r="K359">
+        <v>140.16726919999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" t="s">
+        <v>987</v>
+      </c>
+      <c r="D360" t="s">
+        <v>988</v>
+      </c>
+      <c r="E360">
+        <v>9960301</v>
+      </c>
+      <c r="F360" t="s">
+        <v>989</v>
+      </c>
+      <c r="H360" s="1">
+        <v>44508</v>
+      </c>
+      <c r="I360" t="s">
+        <v>85</v>
+      </c>
+      <c r="J360">
+        <v>38.607975099999997</v>
+      </c>
+      <c r="K360">
+        <v>140.1671412</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B361" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" t="s">
         <v>889</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D361" t="s">
         <v>890</v>
       </c>
-      <c r="E359">
+      <c r="E361">
         <v>9902301</v>
       </c>
-      <c r="F359" t="s">
+      <c r="F361" t="s">
         <v>891</v>
       </c>
-      <c r="H359" s="1">
+      <c r="H361" s="1">
         <v>44398</v>
-      </c>
-      <c r="I359" t="s">
-        <v>32</v>
-      </c>
-      <c r="J359">
-        <v>38.166095300000002</v>
-      </c>
-      <c r="K359">
-        <v>140.39884280000001</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A360" t="s">
-        <v>11</v>
-      </c>
-      <c r="B360" t="s">
-        <v>11</v>
-      </c>
-      <c r="C360" t="s">
-        <v>930</v>
-      </c>
-      <c r="D360" t="s">
-        <v>931</v>
-      </c>
-      <c r="E360">
-        <v>9900733</v>
-      </c>
-      <c r="F360" t="s">
-        <v>967</v>
-      </c>
-      <c r="H360" s="1">
-        <v>44365</v>
-      </c>
-      <c r="I360" t="s">
-        <v>18</v>
-      </c>
-      <c r="J360">
-        <v>38.454796760000001</v>
-      </c>
-      <c r="K360">
-        <v>140.00722540000001</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A361" t="s">
-        <v>11</v>
-      </c>
-      <c r="B361" t="s">
-        <v>11</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D361" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E361">
-        <v>9902405</v>
-      </c>
-      <c r="F361" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H361" s="1">
-        <v>44519</v>
       </c>
       <c r="I361" t="s">
         <v>32</v>
       </c>
       <c r="J361">
-        <v>38.1961674</v>
+        <v>38.166095300000002</v>
       </c>
       <c r="K361">
-        <v>140.37522229999999</v>
+        <v>140.39884280000001</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.4">
@@ -14294,118 +14306,121 @@
         <v>11</v>
       </c>
       <c r="C362" t="s">
-        <v>915</v>
+        <v>930</v>
       </c>
       <c r="D362" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="E362">
-        <v>9902301</v>
+        <v>9900733</v>
       </c>
       <c r="F362" t="s">
-        <v>916</v>
+        <v>967</v>
       </c>
       <c r="H362" s="1">
-        <v>44501</v>
+        <v>44365</v>
       </c>
       <c r="I362" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J362">
-        <v>38.170156089999999</v>
+        <v>38.454796760000001</v>
       </c>
       <c r="K362">
-        <v>140.39523840000001</v>
+        <v>140.00722540000001</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A363" t="s">
+        <v>11</v>
+      </c>
       <c r="B363" t="s">
         <v>11</v>
       </c>
       <c r="C363" t="s">
-        <v>892</v>
+        <v>1070</v>
       </c>
       <c r="D363" t="s">
-        <v>892</v>
+        <v>1071</v>
       </c>
       <c r="E363">
-        <v>9902301</v>
+        <v>9902405</v>
       </c>
       <c r="F363" t="s">
-        <v>893</v>
+        <v>1072</v>
       </c>
       <c r="H363" s="1">
-        <v>44484</v>
+        <v>44519</v>
       </c>
       <c r="I363" t="s">
         <v>32</v>
       </c>
       <c r="J363">
+        <v>38.1961674</v>
+      </c>
+      <c r="K363">
+        <v>140.37522229999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A364" t="s">
+        <v>11</v>
+      </c>
+      <c r="B364" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364" t="s">
+        <v>915</v>
+      </c>
+      <c r="D364" t="s">
+        <v>915</v>
+      </c>
+      <c r="E364">
+        <v>9902301</v>
+      </c>
+      <c r="F364" t="s">
+        <v>916</v>
+      </c>
+      <c r="H364" s="1">
+        <v>44501</v>
+      </c>
+      <c r="I364" t="s">
+        <v>32</v>
+      </c>
+      <c r="J364">
+        <v>38.170156089999999</v>
+      </c>
+      <c r="K364">
+        <v>140.39523840000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B365" t="s">
+        <v>11</v>
+      </c>
+      <c r="C365" t="s">
+        <v>892</v>
+      </c>
+      <c r="D365" t="s">
+        <v>892</v>
+      </c>
+      <c r="E365">
+        <v>9902301</v>
+      </c>
+      <c r="F365" t="s">
+        <v>893</v>
+      </c>
+      <c r="H365" s="1">
+        <v>44484</v>
+      </c>
+      <c r="I365" t="s">
+        <v>32</v>
+      </c>
+      <c r="J365">
         <v>38.166421700000001</v>
       </c>
-      <c r="K363">
+      <c r="K365">
         <v>140.39818360000001</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B364" t="s">
-        <v>11</v>
-      </c>
-      <c r="C364" t="s">
-        <v>894</v>
-      </c>
-      <c r="D364" t="s">
-        <v>895</v>
-      </c>
-      <c r="E364">
-        <v>9960301</v>
-      </c>
-      <c r="F364" t="s">
-        <v>981</v>
-      </c>
-      <c r="H364" s="1">
-        <v>44396</v>
-      </c>
-      <c r="I364" t="s">
-        <v>85</v>
-      </c>
-      <c r="J364">
-        <v>38.607663000000002</v>
-      </c>
-      <c r="K364">
-        <v>140.16648180000001</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A365" t="s">
-        <v>11</v>
-      </c>
-      <c r="B365" t="s">
-        <v>11</v>
-      </c>
-      <c r="C365" t="s">
-        <v>907</v>
-      </c>
-      <c r="D365" t="s">
-        <v>908</v>
-      </c>
-      <c r="E365">
-        <v>9996101</v>
-      </c>
-      <c r="F365" t="s">
-        <v>995</v>
-      </c>
-      <c r="H365" s="1">
-        <v>44418</v>
-      </c>
-      <c r="I365" t="s">
-        <v>48</v>
-      </c>
-      <c r="J365">
-        <v>38.798514539999999</v>
-      </c>
-      <c r="K365">
-        <v>140.55506260000001</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.4">
@@ -14413,27 +14428,88 @@
         <v>11</v>
       </c>
       <c r="C366" t="s">
+        <v>894</v>
+      </c>
+      <c r="D366" t="s">
+        <v>895</v>
+      </c>
+      <c r="E366">
+        <v>9960301</v>
+      </c>
+      <c r="F366" t="s">
+        <v>981</v>
+      </c>
+      <c r="H366" s="1">
+        <v>44396</v>
+      </c>
+      <c r="I366" t="s">
+        <v>85</v>
+      </c>
+      <c r="J366">
+        <v>38.607663000000002</v>
+      </c>
+      <c r="K366">
+        <v>140.16648180000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A367" t="s">
+        <v>11</v>
+      </c>
+      <c r="B367" t="s">
+        <v>11</v>
+      </c>
+      <c r="C367" t="s">
+        <v>907</v>
+      </c>
+      <c r="D367" t="s">
+        <v>908</v>
+      </c>
+      <c r="E367">
+        <v>9996101</v>
+      </c>
+      <c r="F367" t="s">
+        <v>995</v>
+      </c>
+      <c r="H367" s="1">
+        <v>44418</v>
+      </c>
+      <c r="I367" t="s">
+        <v>48</v>
+      </c>
+      <c r="J367">
+        <v>38.798514539999999</v>
+      </c>
+      <c r="K367">
+        <v>140.55506260000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B368" t="s">
+        <v>11</v>
+      </c>
+      <c r="C368" t="s">
         <v>896</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D368" t="s">
         <v>897</v>
       </c>
-      <c r="E366">
+      <c r="E368">
         <v>9996105</v>
       </c>
-      <c r="F366" t="s">
+      <c r="F368" t="s">
         <v>1004</v>
       </c>
-      <c r="H366" s="1">
+      <c r="H368" s="1">
         <v>44356</v>
       </c>
-      <c r="I366" t="s">
+      <c r="I368" t="s">
         <v>48</v>
       </c>
-      <c r="J366">
+      <c r="J368">
         <v>38.709343230000002</v>
       </c>
-      <c r="K366">
+      <c r="K368">
         <v>140.55579929999999</v>
       </c>
     </row>

--- a/output/宿泊業.xlsx
+++ b/output/宿泊業.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F56E0DA-A307-4ECD-A40D-8AE8A68ACD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E440C60D-4B04-4C1A-8A5D-C4E9FECBFFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="1725" windowWidth="17745" windowHeight="18195" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
+    <workbookView xWindow="12810" yWindow="3555" windowWidth="20025" windowHeight="13260" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1118">
   <si>
     <t>業種(飲食業）</t>
   </si>
@@ -3365,6 +3365,24 @@
   </si>
   <si>
     <t>新庄市沖の町6-5</t>
+  </si>
+  <si>
+    <t>大丸屋旅館／Daimaruya CAFE</t>
+  </si>
+  <si>
+    <t>ダイマルヤリョカン／ダイマルヤカフェ</t>
+  </si>
+  <si>
+    <t>朝日町大字宮宿1178</t>
+  </si>
+  <si>
+    <t>旅館　大文字屋</t>
+  </si>
+  <si>
+    <t>リョカン　ダイモンジヤ</t>
+  </si>
+  <si>
+    <t>南陽市赤湯1003</t>
   </si>
 </sst>
 </file>
@@ -3731,10 +3749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA919E-F71A-4DC0-BB86-57B9BD20D6E7}">
-  <dimension ref="A1:K368"/>
+  <dimension ref="A1:K370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7735,32 +7753,35 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
       <c r="B137" t="s">
         <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="D137" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="E137">
-        <v>9920076</v>
+        <v>9901442</v>
       </c>
       <c r="F137" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="H137" s="1">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="I137" t="s">
-        <v>36</v>
+        <v>378</v>
       </c>
       <c r="J137">
-        <v>37.879921000000003</v>
+        <v>38.301621931585203</v>
       </c>
       <c r="K137">
-        <v>140.05514400000001</v>
+        <v>140.14966152334799</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
@@ -7768,28 +7789,28 @@
         <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>341</v>
+        <v>1106</v>
       </c>
       <c r="D138" t="s">
-        <v>342</v>
+        <v>1107</v>
       </c>
       <c r="E138">
-        <v>9920821</v>
+        <v>9920076</v>
       </c>
       <c r="F138" t="s">
-        <v>343</v>
+        <v>1108</v>
       </c>
       <c r="H138" s="1">
-        <v>44448</v>
+        <v>44536</v>
       </c>
       <c r="I138" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="J138">
-        <v>38.19470261</v>
+        <v>37.879921000000003</v>
       </c>
       <c r="K138">
-        <v>140.11131660000001</v>
+        <v>140.05514400000001</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
@@ -7797,28 +7818,28 @@
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D139" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E139">
-        <v>9900406</v>
+        <v>9920821</v>
       </c>
       <c r="F139" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="H139" s="1">
-        <v>44477</v>
+        <v>44448</v>
       </c>
       <c r="I139" t="s">
-        <v>357</v>
+        <v>192</v>
       </c>
       <c r="J139">
-        <v>38.326990840000001</v>
+        <v>38.19470261</v>
       </c>
       <c r="K139">
-        <v>140.255065</v>
+        <v>140.11131660000001</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
@@ -7826,28 +7847,28 @@
         <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D140" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E140">
-        <v>9902301</v>
+        <v>9900406</v>
       </c>
       <c r="F140" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H140" s="1">
-        <v>44347</v>
+        <v>44477</v>
       </c>
       <c r="I140" t="s">
-        <v>32</v>
+        <v>357</v>
       </c>
       <c r="J140">
-        <v>38.169733399999998</v>
+        <v>38.326990840000001</v>
       </c>
       <c r="K140">
-        <v>140.40098230000001</v>
+        <v>140.255065</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
@@ -7855,28 +7876,28 @@
         <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D141" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E141">
-        <v>9996401</v>
+        <v>9902301</v>
       </c>
       <c r="F141" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H141" s="1">
-        <v>44453</v>
+        <v>44347</v>
       </c>
       <c r="I141" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="J141">
-        <v>38.766098700000001</v>
+        <v>38.169733399999998</v>
       </c>
       <c r="K141">
-        <v>140.053166</v>
+        <v>140.40098230000001</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
@@ -7884,28 +7905,28 @@
         <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D142" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E142">
-        <v>9902301</v>
+        <v>9996401</v>
       </c>
       <c r="F142" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H142" s="1">
-        <v>44461</v>
+        <v>44453</v>
       </c>
       <c r="I142" t="s">
-        <v>32</v>
+        <v>350</v>
       </c>
       <c r="J142">
-        <v>38.161280439999999</v>
+        <v>38.766098700000001</v>
       </c>
       <c r="K142">
-        <v>140.39394759999999</v>
+        <v>140.053166</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
@@ -7913,524 +7934,524 @@
         <v>11</v>
       </c>
       <c r="C143" t="s">
+        <v>351</v>
+      </c>
+      <c r="D143" t="s">
+        <v>352</v>
+      </c>
+      <c r="E143">
+        <v>9902301</v>
+      </c>
+      <c r="F143" t="s">
+        <v>353</v>
+      </c>
+      <c r="H143" s="1">
+        <v>44461</v>
+      </c>
+      <c r="I143" t="s">
+        <v>32</v>
+      </c>
+      <c r="J143">
+        <v>38.161280439999999</v>
+      </c>
+      <c r="K143">
+        <v>140.39394759999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
         <v>358</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D144" t="s">
         <v>359</v>
       </c>
-      <c r="E143">
+      <c r="E144">
         <v>9996105</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F144" t="s">
         <v>1007</v>
       </c>
-      <c r="H143" s="1">
+      <c r="H144" s="1">
         <v>44393</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I144" t="s">
         <v>48</v>
       </c>
-      <c r="J143">
+      <c r="J144">
         <v>38.712054010000003</v>
       </c>
-      <c r="K143">
+      <c r="K144">
         <v>140.55382560000001</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>11</v>
-      </c>
-      <c r="B144" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" t="s">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
         <v>898</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D145" t="s">
         <v>899</v>
       </c>
-      <c r="E144">
+      <c r="E145">
         <v>9900503</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F145" t="s">
         <v>954</v>
       </c>
-      <c r="H144" s="1">
+      <c r="H145" s="1">
         <v>44392</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I145" t="s">
         <v>144</v>
       </c>
-      <c r="J144">
+      <c r="J145">
         <v>38.4484937</v>
       </c>
-      <c r="K144">
+      <c r="K145">
         <v>140.2335539</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B145" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" t="s">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
         <v>360</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D146" t="s">
         <v>360</v>
       </c>
-      <c r="E145">
+      <c r="E146">
         <v>9930011</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F146" t="s">
         <v>361</v>
       </c>
-      <c r="H145" s="1">
+      <c r="H146" s="1">
         <v>44396</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I146" t="s">
         <v>58</v>
       </c>
-      <c r="J145">
+      <c r="J146">
         <v>38.101388999999998</v>
       </c>
-      <c r="K145">
+      <c r="K146">
         <v>140.04332529999999</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B146" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" t="s">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
         <v>362</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D147" t="s">
         <v>363</v>
       </c>
-      <c r="E146">
+      <c r="E147">
         <v>9997204</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F147" t="s">
         <v>364</v>
       </c>
-      <c r="H146" s="1">
+      <c r="H147" s="1">
         <v>44404</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I147" t="s">
         <v>25</v>
       </c>
-      <c r="J146">
+      <c r="J147">
         <v>38.615384630000001</v>
       </c>
-      <c r="K146">
+      <c r="K147">
         <v>139.60561659999999</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B147" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" t="s">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
         <v>365</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D148" t="s">
         <v>366</v>
       </c>
-      <c r="E147">
+      <c r="E148">
         <v>9960301</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F148" t="s">
         <v>980</v>
       </c>
-      <c r="H147" s="1">
+      <c r="H148" s="1">
         <v>44406</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I148" t="s">
         <v>85</v>
       </c>
-      <c r="J147">
+      <c r="J148">
         <v>38.608500960000001</v>
       </c>
-      <c r="K147">
+      <c r="K148">
         <v>140.1669493</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B148" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" t="s">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
         <v>367</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D149" t="s">
         <v>368</v>
       </c>
-      <c r="E148">
+      <c r="E149">
         <v>9970752</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F149" t="s">
         <v>369</v>
       </c>
-      <c r="H148" s="1">
+      <c r="H149" s="1">
         <v>44413</v>
-      </c>
-      <c r="I148" t="s">
-        <v>25</v>
-      </c>
-      <c r="J148">
-        <v>38.693018189999997</v>
-      </c>
-      <c r="K148">
-        <v>139.76950020000001</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B149" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" t="s">
-        <v>370</v>
-      </c>
-      <c r="D149" t="s">
-        <v>371</v>
-      </c>
-      <c r="E149">
-        <v>9970532</v>
-      </c>
-      <c r="F149" t="s">
-        <v>372</v>
-      </c>
-      <c r="H149" s="1">
-        <v>44475</v>
       </c>
       <c r="I149" t="s">
         <v>25</v>
       </c>
       <c r="J149">
+        <v>38.693018189999997</v>
+      </c>
+      <c r="K149">
+        <v>139.76950020000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>370</v>
+      </c>
+      <c r="D150" t="s">
+        <v>371</v>
+      </c>
+      <c r="E150">
+        <v>9970532</v>
+      </c>
+      <c r="F150" t="s">
+        <v>372</v>
+      </c>
+      <c r="H150" s="1">
+        <v>44475</v>
+      </c>
+      <c r="I150" t="s">
+        <v>25</v>
+      </c>
+      <c r="J150">
         <v>38.573732759999999</v>
       </c>
-      <c r="K149">
+      <c r="K150">
         <v>139.9208031</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B150" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" t="s">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
         <v>373</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D151" t="s">
         <v>374</v>
       </c>
-      <c r="E150">
+      <c r="E151">
         <v>9992211</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F151" t="s">
         <v>375</v>
       </c>
-      <c r="H150" s="1">
+      <c r="H151" s="1">
         <v>44410</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I151" t="s">
         <v>15</v>
       </c>
-      <c r="J150">
+      <c r="J151">
         <v>38.050577599999997</v>
       </c>
-      <c r="K150">
+      <c r="K151">
         <v>140.1689681</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B151" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" t="s">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
         <v>382</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D152" t="s">
         <v>382</v>
       </c>
-      <c r="E151">
+      <c r="E152">
         <v>9910041</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F152" t="s">
         <v>953</v>
       </c>
-      <c r="H151" s="1">
+      <c r="H152" s="1">
         <v>44480</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I152" t="s">
         <v>144</v>
       </c>
-      <c r="J151">
+      <c r="J152">
         <v>38.363664100000001</v>
       </c>
-      <c r="K151">
+      <c r="K152">
         <v>140.25826950000001</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B152" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" t="s">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
         <v>383</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D153" t="s">
         <v>384</v>
       </c>
-      <c r="E152">
+      <c r="E153">
         <v>9980281</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F153" t="s">
         <v>385</v>
       </c>
-      <c r="H152" s="1">
+      <c r="H153" s="1">
         <v>44488</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I153" t="s">
         <v>121</v>
       </c>
-      <c r="J152">
+      <c r="J153">
         <v>39.189449099999997</v>
       </c>
-      <c r="K152">
+      <c r="K153">
         <v>139.54874699999999</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" t="s">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
         <v>386</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D154" t="s">
         <v>387</v>
       </c>
-      <c r="E153">
+      <c r="E154">
         <v>9998531</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F154" t="s">
         <v>388</v>
       </c>
-      <c r="H153" s="1">
+      <c r="H154" s="1">
         <v>44342</v>
-      </c>
-      <c r="I153" t="s">
-        <v>283</v>
-      </c>
-      <c r="J153">
-        <v>39.066695899999999</v>
-      </c>
-      <c r="K153">
-        <v>139.87433300000001</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B154" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" t="s">
-        <v>389</v>
-      </c>
-      <c r="D154" t="s">
-        <v>390</v>
-      </c>
-      <c r="E154">
-        <v>9998521</v>
-      </c>
-      <c r="F154" t="s">
-        <v>391</v>
-      </c>
-      <c r="H154" s="1">
-        <v>44361</v>
       </c>
       <c r="I154" t="s">
         <v>283</v>
       </c>
       <c r="J154">
+        <v>39.066695899999999</v>
+      </c>
+      <c r="K154">
+        <v>139.87433300000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>389</v>
+      </c>
+      <c r="D155" t="s">
+        <v>390</v>
+      </c>
+      <c r="E155">
+        <v>9998521</v>
+      </c>
+      <c r="F155" t="s">
+        <v>391</v>
+      </c>
+      <c r="H155" s="1">
+        <v>44361</v>
+      </c>
+      <c r="I155" t="s">
+        <v>283</v>
+      </c>
+      <c r="J155">
         <v>39.0988592</v>
       </c>
-      <c r="K154">
+      <c r="K155">
         <v>140.0440705</v>
       </c>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B155" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" t="s">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
         <v>392</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D156" t="s">
         <v>393</v>
       </c>
-      <c r="E155">
+      <c r="E156">
         <v>9970752</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F156" t="s">
         <v>394</v>
       </c>
-      <c r="H155" s="1">
+      <c r="H156" s="1">
         <v>44487</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I156" t="s">
         <v>25</v>
       </c>
-      <c r="J155">
+      <c r="J156">
         <v>38.693366789999999</v>
       </c>
-      <c r="K155">
+      <c r="K156">
         <v>139.76965269999999</v>
       </c>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B156" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" t="s">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
         <v>395</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>396</v>
       </c>
-      <c r="E156">
+      <c r="E157">
         <v>9980023</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F157" t="s">
         <v>397</v>
       </c>
-      <c r="H156" s="1">
+      <c r="H157" s="1">
         <v>44354</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I157" t="s">
         <v>121</v>
       </c>
-      <c r="J156">
+      <c r="J157">
         <v>38.920925080000004</v>
       </c>
-      <c r="K156">
+      <c r="K157">
         <v>139.84454049999999</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B157" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" t="s">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
         <v>398</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D158" t="s">
         <v>399</v>
       </c>
-      <c r="E157">
+      <c r="E158">
         <v>9991362</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F158" t="s">
         <v>400</v>
       </c>
-      <c r="H157" s="1">
+      <c r="H158" s="1">
         <v>44397</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I158" t="s">
         <v>130</v>
       </c>
-      <c r="J157">
+      <c r="J158">
         <v>38.058467</v>
       </c>
-      <c r="K157">
+      <c r="K158">
         <v>139.74850799999999</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B158" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" t="s">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
         <v>401</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D159" t="s">
         <v>402</v>
       </c>
-      <c r="E158">
+      <c r="E159">
         <v>9920472</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F159" t="s">
         <v>403</v>
       </c>
-      <c r="H158" s="1">
+      <c r="H159" s="1">
         <v>44438</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I159" t="s">
         <v>15</v>
       </c>
-      <c r="J158">
+      <c r="J159">
         <v>38.07023598</v>
       </c>
-      <c r="K158">
+      <c r="K159">
         <v>140.15642639999999</v>
       </c>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B159" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" t="s">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
         <v>1085</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D160" t="s">
         <v>1086</v>
       </c>
-      <c r="E159">
+      <c r="E160">
         <v>9940025</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F160" t="s">
         <v>1087</v>
       </c>
-      <c r="H159" s="1">
+      <c r="H160" s="1">
         <v>44525</v>
-      </c>
-      <c r="I159" t="s">
-        <v>79</v>
-      </c>
-      <c r="J159">
-        <v>38.358693000000002</v>
-      </c>
-      <c r="K159">
-        <v>140.38335140000001</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B160" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D160" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E160">
-        <v>9940034</v>
-      </c>
-      <c r="F160" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H160" s="1">
-        <v>44533</v>
       </c>
       <c r="I160" t="s">
         <v>79</v>
       </c>
       <c r="J160">
-        <v>38.359467250000002</v>
+        <v>38.358693000000002</v>
       </c>
       <c r="K160">
-        <v>140.37161180000001</v>
+        <v>140.38335140000001</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.4">
@@ -8438,28 +8459,28 @@
         <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>404</v>
+        <v>1099</v>
       </c>
       <c r="D161" t="s">
-        <v>405</v>
+        <v>1100</v>
       </c>
       <c r="E161">
-        <v>9940024</v>
+        <v>9940034</v>
       </c>
       <c r="F161" t="s">
-        <v>406</v>
+        <v>1101</v>
       </c>
       <c r="H161" s="1">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="I161" t="s">
         <v>79</v>
       </c>
       <c r="J161">
-        <v>38.358968660000002</v>
+        <v>38.359467250000002</v>
       </c>
       <c r="K161">
-        <v>140.38633809999999</v>
+        <v>140.37161180000001</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.4">
@@ -8467,28 +8488,28 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D162" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E162">
-        <v>9993141</v>
+        <v>9940024</v>
       </c>
       <c r="F162" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H162" s="1">
-        <v>44324</v>
+        <v>44357</v>
       </c>
       <c r="I162" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="J162">
-        <v>38.157778759999999</v>
+        <v>38.358968660000002</v>
       </c>
       <c r="K162">
-        <v>140.27243279999999</v>
+        <v>140.38633809999999</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.4">
@@ -8496,28 +8517,28 @@
         <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D163" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E163">
-        <v>9970031</v>
+        <v>9993141</v>
       </c>
       <c r="F163" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H163" s="1">
-        <v>44398</v>
+        <v>44324</v>
       </c>
       <c r="I163" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J163">
-        <v>38.739002319999997</v>
+        <v>38.157778759999999</v>
       </c>
       <c r="K163">
-        <v>139.8327137</v>
+        <v>140.27243279999999</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.4">
@@ -8525,28 +8546,28 @@
         <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D164" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E164">
-        <v>9900827</v>
+        <v>9970031</v>
       </c>
       <c r="F164" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H164" s="1">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="I164" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J164">
-        <v>38.2503168</v>
+        <v>38.739002319999997</v>
       </c>
       <c r="K164">
-        <v>140.3238929</v>
+        <v>139.8327137</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.4">
@@ -8554,28 +8575,28 @@
         <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D165" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E165">
-        <v>9920026</v>
+        <v>9900827</v>
       </c>
       <c r="F165" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H165" s="1">
-        <v>44382</v>
+        <v>44343</v>
       </c>
       <c r="I165" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J165">
-        <v>37.906802800000001</v>
+        <v>38.2503168</v>
       </c>
       <c r="K165">
-        <v>140.12836239999999</v>
+        <v>140.3238929</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.4">
@@ -8583,28 +8604,28 @@
         <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>1109</v>
+        <v>416</v>
       </c>
       <c r="D166" t="s">
-        <v>1110</v>
+        <v>417</v>
       </c>
       <c r="E166">
-        <v>9960023</v>
+        <v>9920026</v>
       </c>
       <c r="F166" t="s">
-        <v>1111</v>
+        <v>418</v>
       </c>
       <c r="H166" s="1">
-        <v>44536</v>
+        <v>44382</v>
       </c>
       <c r="I166" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="J166">
-        <v>38.763345311517902</v>
+        <v>37.906802800000001</v>
       </c>
       <c r="K166">
-        <v>140.30227487116301</v>
+        <v>140.12836239999999</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.4">
@@ -8612,28 +8633,28 @@
         <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>419</v>
+        <v>1109</v>
       </c>
       <c r="D167" t="s">
-        <v>420</v>
+        <v>1110</v>
       </c>
       <c r="E167">
-        <v>9921472</v>
+        <v>9960023</v>
       </c>
       <c r="F167" t="s">
-        <v>1040</v>
+        <v>1111</v>
       </c>
       <c r="H167" s="1">
-        <v>44440</v>
+        <v>44536</v>
       </c>
       <c r="I167" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="J167">
-        <v>37.781742549999997</v>
+        <v>38.763345309999998</v>
       </c>
       <c r="K167">
-        <v>140.1183417</v>
+        <v>140.30227489999999</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.4">
@@ -8641,28 +8662,28 @@
         <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D168" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E168">
-        <v>9921303</v>
+        <v>9921472</v>
       </c>
       <c r="F168" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="H168" s="1">
-        <v>44480</v>
+        <v>44440</v>
       </c>
       <c r="I168" t="s">
         <v>36</v>
       </c>
       <c r="J168">
-        <v>37.78224084</v>
+        <v>37.781742549999997</v>
       </c>
       <c r="K168">
-        <v>140.22733059999999</v>
+        <v>140.1183417</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.4">
@@ -8670,28 +8691,28 @@
         <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D169" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E169">
-        <v>9970029</v>
+        <v>9921303</v>
       </c>
       <c r="F169" t="s">
-        <v>425</v>
+        <v>1045</v>
       </c>
       <c r="H169" s="1">
-        <v>44361</v>
+        <v>44480</v>
       </c>
       <c r="I169" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J169">
-        <v>38.736218299999997</v>
+        <v>37.78224084</v>
       </c>
       <c r="K169">
-        <v>139.83617820000001</v>
+        <v>140.22733059999999</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.4">
@@ -8699,28 +8720,28 @@
         <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D170" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E170">
-        <v>9993114</v>
+        <v>9970029</v>
       </c>
       <c r="F170" t="s">
-        <v>276</v>
+        <v>425</v>
       </c>
       <c r="H170" s="1">
-        <v>44398</v>
+        <v>44361</v>
       </c>
       <c r="I170" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J170">
-        <v>38.12544003</v>
+        <v>38.736218299999997</v>
       </c>
       <c r="K170">
-        <v>140.39363829999999</v>
+        <v>139.83617820000001</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.4">
@@ -8728,28 +8749,28 @@
         <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D171" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E171">
-        <v>9920478</v>
+        <v>9993114</v>
       </c>
       <c r="F171" t="s">
-        <v>429</v>
+        <v>276</v>
       </c>
       <c r="H171" s="1">
-        <v>44447</v>
+        <v>44398</v>
       </c>
       <c r="I171" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J171">
-        <v>38.069729440000003</v>
+        <v>38.12544003</v>
       </c>
       <c r="K171">
-        <v>140.09838049999999</v>
+        <v>140.39363829999999</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.4">
@@ -8757,28 +8778,28 @@
         <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D172" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E172">
-        <v>9960301</v>
+        <v>9920478</v>
       </c>
       <c r="F172" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H172" s="1">
-        <v>44391</v>
+        <v>44447</v>
       </c>
       <c r="I172" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J172">
-        <v>38.606835670000002</v>
+        <v>38.069729440000003</v>
       </c>
       <c r="K172">
-        <v>140.16565729999999</v>
+        <v>140.09838049999999</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.4">
@@ -8786,89 +8807,89 @@
         <v>11</v>
       </c>
       <c r="C173" t="s">
+        <v>430</v>
+      </c>
+      <c r="D173" t="s">
+        <v>431</v>
+      </c>
+      <c r="E173">
+        <v>9960301</v>
+      </c>
+      <c r="F173" t="s">
+        <v>432</v>
+      </c>
+      <c r="H173" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I173" t="s">
+        <v>85</v>
+      </c>
+      <c r="J173">
+        <v>38.606835670000002</v>
+      </c>
+      <c r="K173">
+        <v>140.16565729999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
         <v>433</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D174" t="s">
         <v>434</v>
       </c>
-      <c r="E173">
+      <c r="E174">
         <v>9993292</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F174" t="s">
         <v>435</v>
       </c>
-      <c r="H173" s="1">
+      <c r="H174" s="1">
         <v>44324</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I174" t="s">
         <v>45</v>
       </c>
-      <c r="J173">
+      <c r="J174">
         <v>38.14807364</v>
       </c>
-      <c r="K173">
+      <c r="K174">
         <v>140.26123480000001</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
-        <v>11</v>
-      </c>
-      <c r="B174" t="s">
-        <v>11</v>
-      </c>
-      <c r="C174" t="s">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
         <v>1057</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D175" t="s">
         <v>1058</v>
       </c>
-      <c r="E174">
+      <c r="E175">
         <v>9902241</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F175" t="s">
         <v>1059</v>
       </c>
-      <c r="H174" s="1">
+      <c r="H175" s="1">
         <v>44515</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I175" t="s">
         <v>32</v>
       </c>
-      <c r="J174">
+      <c r="J175">
         <v>38.274130720000002</v>
       </c>
-      <c r="K174">
+      <c r="K175">
         <v>140.41498319999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B175" t="s">
-        <v>11</v>
-      </c>
-      <c r="C175" t="s">
-        <v>436</v>
-      </c>
-      <c r="D175" t="s">
-        <v>437</v>
-      </c>
-      <c r="E175">
-        <v>9996403</v>
-      </c>
-      <c r="F175" t="s">
-        <v>438</v>
-      </c>
-      <c r="H175" s="1">
-        <v>44442</v>
-      </c>
-      <c r="I175" t="s">
-        <v>350</v>
-      </c>
-      <c r="J175">
-        <v>38.687224399999998</v>
-      </c>
-      <c r="K175">
-        <v>140.16037309999999</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.4">
@@ -8876,28 +8897,28 @@
         <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D176" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E176">
-        <v>9995301</v>
+        <v>9996403</v>
       </c>
       <c r="F176" t="s">
-        <v>964</v>
+        <v>438</v>
       </c>
       <c r="H176" s="1">
-        <v>44329</v>
+        <v>44442</v>
       </c>
       <c r="I176" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="J176">
-        <v>38.894387899999998</v>
+        <v>38.687224399999998</v>
       </c>
       <c r="K176">
-        <v>140.25449090000001</v>
+        <v>140.16037309999999</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.4">
@@ -8905,28 +8926,28 @@
         <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D177" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E177">
-        <v>9996403</v>
+        <v>9995301</v>
       </c>
       <c r="F177" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="H177" s="1">
-        <v>44442</v>
+        <v>44329</v>
       </c>
       <c r="I177" t="s">
-        <v>350</v>
+        <v>441</v>
       </c>
       <c r="J177">
-        <v>38.681855900000002</v>
+        <v>38.894387899999998</v>
       </c>
       <c r="K177">
-        <v>140.16474210000001</v>
+        <v>140.25449090000001</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.4">
@@ -8934,16 +8955,16 @@
         <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D178" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E178">
         <v>9996403</v>
       </c>
       <c r="F178" t="s">
-        <v>446</v>
+        <v>956</v>
       </c>
       <c r="H178" s="1">
         <v>44442</v>
@@ -8952,10 +8973,10 @@
         <v>350</v>
       </c>
       <c r="J178">
-        <v>38.662841399999998</v>
+        <v>38.681855900000002</v>
       </c>
       <c r="K178">
-        <v>140.16824020000001</v>
+        <v>140.16474210000001</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.4">
@@ -8963,60 +8984,57 @@
         <v>11</v>
       </c>
       <c r="C179" t="s">
+        <v>444</v>
+      </c>
+      <c r="D179" t="s">
+        <v>445</v>
+      </c>
+      <c r="E179">
+        <v>9996403</v>
+      </c>
+      <c r="F179" t="s">
+        <v>446</v>
+      </c>
+      <c r="H179" s="1">
+        <v>44442</v>
+      </c>
+      <c r="I179" t="s">
+        <v>350</v>
+      </c>
+      <c r="J179">
+        <v>38.662841399999998</v>
+      </c>
+      <c r="K179">
+        <v>140.16824020000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
         <v>447</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D180" t="s">
         <v>448</v>
       </c>
-      <c r="E179">
+      <c r="E180">
         <v>9921471</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F180" t="s">
         <v>1050</v>
       </c>
-      <c r="H179" s="1">
+      <c r="H180" s="1">
         <v>44357</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I180" t="s">
         <v>36</v>
       </c>
-      <c r="J179">
+      <c r="J180">
         <v>37.846435739999997</v>
       </c>
-      <c r="K179">
+      <c r="K180">
         <v>140.09000069999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
-        <v>11</v>
-      </c>
-      <c r="B180" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" t="s">
-        <v>900</v>
-      </c>
-      <c r="D180" t="s">
-        <v>901</v>
-      </c>
-      <c r="E180">
-        <v>9996314</v>
-      </c>
-      <c r="F180" t="s">
-        <v>957</v>
-      </c>
-      <c r="H180" s="1">
-        <v>44424</v>
-      </c>
-      <c r="I180" t="s">
-        <v>350</v>
-      </c>
-      <c r="J180">
-        <v>38.769334200000003</v>
-      </c>
-      <c r="K180">
-        <v>140.1958243</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.4">
@@ -9027,57 +9045,60 @@
         <v>11</v>
       </c>
       <c r="C181" t="s">
+        <v>900</v>
+      </c>
+      <c r="D181" t="s">
+        <v>901</v>
+      </c>
+      <c r="E181">
+        <v>9996314</v>
+      </c>
+      <c r="F181" t="s">
+        <v>957</v>
+      </c>
+      <c r="H181" s="1">
+        <v>44424</v>
+      </c>
+      <c r="I181" t="s">
+        <v>350</v>
+      </c>
+      <c r="J181">
+        <v>38.769334200000003</v>
+      </c>
+      <c r="K181">
+        <v>140.1958243</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
         <v>925</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>926</v>
       </c>
-      <c r="E181">
+      <c r="E182">
         <v>9995521</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F182" t="s">
         <v>965</v>
       </c>
-      <c r="H181" s="1">
+      <c r="H182" s="1">
         <v>44364</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I182" t="s">
         <v>441</v>
       </c>
-      <c r="J181">
+      <c r="J182">
         <v>38.886569190000003</v>
       </c>
-      <c r="K181">
+      <c r="K182">
         <v>140.21355829999999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B182" t="s">
-        <v>11</v>
-      </c>
-      <c r="C182" t="s">
-        <v>449</v>
-      </c>
-      <c r="D182" t="s">
-        <v>450</v>
-      </c>
-      <c r="E182">
-        <v>9996403</v>
-      </c>
-      <c r="F182" t="s">
-        <v>451</v>
-      </c>
-      <c r="H182" s="1">
-        <v>44468</v>
-      </c>
-      <c r="I182" t="s">
-        <v>350</v>
-      </c>
-      <c r="J182">
-        <v>38.676610599999997</v>
-      </c>
-      <c r="K182">
-        <v>140.16416910000001</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.4">
@@ -9085,28 +9106,28 @@
         <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D183" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E183">
-        <v>9995203</v>
+        <v>9996403</v>
       </c>
       <c r="F183" t="s">
-        <v>1009</v>
+        <v>451</v>
       </c>
       <c r="H183" s="1">
-        <v>44434</v>
+        <v>44468</v>
       </c>
       <c r="I183" t="s">
-        <v>152</v>
+        <v>350</v>
       </c>
       <c r="J183">
-        <v>38.786266300000001</v>
+        <v>38.676610599999997</v>
       </c>
       <c r="K183">
-        <v>140.21882020000001</v>
+        <v>140.16416910000001</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.4">
@@ -9114,28 +9135,28 @@
         <v>11</v>
       </c>
       <c r="C184" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D184" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E184">
-        <v>9993114</v>
+        <v>9995203</v>
       </c>
       <c r="F184" t="s">
-        <v>456</v>
+        <v>1009</v>
       </c>
       <c r="H184" s="1">
-        <v>44407</v>
+        <v>44434</v>
       </c>
       <c r="I184" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="J184">
-        <v>38.12480987</v>
+        <v>38.786266300000001</v>
       </c>
       <c r="K184">
-        <v>140.39388650000001</v>
+        <v>140.21882020000001</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.4">
@@ -9143,28 +9164,28 @@
         <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D185" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E185">
-        <v>9994333</v>
+        <v>9993114</v>
       </c>
       <c r="F185" t="s">
-        <v>1032</v>
+        <v>456</v>
       </c>
       <c r="H185" s="1">
-        <v>44386</v>
+        <v>44407</v>
       </c>
       <c r="I185" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="J185">
-        <v>38.569377850000002</v>
+        <v>38.12480987</v>
       </c>
       <c r="K185">
-        <v>140.53152080000001</v>
+        <v>140.39388650000001</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.4">
@@ -9172,89 +9193,89 @@
         <v>11</v>
       </c>
       <c r="C186" t="s">
+        <v>457</v>
+      </c>
+      <c r="D186" t="s">
+        <v>458</v>
+      </c>
+      <c r="E186">
+        <v>9994333</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H186" s="1">
+        <v>44386</v>
+      </c>
+      <c r="I186" t="s">
+        <v>117</v>
+      </c>
+      <c r="J186">
+        <v>38.569377850000002</v>
+      </c>
+      <c r="K186">
+        <v>140.53152080000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
         <v>459</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D187" t="s">
         <v>460</v>
       </c>
-      <c r="E186">
+      <c r="E187">
         <v>9993702</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F187" t="s">
         <v>461</v>
       </c>
-      <c r="H186" s="1">
+      <c r="H187" s="1">
         <v>44383</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I187" t="s">
         <v>324</v>
       </c>
-      <c r="J186">
+      <c r="J187">
         <v>38.458720290000002</v>
       </c>
-      <c r="K186">
+      <c r="K187">
         <v>140.39158119999999</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
-        <v>11</v>
-      </c>
-      <c r="B187" t="s">
-        <v>11</v>
-      </c>
-      <c r="C187" t="s">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
         <v>938</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D188" t="s">
         <v>939</v>
       </c>
-      <c r="E187">
+      <c r="E188">
         <v>9930075</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F188" t="s">
         <v>937</v>
       </c>
-      <c r="H187" s="1">
+      <c r="H188" s="1">
         <v>44371</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I188" t="s">
         <v>58</v>
       </c>
-      <c r="J187">
+      <c r="J188">
         <v>38.120222230000003</v>
       </c>
-      <c r="K187">
+      <c r="K188">
         <v>140.0332889</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B188" t="s">
-        <v>11</v>
-      </c>
-      <c r="C188" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D188" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E188">
-        <v>9970211</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H188" s="1">
-        <v>44525</v>
-      </c>
-      <c r="I188" t="s">
-        <v>25</v>
-      </c>
-      <c r="J188">
-        <v>38.708565530000001</v>
-      </c>
-      <c r="K188">
-        <v>139.9610606</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.4">
@@ -9262,28 +9283,28 @@
         <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>972</v>
+        <v>1088</v>
       </c>
       <c r="D189" t="s">
-        <v>973</v>
+        <v>1089</v>
       </c>
       <c r="E189">
-        <v>9900721</v>
+        <v>9970211</v>
       </c>
       <c r="F189" t="s">
-        <v>974</v>
+        <v>1090</v>
       </c>
       <c r="H189" s="1">
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="I189" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J189">
-        <v>38.393942029999998</v>
+        <v>38.708565530000001</v>
       </c>
       <c r="K189">
-        <v>139.99477329999999</v>
+        <v>139.9610606</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.4">
@@ -9291,28 +9312,28 @@
         <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>1102</v>
+        <v>972</v>
       </c>
       <c r="D190" t="s">
-        <v>1103</v>
+        <v>973</v>
       </c>
       <c r="E190">
-        <v>9994333</v>
+        <v>9900721</v>
       </c>
       <c r="F190" t="s">
-        <v>1104</v>
+        <v>974</v>
       </c>
       <c r="H190" s="1">
-        <v>44532</v>
+        <v>44518</v>
       </c>
       <c r="I190" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="J190">
-        <v>38.569261079999997</v>
+        <v>38.393942029999998</v>
       </c>
       <c r="K190">
-        <v>140.53184089999999</v>
+        <v>139.99477329999999</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.4">
@@ -9320,28 +9341,28 @@
         <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>462</v>
+        <v>1102</v>
       </c>
       <c r="D191" t="s">
-        <v>463</v>
+        <v>1103</v>
       </c>
       <c r="E191">
-        <v>9993242</v>
+        <v>9994333</v>
       </c>
       <c r="F191" t="s">
-        <v>464</v>
+        <v>1104</v>
       </c>
       <c r="H191" s="1">
-        <v>44324</v>
+        <v>44532</v>
       </c>
       <c r="I191" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="J191">
-        <v>38.148244339999998</v>
+        <v>38.569261079999997</v>
       </c>
       <c r="K191">
-        <v>140.26273</v>
+        <v>140.53184089999999</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.4">
@@ -9349,28 +9370,28 @@
         <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D192" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E192">
-        <v>9993156</v>
+        <v>9993242</v>
       </c>
       <c r="F192" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H192" s="1">
-        <v>44453</v>
+        <v>44324</v>
       </c>
       <c r="I192" t="s">
         <v>45</v>
       </c>
       <c r="J192">
-        <v>38.160390120000002</v>
+        <v>38.148244339999998</v>
       </c>
       <c r="K192">
-        <v>140.27623800000001</v>
+        <v>140.26273</v>
       </c>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.4">
@@ -9378,28 +9399,28 @@
         <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D193" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E193">
-        <v>9971117</v>
+        <v>9993156</v>
       </c>
       <c r="F193" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H193" s="1">
-        <v>44342</v>
+        <v>44453</v>
       </c>
       <c r="I193" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J193">
-        <v>38.787796870000001</v>
+        <v>38.160390120000002</v>
       </c>
       <c r="K193">
-        <v>139.7607749</v>
+        <v>140.27623800000001</v>
       </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.4">
@@ -9407,28 +9428,28 @@
         <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D194" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E194">
-        <v>9971201</v>
+        <v>9971117</v>
       </c>
       <c r="F194" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H194" s="1">
-        <v>44334</v>
+        <v>44342</v>
       </c>
       <c r="I194" t="s">
         <v>25</v>
       </c>
       <c r="J194">
-        <v>38.782334319999997</v>
+        <v>38.787796870000001</v>
       </c>
       <c r="K194">
-        <v>139.7538232</v>
+        <v>139.7607749</v>
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.4">
@@ -9436,28 +9457,28 @@
         <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D195" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E195">
-        <v>9970752</v>
+        <v>9971201</v>
       </c>
       <c r="F195" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H195" s="1">
-        <v>44487</v>
+        <v>44334</v>
       </c>
       <c r="I195" t="s">
         <v>25</v>
       </c>
       <c r="J195">
-        <v>38.693626639999998</v>
+        <v>38.782334319999997</v>
       </c>
       <c r="K195">
-        <v>139.7693539</v>
+        <v>139.7538232</v>
       </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.4">
@@ -9465,28 +9486,28 @@
         <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D196" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E196">
-        <v>9993242</v>
+        <v>9970752</v>
       </c>
       <c r="F196" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H196" s="1">
-        <v>44354</v>
+        <v>44487</v>
       </c>
       <c r="I196" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J196">
-        <v>38.147948659999997</v>
+        <v>38.693626639999998</v>
       </c>
       <c r="K196">
-        <v>140.26235840000001</v>
+        <v>139.7693539</v>
       </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.4">
@@ -9494,31 +9515,28 @@
         <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D197" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E197">
-        <v>9993114</v>
+        <v>9993242</v>
       </c>
       <c r="F197" t="s">
-        <v>482</v>
-      </c>
-      <c r="G197" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H197" s="1">
-        <v>44432</v>
+        <v>44354</v>
       </c>
       <c r="I197" t="s">
         <v>45</v>
       </c>
       <c r="J197">
-        <v>38.125705570000001</v>
+        <v>38.147948659999997</v>
       </c>
       <c r="K197">
-        <v>140.39327700000001</v>
+        <v>140.26235840000001</v>
       </c>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.4">
@@ -9526,28 +9544,31 @@
         <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D198" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E198">
-        <v>9995205</v>
+        <v>9993114</v>
       </c>
       <c r="F198" t="s">
-        <v>1012</v>
+        <v>482</v>
+      </c>
+      <c r="G198" t="s">
+        <v>483</v>
       </c>
       <c r="H198" s="1">
-        <v>44406</v>
+        <v>44432</v>
       </c>
       <c r="I198" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="J198">
-        <v>38.807391789999997</v>
+        <v>38.125705570000001</v>
       </c>
       <c r="K198">
-        <v>140.19906159999999</v>
+        <v>140.39327700000001</v>
       </c>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.4">
@@ -9555,28 +9576,28 @@
         <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D199" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E199">
-        <v>9997204</v>
+        <v>9995205</v>
       </c>
       <c r="F199" t="s">
-        <v>488</v>
+        <v>1012</v>
       </c>
       <c r="H199" s="1">
-        <v>44324</v>
+        <v>44406</v>
       </c>
       <c r="I199" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="J199">
-        <v>38.614911990000003</v>
+        <v>38.807391789999997</v>
       </c>
       <c r="K199">
-        <v>139.60723110000001</v>
+        <v>140.19906159999999</v>
       </c>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.4">
@@ -9584,28 +9605,28 @@
         <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D200" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E200">
-        <v>9993702</v>
+        <v>9997204</v>
       </c>
       <c r="F200" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H200" s="1">
-        <v>44396</v>
+        <v>44324</v>
       </c>
       <c r="I200" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="J200">
-        <v>38.458225200000001</v>
+        <v>38.614911990000003</v>
       </c>
       <c r="K200">
-        <v>140.38943649999999</v>
+        <v>139.60723110000001</v>
       </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.4">
@@ -9613,28 +9634,28 @@
         <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D201" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E201">
-        <v>9960301</v>
+        <v>9993702</v>
       </c>
       <c r="F201" t="s">
-        <v>985</v>
+        <v>491</v>
       </c>
       <c r="H201" s="1">
-        <v>44452</v>
+        <v>44396</v>
       </c>
       <c r="I201" t="s">
-        <v>85</v>
+        <v>324</v>
       </c>
       <c r="J201">
-        <v>38.606919320000003</v>
+        <v>38.458225200000001</v>
       </c>
       <c r="K201">
-        <v>140.16582740000001</v>
+        <v>140.38943649999999</v>
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.4">
@@ -9642,28 +9663,28 @@
         <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="D202" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="E202">
-        <v>9900039</v>
+        <v>9960301</v>
       </c>
       <c r="F202" t="s">
-        <v>510</v>
+        <v>985</v>
       </c>
       <c r="H202" s="1">
-        <v>44398</v>
+        <v>44452</v>
       </c>
       <c r="I202" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="J202">
-        <v>38.249989309999997</v>
+        <v>38.606919320000003</v>
       </c>
       <c r="K202">
-        <v>140.33010039999999</v>
+        <v>140.16582740000001</v>
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
@@ -9671,28 +9692,28 @@
         <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D203" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E203">
         <v>9900039</v>
       </c>
       <c r="F203" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H203" s="1">
-        <v>44491</v>
+        <v>44398</v>
       </c>
       <c r="I203" t="s">
         <v>32</v>
       </c>
       <c r="J203">
-        <v>38.245077600000002</v>
+        <v>38.249989309999997</v>
       </c>
       <c r="K203">
-        <v>140.32910140000001</v>
+        <v>140.33010039999999</v>
       </c>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
@@ -9700,28 +9721,28 @@
         <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D204" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E204">
-        <v>9930066</v>
+        <v>9900039</v>
       </c>
       <c r="F204" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H204" s="1">
-        <v>44413</v>
+        <v>44491</v>
       </c>
       <c r="I204" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="J204">
-        <v>38.090310840000001</v>
+        <v>38.245077600000002</v>
       </c>
       <c r="K204">
-        <v>140.03695279999999</v>
+        <v>140.32910140000001</v>
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.4">
@@ -9729,28 +9750,28 @@
         <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D205" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E205">
-        <v>9940025</v>
+        <v>9930066</v>
       </c>
       <c r="F205" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H205" s="1">
-        <v>44324</v>
+        <v>44413</v>
       </c>
       <c r="I205" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="J205">
-        <v>38.35763747</v>
+        <v>38.090310840000001</v>
       </c>
       <c r="K205">
-        <v>140.380134</v>
+        <v>140.03695279999999</v>
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.4">
@@ -9758,28 +9779,28 @@
         <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D206" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E206">
-        <v>9994227</v>
+        <v>9940025</v>
       </c>
       <c r="F206" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H206" s="1">
-        <v>44455</v>
+        <v>44324</v>
       </c>
       <c r="I206" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="J206">
-        <v>38.605867750000002</v>
+        <v>38.35763747</v>
       </c>
       <c r="K206">
-        <v>140.4039295</v>
+        <v>140.380134</v>
       </c>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.4">
@@ -9787,28 +9808,28 @@
         <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>1091</v>
+        <v>519</v>
       </c>
       <c r="D207" t="s">
-        <v>1092</v>
+        <v>520</v>
       </c>
       <c r="E207">
-        <v>9992241</v>
+        <v>9994227</v>
       </c>
       <c r="F207" t="s">
-        <v>1093</v>
+        <v>521</v>
       </c>
       <c r="H207" s="1">
-        <v>44530</v>
+        <v>44455</v>
       </c>
       <c r="I207" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="J207">
-        <v>38.04563812</v>
+        <v>38.605867750000002</v>
       </c>
       <c r="K207">
-        <v>140.1502481</v>
+        <v>140.4039295</v>
       </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.4">
@@ -9816,498 +9837,495 @@
         <v>11</v>
       </c>
       <c r="C208" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E208">
+        <v>9992241</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H208" s="1">
+        <v>44530</v>
+      </c>
+      <c r="I208" t="s">
+        <v>15</v>
+      </c>
+      <c r="J208">
+        <v>38.04563812</v>
+      </c>
+      <c r="K208">
+        <v>140.1502481</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
         <v>522</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D209" t="s">
         <v>523</v>
       </c>
-      <c r="E208">
+      <c r="E209">
         <v>9940057</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F209" t="s">
         <v>524</v>
       </c>
-      <c r="H208" s="1">
+      <c r="H209" s="1">
         <v>44414</v>
       </c>
-      <c r="I208" t="s">
+      <c r="I209" t="s">
         <v>79</v>
       </c>
-      <c r="J208">
+      <c r="J209">
         <v>38.320275219999999</v>
       </c>
-      <c r="K208">
+      <c r="K209">
         <v>140.3683336</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B209" t="s">
-        <v>11</v>
-      </c>
-      <c r="C209" t="s">
+    <row r="210" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
         <v>494</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D210" t="s">
         <v>495</v>
       </c>
-      <c r="E209">
+      <c r="E210">
         <v>9993511</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F210" t="s">
         <v>496</v>
       </c>
-      <c r="H209" s="1">
+      <c r="H210" s="1">
         <v>44390</v>
       </c>
-      <c r="I209" t="s">
+      <c r="I210" t="s">
         <v>497</v>
       </c>
-      <c r="J209">
+      <c r="J210">
         <v>38.417398970000001</v>
       </c>
-      <c r="K209">
+      <c r="K210">
         <v>140.32186780000001</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B210" t="s">
-        <v>11</v>
-      </c>
-      <c r="C210" t="s">
+    <row r="211" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s">
         <v>498</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D211" t="s">
         <v>499</v>
       </c>
-      <c r="E210">
+      <c r="E211">
         <v>9900402</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F211" t="s">
         <v>500</v>
       </c>
-      <c r="H210" s="1">
+      <c r="H211" s="1">
         <v>44391</v>
       </c>
-      <c r="I210" t="s">
+      <c r="I211" t="s">
         <v>357</v>
       </c>
-      <c r="J210">
+      <c r="J211">
         <v>38.341159900000001</v>
       </c>
-      <c r="K210">
+      <c r="K211">
         <v>140.27563689999999</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B211" t="s">
-        <v>11</v>
-      </c>
-      <c r="C211" t="s">
+    <row r="212" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
         <v>525</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D212" t="s">
         <v>526</v>
       </c>
-      <c r="E211">
+      <c r="E212">
         <v>9940025</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F212" t="s">
         <v>527</v>
       </c>
-      <c r="H211" s="1">
+      <c r="H212" s="1">
         <v>44363</v>
       </c>
-      <c r="I211" t="s">
+      <c r="I212" t="s">
         <v>79</v>
       </c>
-      <c r="J211">
+      <c r="J212">
         <v>38.359386270000002</v>
       </c>
-      <c r="K211">
+      <c r="K212">
         <v>140.3820063</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B212" t="s">
-        <v>11</v>
-      </c>
-      <c r="C212" t="s">
+    <row r="213" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" t="s">
         <v>501</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D213" t="s">
         <v>502</v>
       </c>
-      <c r="E212">
+      <c r="E213">
         <v>9996105</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F213" t="s">
         <v>503</v>
       </c>
-      <c r="H212" s="1">
+      <c r="H213" s="1">
         <v>44446</v>
       </c>
-      <c r="I212" t="s">
+      <c r="I213" t="s">
         <v>48</v>
       </c>
-      <c r="J212">
+      <c r="J213">
         <v>38.707967449999998</v>
       </c>
-      <c r="K212">
+      <c r="K213">
         <v>140.55149589999999</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B213" t="s">
-        <v>11</v>
-      </c>
-      <c r="C213" t="s">
+    <row r="214" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B214" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" t="s">
         <v>504</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D214" t="s">
         <v>504</v>
       </c>
-      <c r="E213">
+      <c r="E214">
         <v>9993114</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F214" t="s">
         <v>482</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G214" t="s">
         <v>483</v>
       </c>
-      <c r="H213" s="1">
+      <c r="H214" s="1">
         <v>44391</v>
       </c>
-      <c r="I213" t="s">
+      <c r="I214" t="s">
         <v>45</v>
       </c>
-      <c r="J213">
+      <c r="J214">
         <v>38.124542429999998</v>
       </c>
-      <c r="K213">
+      <c r="K214">
         <v>140.39495199999999</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B214" t="s">
-        <v>11</v>
-      </c>
-      <c r="C214" t="s">
+    <row r="215" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" t="s">
         <v>505</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D215" t="s">
         <v>506</v>
       </c>
-      <c r="E214">
+      <c r="E215">
         <v>9902333</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F215" t="s">
         <v>507</v>
       </c>
-      <c r="H214" s="1">
+      <c r="H215" s="1">
         <v>44372</v>
       </c>
-      <c r="I214" t="s">
+      <c r="I215" t="s">
         <v>32</v>
       </c>
-      <c r="J214">
+      <c r="J215">
         <v>38.21228378</v>
       </c>
-      <c r="K214">
+      <c r="K215">
         <v>140.33508800000001</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C215" t="s">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" t="s">
         <v>528</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D216" t="s">
         <v>529</v>
       </c>
-      <c r="E215">
+      <c r="E216">
         <v>9971201</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F216" t="s">
         <v>530</v>
       </c>
-      <c r="H215" s="1">
+      <c r="H216" s="1">
         <v>44348</v>
       </c>
-      <c r="I215" t="s">
+      <c r="I216" t="s">
         <v>25</v>
       </c>
-      <c r="J215">
+      <c r="J216">
         <v>38.779910139999998</v>
       </c>
-      <c r="K215">
+      <c r="K216">
         <v>139.75145649999999</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B216" t="s">
-        <v>11</v>
-      </c>
-      <c r="C216" t="s">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B217" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" t="s">
         <v>531</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D217" t="s">
         <v>532</v>
       </c>
-      <c r="E216">
+      <c r="E217">
         <v>9920023</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F217" t="s">
         <v>533</v>
       </c>
-      <c r="H216" s="1">
+      <c r="H217" s="1">
         <v>44328</v>
       </c>
-      <c r="I216" t="s">
+      <c r="I217" t="s">
         <v>36</v>
       </c>
-      <c r="J216">
+      <c r="J217">
         <v>37.919593650000003</v>
       </c>
-      <c r="K216">
+      <c r="K217">
         <v>140.12033030000001</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B217" t="s">
-        <v>11</v>
-      </c>
-      <c r="C217" t="s">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" t="s">
         <v>534</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D218" t="s">
         <v>535</v>
       </c>
-      <c r="E217">
+      <c r="E218">
         <v>9993720</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F218" t="s">
         <v>536</v>
       </c>
-      <c r="H217" s="1">
+      <c r="H218" s="1">
         <v>44431</v>
       </c>
-      <c r="I217" t="s">
+      <c r="I218" t="s">
         <v>324</v>
       </c>
-      <c r="J217">
+      <c r="J218">
         <v>38.428425130000001</v>
       </c>
-      <c r="K217">
+      <c r="K218">
         <v>140.38397399999999</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B218" t="s">
-        <v>11</v>
-      </c>
-      <c r="C218" t="s">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B219" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" t="s">
         <v>537</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D219" t="s">
         <v>538</v>
       </c>
-      <c r="E218">
+      <c r="E219">
         <v>9960301</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F219" t="s">
         <v>539</v>
       </c>
-      <c r="H218" s="1">
+      <c r="H219" s="1">
         <v>44447</v>
       </c>
-      <c r="I218" t="s">
+      <c r="I219" t="s">
         <v>85</v>
       </c>
-      <c r="J218">
+      <c r="J219">
         <v>38.608330559999999</v>
       </c>
-      <c r="K218">
+      <c r="K219">
         <v>140.1661751</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B219" t="s">
-        <v>11</v>
-      </c>
-      <c r="C219" t="s">
+    <row r="220" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B220" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" t="s">
         <v>540</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D220" t="s">
         <v>541</v>
       </c>
-      <c r="E219">
+      <c r="E220">
         <v>9920076</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F220" t="s">
         <v>542</v>
       </c>
-      <c r="H219" s="1">
+      <c r="H220" s="1">
         <v>44344</v>
       </c>
-      <c r="I219" t="s">
+      <c r="I220" t="s">
         <v>36</v>
       </c>
-      <c r="J219">
+      <c r="J220">
         <v>37.879841800000001</v>
       </c>
-      <c r="K219">
+      <c r="K220">
         <v>140.05561349999999</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B220" t="s">
-        <v>11</v>
-      </c>
-      <c r="C220" t="s">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B221" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" t="s">
         <v>543</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D221" t="s">
         <v>544</v>
       </c>
-      <c r="E220">
+      <c r="E221">
         <v>9993112</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F221" t="s">
         <v>545</v>
       </c>
-      <c r="H220" s="1">
+      <c r="H221" s="1">
         <v>44369</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I221" t="s">
         <v>45</v>
       </c>
-      <c r="J220">
+      <c r="J221">
         <v>38.15990274</v>
       </c>
-      <c r="K220">
+      <c r="K221">
         <v>140.37795510000001</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B221" t="s">
-        <v>11</v>
-      </c>
-      <c r="C221" t="s">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" t="s">
         <v>548</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D222" t="s">
         <v>548</v>
       </c>
-      <c r="E221">
+      <c r="E222">
         <v>9921461</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F222" t="s">
         <v>1048</v>
       </c>
-      <c r="H221" s="1">
+      <c r="H222" s="1">
         <v>44498</v>
       </c>
-      <c r="I221" t="s">
+      <c r="I222" t="s">
         <v>36</v>
       </c>
-      <c r="J221">
+      <c r="J222">
         <v>37.776938520000002</v>
       </c>
-      <c r="K221">
+      <c r="K222">
         <v>140.13559369999999</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B222" t="s">
-        <v>11</v>
-      </c>
-      <c r="C222" t="s">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B223" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" t="s">
         <v>546</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D223" t="s">
         <v>546</v>
-      </c>
-      <c r="E222">
-        <v>9993112</v>
-      </c>
-      <c r="F222" t="s">
-        <v>547</v>
-      </c>
-      <c r="H222" s="1">
-        <v>44375</v>
-      </c>
-      <c r="I222" t="s">
-        <v>45</v>
-      </c>
-      <c r="J222">
-        <v>38.159695249999999</v>
-      </c>
-      <c r="K222">
-        <v>140.37950280000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B223" t="s">
-        <v>11</v>
-      </c>
-      <c r="C223" t="s">
-        <v>549</v>
-      </c>
-      <c r="D223" t="s">
-        <v>550</v>
       </c>
       <c r="E223">
         <v>9993112</v>
       </c>
       <c r="F223" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H223" s="1">
-        <v>44441</v>
+        <v>44375</v>
       </c>
       <c r="I223" t="s">
         <v>45</v>
       </c>
       <c r="J223">
-        <v>38.159045169999999</v>
+        <v>38.159695249999999</v>
       </c>
       <c r="K223">
-        <v>140.37854129999999</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A224" t="s">
-        <v>11</v>
-      </c>
+        <v>140.37950280000001</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B224" t="s">
         <v>11</v>
       </c>
       <c r="C224" t="s">
-        <v>920</v>
+        <v>549</v>
       </c>
       <c r="D224" t="s">
-        <v>921</v>
+        <v>550</v>
       </c>
       <c r="E224">
         <v>9993112</v>
       </c>
       <c r="F224" t="s">
-        <v>922</v>
+        <v>551</v>
       </c>
       <c r="H224" s="1">
-        <v>44391</v>
+        <v>44441</v>
       </c>
       <c r="I224" t="s">
         <v>45</v>
       </c>
       <c r="J224">
-        <v>38.159705500000001</v>
+        <v>38.159045169999999</v>
       </c>
       <c r="K224">
-        <v>140.37882300000001</v>
+        <v>140.37854129999999</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.4">
@@ -10318,57 +10336,60 @@
         <v>11</v>
       </c>
       <c r="C225" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D225" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E225">
         <v>9993112</v>
       </c>
       <c r="F225" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H225" s="1">
-        <v>44368</v>
+        <v>44391</v>
       </c>
       <c r="I225" t="s">
         <v>45</v>
       </c>
       <c r="J225">
-        <v>38.159917239999999</v>
+        <v>38.159705500000001</v>
       </c>
       <c r="K225">
-        <v>140.37790770000001</v>
+        <v>140.37882300000001</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
+        <v>11</v>
+      </c>
       <c r="B226" t="s">
         <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>552</v>
+        <v>923</v>
       </c>
       <c r="D226" t="s">
-        <v>552</v>
+        <v>923</v>
       </c>
       <c r="E226">
         <v>9993112</v>
       </c>
       <c r="F226" t="s">
-        <v>553</v>
+        <v>924</v>
       </c>
       <c r="H226" s="1">
-        <v>44504</v>
+        <v>44368</v>
       </c>
       <c r="I226" t="s">
         <v>45</v>
       </c>
       <c r="J226">
-        <v>38.15983877</v>
+        <v>38.159917239999999</v>
       </c>
       <c r="K226">
-        <v>140.37913789999999</v>
+        <v>140.37790770000001</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.4">
@@ -10376,28 +10397,28 @@
         <v>11</v>
       </c>
       <c r="C227" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D227" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E227">
         <v>9993112</v>
       </c>
       <c r="F227" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H227" s="1">
-        <v>44441</v>
+        <v>44504</v>
       </c>
       <c r="I227" t="s">
         <v>45</v>
       </c>
       <c r="J227">
-        <v>38.159430370000003</v>
+        <v>38.15983877</v>
       </c>
       <c r="K227">
-        <v>140.37863239999999</v>
+        <v>140.37913789999999</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.4">
@@ -10405,28 +10426,28 @@
         <v>11</v>
       </c>
       <c r="C228" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D228" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E228">
         <v>9993112</v>
       </c>
       <c r="F228" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H228" s="1">
-        <v>44412</v>
+        <v>44441</v>
       </c>
       <c r="I228" t="s">
         <v>45</v>
       </c>
       <c r="J228">
-        <v>38.159571919999998</v>
+        <v>38.159430370000003</v>
       </c>
       <c r="K228">
-        <v>140.37917049999999</v>
+        <v>140.37863239999999</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.4">
@@ -10434,28 +10455,28 @@
         <v>11</v>
       </c>
       <c r="C229" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D229" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E229">
-        <v>9921461</v>
+        <v>9993112</v>
       </c>
       <c r="F229" t="s">
-        <v>1046</v>
+        <v>557</v>
       </c>
       <c r="H229" s="1">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="I229" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J229">
-        <v>37.776980100000003</v>
+        <v>38.159571919999998</v>
       </c>
       <c r="K229">
-        <v>140.13519239999999</v>
+        <v>140.37917049999999</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.4">
@@ -10463,28 +10484,28 @@
         <v>11</v>
       </c>
       <c r="C230" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D230" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E230">
-        <v>9921121</v>
+        <v>9921461</v>
       </c>
       <c r="F230" t="s">
-        <v>561</v>
+        <v>1046</v>
       </c>
       <c r="H230" s="1">
-        <v>44413</v>
+        <v>44448</v>
       </c>
       <c r="I230" t="s">
         <v>36</v>
       </c>
       <c r="J230">
-        <v>37.862133700000001</v>
+        <v>37.776980100000003</v>
       </c>
       <c r="K230">
-        <v>140.2382672</v>
+        <v>140.13519239999999</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.4">
@@ -10492,28 +10513,28 @@
         <v>11</v>
       </c>
       <c r="C231" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D231" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E231">
-        <v>9921461</v>
+        <v>9921121</v>
       </c>
       <c r="F231" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H231" s="1">
-        <v>44498</v>
+        <v>44413</v>
       </c>
       <c r="I231" t="s">
         <v>36</v>
       </c>
       <c r="J231">
-        <v>37.777220800000002</v>
+        <v>37.862133700000001</v>
       </c>
       <c r="K231">
-        <v>140.135728</v>
+        <v>140.2382672</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.4">
@@ -10521,28 +10542,28 @@
         <v>11</v>
       </c>
       <c r="C232" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D232" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E232">
-        <v>9993112</v>
+        <v>9921461</v>
       </c>
       <c r="F232" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H232" s="1">
-        <v>44476</v>
+        <v>44498</v>
       </c>
       <c r="I232" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J232">
-        <v>38.159483809999998</v>
+        <v>37.777220800000002</v>
       </c>
       <c r="K232">
-        <v>140.37947550000001</v>
+        <v>140.135728</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.4">
@@ -10550,28 +10571,28 @@
         <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D233" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E233">
-        <v>9993114</v>
+        <v>9993112</v>
       </c>
       <c r="F233" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H233" s="1">
-        <v>44391</v>
+        <v>44476</v>
       </c>
       <c r="I233" t="s">
         <v>45</v>
       </c>
       <c r="J233">
-        <v>38.124378900000004</v>
+        <v>38.159483809999998</v>
       </c>
       <c r="K233">
-        <v>140.40869029999999</v>
+        <v>140.37947550000001</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.4">
@@ -10579,28 +10600,28 @@
         <v>11</v>
       </c>
       <c r="C234" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D234" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E234">
         <v>9993114</v>
       </c>
       <c r="F234" t="s">
-        <v>276</v>
+        <v>570</v>
       </c>
       <c r="H234" s="1">
-        <v>44398</v>
+        <v>44391</v>
       </c>
       <c r="I234" t="s">
         <v>45</v>
       </c>
       <c r="J234">
-        <v>38.124849230000002</v>
+        <v>38.124378900000004</v>
       </c>
       <c r="K234">
-        <v>140.39355649999999</v>
+        <v>140.40869029999999</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.4">
@@ -10608,28 +10629,28 @@
         <v>11</v>
       </c>
       <c r="C235" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D235" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E235">
-        <v>9921461</v>
+        <v>9993114</v>
       </c>
       <c r="F235" t="s">
-        <v>1049</v>
+        <v>276</v>
       </c>
       <c r="H235" s="1">
-        <v>44391</v>
+        <v>44398</v>
       </c>
       <c r="I235" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J235">
-        <v>37.77772324</v>
+        <v>38.124849230000002</v>
       </c>
       <c r="K235">
-        <v>140.13578699999999</v>
+        <v>140.39355649999999</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.4">
@@ -10637,28 +10658,28 @@
         <v>11</v>
       </c>
       <c r="C236" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D236" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E236">
-        <v>9902301</v>
+        <v>9921461</v>
       </c>
       <c r="F236" t="s">
-        <v>578</v>
+        <v>1049</v>
       </c>
       <c r="H236" s="1">
-        <v>44413</v>
+        <v>44391</v>
       </c>
       <c r="I236" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J236">
-        <v>38.162945700000002</v>
+        <v>37.77772324</v>
       </c>
       <c r="K236">
-        <v>140.39471090000001</v>
+        <v>140.13578699999999</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.4">
@@ -10666,28 +10687,28 @@
         <v>11</v>
       </c>
       <c r="C237" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D237" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E237">
-        <v>9993114</v>
+        <v>9902301</v>
       </c>
       <c r="F237" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="H237" s="1">
-        <v>44501</v>
+        <v>44413</v>
       </c>
       <c r="I237" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J237">
-        <v>38.125451310000003</v>
+        <v>38.162945700000002</v>
       </c>
       <c r="K237">
-        <v>140.39358139999999</v>
+        <v>140.39471090000001</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.4">
@@ -10695,28 +10716,28 @@
         <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D238" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E238">
-        <v>9920076</v>
+        <v>9993114</v>
       </c>
       <c r="F238" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H238" s="1">
-        <v>44372</v>
+        <v>44501</v>
       </c>
       <c r="I238" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J238">
-        <v>37.880881309999999</v>
+        <v>38.125451310000003</v>
       </c>
       <c r="K238">
-        <v>140.05243150000001</v>
+        <v>140.39358139999999</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.4">
@@ -10724,28 +10745,28 @@
         <v>11</v>
       </c>
       <c r="C239" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D239" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E239">
-        <v>9970021</v>
+        <v>9920076</v>
       </c>
       <c r="F239" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H239" s="1">
-        <v>44427</v>
+        <v>44372</v>
       </c>
       <c r="I239" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J239">
-        <v>38.736110500000002</v>
+        <v>37.880881309999999</v>
       </c>
       <c r="K239">
-        <v>139.83616559999999</v>
+        <v>140.05243150000001</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.4">
@@ -10753,28 +10774,28 @@
         <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D240" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E240">
-        <v>9996211</v>
+        <v>9970021</v>
       </c>
       <c r="F240" t="s">
-        <v>1000</v>
+        <v>584</v>
       </c>
       <c r="H240" s="1">
-        <v>44342</v>
+        <v>44427</v>
       </c>
       <c r="I240" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J240">
-        <v>38.754444530000001</v>
+        <v>38.736110500000002</v>
       </c>
       <c r="K240">
-        <v>140.4125779</v>
+        <v>139.83616559999999</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.4">
@@ -10782,28 +10803,28 @@
         <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D241" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E241">
-        <v>9970011</v>
+        <v>9996211</v>
       </c>
       <c r="F241" t="s">
-        <v>589</v>
+        <v>1000</v>
       </c>
       <c r="H241" s="1">
-        <v>44333</v>
+        <v>44342</v>
       </c>
       <c r="I241" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="J241">
-        <v>38.739648559999999</v>
+        <v>38.754444530000001</v>
       </c>
       <c r="K241">
-        <v>139.83698649999999</v>
+        <v>140.4125779</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.4">
@@ -10811,28 +10832,28 @@
         <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D242" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E242">
-        <v>9990602</v>
+        <v>9970011</v>
       </c>
       <c r="F242" t="s">
-        <v>1023</v>
+        <v>589</v>
       </c>
       <c r="H242" s="1">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="I242" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
       <c r="J242">
-        <v>38.062876950000003</v>
+        <v>38.739648559999999</v>
       </c>
       <c r="K242">
-        <v>139.99177370000001</v>
+        <v>139.83698649999999</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.4">
@@ -10840,28 +10861,28 @@
         <v>11</v>
       </c>
       <c r="C243" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D243" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E243">
-        <v>9960002</v>
+        <v>9990602</v>
       </c>
       <c r="F243" t="s">
-        <v>593</v>
+        <v>1023</v>
       </c>
       <c r="H243" s="1">
-        <v>44453</v>
+        <v>44392</v>
       </c>
       <c r="I243" t="s">
-        <v>156</v>
+        <v>304</v>
       </c>
       <c r="J243">
-        <v>38.750298600000001</v>
+        <v>38.062876950000003</v>
       </c>
       <c r="K243">
-        <v>140.31033439999999</v>
+        <v>139.99177370000001</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.4">
@@ -10869,28 +10890,28 @@
         <v>11</v>
       </c>
       <c r="C244" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D244" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E244">
-        <v>9900031</v>
+        <v>9960002</v>
       </c>
       <c r="F244" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H244" s="1">
-        <v>44357</v>
+        <v>44453</v>
       </c>
       <c r="I244" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="J244">
-        <v>38.246562859999997</v>
+        <v>38.750298600000001</v>
       </c>
       <c r="K244">
-        <v>140.33349150000001</v>
+        <v>140.31033439999999</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.4">
@@ -10898,28 +10919,28 @@
         <v>11</v>
       </c>
       <c r="C245" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D245" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E245">
-        <v>9900039</v>
+        <v>9900031</v>
       </c>
       <c r="F245" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H245" s="1">
-        <v>44424</v>
+        <v>44357</v>
       </c>
       <c r="I245" t="s">
         <v>32</v>
       </c>
       <c r="J245">
-        <v>38.250842540000001</v>
+        <v>38.246562859999997</v>
       </c>
       <c r="K245">
-        <v>140.32959650000001</v>
+        <v>140.33349150000001</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.4">
@@ -10927,28 +10948,28 @@
         <v>11</v>
       </c>
       <c r="C246" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D246" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E246">
-        <v>9980828</v>
+        <v>9900039</v>
       </c>
       <c r="F246" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H246" s="1">
-        <v>44386</v>
+        <v>44424</v>
       </c>
       <c r="I246" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="J246">
-        <v>38.891120200000003</v>
+        <v>38.250842540000001</v>
       </c>
       <c r="K246">
-        <v>139.85003080000001</v>
+        <v>140.32959650000001</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.4">
@@ -10956,28 +10977,28 @@
         <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D247" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E247">
-        <v>9970857</v>
+        <v>9980828</v>
       </c>
       <c r="F247" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H247" s="1">
-        <v>44351</v>
+        <v>44386</v>
       </c>
       <c r="I247" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="J247">
-        <v>38.735079769999999</v>
+        <v>38.891120200000003</v>
       </c>
       <c r="K247">
-        <v>139.79695459999999</v>
+        <v>139.85003080000001</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.4">
@@ -10985,28 +11006,28 @@
         <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D248" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E248">
-        <v>9930041</v>
+        <v>9970857</v>
       </c>
       <c r="F248" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H248" s="1">
-        <v>44329</v>
+        <v>44351</v>
       </c>
       <c r="I248" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="J248">
-        <v>38.090858420000004</v>
+        <v>38.735079769999999</v>
       </c>
       <c r="K248">
-        <v>140.03452160000001</v>
+        <v>139.79695459999999</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.4">
@@ -11014,28 +11035,28 @@
         <v>11</v>
       </c>
       <c r="C249" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D249" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E249">
-        <v>9940025</v>
+        <v>9930041</v>
       </c>
       <c r="F249" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H249" s="1">
-        <v>44426</v>
+        <v>44329</v>
       </c>
       <c r="I249" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="J249">
-        <v>38.359594250000001</v>
+        <v>38.090858420000004</v>
       </c>
       <c r="K249">
-        <v>140.3813701</v>
+        <v>140.03452160000001</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.4">
@@ -11043,89 +11064,89 @@
         <v>11</v>
       </c>
       <c r="C250" t="s">
+        <v>607</v>
+      </c>
+      <c r="D250" t="s">
+        <v>608</v>
+      </c>
+      <c r="E250">
+        <v>9940025</v>
+      </c>
+      <c r="F250" t="s">
+        <v>609</v>
+      </c>
+      <c r="H250" s="1">
+        <v>44426</v>
+      </c>
+      <c r="I250" t="s">
+        <v>79</v>
+      </c>
+      <c r="J250">
+        <v>38.359594250000001</v>
+      </c>
+      <c r="K250">
+        <v>140.3813701</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B251" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" t="s">
         <v>610</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D251" t="s">
         <v>610</v>
       </c>
-      <c r="E250">
+      <c r="E251">
         <v>9902301</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F251" t="s">
         <v>611</v>
       </c>
-      <c r="H250" s="1">
+      <c r="H251" s="1">
         <v>44413</v>
       </c>
-      <c r="I250" t="s">
+      <c r="I251" t="s">
         <v>32</v>
       </c>
-      <c r="J250">
+      <c r="J251">
         <v>38.171771300000003</v>
       </c>
-      <c r="K250">
+      <c r="K251">
         <v>140.3965523</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A251" t="s">
-        <v>11</v>
-      </c>
-      <c r="B251" t="s">
-        <v>11</v>
-      </c>
-      <c r="C251" t="s">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" t="s">
+        <v>11</v>
+      </c>
+      <c r="C252" t="s">
         <v>945</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D252" t="s">
         <v>946</v>
       </c>
-      <c r="E251">
+      <c r="E252">
         <v>9920027</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F252" t="s">
         <v>947</v>
       </c>
-      <c r="H251" s="1">
+      <c r="H252" s="1">
         <v>44480</v>
       </c>
-      <c r="I251" t="s">
+      <c r="I252" t="s">
         <v>36</v>
       </c>
-      <c r="J251">
+      <c r="J252">
         <v>37.90953391</v>
       </c>
-      <c r="K251">
+      <c r="K252">
         <v>140.1267192</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B252" t="s">
-        <v>11</v>
-      </c>
-      <c r="C252" t="s">
-        <v>612</v>
-      </c>
-      <c r="D252" t="s">
-        <v>612</v>
-      </c>
-      <c r="E252">
-        <v>9900031</v>
-      </c>
-      <c r="F252" t="s">
-        <v>613</v>
-      </c>
-      <c r="H252" s="1">
-        <v>44357</v>
-      </c>
-      <c r="I252" t="s">
-        <v>32</v>
-      </c>
-      <c r="J252">
-        <v>38.245843729999997</v>
-      </c>
-      <c r="K252">
-        <v>140.3345741</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.4">
@@ -11133,28 +11154,28 @@
         <v>11</v>
       </c>
       <c r="C253" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D253" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E253">
-        <v>9900038</v>
+        <v>9900031</v>
       </c>
       <c r="F253" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H253" s="1">
-        <v>44491</v>
+        <v>44357</v>
       </c>
       <c r="I253" t="s">
         <v>32</v>
       </c>
       <c r="J253">
-        <v>38.243262999999999</v>
+        <v>38.245843729999997</v>
       </c>
       <c r="K253">
-        <v>140.32729140000001</v>
+        <v>140.3345741</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.4">
@@ -11162,28 +11183,28 @@
         <v>11</v>
       </c>
       <c r="C254" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D254" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E254">
-        <v>9902301</v>
+        <v>9900038</v>
       </c>
       <c r="F254" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H254" s="1">
-        <v>44361</v>
+        <v>44491</v>
       </c>
       <c r="I254" t="s">
         <v>32</v>
       </c>
       <c r="J254">
-        <v>38.16336673</v>
+        <v>38.243262999999999</v>
       </c>
       <c r="K254">
-        <v>140.3952347</v>
+        <v>140.32729140000001</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.4">
@@ -11191,31 +11212,28 @@
         <v>11</v>
       </c>
       <c r="C255" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D255" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E255">
-        <v>9900039</v>
+        <v>9902301</v>
       </c>
       <c r="F255" t="s">
-        <v>622</v>
-      </c>
-      <c r="G255" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="H255" s="1">
-        <v>44463</v>
+        <v>44361</v>
       </c>
       <c r="I255" t="s">
         <v>32</v>
       </c>
       <c r="J255">
-        <v>38.248550610000002</v>
+        <v>38.16336673</v>
       </c>
       <c r="K255">
-        <v>140.33044630000001</v>
+        <v>140.3952347</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.4">
@@ -11223,28 +11241,31 @@
         <v>11</v>
       </c>
       <c r="C256" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D256" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E256">
-        <v>9900031</v>
+        <v>9900039</v>
       </c>
       <c r="F256" t="s">
-        <v>625</v>
+        <v>622</v>
+      </c>
+      <c r="G256" t="s">
+        <v>623</v>
       </c>
       <c r="H256" s="1">
-        <v>44355</v>
+        <v>44463</v>
       </c>
       <c r="I256" t="s">
         <v>32</v>
       </c>
       <c r="J256">
-        <v>38.249477120000002</v>
+        <v>38.248550610000002</v>
       </c>
       <c r="K256">
-        <v>140.33468619999999</v>
+        <v>140.33044630000001</v>
       </c>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.4">
@@ -11252,28 +11273,28 @@
         <v>11</v>
       </c>
       <c r="C257" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D257" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E257">
-        <v>9995205</v>
+        <v>9900031</v>
       </c>
       <c r="F257" t="s">
-        <v>1011</v>
+        <v>625</v>
       </c>
       <c r="H257" s="1">
-        <v>44393</v>
+        <v>44355</v>
       </c>
       <c r="I257" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="J257">
-        <v>38.815128020000003</v>
+        <v>38.249477120000002</v>
       </c>
       <c r="K257">
-        <v>140.1523803</v>
+        <v>140.33468619999999</v>
       </c>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.4">
@@ -11281,28 +11302,28 @@
         <v>11</v>
       </c>
       <c r="C258" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D258" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E258">
-        <v>9910031</v>
+        <v>9995205</v>
       </c>
       <c r="F258" t="s">
-        <v>629</v>
+        <v>1011</v>
       </c>
       <c r="H258" s="1">
-        <v>44441</v>
+        <v>44393</v>
       </c>
       <c r="I258" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="J258">
-        <v>38.374331699999999</v>
+        <v>38.815128020000003</v>
       </c>
       <c r="K258">
-        <v>140.2736318</v>
+        <v>140.1523803</v>
       </c>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.4">
@@ -11310,28 +11331,28 @@
         <v>11</v>
       </c>
       <c r="C259" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D259" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E259">
-        <v>9997464</v>
+        <v>9910031</v>
       </c>
       <c r="F259" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H259" s="1">
-        <v>44334</v>
+        <v>44441</v>
       </c>
       <c r="I259" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="J259">
-        <v>38.725201050000003</v>
+        <v>38.374331699999999</v>
       </c>
       <c r="K259">
-        <v>139.6940457</v>
+        <v>140.2736318</v>
       </c>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.4">
@@ -11339,28 +11360,28 @@
         <v>11</v>
       </c>
       <c r="C260" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D260" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E260">
-        <v>9995401</v>
+        <v>9997464</v>
       </c>
       <c r="F260" t="s">
-        <v>955</v>
+        <v>632</v>
       </c>
       <c r="H260" s="1">
-        <v>44378</v>
+        <v>44334</v>
       </c>
       <c r="I260" t="s">
-        <v>635</v>
+        <v>25</v>
       </c>
       <c r="J260">
-        <v>38.916760099999998</v>
+        <v>38.725201050000003</v>
       </c>
       <c r="K260">
-        <v>140.3937182</v>
+        <v>139.6940457</v>
       </c>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.4">
@@ -11368,28 +11389,28 @@
         <v>11</v>
       </c>
       <c r="C261" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D261" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E261">
-        <v>9901574</v>
+        <v>9995401</v>
       </c>
       <c r="F261" t="s">
-        <v>638</v>
+        <v>955</v>
       </c>
       <c r="H261" s="1">
-        <v>44427</v>
+        <v>44378</v>
       </c>
       <c r="I261" t="s">
-        <v>378</v>
+        <v>635</v>
       </c>
       <c r="J261">
-        <v>38.304984449999999</v>
+        <v>38.916760099999998</v>
       </c>
       <c r="K261">
-        <v>140.05849129999999</v>
+        <v>140.3937182</v>
       </c>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.4">
@@ -11397,28 +11418,28 @@
         <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D262" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E262">
-        <v>9910041</v>
+        <v>9901574</v>
       </c>
       <c r="F262" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H262" s="1">
-        <v>44449</v>
+        <v>44427</v>
       </c>
       <c r="I262" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
       <c r="J262">
-        <v>38.36403206</v>
+        <v>38.304984449999999</v>
       </c>
       <c r="K262">
-        <v>140.256371</v>
+        <v>140.05849129999999</v>
       </c>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.4">
@@ -11426,28 +11447,28 @@
         <v>11</v>
       </c>
       <c r="C263" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D263" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E263">
-        <v>9910053</v>
+        <v>9910041</v>
       </c>
       <c r="F263" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H263" s="1">
-        <v>44397</v>
+        <v>44449</v>
       </c>
       <c r="I263" t="s">
         <v>144</v>
       </c>
       <c r="J263">
-        <v>38.371741299999996</v>
+        <v>38.36403206</v>
       </c>
       <c r="K263">
-        <v>140.2736486</v>
+        <v>140.256371</v>
       </c>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.4">
@@ -11455,28 +11476,28 @@
         <v>11</v>
       </c>
       <c r="C264" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D264" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E264">
-        <v>9970028</v>
+        <v>9910053</v>
       </c>
       <c r="F264" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H264" s="1">
-        <v>44404</v>
+        <v>44397</v>
       </c>
       <c r="I264" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="J264">
-        <v>38.731767320000003</v>
+        <v>38.371741299999996</v>
       </c>
       <c r="K264">
-        <v>139.8332369</v>
+        <v>140.2736486</v>
       </c>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.4">
@@ -11484,28 +11505,28 @@
         <v>11</v>
       </c>
       <c r="C265" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D265" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E265">
-        <v>9900042</v>
+        <v>9970028</v>
       </c>
       <c r="F265" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H265" s="1">
-        <v>44413</v>
+        <v>44404</v>
       </c>
       <c r="I265" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J265">
-        <v>38.253592400000002</v>
+        <v>38.731767320000003</v>
       </c>
       <c r="K265">
-        <v>140.33972879999999</v>
+        <v>139.8332369</v>
       </c>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.4">
@@ -11513,28 +11534,28 @@
         <v>11</v>
       </c>
       <c r="C266" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D266" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E266">
-        <v>9910031</v>
+        <v>9900042</v>
       </c>
       <c r="F266" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H266" s="1">
         <v>44413</v>
       </c>
       <c r="I266" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="J266">
-        <v>38.374873899999997</v>
+        <v>38.253592400000002</v>
       </c>
       <c r="K266">
-        <v>140.27410180000001</v>
+        <v>140.33972879999999</v>
       </c>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.4">
@@ -11542,28 +11563,28 @@
         <v>11</v>
       </c>
       <c r="C267" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D267" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E267">
-        <v>9920031</v>
+        <v>9910031</v>
       </c>
       <c r="F267" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H267" s="1">
-        <v>44440</v>
+        <v>44413</v>
       </c>
       <c r="I267" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="J267">
-        <v>37.908717500000002</v>
+        <v>38.374873899999997</v>
       </c>
       <c r="K267">
-        <v>140.11518150000001</v>
+        <v>140.27410180000001</v>
       </c>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.4">
@@ -11571,28 +11592,28 @@
         <v>11</v>
       </c>
       <c r="C268" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D268" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E268">
-        <v>9971117</v>
+        <v>9920031</v>
       </c>
       <c r="F268" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H268" s="1">
-        <v>44413</v>
+        <v>44440</v>
       </c>
       <c r="I268" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J268">
-        <v>38.784716029999998</v>
+        <v>37.908717500000002</v>
       </c>
       <c r="K268">
-        <v>139.75978140000001</v>
+        <v>140.11518150000001</v>
       </c>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.4">
@@ -11600,28 +11621,28 @@
         <v>11</v>
       </c>
       <c r="C269" t="s">
-        <v>1054</v>
+        <v>655</v>
       </c>
       <c r="D269" t="s">
-        <v>1055</v>
+        <v>656</v>
       </c>
       <c r="E269">
-        <v>9900039</v>
+        <v>9971117</v>
       </c>
       <c r="F269" t="s">
-        <v>1056</v>
+        <v>657</v>
       </c>
       <c r="H269" s="1">
-        <v>44505</v>
+        <v>44413</v>
       </c>
       <c r="I269" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J269">
-        <v>38.249645000000001</v>
+        <v>38.784716029999998</v>
       </c>
       <c r="K269">
-        <v>140.32948709999999</v>
+        <v>139.75978140000001</v>
       </c>
     </row>
     <row r="270" spans="2:11" x14ac:dyDescent="0.4">
@@ -11629,28 +11650,28 @@
         <v>11</v>
       </c>
       <c r="C270" t="s">
-        <v>658</v>
+        <v>1054</v>
       </c>
       <c r="D270" t="s">
-        <v>659</v>
+        <v>1055</v>
       </c>
       <c r="E270">
-        <v>9940024</v>
+        <v>9900039</v>
       </c>
       <c r="F270" t="s">
-        <v>660</v>
+        <v>1056</v>
       </c>
       <c r="H270" s="1">
-        <v>44349</v>
+        <v>44505</v>
       </c>
       <c r="I270" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="J270">
-        <v>38.361099959999997</v>
+        <v>38.249645000000001</v>
       </c>
       <c r="K270">
-        <v>140.38315130000001</v>
+        <v>140.32948709999999</v>
       </c>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.4">
@@ -11658,28 +11679,28 @@
         <v>11</v>
       </c>
       <c r="C271" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D271" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E271">
-        <v>9920033</v>
+        <v>9940024</v>
       </c>
       <c r="F271" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H271" s="1">
-        <v>44358</v>
+        <v>44349</v>
       </c>
       <c r="I271" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="J271">
-        <v>37.900386449999999</v>
+        <v>38.361099959999997</v>
       </c>
       <c r="K271">
-        <v>140.120743</v>
+        <v>140.38315130000001</v>
       </c>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.4">
@@ -11687,28 +11708,28 @@
         <v>11</v>
       </c>
       <c r="C272" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D272" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E272">
-        <v>9920039</v>
+        <v>9920033</v>
       </c>
       <c r="F272" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H272" s="1">
-        <v>44370</v>
+        <v>44358</v>
       </c>
       <c r="I272" t="s">
         <v>36</v>
       </c>
       <c r="J272">
-        <v>37.910604669999998</v>
+        <v>37.900386449999999</v>
       </c>
       <c r="K272">
-        <v>140.11131839999999</v>
+        <v>140.120743</v>
       </c>
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.4">
@@ -11716,28 +11737,28 @@
         <v>11</v>
       </c>
       <c r="C273" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D273" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E273">
-        <v>9902301</v>
+        <v>9920039</v>
       </c>
       <c r="F273" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H273" s="1">
-        <v>44355</v>
+        <v>44370</v>
       </c>
       <c r="I273" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J273">
-        <v>38.162662410000003</v>
+        <v>37.910604669999998</v>
       </c>
       <c r="K273">
-        <v>140.3922091</v>
+        <v>140.11131839999999</v>
       </c>
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.4">
@@ -11745,28 +11766,28 @@
         <v>11</v>
       </c>
       <c r="C274" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D274" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E274">
-        <v>9900039</v>
+        <v>9902301</v>
       </c>
       <c r="F274" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H274" s="1">
-        <v>44326</v>
+        <v>44355</v>
       </c>
       <c r="I274" t="s">
         <v>32</v>
       </c>
       <c r="J274">
-        <v>38.24830283</v>
+        <v>38.162662410000003</v>
       </c>
       <c r="K274">
-        <v>140.32761880000001</v>
+        <v>140.3922091</v>
       </c>
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.4">
@@ -11774,28 +11795,28 @@
         <v>11</v>
       </c>
       <c r="C275" t="s">
-        <v>1051</v>
+        <v>670</v>
       </c>
       <c r="D275" t="s">
-        <v>1052</v>
+        <v>671</v>
       </c>
       <c r="E275">
-        <v>9920039</v>
+        <v>9900039</v>
       </c>
       <c r="F275" t="s">
-        <v>1053</v>
+        <v>672</v>
       </c>
       <c r="H275" s="1">
-        <v>44512</v>
+        <v>44326</v>
       </c>
       <c r="I275" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J275">
-        <v>37.912169990000002</v>
+        <v>38.24830283</v>
       </c>
       <c r="K275">
-        <v>140.11018379999999</v>
+        <v>140.32761880000001</v>
       </c>
     </row>
     <row r="276" spans="2:11" x14ac:dyDescent="0.4">
@@ -11803,28 +11824,28 @@
         <v>11</v>
       </c>
       <c r="C276" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="D276" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="E276">
-        <v>9902301</v>
+        <v>9920039</v>
       </c>
       <c r="F276" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="H276" s="1">
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="I276" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J276">
-        <v>38.165301900000003</v>
+        <v>37.912169990000002</v>
       </c>
       <c r="K276">
-        <v>140.3987703</v>
+        <v>140.11018379999999</v>
       </c>
     </row>
     <row r="277" spans="2:11" x14ac:dyDescent="0.4">
@@ -11832,28 +11853,28 @@
         <v>11</v>
       </c>
       <c r="C277" t="s">
-        <v>673</v>
+        <v>1064</v>
       </c>
       <c r="D277" t="s">
-        <v>674</v>
+        <v>1065</v>
       </c>
       <c r="E277">
-        <v>9980834</v>
+        <v>9902301</v>
       </c>
       <c r="F277" t="s">
-        <v>675</v>
+        <v>1066</v>
       </c>
       <c r="H277" s="1">
-        <v>44357</v>
+        <v>44508</v>
       </c>
       <c r="I277" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="J277">
-        <v>38.907936499999998</v>
+        <v>38.165301900000003</v>
       </c>
       <c r="K277">
-        <v>139.8354989</v>
+        <v>140.3987703</v>
       </c>
     </row>
     <row r="278" spans="2:11" x14ac:dyDescent="0.4">
@@ -11861,28 +11882,28 @@
         <v>11</v>
       </c>
       <c r="C278" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D278" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E278">
-        <v>9902301</v>
+        <v>9980834</v>
       </c>
       <c r="F278" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H278" s="1">
-        <v>44452</v>
+        <v>44357</v>
       </c>
       <c r="I278" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="J278">
-        <v>38.164980110000002</v>
+        <v>38.907936499999998</v>
       </c>
       <c r="K278">
-        <v>140.39450220000001</v>
+        <v>139.8354989</v>
       </c>
     </row>
     <row r="279" spans="2:11" x14ac:dyDescent="0.4">
@@ -11890,28 +11911,28 @@
         <v>11</v>
       </c>
       <c r="C279" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D279" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E279">
-        <v>9960002</v>
+        <v>9902301</v>
       </c>
       <c r="F279" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H279" s="1">
-        <v>44487</v>
+        <v>44452</v>
       </c>
       <c r="I279" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="J279">
-        <v>38.763232100000003</v>
+        <v>38.164980110000002</v>
       </c>
       <c r="K279">
-        <v>140.30699999999999</v>
+        <v>140.39450220000001</v>
       </c>
     </row>
     <row r="280" spans="2:11" x14ac:dyDescent="0.4">
@@ -11919,28 +11940,28 @@
         <v>11</v>
       </c>
       <c r="C280" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D280" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E280">
-        <v>9970047</v>
+        <v>9960002</v>
       </c>
       <c r="F280" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H280" s="1">
-        <v>44455</v>
+        <v>44487</v>
       </c>
       <c r="I280" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="J280">
-        <v>38.7355971</v>
+        <v>38.763232100000003</v>
       </c>
       <c r="K280">
-        <v>139.80807279999999</v>
+        <v>140.30699999999999</v>
       </c>
     </row>
     <row r="281" spans="2:11" x14ac:dyDescent="0.4">
@@ -11948,28 +11969,28 @@
         <v>11</v>
       </c>
       <c r="C281" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D281" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E281">
-        <v>9902331</v>
+        <v>9970047</v>
       </c>
       <c r="F281" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H281" s="1">
-        <v>44488</v>
+        <v>44455</v>
       </c>
       <c r="I281" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J281">
-        <v>38.21666561</v>
+        <v>38.7355971</v>
       </c>
       <c r="K281">
-        <v>140.3231753</v>
+        <v>139.80807279999999</v>
       </c>
     </row>
     <row r="282" spans="2:11" x14ac:dyDescent="0.4">
@@ -11977,28 +11998,28 @@
         <v>11</v>
       </c>
       <c r="C282" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D282" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E282">
-        <v>9940025</v>
+        <v>9902331</v>
       </c>
       <c r="F282" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H282" s="1">
-        <v>44351</v>
+        <v>44488</v>
       </c>
       <c r="I282" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="J282">
-        <v>38.358273189999998</v>
+        <v>38.21666561</v>
       </c>
       <c r="K282">
-        <v>140.38260249999999</v>
+        <v>140.3231753</v>
       </c>
     </row>
     <row r="283" spans="2:11" x14ac:dyDescent="0.4">
@@ -12006,28 +12027,28 @@
         <v>11</v>
       </c>
       <c r="C283" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D283" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E283">
         <v>9940025</v>
       </c>
       <c r="F283" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H283" s="1">
-        <v>44385</v>
+        <v>44351</v>
       </c>
       <c r="I283" t="s">
         <v>79</v>
       </c>
       <c r="J283">
-        <v>38.358837719999997</v>
+        <v>38.358273189999998</v>
       </c>
       <c r="K283">
-        <v>140.3806921</v>
+        <v>140.38260249999999</v>
       </c>
     </row>
     <row r="284" spans="2:11" x14ac:dyDescent="0.4">
@@ -12035,28 +12056,28 @@
         <v>11</v>
       </c>
       <c r="C284" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D284" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E284">
-        <v>9992211</v>
+        <v>9940025</v>
       </c>
       <c r="F284" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H284" s="1">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="I284" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="J284">
-        <v>38.045697760000003</v>
+        <v>38.358837719999997</v>
       </c>
       <c r="K284">
-        <v>140.16713390000001</v>
+        <v>140.3806921</v>
       </c>
     </row>
     <row r="285" spans="2:11" x14ac:dyDescent="0.4">
@@ -12064,28 +12085,28 @@
         <v>11</v>
       </c>
       <c r="C285" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D285" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E285">
-        <v>9997464</v>
+        <v>9992211</v>
       </c>
       <c r="F285" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H285" s="1">
-        <v>44456</v>
+        <v>44384</v>
       </c>
       <c r="I285" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J285">
-        <v>38.720860010000003</v>
+        <v>38.045697760000003</v>
       </c>
       <c r="K285">
-        <v>139.68945859999999</v>
+        <v>140.16713390000001</v>
       </c>
     </row>
     <row r="286" spans="2:11" x14ac:dyDescent="0.4">
@@ -12093,28 +12114,28 @@
         <v>11</v>
       </c>
       <c r="C286" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D286" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E286">
-        <v>9960301</v>
+        <v>9997464</v>
       </c>
       <c r="F286" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H286" s="1">
-        <v>44447</v>
+        <v>44456</v>
       </c>
       <c r="I286" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J286">
-        <v>38.607474170000003</v>
+        <v>38.720860010000003</v>
       </c>
       <c r="K286">
-        <v>140.16669390000001</v>
+        <v>139.68945859999999</v>
       </c>
     </row>
     <row r="287" spans="2:11" x14ac:dyDescent="0.4">
@@ -12122,28 +12143,28 @@
         <v>11</v>
       </c>
       <c r="C287" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D287" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E287">
-        <v>9900734</v>
+        <v>9960301</v>
       </c>
       <c r="F287" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H287" s="1">
-        <v>44383</v>
+        <v>44447</v>
       </c>
       <c r="I287" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="J287">
-        <v>38.491204699999997</v>
+        <v>38.607474170000003</v>
       </c>
       <c r="K287">
-        <v>140.00007450000001</v>
+        <v>140.16669390000001</v>
       </c>
     </row>
     <row r="288" spans="2:11" x14ac:dyDescent="0.4">
@@ -12151,28 +12172,28 @@
         <v>11</v>
       </c>
       <c r="C288" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D288" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E288">
-        <v>9960301</v>
+        <v>9900734</v>
       </c>
       <c r="F288" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H288" s="1">
-        <v>44483</v>
+        <v>44383</v>
       </c>
       <c r="I288" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="J288">
-        <v>38.607840019999998</v>
+        <v>38.491204699999997</v>
       </c>
       <c r="K288">
-        <v>140.16668300000001</v>
+        <v>140.00007450000001</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.4">
@@ -12180,89 +12201,89 @@
         <v>11</v>
       </c>
       <c r="C289" t="s">
+        <v>705</v>
+      </c>
+      <c r="D289" t="s">
+        <v>706</v>
+      </c>
+      <c r="E289">
+        <v>9960301</v>
+      </c>
+      <c r="F289" t="s">
+        <v>707</v>
+      </c>
+      <c r="H289" s="1">
+        <v>44483</v>
+      </c>
+      <c r="I289" t="s">
+        <v>85</v>
+      </c>
+      <c r="J289">
+        <v>38.607840019999998</v>
+      </c>
+      <c r="K289">
+        <v>140.16668300000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" t="s">
         <v>708</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D290" t="s">
         <v>709</v>
       </c>
-      <c r="E289">
+      <c r="E290">
         <v>9996211</v>
       </c>
-      <c r="F289" t="s">
+      <c r="F290" t="s">
         <v>997</v>
       </c>
-      <c r="H289" s="1">
+      <c r="H290" s="1">
         <v>44426</v>
       </c>
-      <c r="I289" t="s">
+      <c r="I290" t="s">
         <v>48</v>
       </c>
-      <c r="J289">
+      <c r="J290">
         <v>38.754166159999997</v>
       </c>
-      <c r="K289">
+      <c r="K290">
         <v>140.41070740000001</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A290" t="s">
-        <v>11</v>
-      </c>
-      <c r="B290" t="s">
-        <v>11</v>
-      </c>
-      <c r="C290" t="s">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" t="s">
         <v>927</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D291" t="s">
         <v>928</v>
       </c>
-      <c r="E290">
+      <c r="E291">
         <v>9995311</v>
       </c>
-      <c r="F290" t="s">
+      <c r="F291" t="s">
         <v>929</v>
       </c>
-      <c r="H290" s="1">
+      <c r="H291" s="1">
         <v>44363</v>
       </c>
-      <c r="I290" t="s">
+      <c r="I291" t="s">
         <v>441</v>
       </c>
-      <c r="J290">
+      <c r="J291">
         <v>38.866926489999997</v>
       </c>
-      <c r="K290">
+      <c r="K291">
         <v>140.28156279999999</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B291" t="s">
-        <v>11</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D291" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E291">
-        <v>9920027</v>
-      </c>
-      <c r="F291" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H291" s="1">
-        <v>44518</v>
-      </c>
-      <c r="I291" t="s">
-        <v>36</v>
-      </c>
-      <c r="J291">
-        <v>37.910426020000003</v>
-      </c>
-      <c r="K291">
-        <v>140.12193930000001</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.4">
@@ -12270,28 +12291,28 @@
         <v>11</v>
       </c>
       <c r="C292" t="s">
-        <v>710</v>
+        <v>1034</v>
       </c>
       <c r="D292" t="s">
-        <v>711</v>
+        <v>1035</v>
       </c>
       <c r="E292">
-        <v>9996105</v>
+        <v>9920027</v>
       </c>
       <c r="F292" t="s">
-        <v>1008</v>
+        <v>1036</v>
       </c>
       <c r="H292" s="1">
-        <v>44407</v>
+        <v>44518</v>
       </c>
       <c r="I292" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J292">
-        <v>38.71033302</v>
+        <v>37.910426020000003</v>
       </c>
       <c r="K292">
-        <v>140.55333619999999</v>
+        <v>140.12193930000001</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.4">
@@ -12299,28 +12320,28 @@
         <v>11</v>
       </c>
       <c r="C293" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D293" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E293">
-        <v>9980281</v>
+        <v>9996105</v>
       </c>
       <c r="F293" t="s">
-        <v>714</v>
+        <v>1008</v>
       </c>
       <c r="H293" s="1">
-        <v>44428</v>
+        <v>44407</v>
       </c>
       <c r="I293" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="J293">
-        <v>39.186396459999997</v>
+        <v>38.71033302</v>
       </c>
       <c r="K293">
-        <v>139.54693040000001</v>
+        <v>140.55333619999999</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.4">
@@ -12328,28 +12349,28 @@
         <v>11</v>
       </c>
       <c r="C294" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D294" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E294">
-        <v>9902301</v>
+        <v>9980281</v>
       </c>
       <c r="F294" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="H294" s="1">
-        <v>44455</v>
+        <v>44428</v>
       </c>
       <c r="I294" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="J294">
-        <v>38.168863819999999</v>
+        <v>39.186396459999997</v>
       </c>
       <c r="K294">
-        <v>140.3977668</v>
+        <v>139.54693040000001</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.4">
@@ -12357,28 +12378,28 @@
         <v>11</v>
       </c>
       <c r="C295" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D295" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E295">
-        <v>9997126</v>
+        <v>9902301</v>
       </c>
       <c r="F295" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H295" s="1">
-        <v>44434</v>
+        <v>44455</v>
       </c>
       <c r="I295" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J295">
-        <v>38.557965160000002</v>
+        <v>38.168863819999999</v>
       </c>
       <c r="K295">
-        <v>139.54645260000001</v>
+        <v>140.3977668</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.4">
@@ -12386,28 +12407,28 @@
         <v>11</v>
       </c>
       <c r="C296" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D296" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E296">
         <v>9997126</v>
       </c>
       <c r="F296" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H296" s="1">
-        <v>44384</v>
+        <v>44434</v>
       </c>
       <c r="I296" t="s">
         <v>25</v>
       </c>
       <c r="J296">
-        <v>38.558639919999997</v>
+        <v>38.557965160000002</v>
       </c>
       <c r="K296">
-        <v>139.54853080000001</v>
+        <v>139.54645260000001</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.4">
@@ -12415,28 +12436,28 @@
         <v>11</v>
       </c>
       <c r="C297" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D297" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E297">
-        <v>9991522</v>
+        <v>9997126</v>
       </c>
       <c r="F297" t="s">
-        <v>963</v>
+        <v>723</v>
       </c>
       <c r="H297" s="1">
-        <v>44435</v>
+        <v>44384</v>
       </c>
       <c r="I297" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="J297">
-        <v>37.953314640000002</v>
+        <v>38.558639919999997</v>
       </c>
       <c r="K297">
-        <v>139.66479659999999</v>
+        <v>139.54853080000001</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.4">
@@ -12444,28 +12465,28 @@
         <v>11</v>
       </c>
       <c r="C298" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D298" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E298">
-        <v>9991452</v>
+        <v>9991522</v>
       </c>
       <c r="F298" t="s">
-        <v>728</v>
+        <v>963</v>
       </c>
       <c r="H298" s="1">
-        <v>44414</v>
+        <v>44435</v>
       </c>
       <c r="I298" t="s">
         <v>130</v>
       </c>
       <c r="J298">
-        <v>38.15220987</v>
+        <v>37.953314640000002</v>
       </c>
       <c r="K298">
-        <v>139.7801135</v>
+        <v>139.66479659999999</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.4">
@@ -12473,28 +12494,28 @@
         <v>11</v>
       </c>
       <c r="C299" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D299" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E299">
-        <v>9900721</v>
+        <v>9991452</v>
       </c>
       <c r="F299" t="s">
-        <v>975</v>
+        <v>728</v>
       </c>
       <c r="H299" s="1">
-        <v>44463</v>
+        <v>44414</v>
       </c>
       <c r="I299" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="J299">
-        <v>38.39626423</v>
+        <v>38.15220987</v>
       </c>
       <c r="K299">
-        <v>139.9943418</v>
+        <v>139.7801135</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.4">
@@ -12502,28 +12523,28 @@
         <v>11</v>
       </c>
       <c r="C300" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D300" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E300">
-        <v>9996403</v>
+        <v>9900721</v>
       </c>
       <c r="F300" t="s">
-        <v>733</v>
+        <v>975</v>
       </c>
       <c r="H300" s="1">
-        <v>44442</v>
+        <v>44463</v>
       </c>
       <c r="I300" t="s">
-        <v>350</v>
+        <v>18</v>
       </c>
       <c r="J300">
-        <v>38.6768754</v>
+        <v>38.39626423</v>
       </c>
       <c r="K300">
-        <v>140.16444419999999</v>
+        <v>139.9943418</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.4">
@@ -12531,28 +12552,28 @@
         <v>11</v>
       </c>
       <c r="C301" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D301" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E301">
-        <v>9980281</v>
+        <v>9996403</v>
       </c>
       <c r="F301" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H301" s="1">
-        <v>44488</v>
+        <v>44442</v>
       </c>
       <c r="I301" t="s">
-        <v>121</v>
+        <v>350</v>
       </c>
       <c r="J301">
-        <v>39.188121000000002</v>
+        <v>38.6768754</v>
       </c>
       <c r="K301">
-        <v>139.54785519999999</v>
+        <v>140.16444419999999</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.4">
@@ -12560,28 +12581,28 @@
         <v>11</v>
       </c>
       <c r="C302" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D302" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E302">
-        <v>9993702</v>
+        <v>9980281</v>
       </c>
       <c r="F302" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H302" s="1">
-        <v>44456</v>
+        <v>44488</v>
       </c>
       <c r="I302" t="s">
-        <v>324</v>
+        <v>121</v>
       </c>
       <c r="J302">
-        <v>38.458598209999998</v>
+        <v>39.188121000000002</v>
       </c>
       <c r="K302">
-        <v>140.3904095</v>
+        <v>139.54785519999999</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.4">
@@ -12589,28 +12610,28 @@
         <v>11</v>
       </c>
       <c r="C303" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D303" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E303">
-        <v>9970034</v>
+        <v>9993702</v>
       </c>
       <c r="F303" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H303" s="1">
-        <v>44368</v>
+        <v>44456</v>
       </c>
       <c r="I303" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="J303">
-        <v>38.729259849999998</v>
+        <v>38.458598209999998</v>
       </c>
       <c r="K303">
-        <v>139.83199020000001</v>
+        <v>140.3904095</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.4">
@@ -12618,28 +12639,28 @@
         <v>11</v>
       </c>
       <c r="C304" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D304" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E304">
-        <v>9950038</v>
+        <v>9970034</v>
       </c>
       <c r="F304" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H304" s="1">
-        <v>44411</v>
+        <v>44368</v>
       </c>
       <c r="I304" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="J304">
-        <v>38.477221819999997</v>
+        <v>38.729259849999998</v>
       </c>
       <c r="K304">
-        <v>140.385873</v>
+        <v>139.83199020000001</v>
       </c>
     </row>
     <row r="305" spans="2:11" x14ac:dyDescent="0.4">
@@ -12647,28 +12668,28 @@
         <v>11</v>
       </c>
       <c r="C305" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D305" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E305">
-        <v>9993242</v>
+        <v>9950038</v>
       </c>
       <c r="F305" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H305" s="1">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="I305" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="J305">
-        <v>38.150745239999999</v>
+        <v>38.477221819999997</v>
       </c>
       <c r="K305">
-        <v>140.2603896</v>
+        <v>140.385873</v>
       </c>
     </row>
     <row r="306" spans="2:11" x14ac:dyDescent="0.4">
@@ -12676,28 +12697,28 @@
         <v>11</v>
       </c>
       <c r="C306" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D306" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E306">
-        <v>9902301</v>
+        <v>9993242</v>
       </c>
       <c r="F306" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H306" s="1">
-        <v>44413</v>
+        <v>44329</v>
       </c>
       <c r="I306" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J306">
-        <v>38.168247899999997</v>
+        <v>38.150745239999999</v>
       </c>
       <c r="K306">
-        <v>140.3976893</v>
+        <v>140.2603896</v>
       </c>
     </row>
     <row r="307" spans="2:11" x14ac:dyDescent="0.4">
@@ -12705,28 +12726,28 @@
         <v>11</v>
       </c>
       <c r="C307" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D307" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E307">
         <v>9902301</v>
       </c>
       <c r="F307" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H307" s="1">
-        <v>44435</v>
+        <v>44413</v>
       </c>
       <c r="I307" t="s">
         <v>32</v>
       </c>
       <c r="J307">
-        <v>38.168000980000002</v>
+        <v>38.168247899999997</v>
       </c>
       <c r="K307">
-        <v>140.3997172</v>
+        <v>140.3976893</v>
       </c>
     </row>
     <row r="308" spans="2:11" x14ac:dyDescent="0.4">
@@ -12734,28 +12755,28 @@
         <v>11</v>
       </c>
       <c r="C308" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D308" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E308">
-        <v>9994116</v>
+        <v>9902301</v>
       </c>
       <c r="F308" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H308" s="1">
-        <v>44392</v>
+        <v>44435</v>
       </c>
       <c r="I308" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J308">
-        <v>38.594754160000001</v>
+        <v>38.168000980000002</v>
       </c>
       <c r="K308">
-        <v>140.37505440000001</v>
+        <v>140.3997172</v>
       </c>
     </row>
     <row r="309" spans="2:11" x14ac:dyDescent="0.4">
@@ -12763,28 +12784,28 @@
         <v>11</v>
       </c>
       <c r="C309" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D309" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E309">
-        <v>9992211</v>
+        <v>9994116</v>
       </c>
       <c r="F309" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H309" s="1">
-        <v>44364</v>
+        <v>44392</v>
       </c>
       <c r="I309" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J309">
-        <v>38.048641349999997</v>
+        <v>38.594754160000001</v>
       </c>
       <c r="K309">
-        <v>140.168351</v>
+        <v>140.37505440000001</v>
       </c>
     </row>
     <row r="310" spans="2:11" x14ac:dyDescent="0.4">
@@ -12792,28 +12813,28 @@
         <v>11</v>
       </c>
       <c r="C310" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D310" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E310">
-        <v>9970345</v>
+        <v>9992211</v>
       </c>
       <c r="F310" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="H310" s="1">
-        <v>44382</v>
+        <v>44364</v>
       </c>
       <c r="I310" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J310">
-        <v>38.67038728</v>
+        <v>38.048641349999997</v>
       </c>
       <c r="K310">
-        <v>139.84516410000001</v>
+        <v>140.168351</v>
       </c>
     </row>
     <row r="311" spans="2:11" x14ac:dyDescent="0.4">
@@ -12821,28 +12842,28 @@
         <v>11</v>
       </c>
       <c r="C311" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D311" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E311">
-        <v>9950209</v>
+        <v>9970345</v>
       </c>
       <c r="F311" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H311" s="1">
-        <v>44438</v>
+        <v>44382</v>
       </c>
       <c r="I311" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="J311">
-        <v>38.485837529999998</v>
+        <v>38.67038728</v>
       </c>
       <c r="K311">
-        <v>140.34476309999999</v>
+        <v>139.84516410000001</v>
       </c>
     </row>
     <row r="312" spans="2:11" x14ac:dyDescent="0.4">
@@ -12850,28 +12871,28 @@
         <v>11</v>
       </c>
       <c r="C312" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D312" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E312">
-        <v>9908580</v>
+        <v>9950209</v>
       </c>
       <c r="F312" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H312" s="1">
-        <v>44343</v>
+        <v>44438</v>
       </c>
       <c r="I312" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="J312">
-        <v>38.249882360000001</v>
+        <v>38.485837529999998</v>
       </c>
       <c r="K312">
-        <v>140.3273796</v>
+        <v>140.34476309999999</v>
       </c>
     </row>
     <row r="313" spans="2:11" x14ac:dyDescent="0.4">
@@ -12879,28 +12900,28 @@
         <v>11</v>
       </c>
       <c r="C313" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D313" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E313">
-        <v>9900043</v>
+        <v>9908580</v>
       </c>
       <c r="F313" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="H313" s="1">
-        <v>44396</v>
+        <v>44343</v>
       </c>
       <c r="I313" t="s">
         <v>32</v>
       </c>
       <c r="J313">
-        <v>38.250672639999998</v>
+        <v>38.249882360000001</v>
       </c>
       <c r="K313">
-        <v>140.3372924</v>
+        <v>140.3273796</v>
       </c>
     </row>
     <row r="314" spans="2:11" x14ac:dyDescent="0.4">
@@ -12908,28 +12929,28 @@
         <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D314" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E314">
-        <v>9971201</v>
+        <v>9900043</v>
       </c>
       <c r="F314" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="H314" s="1">
-        <v>44413</v>
+        <v>44396</v>
       </c>
       <c r="I314" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J314">
-        <v>38.782519430000001</v>
+        <v>38.250672639999998</v>
       </c>
       <c r="K314">
-        <v>139.75266360000001</v>
+        <v>140.3372924</v>
       </c>
     </row>
     <row r="315" spans="2:11" x14ac:dyDescent="0.4">
@@ -12937,28 +12958,28 @@
         <v>11</v>
       </c>
       <c r="C315" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D315" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E315">
-        <v>9993702</v>
+        <v>9971201</v>
       </c>
       <c r="F315" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="H315" s="1">
-        <v>44336</v>
+        <v>44413</v>
       </c>
       <c r="I315" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="J315">
-        <v>38.462047499999997</v>
+        <v>38.782519430000001</v>
       </c>
       <c r="K315">
-        <v>140.38916589999999</v>
+        <v>139.75266360000001</v>
       </c>
     </row>
     <row r="316" spans="2:11" x14ac:dyDescent="0.4">
@@ -12966,28 +12987,28 @@
         <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D316" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E316">
-        <v>9900039</v>
+        <v>9993702</v>
       </c>
       <c r="F316" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="H316" s="1">
-        <v>44368</v>
+        <v>44336</v>
       </c>
       <c r="I316" t="s">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="J316">
-        <v>38.245823000000001</v>
+        <v>38.462047499999997</v>
       </c>
       <c r="K316">
-        <v>140.3314426</v>
+        <v>140.38916589999999</v>
       </c>
     </row>
     <row r="317" spans="2:11" x14ac:dyDescent="0.4">
@@ -12995,28 +13016,28 @@
         <v>11</v>
       </c>
       <c r="C317" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D317" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E317">
-        <v>9900042</v>
+        <v>9900039</v>
       </c>
       <c r="F317" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="H317" s="1">
-        <v>44328</v>
+        <v>44368</v>
       </c>
       <c r="I317" t="s">
         <v>32</v>
       </c>
       <c r="J317">
-        <v>38.25364269</v>
+        <v>38.245823000000001</v>
       </c>
       <c r="K317">
-        <v>140.338966</v>
+        <v>140.3314426</v>
       </c>
     </row>
     <row r="318" spans="2:11" x14ac:dyDescent="0.4">
@@ -13024,28 +13045,28 @@
         <v>11</v>
       </c>
       <c r="C318" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D318" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E318">
-        <v>9900039</v>
+        <v>9900042</v>
       </c>
       <c r="F318" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="H318" s="1">
-        <v>44419</v>
+        <v>44328</v>
       </c>
       <c r="I318" t="s">
         <v>32</v>
       </c>
       <c r="J318">
-        <v>38.250739289999999</v>
+        <v>38.25364269</v>
       </c>
       <c r="K318">
-        <v>140.32919509999999</v>
+        <v>140.338966</v>
       </c>
     </row>
     <row r="319" spans="2:11" x14ac:dyDescent="0.4">
@@ -13053,28 +13074,28 @@
         <v>11</v>
       </c>
       <c r="C319" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D319" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E319">
-        <v>9960301</v>
+        <v>9900039</v>
       </c>
       <c r="F319" t="s">
-        <v>986</v>
+        <v>787</v>
       </c>
       <c r="H319" s="1">
-        <v>44369</v>
+        <v>44419</v>
       </c>
       <c r="I319" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="J319">
-        <v>38.60674822</v>
+        <v>38.250739289999999</v>
       </c>
       <c r="K319">
-        <v>140.1654868</v>
+        <v>140.32919509999999</v>
       </c>
     </row>
     <row r="320" spans="2:11" x14ac:dyDescent="0.4">
@@ -13082,28 +13103,28 @@
         <v>11</v>
       </c>
       <c r="C320" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D320" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E320">
         <v>9960301</v>
       </c>
       <c r="F320" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="H320" s="1">
-        <v>44438</v>
+        <v>44369</v>
       </c>
       <c r="I320" t="s">
         <v>85</v>
       </c>
       <c r="J320">
-        <v>38.607394960000001</v>
+        <v>38.60674822</v>
       </c>
       <c r="K320">
-        <v>140.1654398</v>
+        <v>140.1654868</v>
       </c>
     </row>
     <row r="321" spans="2:11" x14ac:dyDescent="0.4">
@@ -13111,28 +13132,28 @@
         <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D321" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E321">
-        <v>9971201</v>
+        <v>9960301</v>
       </c>
       <c r="F321" t="s">
-        <v>794</v>
+        <v>984</v>
       </c>
       <c r="H321" s="1">
-        <v>44364</v>
+        <v>44438</v>
       </c>
       <c r="I321" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J321">
-        <v>38.779253789999999</v>
+        <v>38.607394960000001</v>
       </c>
       <c r="K321">
-        <v>139.75050529999999</v>
+        <v>140.1654398</v>
       </c>
     </row>
     <row r="322" spans="2:11" x14ac:dyDescent="0.4">
@@ -13140,28 +13161,28 @@
         <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D322" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E322">
-        <v>9902311</v>
+        <v>9971201</v>
       </c>
       <c r="F322" t="s">
-        <v>1069</v>
+        <v>794</v>
       </c>
       <c r="H322" s="1">
-        <v>44330</v>
+        <v>44364</v>
       </c>
       <c r="I322" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J322">
-        <v>38.190605499999997</v>
+        <v>38.779253789999999</v>
       </c>
       <c r="K322">
-        <v>140.3031819</v>
+        <v>139.75050529999999</v>
       </c>
     </row>
     <row r="323" spans="2:11" x14ac:dyDescent="0.4">
@@ -13169,28 +13190,28 @@
         <v>11</v>
       </c>
       <c r="C323" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D323" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E323">
-        <v>9996105</v>
+        <v>9902311</v>
       </c>
       <c r="F323" t="s">
-        <v>1006</v>
+        <v>1069</v>
       </c>
       <c r="H323" s="1">
-        <v>44418</v>
+        <v>44330</v>
       </c>
       <c r="I323" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J323">
-        <v>38.710625299999997</v>
+        <v>38.190605499999997</v>
       </c>
       <c r="K323">
-        <v>140.5528879</v>
+        <v>140.3031819</v>
       </c>
     </row>
     <row r="324" spans="2:11" x14ac:dyDescent="0.4">
@@ -13198,28 +13219,28 @@
         <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D324" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E324">
-        <v>9971201</v>
+        <v>9996105</v>
       </c>
       <c r="F324" t="s">
-        <v>801</v>
+        <v>1006</v>
       </c>
       <c r="H324" s="1">
-        <v>44327</v>
+        <v>44418</v>
       </c>
       <c r="I324" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="J324">
-        <v>38.777857930000003</v>
+        <v>38.710625299999997</v>
       </c>
       <c r="K324">
-        <v>139.7491555</v>
+        <v>140.5528879</v>
       </c>
     </row>
     <row r="325" spans="2:11" x14ac:dyDescent="0.4">
@@ -13227,28 +13248,28 @@
         <v>11</v>
       </c>
       <c r="C325" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D325" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E325">
-        <v>9900734</v>
+        <v>9971201</v>
       </c>
       <c r="F325" t="s">
-        <v>970</v>
+        <v>801</v>
       </c>
       <c r="H325" s="1">
-        <v>44389</v>
+        <v>44327</v>
       </c>
       <c r="I325" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J325">
-        <v>38.490909809999998</v>
+        <v>38.777857930000003</v>
       </c>
       <c r="K325">
-        <v>140.00017260000001</v>
+        <v>139.7491555</v>
       </c>
     </row>
     <row r="326" spans="2:11" x14ac:dyDescent="0.4">
@@ -13256,28 +13277,28 @@
         <v>11</v>
       </c>
       <c r="C326" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D326" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E326">
-        <v>9970752</v>
+        <v>9900734</v>
       </c>
       <c r="F326" t="s">
-        <v>806</v>
+        <v>970</v>
       </c>
       <c r="H326" s="1">
-        <v>44348</v>
+        <v>44389</v>
       </c>
       <c r="I326" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J326">
-        <v>38.693684470000001</v>
+        <v>38.490909809999998</v>
       </c>
       <c r="K326">
-        <v>139.76950120000001</v>
+        <v>140.00017260000001</v>
       </c>
     </row>
     <row r="327" spans="2:11" x14ac:dyDescent="0.4">
@@ -13285,28 +13306,28 @@
         <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D327" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E327">
-        <v>9921472</v>
+        <v>9970752</v>
       </c>
       <c r="F327" t="s">
-        <v>1041</v>
+        <v>806</v>
       </c>
       <c r="H327" s="1">
-        <v>44431</v>
+        <v>44348</v>
       </c>
       <c r="I327" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J327">
-        <v>37.779575579999999</v>
+        <v>38.693684470000001</v>
       </c>
       <c r="K327">
-        <v>140.1190665</v>
+        <v>139.76950120000001</v>
       </c>
     </row>
     <row r="328" spans="2:11" x14ac:dyDescent="0.4">
@@ -13314,28 +13335,28 @@
         <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>1013</v>
+        <v>807</v>
       </c>
       <c r="D328" t="s">
-        <v>1014</v>
+        <v>808</v>
       </c>
       <c r="E328">
-        <v>9970752</v>
+        <v>9921472</v>
       </c>
       <c r="F328" t="s">
-        <v>1015</v>
+        <v>1041</v>
       </c>
       <c r="H328" s="1">
-        <v>44511</v>
+        <v>44431</v>
       </c>
       <c r="I328" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J328">
-        <v>38.693074439999997</v>
+        <v>37.779575579999999</v>
       </c>
       <c r="K328">
-        <v>139.7692188</v>
+        <v>140.1190665</v>
       </c>
     </row>
     <row r="329" spans="2:11" x14ac:dyDescent="0.4">
@@ -13343,28 +13364,28 @@
         <v>11</v>
       </c>
       <c r="C329" t="s">
-        <v>809</v>
+        <v>1013</v>
       </c>
       <c r="D329" t="s">
-        <v>810</v>
+        <v>1014</v>
       </c>
       <c r="E329">
-        <v>9970532</v>
+        <v>9970752</v>
       </c>
       <c r="F329" t="s">
-        <v>811</v>
+        <v>1015</v>
       </c>
       <c r="H329" s="1">
-        <v>44389</v>
+        <v>44511</v>
       </c>
       <c r="I329" t="s">
         <v>25</v>
       </c>
       <c r="J329">
-        <v>38.540455790000003</v>
+        <v>38.693074439999997</v>
       </c>
       <c r="K329">
-        <v>139.976012</v>
+        <v>139.7692188</v>
       </c>
     </row>
     <row r="330" spans="2:11" x14ac:dyDescent="0.4">
@@ -13372,28 +13393,28 @@
         <v>11</v>
       </c>
       <c r="C330" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D330" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E330">
-        <v>9920342</v>
+        <v>9970532</v>
       </c>
       <c r="F330" t="s">
-        <v>993</v>
+        <v>811</v>
       </c>
       <c r="H330" s="1">
-        <v>44357</v>
+        <v>44389</v>
       </c>
       <c r="I330" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="J330">
-        <v>38.038003799999998</v>
+        <v>38.540455790000003</v>
       </c>
       <c r="K330">
-        <v>140.20047030000001</v>
+        <v>139.976012</v>
       </c>
     </row>
     <row r="331" spans="2:11" x14ac:dyDescent="0.4">
@@ -13401,28 +13422,28 @@
         <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D331" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E331">
-        <v>9940025</v>
+        <v>9920342</v>
       </c>
       <c r="F331" t="s">
-        <v>816</v>
+        <v>993</v>
       </c>
       <c r="H331" s="1">
-        <v>44349</v>
+        <v>44357</v>
       </c>
       <c r="I331" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="J331">
-        <v>38.358845479999999</v>
+        <v>38.038003799999998</v>
       </c>
       <c r="K331">
-        <v>140.3833851</v>
+        <v>140.20047030000001</v>
       </c>
     </row>
     <row r="332" spans="2:11" x14ac:dyDescent="0.4">
@@ -13430,28 +13451,28 @@
         <v>11</v>
       </c>
       <c r="C332" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D332" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E332">
-        <v>9997652</v>
+        <v>9940025</v>
       </c>
       <c r="F332" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="H332" s="1">
-        <v>44377</v>
+        <v>44349</v>
       </c>
       <c r="I332" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="J332">
-        <v>38.747437349999998</v>
+        <v>38.358845479999999</v>
       </c>
       <c r="K332">
-        <v>139.9719862</v>
+        <v>140.3833851</v>
       </c>
     </row>
     <row r="333" spans="2:11" x14ac:dyDescent="0.4">
@@ -13459,28 +13480,28 @@
         <v>11</v>
       </c>
       <c r="C333" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D333" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E333">
-        <v>9921205</v>
+        <v>9997652</v>
       </c>
       <c r="F333" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="H333" s="1">
-        <v>44466</v>
+        <v>44377</v>
       </c>
       <c r="I333" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J333">
-        <v>37.858201540000003</v>
+        <v>38.747437349999998</v>
       </c>
       <c r="K333">
-        <v>140.1575172</v>
+        <v>139.9719862</v>
       </c>
     </row>
     <row r="334" spans="2:11" x14ac:dyDescent="0.4">
@@ -13488,28 +13509,28 @@
         <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D334" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E334">
-        <v>9997202</v>
+        <v>9921205</v>
       </c>
       <c r="F334" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="H334" s="1">
-        <v>44469</v>
+        <v>44466</v>
       </c>
       <c r="I334" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J334">
-        <v>38.637827000000001</v>
+        <v>37.858201540000003</v>
       </c>
       <c r="K334">
-        <v>139.704306</v>
+        <v>140.1575172</v>
       </c>
     </row>
     <row r="335" spans="2:11" x14ac:dyDescent="0.4">
@@ -13517,28 +13538,28 @@
         <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D335" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E335">
-        <v>9971201</v>
+        <v>9997202</v>
       </c>
       <c r="F335" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="H335" s="1">
-        <v>44389</v>
+        <v>44469</v>
       </c>
       <c r="I335" t="s">
         <v>25</v>
       </c>
       <c r="J335">
-        <v>38.778699860000003</v>
+        <v>38.637827000000001</v>
       </c>
       <c r="K335">
-        <v>139.7505682</v>
+        <v>139.704306</v>
       </c>
     </row>
     <row r="336" spans="2:11" x14ac:dyDescent="0.4">
@@ -13546,28 +13567,28 @@
         <v>11</v>
       </c>
       <c r="C336" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D336" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E336">
-        <v>9996211</v>
+        <v>9971201</v>
       </c>
       <c r="F336" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="H336" s="1">
-        <v>44358</v>
+        <v>44389</v>
       </c>
       <c r="I336" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J336">
-        <v>38.754119469999999</v>
+        <v>38.778699860000003</v>
       </c>
       <c r="K336">
-        <v>140.4135521</v>
+        <v>139.7505682</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.4">
@@ -13575,28 +13596,28 @@
         <v>11</v>
       </c>
       <c r="C337" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D337" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E337">
-        <v>9920076</v>
+        <v>9996211</v>
       </c>
       <c r="F337" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H337" s="1">
-        <v>44461</v>
+        <v>44358</v>
       </c>
       <c r="I337" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J337">
-        <v>37.880526600000003</v>
+        <v>38.754119469999999</v>
       </c>
       <c r="K337">
-        <v>140.0546411</v>
+        <v>140.4135521</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.4">
@@ -13604,28 +13625,28 @@
         <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D338" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E338">
-        <v>9996105</v>
+        <v>9920076</v>
       </c>
       <c r="F338" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H338" s="1">
-        <v>44434</v>
+        <v>44461</v>
       </c>
       <c r="I338" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J338">
-        <v>38.71136336</v>
+        <v>37.880526600000003</v>
       </c>
       <c r="K338">
-        <v>140.55079929999999</v>
+        <v>140.0546411</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.4">
@@ -13633,28 +13654,28 @@
         <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D339" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E339">
-        <v>9960301</v>
+        <v>9996105</v>
       </c>
       <c r="F339" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="H339" s="1">
-        <v>44334</v>
+        <v>44434</v>
       </c>
       <c r="I339" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="J339">
-        <v>38.609262280000003</v>
+        <v>38.71136336</v>
       </c>
       <c r="K339">
-        <v>140.16743550000001</v>
+        <v>140.55079929999999</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.4">
@@ -13662,28 +13683,28 @@
         <v>11</v>
       </c>
       <c r="C340" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D340" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E340">
-        <v>9992221</v>
+        <v>9960301</v>
       </c>
       <c r="F340" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="H340" s="1">
-        <v>44410</v>
+        <v>44334</v>
       </c>
       <c r="I340" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="J340">
-        <v>38.04562438</v>
+        <v>38.609262280000003</v>
       </c>
       <c r="K340">
-        <v>140.1659842</v>
+        <v>140.16743550000001</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.4">
@@ -13691,28 +13712,28 @@
         <v>11</v>
       </c>
       <c r="C341" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D341" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E341">
-        <v>9997464</v>
+        <v>9992221</v>
       </c>
       <c r="F341" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="H341" s="1">
-        <v>44328</v>
+        <v>44410</v>
       </c>
       <c r="I341" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J341">
-        <v>38.724612</v>
+        <v>38.04562438</v>
       </c>
       <c r="K341">
-        <v>139.6921208</v>
+        <v>140.1659842</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.4">
@@ -13720,28 +13741,28 @@
         <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D342" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E342">
-        <v>9902301</v>
+        <v>9997464</v>
       </c>
       <c r="F342" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="H342" s="1">
-        <v>44375</v>
+        <v>44328</v>
       </c>
       <c r="I342" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J342">
-        <v>38.168401070000002</v>
+        <v>38.724612</v>
       </c>
       <c r="K342">
-        <v>140.39698039999999</v>
+        <v>139.6921208</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.4">
@@ -13749,28 +13770,28 @@
         <v>11</v>
       </c>
       <c r="C343" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D343" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E343">
-        <v>9970752</v>
+        <v>9902301</v>
       </c>
       <c r="F343" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="H343" s="1">
-        <v>44342</v>
+        <v>44375</v>
       </c>
       <c r="I343" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J343">
-        <v>38.693463209999997</v>
+        <v>38.168401070000002</v>
       </c>
       <c r="K343">
-        <v>139.7694367</v>
+        <v>140.39698039999999</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.4">
@@ -13778,89 +13799,89 @@
         <v>11</v>
       </c>
       <c r="C344" t="s">
+        <v>850</v>
+      </c>
+      <c r="D344" t="s">
+        <v>851</v>
+      </c>
+      <c r="E344">
+        <v>9970752</v>
+      </c>
+      <c r="F344" t="s">
+        <v>852</v>
+      </c>
+      <c r="H344" s="1">
+        <v>44342</v>
+      </c>
+      <c r="I344" t="s">
+        <v>25</v>
+      </c>
+      <c r="J344">
+        <v>38.693463209999997</v>
+      </c>
+      <c r="K344">
+        <v>139.7694367</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B345" t="s">
+        <v>11</v>
+      </c>
+      <c r="C345" t="s">
         <v>853</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D345" t="s">
         <v>854</v>
       </c>
-      <c r="E344">
+      <c r="E345">
         <v>9991452</v>
       </c>
-      <c r="F344" t="s">
+      <c r="F345" t="s">
         <v>961</v>
       </c>
-      <c r="H344" s="1">
+      <c r="H345" s="1">
         <v>44414</v>
       </c>
-      <c r="I344" t="s">
+      <c r="I345" t="s">
         <v>130</v>
       </c>
-      <c r="J344">
+      <c r="J345">
         <v>38.160279950000003</v>
       </c>
-      <c r="K344">
+      <c r="K345">
         <v>139.78839550000001</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A345" t="s">
-        <v>11</v>
-      </c>
-      <c r="B345" t="s">
-        <v>11</v>
-      </c>
-      <c r="C345" t="s">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A346" t="s">
+        <v>11</v>
+      </c>
+      <c r="B346" t="s">
+        <v>11</v>
+      </c>
+      <c r="C346" t="s">
         <v>940</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D346" t="s">
         <v>941</v>
       </c>
-      <c r="E345">
+      <c r="E346">
         <v>9997463</v>
       </c>
-      <c r="F345" t="s">
+      <c r="F346" t="s">
         <v>942</v>
       </c>
-      <c r="H345" s="1">
+      <c r="H346" s="1">
         <v>44392</v>
       </c>
-      <c r="I345" t="s">
+      <c r="I346" t="s">
         <v>25</v>
       </c>
-      <c r="J345">
+      <c r="J346">
         <v>38.703204100000001</v>
       </c>
-      <c r="K345">
+      <c r="K346">
         <v>139.66686379999999</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B346" t="s">
-        <v>11</v>
-      </c>
-      <c r="C346" t="s">
-        <v>855</v>
-      </c>
-      <c r="D346" t="s">
-        <v>856</v>
-      </c>
-      <c r="E346">
-        <v>9996211</v>
-      </c>
-      <c r="F346" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H346" s="1">
-        <v>44385</v>
-      </c>
-      <c r="I346" t="s">
-        <v>48</v>
-      </c>
-      <c r="J346">
-        <v>38.754193219999998</v>
-      </c>
-      <c r="K346">
-        <v>140.41247619999999</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.4">
@@ -13868,28 +13889,28 @@
         <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D347" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E347">
-        <v>9993242</v>
+        <v>9996211</v>
       </c>
       <c r="F347" t="s">
-        <v>859</v>
+        <v>1001</v>
       </c>
       <c r="H347" s="1">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="I347" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J347">
-        <v>38.14876142</v>
+        <v>38.754193219999998</v>
       </c>
       <c r="K347">
-        <v>140.26266129999999</v>
+        <v>140.41247619999999</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.4">
@@ -13897,28 +13918,28 @@
         <v>11</v>
       </c>
       <c r="C348" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D348" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E348">
-        <v>9994333</v>
+        <v>9993242</v>
       </c>
       <c r="F348" t="s">
-        <v>1031</v>
+        <v>859</v>
       </c>
       <c r="H348" s="1">
-        <v>44446</v>
+        <v>44453</v>
       </c>
       <c r="I348" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="J348">
-        <v>38.569570179999999</v>
+        <v>38.14876142</v>
       </c>
       <c r="K348">
-        <v>140.53128799999999</v>
+        <v>140.26266129999999</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.4">
@@ -13926,28 +13947,28 @@
         <v>11</v>
       </c>
       <c r="C349" t="s">
-        <v>862</v>
+        <v>1115</v>
       </c>
       <c r="D349" t="s">
-        <v>863</v>
+        <v>1116</v>
       </c>
       <c r="E349">
-        <v>9994333</v>
+        <v>9992211</v>
       </c>
       <c r="F349" t="s">
-        <v>1030</v>
+        <v>1117</v>
       </c>
       <c r="H349" s="1">
-        <v>44361</v>
+        <v>44537</v>
       </c>
       <c r="I349" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="J349">
-        <v>38.569601370000001</v>
+        <v>38.050565416797099</v>
       </c>
       <c r="K349">
-        <v>140.53120129999999</v>
+        <v>140.16837169699301</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.4">
@@ -13955,28 +13976,28 @@
         <v>11</v>
       </c>
       <c r="C350" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D350" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E350">
-        <v>9996105</v>
+        <v>9994333</v>
       </c>
       <c r="F350" t="s">
-        <v>1003</v>
+        <v>1031</v>
       </c>
       <c r="H350" s="1">
-        <v>44418</v>
+        <v>44446</v>
       </c>
       <c r="I350" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="J350">
-        <v>38.709274710000003</v>
+        <v>38.569570179999999</v>
       </c>
       <c r="K350">
-        <v>140.5548297</v>
+        <v>140.53128799999999</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.4">
@@ -13984,28 +14005,28 @@
         <v>11</v>
       </c>
       <c r="C351" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D351" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E351">
-        <v>9930001</v>
+        <v>9994333</v>
       </c>
       <c r="F351" t="s">
-        <v>1105</v>
+        <v>1030</v>
       </c>
       <c r="H351" s="1">
-        <v>44532</v>
+        <v>44361</v>
       </c>
       <c r="I351" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J351">
-        <v>38.10774481</v>
+        <v>38.569601370000001</v>
       </c>
       <c r="K351">
-        <v>140.039852</v>
+        <v>140.53120129999999</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.4">
@@ -14013,28 +14034,28 @@
         <v>11</v>
       </c>
       <c r="C352" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D352" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E352">
-        <v>9902301</v>
+        <v>9996105</v>
       </c>
       <c r="F352" t="s">
-        <v>868</v>
+        <v>1003</v>
       </c>
       <c r="H352" s="1">
-        <v>44347</v>
+        <v>44418</v>
       </c>
       <c r="I352" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J352">
-        <v>38.168008010000001</v>
+        <v>38.709274710000003</v>
       </c>
       <c r="K352">
-        <v>140.39562839999999</v>
+        <v>140.5548297</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.4">
@@ -14042,28 +14063,28 @@
         <v>11</v>
       </c>
       <c r="C353" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D353" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E353">
-        <v>9920351</v>
+        <v>9930001</v>
       </c>
       <c r="F353" t="s">
-        <v>991</v>
+        <v>1105</v>
       </c>
       <c r="H353" s="1">
-        <v>44350</v>
+        <v>44532</v>
       </c>
       <c r="I353" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="J353">
-        <v>38.000407600000003</v>
+        <v>38.10774481</v>
       </c>
       <c r="K353">
-        <v>140.1957989</v>
+        <v>140.039852</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.4">
@@ -14071,28 +14092,28 @@
         <v>11</v>
       </c>
       <c r="C354" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="D354" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E354">
-        <v>9980281</v>
+        <v>9902301</v>
       </c>
       <c r="F354" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="H354" s="1">
-        <v>44482</v>
+        <v>44347</v>
       </c>
       <c r="I354" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="J354">
-        <v>39.187297039999997</v>
+        <v>38.168008010000001</v>
       </c>
       <c r="K354">
-        <v>139.54744959999999</v>
+        <v>140.39562839999999</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.4">
@@ -14100,28 +14121,28 @@
         <v>11</v>
       </c>
       <c r="C355" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D355" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="E355">
-        <v>9993702</v>
+        <v>9920351</v>
       </c>
       <c r="F355" t="s">
-        <v>876</v>
+        <v>991</v>
       </c>
       <c r="H355" s="1">
-        <v>44390</v>
+        <v>44350</v>
       </c>
       <c r="I355" t="s">
-        <v>324</v>
+        <v>140</v>
       </c>
       <c r="J355">
-        <v>38.45775742</v>
+        <v>38.000407600000003</v>
       </c>
       <c r="K355">
-        <v>140.38918129999999</v>
+        <v>140.1957989</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.4">
@@ -14129,28 +14150,28 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D356" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E356">
-        <v>9900734</v>
+        <v>9980281</v>
       </c>
       <c r="F356" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="H356" s="1">
-        <v>44389</v>
+        <v>44482</v>
       </c>
       <c r="I356" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="J356">
-        <v>38.491993919999999</v>
+        <v>39.187297039999997</v>
       </c>
       <c r="K356">
-        <v>139.99943529999999</v>
+        <v>139.54744959999999</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.4">
@@ -14158,28 +14179,28 @@
         <v>11</v>
       </c>
       <c r="C357" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D357" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E357">
-        <v>9997463</v>
+        <v>9993702</v>
       </c>
       <c r="F357" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="H357" s="1">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="I357" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="J357">
-        <v>38.686920800000003</v>
+        <v>38.45775742</v>
       </c>
       <c r="K357">
-        <v>139.67781149999999</v>
+        <v>140.38918129999999</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.4">
@@ -14187,28 +14208,28 @@
         <v>11</v>
       </c>
       <c r="C358" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D358" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E358">
-        <v>9993242</v>
+        <v>9900734</v>
       </c>
       <c r="F358" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="H358" s="1">
-        <v>44439</v>
+        <v>44389</v>
       </c>
       <c r="I358" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J358">
-        <v>38.147896009999997</v>
+        <v>38.491993919999999</v>
       </c>
       <c r="K358">
-        <v>140.26258870000001</v>
+        <v>139.99943529999999</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.4">
@@ -14216,28 +14237,28 @@
         <v>11</v>
       </c>
       <c r="C359" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="D359" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E359">
-        <v>9992211</v>
+        <v>9997463</v>
       </c>
       <c r="F359" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="H359" s="1">
-        <v>44414</v>
+        <v>44461</v>
       </c>
       <c r="I359" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J359">
-        <v>38.05026676</v>
+        <v>38.686920800000003</v>
       </c>
       <c r="K359">
-        <v>140.16726919999999</v>
+        <v>139.67781149999999</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.4">
@@ -14245,28 +14266,28 @@
         <v>11</v>
       </c>
       <c r="C360" t="s">
-        <v>987</v>
+        <v>883</v>
       </c>
       <c r="D360" t="s">
-        <v>988</v>
+        <v>884</v>
       </c>
       <c r="E360">
-        <v>9960301</v>
+        <v>9993242</v>
       </c>
       <c r="F360" t="s">
-        <v>989</v>
+        <v>885</v>
       </c>
       <c r="H360" s="1">
-        <v>44508</v>
+        <v>44439</v>
       </c>
       <c r="I360" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="J360">
-        <v>38.607975099999997</v>
+        <v>38.147896009999997</v>
       </c>
       <c r="K360">
-        <v>140.1671412</v>
+        <v>140.26258870000001</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.4">
@@ -14274,92 +14295,86 @@
         <v>11</v>
       </c>
       <c r="C361" t="s">
+        <v>886</v>
+      </c>
+      <c r="D361" t="s">
+        <v>887</v>
+      </c>
+      <c r="E361">
+        <v>9992211</v>
+      </c>
+      <c r="F361" t="s">
+        <v>888</v>
+      </c>
+      <c r="H361" s="1">
+        <v>44414</v>
+      </c>
+      <c r="I361" t="s">
+        <v>15</v>
+      </c>
+      <c r="J361">
+        <v>38.05026676</v>
+      </c>
+      <c r="K361">
+        <v>140.16726919999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B362" t="s">
+        <v>11</v>
+      </c>
+      <c r="C362" t="s">
+        <v>987</v>
+      </c>
+      <c r="D362" t="s">
+        <v>988</v>
+      </c>
+      <c r="E362">
+        <v>9960301</v>
+      </c>
+      <c r="F362" t="s">
+        <v>989</v>
+      </c>
+      <c r="H362" s="1">
+        <v>44508</v>
+      </c>
+      <c r="I362" t="s">
+        <v>85</v>
+      </c>
+      <c r="J362">
+        <v>38.607975099999997</v>
+      </c>
+      <c r="K362">
+        <v>140.1671412</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B363" t="s">
+        <v>11</v>
+      </c>
+      <c r="C363" t="s">
         <v>889</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D363" t="s">
         <v>890</v>
       </c>
-      <c r="E361">
+      <c r="E363">
         <v>9902301</v>
       </c>
-      <c r="F361" t="s">
+      <c r="F363" t="s">
         <v>891</v>
       </c>
-      <c r="H361" s="1">
+      <c r="H363" s="1">
         <v>44398</v>
-      </c>
-      <c r="I361" t="s">
-        <v>32</v>
-      </c>
-      <c r="J361">
-        <v>38.166095300000002</v>
-      </c>
-      <c r="K361">
-        <v>140.39884280000001</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A362" t="s">
-        <v>11</v>
-      </c>
-      <c r="B362" t="s">
-        <v>11</v>
-      </c>
-      <c r="C362" t="s">
-        <v>930</v>
-      </c>
-      <c r="D362" t="s">
-        <v>931</v>
-      </c>
-      <c r="E362">
-        <v>9900733</v>
-      </c>
-      <c r="F362" t="s">
-        <v>967</v>
-      </c>
-      <c r="H362" s="1">
-        <v>44365</v>
-      </c>
-      <c r="I362" t="s">
-        <v>18</v>
-      </c>
-      <c r="J362">
-        <v>38.454796760000001</v>
-      </c>
-      <c r="K362">
-        <v>140.00722540000001</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A363" t="s">
-        <v>11</v>
-      </c>
-      <c r="B363" t="s">
-        <v>11</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E363">
-        <v>9902405</v>
-      </c>
-      <c r="F363" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H363" s="1">
-        <v>44519</v>
       </c>
       <c r="I363" t="s">
         <v>32</v>
       </c>
       <c r="J363">
-        <v>38.1961674</v>
+        <v>38.166095300000002</v>
       </c>
       <c r="K363">
-        <v>140.37522229999999</v>
+        <v>140.39884280000001</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.4">
@@ -14370,118 +14385,121 @@
         <v>11</v>
       </c>
       <c r="C364" t="s">
-        <v>915</v>
+        <v>930</v>
       </c>
       <c r="D364" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="E364">
-        <v>9902301</v>
+        <v>9900733</v>
       </c>
       <c r="F364" t="s">
-        <v>916</v>
+        <v>967</v>
       </c>
       <c r="H364" s="1">
-        <v>44501</v>
+        <v>44365</v>
       </c>
       <c r="I364" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J364">
-        <v>38.170156089999999</v>
+        <v>38.454796760000001</v>
       </c>
       <c r="K364">
-        <v>140.39523840000001</v>
+        <v>140.00722540000001</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A365" t="s">
+        <v>11</v>
+      </c>
       <c r="B365" t="s">
         <v>11</v>
       </c>
       <c r="C365" t="s">
-        <v>892</v>
+        <v>1070</v>
       </c>
       <c r="D365" t="s">
-        <v>892</v>
+        <v>1071</v>
       </c>
       <c r="E365">
-        <v>9902301</v>
+        <v>9902405</v>
       </c>
       <c r="F365" t="s">
-        <v>893</v>
+        <v>1072</v>
       </c>
       <c r="H365" s="1">
-        <v>44484</v>
+        <v>44519</v>
       </c>
       <c r="I365" t="s">
         <v>32</v>
       </c>
       <c r="J365">
+        <v>38.1961674</v>
+      </c>
+      <c r="K365">
+        <v>140.37522229999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A366" t="s">
+        <v>11</v>
+      </c>
+      <c r="B366" t="s">
+        <v>11</v>
+      </c>
+      <c r="C366" t="s">
+        <v>915</v>
+      </c>
+      <c r="D366" t="s">
+        <v>915</v>
+      </c>
+      <c r="E366">
+        <v>9902301</v>
+      </c>
+      <c r="F366" t="s">
+        <v>916</v>
+      </c>
+      <c r="H366" s="1">
+        <v>44501</v>
+      </c>
+      <c r="I366" t="s">
+        <v>32</v>
+      </c>
+      <c r="J366">
+        <v>38.170156089999999</v>
+      </c>
+      <c r="K366">
+        <v>140.39523840000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B367" t="s">
+        <v>11</v>
+      </c>
+      <c r="C367" t="s">
+        <v>892</v>
+      </c>
+      <c r="D367" t="s">
+        <v>892</v>
+      </c>
+      <c r="E367">
+        <v>9902301</v>
+      </c>
+      <c r="F367" t="s">
+        <v>893</v>
+      </c>
+      <c r="H367" s="1">
+        <v>44484</v>
+      </c>
+      <c r="I367" t="s">
+        <v>32</v>
+      </c>
+      <c r="J367">
         <v>38.166421700000001</v>
       </c>
-      <c r="K365">
+      <c r="K367">
         <v>140.39818360000001</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B366" t="s">
-        <v>11</v>
-      </c>
-      <c r="C366" t="s">
-        <v>894</v>
-      </c>
-      <c r="D366" t="s">
-        <v>895</v>
-      </c>
-      <c r="E366">
-        <v>9960301</v>
-      </c>
-      <c r="F366" t="s">
-        <v>981</v>
-      </c>
-      <c r="H366" s="1">
-        <v>44396</v>
-      </c>
-      <c r="I366" t="s">
-        <v>85</v>
-      </c>
-      <c r="J366">
-        <v>38.607663000000002</v>
-      </c>
-      <c r="K366">
-        <v>140.16648180000001</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A367" t="s">
-        <v>11</v>
-      </c>
-      <c r="B367" t="s">
-        <v>11</v>
-      </c>
-      <c r="C367" t="s">
-        <v>907</v>
-      </c>
-      <c r="D367" t="s">
-        <v>908</v>
-      </c>
-      <c r="E367">
-        <v>9996101</v>
-      </c>
-      <c r="F367" t="s">
-        <v>995</v>
-      </c>
-      <c r="H367" s="1">
-        <v>44418</v>
-      </c>
-      <c r="I367" t="s">
-        <v>48</v>
-      </c>
-      <c r="J367">
-        <v>38.798514539999999</v>
-      </c>
-      <c r="K367">
-        <v>140.55506260000001</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.4">
@@ -14489,27 +14507,88 @@
         <v>11</v>
       </c>
       <c r="C368" t="s">
+        <v>894</v>
+      </c>
+      <c r="D368" t="s">
+        <v>895</v>
+      </c>
+      <c r="E368">
+        <v>9960301</v>
+      </c>
+      <c r="F368" t="s">
+        <v>981</v>
+      </c>
+      <c r="H368" s="1">
+        <v>44396</v>
+      </c>
+      <c r="I368" t="s">
+        <v>85</v>
+      </c>
+      <c r="J368">
+        <v>38.607663000000002</v>
+      </c>
+      <c r="K368">
+        <v>140.16648180000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A369" t="s">
+        <v>11</v>
+      </c>
+      <c r="B369" t="s">
+        <v>11</v>
+      </c>
+      <c r="C369" t="s">
+        <v>907</v>
+      </c>
+      <c r="D369" t="s">
+        <v>908</v>
+      </c>
+      <c r="E369">
+        <v>9996101</v>
+      </c>
+      <c r="F369" t="s">
+        <v>995</v>
+      </c>
+      <c r="H369" s="1">
+        <v>44418</v>
+      </c>
+      <c r="I369" t="s">
+        <v>48</v>
+      </c>
+      <c r="J369">
+        <v>38.798514539999999</v>
+      </c>
+      <c r="K369">
+        <v>140.55506260000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B370" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370" t="s">
         <v>896</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D370" t="s">
         <v>897</v>
       </c>
-      <c r="E368">
+      <c r="E370">
         <v>9996105</v>
       </c>
-      <c r="F368" t="s">
+      <c r="F370" t="s">
         <v>1004</v>
       </c>
-      <c r="H368" s="1">
+      <c r="H370" s="1">
         <v>44356</v>
       </c>
-      <c r="I368" t="s">
+      <c r="I370" t="s">
         <v>48</v>
       </c>
-      <c r="J368">
+      <c r="J370">
         <v>38.709343230000002</v>
       </c>
-      <c r="K368">
+      <c r="K370">
         <v>140.55579929999999</v>
       </c>
     </row>

--- a/output/宿泊業.xlsx
+++ b/output/宿泊業.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E483AF-14A1-422B-8B2D-5AC1489A9BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6696C19-EAC0-4C99-967D-12AF4B8B8632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2400" windowWidth="26850" windowHeight="14970" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
+    <workbookView xWindow="1125" yWindow="2460" windowWidth="21120" windowHeight="17295" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="1126">
   <si>
     <t>業種(飲食業）</t>
   </si>
@@ -3392,6 +3392,21 @@
   </si>
   <si>
     <t>村山市大槙422</t>
+  </si>
+  <si>
+    <t>ダイワロイネットホテル山形駅前</t>
+  </si>
+  <si>
+    <t>ダイワロイネットホテルヤマガタエキマエ</t>
+  </si>
+  <si>
+    <t>山形市幸町2-9</t>
+  </si>
+  <si>
+    <t>プチリゾートホテル　デァ　ヴェルテ</t>
+  </si>
+  <si>
+    <t>山形市蔵王温泉808-5</t>
   </si>
 </sst>
 </file>
@@ -3758,10 +3773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA919E-F71A-4DC0-BB86-57B9BD20D6E7}">
-  <dimension ref="A1:K371"/>
+  <dimension ref="A1:K373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7827,28 +7842,28 @@
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>1106</v>
+        <v>1121</v>
       </c>
       <c r="D139" t="s">
-        <v>1107</v>
+        <v>1122</v>
       </c>
       <c r="E139">
-        <v>9920076</v>
+        <v>9900038</v>
       </c>
       <c r="F139" t="s">
-        <v>1108</v>
+        <v>1123</v>
       </c>
       <c r="H139" s="1">
-        <v>44536</v>
+        <v>44544</v>
       </c>
       <c r="I139" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J139">
-        <v>37.879921000000003</v>
+        <v>38.247420116656102</v>
       </c>
       <c r="K139">
-        <v>140.05514400000001</v>
+        <v>140.32969959884599</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
@@ -7856,28 +7871,28 @@
         <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>341</v>
+        <v>1106</v>
       </c>
       <c r="D140" t="s">
-        <v>342</v>
+        <v>1107</v>
       </c>
       <c r="E140">
-        <v>9920821</v>
+        <v>9920076</v>
       </c>
       <c r="F140" t="s">
-        <v>343</v>
+        <v>1108</v>
       </c>
       <c r="H140" s="1">
-        <v>44448</v>
+        <v>44536</v>
       </c>
       <c r="I140" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="J140">
-        <v>38.19470261</v>
+        <v>37.879921000000003</v>
       </c>
       <c r="K140">
-        <v>140.11131660000001</v>
+        <v>140.05514400000001</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
@@ -7885,28 +7900,28 @@
         <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D141" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E141">
-        <v>9900406</v>
+        <v>9920821</v>
       </c>
       <c r="F141" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="H141" s="1">
-        <v>44477</v>
+        <v>44448</v>
       </c>
       <c r="I141" t="s">
-        <v>357</v>
+        <v>192</v>
       </c>
       <c r="J141">
-        <v>38.326990840000001</v>
+        <v>38.19470261</v>
       </c>
       <c r="K141">
-        <v>140.255065</v>
+        <v>140.11131660000001</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
@@ -7914,28 +7929,28 @@
         <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D142" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E142">
-        <v>9902301</v>
+        <v>9900406</v>
       </c>
       <c r="F142" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H142" s="1">
-        <v>44347</v>
+        <v>44477</v>
       </c>
       <c r="I142" t="s">
-        <v>32</v>
+        <v>357</v>
       </c>
       <c r="J142">
-        <v>38.169733399999998</v>
+        <v>38.326990840000001</v>
       </c>
       <c r="K142">
-        <v>140.40098230000001</v>
+        <v>140.255065</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
@@ -7943,28 +7958,28 @@
         <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D143" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E143">
-        <v>9996401</v>
+        <v>9902301</v>
       </c>
       <c r="F143" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H143" s="1">
-        <v>44453</v>
+        <v>44347</v>
       </c>
       <c r="I143" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="J143">
-        <v>38.766098700000001</v>
+        <v>38.169733399999998</v>
       </c>
       <c r="K143">
-        <v>140.053166</v>
+        <v>140.40098230000001</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
@@ -7972,28 +7987,28 @@
         <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D144" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E144">
-        <v>9902301</v>
+        <v>9996401</v>
       </c>
       <c r="F144" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H144" s="1">
-        <v>44461</v>
+        <v>44453</v>
       </c>
       <c r="I144" t="s">
-        <v>32</v>
+        <v>350</v>
       </c>
       <c r="J144">
-        <v>38.161280439999999</v>
+        <v>38.766098700000001</v>
       </c>
       <c r="K144">
-        <v>140.39394759999999</v>
+        <v>140.053166</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
@@ -8001,89 +8016,89 @@
         <v>11</v>
       </c>
       <c r="C145" t="s">
+        <v>351</v>
+      </c>
+      <c r="D145" t="s">
+        <v>352</v>
+      </c>
+      <c r="E145">
+        <v>9902301</v>
+      </c>
+      <c r="F145" t="s">
+        <v>353</v>
+      </c>
+      <c r="H145" s="1">
+        <v>44461</v>
+      </c>
+      <c r="I145" t="s">
+        <v>32</v>
+      </c>
+      <c r="J145">
+        <v>38.161280439999999</v>
+      </c>
+      <c r="K145">
+        <v>140.39394759999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
         <v>358</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D146" t="s">
         <v>359</v>
       </c>
-      <c r="E145">
+      <c r="E146">
         <v>9996105</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F146" t="s">
         <v>1007</v>
       </c>
-      <c r="H145" s="1">
+      <c r="H146" s="1">
         <v>44393</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I146" t="s">
         <v>48</v>
       </c>
-      <c r="J145">
+      <c r="J146">
         <v>38.712054010000003</v>
       </c>
-      <c r="K145">
+      <c r="K146">
         <v>140.55382560000001</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>11</v>
-      </c>
-      <c r="B146" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" t="s">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
         <v>898</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D147" t="s">
         <v>899</v>
       </c>
-      <c r="E146">
+      <c r="E147">
         <v>9900503</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F147" t="s">
         <v>954</v>
       </c>
-      <c r="H146" s="1">
+      <c r="H147" s="1">
         <v>44392</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I147" t="s">
         <v>144</v>
       </c>
-      <c r="J146">
+      <c r="J147">
         <v>38.4484937</v>
       </c>
-      <c r="K146">
+      <c r="K147">
         <v>140.2335539</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B147" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" t="s">
-        <v>360</v>
-      </c>
-      <c r="D147" t="s">
-        <v>360</v>
-      </c>
-      <c r="E147">
-        <v>9930011</v>
-      </c>
-      <c r="F147" t="s">
-        <v>361</v>
-      </c>
-      <c r="H147" s="1">
-        <v>44396</v>
-      </c>
-      <c r="I147" t="s">
-        <v>58</v>
-      </c>
-      <c r="J147">
-        <v>38.101388999999998</v>
-      </c>
-      <c r="K147">
-        <v>140.04332529999999</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.4">
@@ -8091,28 +8106,28 @@
         <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D148" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E148">
-        <v>9997204</v>
+        <v>9930011</v>
       </c>
       <c r="F148" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H148" s="1">
-        <v>44404</v>
+        <v>44396</v>
       </c>
       <c r="I148" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="J148">
-        <v>38.615384630000001</v>
+        <v>38.101388999999998</v>
       </c>
       <c r="K148">
-        <v>139.60561659999999</v>
+        <v>140.04332529999999</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.4">
@@ -8120,28 +8135,28 @@
         <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D149" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E149">
-        <v>9960301</v>
+        <v>9997204</v>
       </c>
       <c r="F149" t="s">
-        <v>980</v>
+        <v>364</v>
       </c>
       <c r="H149" s="1">
-        <v>44406</v>
+        <v>44404</v>
       </c>
       <c r="I149" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J149">
-        <v>38.608500960000001</v>
+        <v>38.615384630000001</v>
       </c>
       <c r="K149">
-        <v>140.1669493</v>
+        <v>139.60561659999999</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.4">
@@ -8149,28 +8164,28 @@
         <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D150" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E150">
-        <v>9970752</v>
+        <v>9960301</v>
       </c>
       <c r="F150" t="s">
-        <v>369</v>
+        <v>980</v>
       </c>
       <c r="H150" s="1">
-        <v>44413</v>
+        <v>44406</v>
       </c>
       <c r="I150" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J150">
-        <v>38.693018189999997</v>
+        <v>38.608500960000001</v>
       </c>
       <c r="K150">
-        <v>139.76950020000001</v>
+        <v>140.1669493</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.4">
@@ -8178,28 +8193,28 @@
         <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D151" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E151">
-        <v>9970532</v>
+        <v>9970752</v>
       </c>
       <c r="F151" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H151" s="1">
-        <v>44475</v>
+        <v>44413</v>
       </c>
       <c r="I151" t="s">
         <v>25</v>
       </c>
       <c r="J151">
-        <v>38.573732759999999</v>
+        <v>38.693018189999997</v>
       </c>
       <c r="K151">
-        <v>139.9208031</v>
+        <v>139.76950020000001</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.4">
@@ -8207,28 +8222,28 @@
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D152" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E152">
-        <v>9992211</v>
+        <v>9970532</v>
       </c>
       <c r="F152" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H152" s="1">
-        <v>44410</v>
+        <v>44475</v>
       </c>
       <c r="I152" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J152">
-        <v>38.050577599999997</v>
+        <v>38.573732759999999</v>
       </c>
       <c r="K152">
-        <v>140.1689681</v>
+        <v>139.9208031</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.4">
@@ -8236,28 +8251,28 @@
         <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D153" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E153">
-        <v>9910041</v>
+        <v>9992211</v>
       </c>
       <c r="F153" t="s">
-        <v>953</v>
+        <v>375</v>
       </c>
       <c r="H153" s="1">
-        <v>44480</v>
+        <v>44410</v>
       </c>
       <c r="I153" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="J153">
-        <v>38.363664100000001</v>
+        <v>38.050577599999997</v>
       </c>
       <c r="K153">
-        <v>140.25826950000001</v>
+        <v>140.1689681</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
@@ -8265,28 +8280,28 @@
         <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D154" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E154">
-        <v>9980281</v>
+        <v>9910041</v>
       </c>
       <c r="F154" t="s">
-        <v>385</v>
+        <v>953</v>
       </c>
       <c r="H154" s="1">
-        <v>44488</v>
+        <v>44480</v>
       </c>
       <c r="I154" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="J154">
-        <v>39.189449099999997</v>
+        <v>38.363664100000001</v>
       </c>
       <c r="K154">
-        <v>139.54874699999999</v>
+        <v>140.25826950000001</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.4">
@@ -8294,28 +8309,28 @@
         <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D155" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E155">
-        <v>9998531</v>
+        <v>9980281</v>
       </c>
       <c r="F155" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H155" s="1">
-        <v>44342</v>
+        <v>44488</v>
       </c>
       <c r="I155" t="s">
-        <v>283</v>
+        <v>121</v>
       </c>
       <c r="J155">
-        <v>39.066695899999999</v>
+        <v>39.189449099999997</v>
       </c>
       <c r="K155">
-        <v>139.87433300000001</v>
+        <v>139.54874699999999</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.4">
@@ -8323,28 +8338,28 @@
         <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D156" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E156">
-        <v>9998521</v>
+        <v>9998531</v>
       </c>
       <c r="F156" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H156" s="1">
-        <v>44361</v>
+        <v>44342</v>
       </c>
       <c r="I156" t="s">
         <v>283</v>
       </c>
       <c r="J156">
-        <v>39.0988592</v>
+        <v>39.066695899999999</v>
       </c>
       <c r="K156">
-        <v>140.0440705</v>
+        <v>139.87433300000001</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.4">
@@ -8352,28 +8367,28 @@
         <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D157" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E157">
-        <v>9970752</v>
+        <v>9998521</v>
       </c>
       <c r="F157" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H157" s="1">
-        <v>44487</v>
+        <v>44361</v>
       </c>
       <c r="I157" t="s">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="J157">
-        <v>38.693366789999999</v>
+        <v>39.0988592</v>
       </c>
       <c r="K157">
-        <v>139.76965269999999</v>
+        <v>140.0440705</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.4">
@@ -8381,28 +8396,28 @@
         <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D158" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E158">
-        <v>9980023</v>
+        <v>9970752</v>
       </c>
       <c r="F158" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H158" s="1">
-        <v>44354</v>
+        <v>44487</v>
       </c>
       <c r="I158" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="J158">
-        <v>38.920925080000004</v>
+        <v>38.693366789999999</v>
       </c>
       <c r="K158">
-        <v>139.84454049999999</v>
+        <v>139.76965269999999</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.4">
@@ -8410,28 +8425,28 @@
         <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D159" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E159">
-        <v>9991362</v>
+        <v>9980023</v>
       </c>
       <c r="F159" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H159" s="1">
-        <v>44397</v>
+        <v>44354</v>
       </c>
       <c r="I159" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J159">
-        <v>38.058467</v>
+        <v>38.920925080000004</v>
       </c>
       <c r="K159">
-        <v>139.74850799999999</v>
+        <v>139.84454049999999</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.4">
@@ -8439,524 +8454,524 @@
         <v>11</v>
       </c>
       <c r="C160" t="s">
+        <v>398</v>
+      </c>
+      <c r="D160" t="s">
+        <v>399</v>
+      </c>
+      <c r="E160">
+        <v>9991362</v>
+      </c>
+      <c r="F160" t="s">
+        <v>400</v>
+      </c>
+      <c r="H160" s="1">
+        <v>44397</v>
+      </c>
+      <c r="I160" t="s">
+        <v>130</v>
+      </c>
+      <c r="J160">
+        <v>38.058467</v>
+      </c>
+      <c r="K160">
+        <v>139.74850799999999</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
         <v>401</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D161" t="s">
         <v>402</v>
       </c>
-      <c r="E160">
+      <c r="E161">
         <v>9920472</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F161" t="s">
         <v>403</v>
       </c>
-      <c r="H160" s="1">
+      <c r="H161" s="1">
         <v>44438</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I161" t="s">
         <v>15</v>
       </c>
-      <c r="J160">
+      <c r="J161">
         <v>38.07023598</v>
       </c>
-      <c r="K160">
+      <c r="K161">
         <v>140.15642639999999</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B161" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" t="s">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
         <v>1085</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D162" t="s">
         <v>1086</v>
       </c>
-      <c r="E161">
+      <c r="E162">
         <v>9940025</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F162" t="s">
         <v>1087</v>
       </c>
-      <c r="H161" s="1">
+      <c r="H162" s="1">
         <v>44525</v>
-      </c>
-      <c r="I161" t="s">
-        <v>79</v>
-      </c>
-      <c r="J161">
-        <v>38.358693000000002</v>
-      </c>
-      <c r="K161">
-        <v>140.38335140000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B162" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D162" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E162">
-        <v>9940034</v>
-      </c>
-      <c r="F162" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H162" s="1">
-        <v>44533</v>
       </c>
       <c r="I162" t="s">
         <v>79</v>
       </c>
       <c r="J162">
-        <v>38.359467250000002</v>
+        <v>38.358693000000002</v>
       </c>
       <c r="K162">
-        <v>140.37161180000001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
+        <v>140.38335140000001</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B163" t="s">
         <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>404</v>
+        <v>1099</v>
       </c>
       <c r="D163" t="s">
-        <v>405</v>
+        <v>1100</v>
       </c>
       <c r="E163">
-        <v>9940024</v>
+        <v>9940034</v>
       </c>
       <c r="F163" t="s">
-        <v>406</v>
+        <v>1101</v>
       </c>
       <c r="H163" s="1">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="I163" t="s">
         <v>79</v>
       </c>
       <c r="J163">
+        <v>38.359467250000002</v>
+      </c>
+      <c r="K163">
+        <v>140.37161180000001</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>404</v>
+      </c>
+      <c r="D164" t="s">
+        <v>405</v>
+      </c>
+      <c r="E164">
+        <v>9940024</v>
+      </c>
+      <c r="F164" t="s">
+        <v>406</v>
+      </c>
+      <c r="H164" s="1">
+        <v>44357</v>
+      </c>
+      <c r="I164" t="s">
+        <v>79</v>
+      </c>
+      <c r="J164">
         <v>38.358968660000002</v>
       </c>
-      <c r="K163">
+      <c r="K164">
         <v>140.38633809999999</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B164" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" t="s">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
         <v>407</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D165" t="s">
         <v>408</v>
       </c>
-      <c r="E164">
+      <c r="E165">
         <v>9993141</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F165" t="s">
         <v>409</v>
       </c>
-      <c r="H164" s="1">
+      <c r="H165" s="1">
         <v>44324</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I165" t="s">
         <v>45</v>
       </c>
-      <c r="J164">
+      <c r="J165">
         <v>38.157778759999999</v>
       </c>
-      <c r="K164">
+      <c r="K165">
         <v>140.27243279999999</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B165" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" t="s">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
         <v>410</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D166" t="s">
         <v>411</v>
       </c>
-      <c r="E165">
+      <c r="E166">
         <v>9970031</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F166" t="s">
         <v>412</v>
       </c>
-      <c r="H165" s="1">
+      <c r="H166" s="1">
         <v>44398</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I166" t="s">
         <v>25</v>
       </c>
-      <c r="J165">
+      <c r="J166">
         <v>38.739002319999997</v>
       </c>
-      <c r="K165">
+      <c r="K166">
         <v>139.8327137</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B166" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" t="s">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
         <v>413</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D167" t="s">
         <v>414</v>
       </c>
-      <c r="E166">
+      <c r="E167">
         <v>9900827</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F167" t="s">
         <v>415</v>
       </c>
-      <c r="H166" s="1">
+      <c r="H167" s="1">
         <v>44343</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I167" t="s">
         <v>32</v>
       </c>
-      <c r="J166">
+      <c r="J167">
         <v>38.2503168</v>
       </c>
-      <c r="K166">
+      <c r="K167">
         <v>140.3238929</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B167" t="s">
-        <v>11</v>
-      </c>
-      <c r="C167" t="s">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
         <v>416</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D168" t="s">
         <v>417</v>
       </c>
-      <c r="E167">
+      <c r="E168">
         <v>9920026</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F168" t="s">
         <v>418</v>
       </c>
-      <c r="H167" s="1">
+      <c r="H168" s="1">
         <v>44382</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I168" t="s">
         <v>36</v>
       </c>
-      <c r="J167">
+      <c r="J168">
         <v>37.906802800000001</v>
       </c>
-      <c r="K167">
+      <c r="K168">
         <v>140.12836239999999</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B168" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" t="s">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
         <v>1109</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D169" t="s">
         <v>1110</v>
       </c>
-      <c r="E168">
+      <c r="E169">
         <v>9960023</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F169" t="s">
         <v>1111</v>
       </c>
-      <c r="H168" s="1">
+      <c r="H169" s="1">
         <v>44536</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I169" t="s">
         <v>156</v>
       </c>
-      <c r="J168">
+      <c r="J169">
         <v>38.763345309999998</v>
       </c>
-      <c r="K168">
+      <c r="K169">
         <v>140.30227489999999</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B169" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" t="s">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
         <v>419</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D170" t="s">
         <v>420</v>
       </c>
-      <c r="E169">
+      <c r="E170">
         <v>9921472</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F170" t="s">
         <v>1040</v>
       </c>
-      <c r="H169" s="1">
+      <c r="H170" s="1">
         <v>44440</v>
-      </c>
-      <c r="I169" t="s">
-        <v>36</v>
-      </c>
-      <c r="J169">
-        <v>37.781742549999997</v>
-      </c>
-      <c r="K169">
-        <v>140.1183417</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B170" t="s">
-        <v>11</v>
-      </c>
-      <c r="C170" t="s">
-        <v>421</v>
-      </c>
-      <c r="D170" t="s">
-        <v>422</v>
-      </c>
-      <c r="E170">
-        <v>9921303</v>
-      </c>
-      <c r="F170" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H170" s="1">
-        <v>44480</v>
       </c>
       <c r="I170" t="s">
         <v>36</v>
       </c>
       <c r="J170">
+        <v>37.781742549999997</v>
+      </c>
+      <c r="K170">
+        <v>140.1183417</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>421</v>
+      </c>
+      <c r="D171" t="s">
+        <v>422</v>
+      </c>
+      <c r="E171">
+        <v>9921303</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H171" s="1">
+        <v>44480</v>
+      </c>
+      <c r="I171" t="s">
+        <v>36</v>
+      </c>
+      <c r="J171">
         <v>37.78224084</v>
       </c>
-      <c r="K170">
+      <c r="K171">
         <v>140.22733059999999</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B171" t="s">
-        <v>11</v>
-      </c>
-      <c r="C171" t="s">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
         <v>423</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D172" t="s">
         <v>424</v>
       </c>
-      <c r="E171">
+      <c r="E172">
         <v>9970029</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F172" t="s">
         <v>425</v>
       </c>
-      <c r="H171" s="1">
+      <c r="H172" s="1">
         <v>44361</v>
       </c>
-      <c r="I171" t="s">
+      <c r="I172" t="s">
         <v>25</v>
       </c>
-      <c r="J171">
+      <c r="J172">
         <v>38.736218299999997</v>
       </c>
-      <c r="K171">
+      <c r="K172">
         <v>139.83617820000001</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B172" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" t="s">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
         <v>426</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D173" t="s">
         <v>426</v>
       </c>
-      <c r="E172">
+      <c r="E173">
         <v>9993114</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F173" t="s">
         <v>276</v>
       </c>
-      <c r="H172" s="1">
+      <c r="H173" s="1">
         <v>44398</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I173" t="s">
         <v>45</v>
       </c>
-      <c r="J172">
+      <c r="J173">
         <v>38.12544003</v>
       </c>
-      <c r="K172">
+      <c r="K173">
         <v>140.39363829999999</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B173" t="s">
-        <v>11</v>
-      </c>
-      <c r="C173" t="s">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
         <v>427</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D174" t="s">
         <v>428</v>
       </c>
-      <c r="E173">
+      <c r="E174">
         <v>9920478</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F174" t="s">
         <v>429</v>
       </c>
-      <c r="H173" s="1">
+      <c r="H174" s="1">
         <v>44447</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I174" t="s">
         <v>15</v>
       </c>
-      <c r="J173">
+      <c r="J174">
         <v>38.069729440000003</v>
       </c>
-      <c r="K173">
+      <c r="K174">
         <v>140.09838049999999</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B174" t="s">
-        <v>11</v>
-      </c>
-      <c r="C174" t="s">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
         <v>430</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D175" t="s">
         <v>431</v>
       </c>
-      <c r="E174">
+      <c r="E175">
         <v>9960301</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F175" t="s">
         <v>432</v>
       </c>
-      <c r="H174" s="1">
+      <c r="H175" s="1">
         <v>44391</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I175" t="s">
         <v>85</v>
       </c>
-      <c r="J174">
+      <c r="J175">
         <v>38.606835670000002</v>
       </c>
-      <c r="K174">
+      <c r="K175">
         <v>140.16565729999999</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B175" t="s">
-        <v>11</v>
-      </c>
-      <c r="C175" t="s">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
         <v>433</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D176" t="s">
         <v>434</v>
       </c>
-      <c r="E175">
+      <c r="E176">
         <v>9993292</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F176" t="s">
         <v>435</v>
       </c>
-      <c r="H175" s="1">
+      <c r="H176" s="1">
         <v>44324</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I176" t="s">
         <v>45</v>
       </c>
-      <c r="J175">
+      <c r="J176">
         <v>38.14807364</v>
       </c>
-      <c r="K175">
+      <c r="K176">
         <v>140.26123480000001</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
-        <v>11</v>
-      </c>
-      <c r="B176" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176" t="s">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
         <v>1057</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>1058</v>
       </c>
-      <c r="E176">
+      <c r="E177">
         <v>9902241</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F177" t="s">
         <v>1059</v>
       </c>
-      <c r="H176" s="1">
+      <c r="H177" s="1">
         <v>44515</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I177" t="s">
         <v>32</v>
       </c>
-      <c r="J176">
+      <c r="J177">
         <v>38.274130720000002</v>
       </c>
-      <c r="K176">
+      <c r="K177">
         <v>140.41498319999999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B177" t="s">
-        <v>11</v>
-      </c>
-      <c r="C177" t="s">
-        <v>436</v>
-      </c>
-      <c r="D177" t="s">
-        <v>437</v>
-      </c>
-      <c r="E177">
-        <v>9996403</v>
-      </c>
-      <c r="F177" t="s">
-        <v>438</v>
-      </c>
-      <c r="H177" s="1">
-        <v>44442</v>
-      </c>
-      <c r="I177" t="s">
-        <v>350</v>
-      </c>
-      <c r="J177">
-        <v>38.687224399999998</v>
-      </c>
-      <c r="K177">
-        <v>140.16037309999999</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.4">
@@ -8964,28 +8979,28 @@
         <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D178" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E178">
-        <v>9995301</v>
+        <v>9996403</v>
       </c>
       <c r="F178" t="s">
-        <v>964</v>
+        <v>438</v>
       </c>
       <c r="H178" s="1">
-        <v>44329</v>
+        <v>44442</v>
       </c>
       <c r="I178" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="J178">
-        <v>38.894387899999998</v>
+        <v>38.687224399999998</v>
       </c>
       <c r="K178">
-        <v>140.25449090000001</v>
+        <v>140.16037309999999</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.4">
@@ -8993,28 +9008,28 @@
         <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D179" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E179">
-        <v>9996403</v>
+        <v>9995301</v>
       </c>
       <c r="F179" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="H179" s="1">
-        <v>44442</v>
+        <v>44329</v>
       </c>
       <c r="I179" t="s">
-        <v>350</v>
+        <v>441</v>
       </c>
       <c r="J179">
-        <v>38.681855900000002</v>
+        <v>38.894387899999998</v>
       </c>
       <c r="K179">
-        <v>140.16474210000001</v>
+        <v>140.25449090000001</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.4">
@@ -9022,16 +9037,16 @@
         <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D180" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E180">
         <v>9996403</v>
       </c>
       <c r="F180" t="s">
-        <v>446</v>
+        <v>956</v>
       </c>
       <c r="H180" s="1">
         <v>44442</v>
@@ -9040,10 +9055,10 @@
         <v>350</v>
       </c>
       <c r="J180">
-        <v>38.662841399999998</v>
+        <v>38.681855900000002</v>
       </c>
       <c r="K180">
-        <v>140.16824020000001</v>
+        <v>140.16474210000001</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.4">
@@ -9051,60 +9066,57 @@
         <v>11</v>
       </c>
       <c r="C181" t="s">
+        <v>444</v>
+      </c>
+      <c r="D181" t="s">
+        <v>445</v>
+      </c>
+      <c r="E181">
+        <v>9996403</v>
+      </c>
+      <c r="F181" t="s">
+        <v>446</v>
+      </c>
+      <c r="H181" s="1">
+        <v>44442</v>
+      </c>
+      <c r="I181" t="s">
+        <v>350</v>
+      </c>
+      <c r="J181">
+        <v>38.662841399999998</v>
+      </c>
+      <c r="K181">
+        <v>140.16824020000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
         <v>447</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>448</v>
       </c>
-      <c r="E181">
+      <c r="E182">
         <v>9921471</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F182" t="s">
         <v>1050</v>
       </c>
-      <c r="H181" s="1">
+      <c r="H182" s="1">
         <v>44357</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I182" t="s">
         <v>36</v>
       </c>
-      <c r="J181">
+      <c r="J182">
         <v>37.846435739999997</v>
       </c>
-      <c r="K181">
+      <c r="K182">
         <v>140.09000069999999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
-        <v>11</v>
-      </c>
-      <c r="B182" t="s">
-        <v>11</v>
-      </c>
-      <c r="C182" t="s">
-        <v>900</v>
-      </c>
-      <c r="D182" t="s">
-        <v>901</v>
-      </c>
-      <c r="E182">
-        <v>9996314</v>
-      </c>
-      <c r="F182" t="s">
-        <v>957</v>
-      </c>
-      <c r="H182" s="1">
-        <v>44424</v>
-      </c>
-      <c r="I182" t="s">
-        <v>350</v>
-      </c>
-      <c r="J182">
-        <v>38.769334200000003</v>
-      </c>
-      <c r="K182">
-        <v>140.1958243</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.4">
@@ -9115,57 +9127,60 @@
         <v>11</v>
       </c>
       <c r="C183" t="s">
+        <v>900</v>
+      </c>
+      <c r="D183" t="s">
+        <v>901</v>
+      </c>
+      <c r="E183">
+        <v>9996314</v>
+      </c>
+      <c r="F183" t="s">
+        <v>957</v>
+      </c>
+      <c r="H183" s="1">
+        <v>44424</v>
+      </c>
+      <c r="I183" t="s">
+        <v>350</v>
+      </c>
+      <c r="J183">
+        <v>38.769334200000003</v>
+      </c>
+      <c r="K183">
+        <v>140.1958243</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
         <v>925</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>926</v>
       </c>
-      <c r="E183">
+      <c r="E184">
         <v>9995521</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F184" t="s">
         <v>965</v>
       </c>
-      <c r="H183" s="1">
+      <c r="H184" s="1">
         <v>44364</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I184" t="s">
         <v>441</v>
       </c>
-      <c r="J183">
+      <c r="J184">
         <v>38.886569190000003</v>
       </c>
-      <c r="K183">
+      <c r="K184">
         <v>140.21355829999999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B184" t="s">
-        <v>11</v>
-      </c>
-      <c r="C184" t="s">
-        <v>449</v>
-      </c>
-      <c r="D184" t="s">
-        <v>450</v>
-      </c>
-      <c r="E184">
-        <v>9996403</v>
-      </c>
-      <c r="F184" t="s">
-        <v>451</v>
-      </c>
-      <c r="H184" s="1">
-        <v>44468</v>
-      </c>
-      <c r="I184" t="s">
-        <v>350</v>
-      </c>
-      <c r="J184">
-        <v>38.676610599999997</v>
-      </c>
-      <c r="K184">
-        <v>140.16416910000001</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.4">
@@ -9173,28 +9188,28 @@
         <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D185" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E185">
-        <v>9995203</v>
+        <v>9996403</v>
       </c>
       <c r="F185" t="s">
-        <v>1009</v>
+        <v>451</v>
       </c>
       <c r="H185" s="1">
-        <v>44434</v>
+        <v>44468</v>
       </c>
       <c r="I185" t="s">
-        <v>152</v>
+        <v>350</v>
       </c>
       <c r="J185">
-        <v>38.786266300000001</v>
+        <v>38.676610599999997</v>
       </c>
       <c r="K185">
-        <v>140.21882020000001</v>
+        <v>140.16416910000001</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.4">
@@ -9202,28 +9217,28 @@
         <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D186" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E186">
-        <v>9993114</v>
+        <v>9995203</v>
       </c>
       <c r="F186" t="s">
-        <v>456</v>
+        <v>1009</v>
       </c>
       <c r="H186" s="1">
-        <v>44407</v>
+        <v>44434</v>
       </c>
       <c r="I186" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="J186">
-        <v>38.12480987</v>
+        <v>38.786266300000001</v>
       </c>
       <c r="K186">
-        <v>140.39388650000001</v>
+        <v>140.21882020000001</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.4">
@@ -9231,28 +9246,28 @@
         <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D187" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E187">
-        <v>9994333</v>
+        <v>9993114</v>
       </c>
       <c r="F187" t="s">
-        <v>1032</v>
+        <v>456</v>
       </c>
       <c r="H187" s="1">
-        <v>44386</v>
+        <v>44407</v>
       </c>
       <c r="I187" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="J187">
-        <v>38.569377850000002</v>
+        <v>38.12480987</v>
       </c>
       <c r="K187">
-        <v>140.53152080000001</v>
+        <v>140.39388650000001</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.4">
@@ -9260,89 +9275,89 @@
         <v>11</v>
       </c>
       <c r="C188" t="s">
+        <v>457</v>
+      </c>
+      <c r="D188" t="s">
+        <v>458</v>
+      </c>
+      <c r="E188">
+        <v>9994333</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H188" s="1">
+        <v>44386</v>
+      </c>
+      <c r="I188" t="s">
+        <v>117</v>
+      </c>
+      <c r="J188">
+        <v>38.569377850000002</v>
+      </c>
+      <c r="K188">
+        <v>140.53152080000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
         <v>459</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D189" t="s">
         <v>460</v>
       </c>
-      <c r="E188">
+      <c r="E189">
         <v>9993702</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F189" t="s">
         <v>461</v>
       </c>
-      <c r="H188" s="1">
+      <c r="H189" s="1">
         <v>44383</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I189" t="s">
         <v>324</v>
       </c>
-      <c r="J188">
+      <c r="J189">
         <v>38.458720290000002</v>
       </c>
-      <c r="K188">
+      <c r="K189">
         <v>140.39158119999999</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
-        <v>11</v>
-      </c>
-      <c r="B189" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189" t="s">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
         <v>938</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D190" t="s">
         <v>939</v>
       </c>
-      <c r="E189">
+      <c r="E190">
         <v>9930075</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F190" t="s">
         <v>937</v>
       </c>
-      <c r="H189" s="1">
+      <c r="H190" s="1">
         <v>44371</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I190" t="s">
         <v>58</v>
       </c>
-      <c r="J189">
+      <c r="J190">
         <v>38.120222230000003</v>
       </c>
-      <c r="K189">
+      <c r="K190">
         <v>140.0332889</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B190" t="s">
-        <v>11</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E190">
-        <v>9970211</v>
-      </c>
-      <c r="F190" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H190" s="1">
-        <v>44525</v>
-      </c>
-      <c r="I190" t="s">
-        <v>25</v>
-      </c>
-      <c r="J190">
-        <v>38.708565530000001</v>
-      </c>
-      <c r="K190">
-        <v>139.9610606</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.4">
@@ -9350,28 +9365,28 @@
         <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>972</v>
+        <v>1088</v>
       </c>
       <c r="D191" t="s">
-        <v>973</v>
+        <v>1089</v>
       </c>
       <c r="E191">
-        <v>9900721</v>
+        <v>9970211</v>
       </c>
       <c r="F191" t="s">
-        <v>974</v>
+        <v>1090</v>
       </c>
       <c r="H191" s="1">
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="I191" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J191">
-        <v>38.393942029999998</v>
+        <v>38.708565530000001</v>
       </c>
       <c r="K191">
-        <v>139.99477329999999</v>
+        <v>139.9610606</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.4">
@@ -9379,28 +9394,28 @@
         <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>1102</v>
+        <v>972</v>
       </c>
       <c r="D192" t="s">
-        <v>1103</v>
+        <v>973</v>
       </c>
       <c r="E192">
-        <v>9994333</v>
+        <v>9900721</v>
       </c>
       <c r="F192" t="s">
-        <v>1104</v>
+        <v>974</v>
       </c>
       <c r="H192" s="1">
-        <v>44532</v>
+        <v>44518</v>
       </c>
       <c r="I192" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="J192">
-        <v>38.569261079999997</v>
+        <v>38.393942029999998</v>
       </c>
       <c r="K192">
-        <v>140.53184089999999</v>
+        <v>139.99477329999999</v>
       </c>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.4">
@@ -9408,28 +9423,28 @@
         <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>462</v>
+        <v>1102</v>
       </c>
       <c r="D193" t="s">
-        <v>463</v>
+        <v>1103</v>
       </c>
       <c r="E193">
-        <v>9993242</v>
+        <v>9994333</v>
       </c>
       <c r="F193" t="s">
-        <v>464</v>
+        <v>1104</v>
       </c>
       <c r="H193" s="1">
-        <v>44324</v>
+        <v>44532</v>
       </c>
       <c r="I193" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="J193">
-        <v>38.148244339999998</v>
+        <v>38.569261079999997</v>
       </c>
       <c r="K193">
-        <v>140.26273</v>
+        <v>140.53184089999999</v>
       </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.4">
@@ -9437,28 +9452,28 @@
         <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D194" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E194">
-        <v>9993156</v>
+        <v>9993242</v>
       </c>
       <c r="F194" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H194" s="1">
-        <v>44453</v>
+        <v>44324</v>
       </c>
       <c r="I194" t="s">
         <v>45</v>
       </c>
       <c r="J194">
-        <v>38.160390120000002</v>
+        <v>38.148244339999998</v>
       </c>
       <c r="K194">
-        <v>140.27623800000001</v>
+        <v>140.26273</v>
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.4">
@@ -9466,28 +9481,28 @@
         <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D195" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E195">
-        <v>9971117</v>
+        <v>9993156</v>
       </c>
       <c r="F195" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H195" s="1">
-        <v>44342</v>
+        <v>44453</v>
       </c>
       <c r="I195" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J195">
-        <v>38.787796870000001</v>
+        <v>38.160390120000002</v>
       </c>
       <c r="K195">
-        <v>139.7607749</v>
+        <v>140.27623800000001</v>
       </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.4">
@@ -9495,28 +9510,28 @@
         <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D196" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E196">
-        <v>9971201</v>
+        <v>9971117</v>
       </c>
       <c r="F196" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H196" s="1">
-        <v>44334</v>
+        <v>44342</v>
       </c>
       <c r="I196" t="s">
         <v>25</v>
       </c>
       <c r="J196">
-        <v>38.782334319999997</v>
+        <v>38.787796870000001</v>
       </c>
       <c r="K196">
-        <v>139.7538232</v>
+        <v>139.7607749</v>
       </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.4">
@@ -9524,28 +9539,28 @@
         <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D197" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E197">
-        <v>9970752</v>
+        <v>9971201</v>
       </c>
       <c r="F197" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H197" s="1">
-        <v>44487</v>
+        <v>44334</v>
       </c>
       <c r="I197" t="s">
         <v>25</v>
       </c>
       <c r="J197">
-        <v>38.693626639999998</v>
+        <v>38.782334319999997</v>
       </c>
       <c r="K197">
-        <v>139.7693539</v>
+        <v>139.7538232</v>
       </c>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.4">
@@ -9553,28 +9568,28 @@
         <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D198" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E198">
-        <v>9993242</v>
+        <v>9970752</v>
       </c>
       <c r="F198" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H198" s="1">
-        <v>44354</v>
+        <v>44487</v>
       </c>
       <c r="I198" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J198">
-        <v>38.147948659999997</v>
+        <v>38.693626639999998</v>
       </c>
       <c r="K198">
-        <v>140.26235840000001</v>
+        <v>139.7693539</v>
       </c>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.4">
@@ -9582,31 +9597,28 @@
         <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D199" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E199">
-        <v>9993114</v>
+        <v>9993242</v>
       </c>
       <c r="F199" t="s">
-        <v>482</v>
-      </c>
-      <c r="G199" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H199" s="1">
-        <v>44432</v>
+        <v>44354</v>
       </c>
       <c r="I199" t="s">
         <v>45</v>
       </c>
       <c r="J199">
-        <v>38.125705570000001</v>
+        <v>38.147948659999997</v>
       </c>
       <c r="K199">
-        <v>140.39327700000001</v>
+        <v>140.26235840000001</v>
       </c>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.4">
@@ -9614,28 +9626,31 @@
         <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D200" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E200">
-        <v>9995205</v>
+        <v>9993114</v>
       </c>
       <c r="F200" t="s">
-        <v>1012</v>
+        <v>482</v>
+      </c>
+      <c r="G200" t="s">
+        <v>483</v>
       </c>
       <c r="H200" s="1">
-        <v>44406</v>
+        <v>44432</v>
       </c>
       <c r="I200" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="J200">
-        <v>38.807391789999997</v>
+        <v>38.125705570000001</v>
       </c>
       <c r="K200">
-        <v>140.19906159999999</v>
+        <v>140.39327700000001</v>
       </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.4">
@@ -9643,28 +9658,28 @@
         <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D201" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E201">
-        <v>9997204</v>
+        <v>9995205</v>
       </c>
       <c r="F201" t="s">
-        <v>488</v>
+        <v>1012</v>
       </c>
       <c r="H201" s="1">
-        <v>44324</v>
+        <v>44406</v>
       </c>
       <c r="I201" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="J201">
-        <v>38.614911990000003</v>
+        <v>38.807391789999997</v>
       </c>
       <c r="K201">
-        <v>139.60723110000001</v>
+        <v>140.19906159999999</v>
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.4">
@@ -9672,28 +9687,28 @@
         <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D202" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E202">
-        <v>9993702</v>
+        <v>9997204</v>
       </c>
       <c r="F202" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H202" s="1">
-        <v>44396</v>
+        <v>44324</v>
       </c>
       <c r="I202" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="J202">
-        <v>38.458225200000001</v>
+        <v>38.614911990000003</v>
       </c>
       <c r="K202">
-        <v>140.38943649999999</v>
+        <v>139.60723110000001</v>
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
@@ -9701,28 +9716,28 @@
         <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D203" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E203">
-        <v>9960301</v>
+        <v>9993702</v>
       </c>
       <c r="F203" t="s">
-        <v>985</v>
+        <v>491</v>
       </c>
       <c r="H203" s="1">
-        <v>44452</v>
+        <v>44396</v>
       </c>
       <c r="I203" t="s">
-        <v>85</v>
+        <v>324</v>
       </c>
       <c r="J203">
-        <v>38.606919320000003</v>
+        <v>38.458225200000001</v>
       </c>
       <c r="K203">
-        <v>140.16582740000001</v>
+        <v>140.38943649999999</v>
       </c>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
@@ -9730,28 +9745,28 @@
         <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="D204" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="E204">
-        <v>9900039</v>
+        <v>9960301</v>
       </c>
       <c r="F204" t="s">
-        <v>510</v>
+        <v>985</v>
       </c>
       <c r="H204" s="1">
-        <v>44398</v>
+        <v>44452</v>
       </c>
       <c r="I204" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="J204">
-        <v>38.249989309999997</v>
+        <v>38.606919320000003</v>
       </c>
       <c r="K204">
-        <v>140.33010039999999</v>
+        <v>140.16582740000001</v>
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.4">
@@ -9759,28 +9774,28 @@
         <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D205" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E205">
         <v>9900039</v>
       </c>
       <c r="F205" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H205" s="1">
-        <v>44491</v>
+        <v>44398</v>
       </c>
       <c r="I205" t="s">
         <v>32</v>
       </c>
       <c r="J205">
-        <v>38.245077600000002</v>
+        <v>38.249989309999997</v>
       </c>
       <c r="K205">
-        <v>140.32910140000001</v>
+        <v>140.33010039999999</v>
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.4">
@@ -9788,28 +9803,28 @@
         <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D206" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E206">
-        <v>9930066</v>
+        <v>9900039</v>
       </c>
       <c r="F206" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H206" s="1">
-        <v>44413</v>
+        <v>44491</v>
       </c>
       <c r="I206" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="J206">
-        <v>38.090310840000001</v>
+        <v>38.245077600000002</v>
       </c>
       <c r="K206">
-        <v>140.03695279999999</v>
+        <v>140.32910140000001</v>
       </c>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.4">
@@ -9817,28 +9832,28 @@
         <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D207" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E207">
-        <v>9940025</v>
+        <v>9930066</v>
       </c>
       <c r="F207" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H207" s="1">
-        <v>44324</v>
+        <v>44413</v>
       </c>
       <c r="I207" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="J207">
-        <v>38.35763747</v>
+        <v>38.090310840000001</v>
       </c>
       <c r="K207">
-        <v>140.380134</v>
+        <v>140.03695279999999</v>
       </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.4">
@@ -9846,28 +9861,28 @@
         <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D208" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E208">
-        <v>9994227</v>
+        <v>9940025</v>
       </c>
       <c r="F208" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H208" s="1">
-        <v>44455</v>
+        <v>44324</v>
       </c>
       <c r="I208" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="J208">
-        <v>38.605867750000002</v>
+        <v>38.35763747</v>
       </c>
       <c r="K208">
-        <v>140.4039295</v>
+        <v>140.380134</v>
       </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.4">
@@ -9875,28 +9890,28 @@
         <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>1091</v>
+        <v>519</v>
       </c>
       <c r="D209" t="s">
-        <v>1092</v>
+        <v>520</v>
       </c>
       <c r="E209">
-        <v>9992241</v>
+        <v>9994227</v>
       </c>
       <c r="F209" t="s">
-        <v>1093</v>
+        <v>521</v>
       </c>
       <c r="H209" s="1">
-        <v>44530</v>
+        <v>44455</v>
       </c>
       <c r="I209" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="J209">
-        <v>38.04563812</v>
+        <v>38.605867750000002</v>
       </c>
       <c r="K209">
-        <v>140.1502481</v>
+        <v>140.4039295</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.4">
@@ -9904,28 +9919,28 @@
         <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>522</v>
+        <v>1091</v>
       </c>
       <c r="D210" t="s">
-        <v>523</v>
+        <v>1092</v>
       </c>
       <c r="E210">
-        <v>9940057</v>
+        <v>9992241</v>
       </c>
       <c r="F210" t="s">
-        <v>524</v>
+        <v>1093</v>
       </c>
       <c r="H210" s="1">
-        <v>44414</v>
+        <v>44530</v>
       </c>
       <c r="I210" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="J210">
-        <v>38.320275219999999</v>
+        <v>38.04563812</v>
       </c>
       <c r="K210">
-        <v>140.3683336</v>
+        <v>140.1502481</v>
       </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.4">
@@ -9933,28 +9948,28 @@
         <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="D211" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="E211">
-        <v>9993511</v>
+        <v>9940057</v>
       </c>
       <c r="F211" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="H211" s="1">
-        <v>44390</v>
+        <v>44414</v>
       </c>
       <c r="I211" t="s">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="J211">
-        <v>38.417398970000001</v>
+        <v>38.320275219999999</v>
       </c>
       <c r="K211">
-        <v>140.32186780000001</v>
+        <v>140.3683336</v>
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.4">
@@ -9962,28 +9977,28 @@
         <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D212" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E212">
-        <v>9900402</v>
+        <v>9993511</v>
       </c>
       <c r="F212" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H212" s="1">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="I212" t="s">
-        <v>357</v>
+        <v>497</v>
       </c>
       <c r="J212">
-        <v>38.341159900000001</v>
+        <v>38.417398970000001</v>
       </c>
       <c r="K212">
-        <v>140.27563689999999</v>
+        <v>140.32186780000001</v>
       </c>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.4">
@@ -9991,28 +10006,28 @@
         <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="D213" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E213">
-        <v>9940025</v>
+        <v>9900402</v>
       </c>
       <c r="F213" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="H213" s="1">
-        <v>44363</v>
+        <v>44391</v>
       </c>
       <c r="I213" t="s">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="J213">
-        <v>38.359386270000002</v>
+        <v>38.341159900000001</v>
       </c>
       <c r="K213">
-        <v>140.3820063</v>
+        <v>140.27563689999999</v>
       </c>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.4">
@@ -10020,28 +10035,28 @@
         <v>11</v>
       </c>
       <c r="C214" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="D214" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="E214">
-        <v>9996105</v>
+        <v>9940025</v>
       </c>
       <c r="F214" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="H214" s="1">
-        <v>44446</v>
+        <v>44363</v>
       </c>
       <c r="I214" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J214">
-        <v>38.707967449999998</v>
+        <v>38.359386270000002</v>
       </c>
       <c r="K214">
-        <v>140.55149589999999</v>
+        <v>140.3820063</v>
       </c>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.4">
@@ -10049,31 +10064,28 @@
         <v>11</v>
       </c>
       <c r="C215" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D215" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E215">
-        <v>9993114</v>
+        <v>9996105</v>
       </c>
       <c r="F215" t="s">
-        <v>482</v>
-      </c>
-      <c r="G215" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="H215" s="1">
-        <v>44391</v>
+        <v>44446</v>
       </c>
       <c r="I215" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J215">
-        <v>38.124542429999998</v>
+        <v>38.707967449999998</v>
       </c>
       <c r="K215">
-        <v>140.39495199999999</v>
+        <v>140.55149589999999</v>
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.4">
@@ -10081,28 +10093,31 @@
         <v>11</v>
       </c>
       <c r="C216" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D216" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E216">
-        <v>9902333</v>
+        <v>9993114</v>
       </c>
       <c r="F216" t="s">
-        <v>507</v>
+        <v>482</v>
+      </c>
+      <c r="G216" t="s">
+        <v>483</v>
       </c>
       <c r="H216" s="1">
-        <v>44372</v>
+        <v>44391</v>
       </c>
       <c r="I216" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J216">
-        <v>38.21228378</v>
+        <v>38.124542429999998</v>
       </c>
       <c r="K216">
-        <v>140.33508800000001</v>
+        <v>140.39495199999999</v>
       </c>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.4">
@@ -10110,28 +10125,28 @@
         <v>11</v>
       </c>
       <c r="C217" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="D217" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="E217">
-        <v>9971201</v>
+        <v>9902333</v>
       </c>
       <c r="F217" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="H217" s="1">
-        <v>44348</v>
+        <v>44372</v>
       </c>
       <c r="I217" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J217">
-        <v>38.779910139999998</v>
+        <v>38.21228378</v>
       </c>
       <c r="K217">
-        <v>139.75145649999999</v>
+        <v>140.33508800000001</v>
       </c>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.4">
@@ -10139,28 +10154,28 @@
         <v>11</v>
       </c>
       <c r="C218" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D218" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E218">
-        <v>9920023</v>
+        <v>9971201</v>
       </c>
       <c r="F218" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H218" s="1">
-        <v>44328</v>
+        <v>44348</v>
       </c>
       <c r="I218" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J218">
-        <v>37.919593650000003</v>
+        <v>38.779910139999998</v>
       </c>
       <c r="K218">
-        <v>140.12033030000001</v>
+        <v>139.75145649999999</v>
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.4">
@@ -10168,28 +10183,28 @@
         <v>11</v>
       </c>
       <c r="C219" t="s">
-        <v>534</v>
+        <v>1124</v>
       </c>
       <c r="D219" t="s">
-        <v>535</v>
+        <v>1124</v>
       </c>
       <c r="E219">
-        <v>9993720</v>
+        <v>9902301</v>
       </c>
       <c r="F219" t="s">
-        <v>536</v>
+        <v>1125</v>
       </c>
       <c r="H219" s="1">
-        <v>44431</v>
+        <v>44543</v>
       </c>
       <c r="I219" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="J219">
-        <v>38.428425130000001</v>
+        <v>38.169717933785797</v>
       </c>
       <c r="K219">
-        <v>140.38397399999999</v>
+        <v>140.399447926389</v>
       </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.4">
@@ -10197,28 +10212,28 @@
         <v>11</v>
       </c>
       <c r="C220" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D220" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E220">
-        <v>9960301</v>
+        <v>9920023</v>
       </c>
       <c r="F220" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="H220" s="1">
-        <v>44447</v>
+        <v>44328</v>
       </c>
       <c r="I220" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="J220">
-        <v>38.608330559999999</v>
+        <v>37.919593650000003</v>
       </c>
       <c r="K220">
-        <v>140.1661751</v>
+        <v>140.12033030000001</v>
       </c>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.4">
@@ -10226,28 +10241,28 @@
         <v>11</v>
       </c>
       <c r="C221" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D221" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E221">
-        <v>9920076</v>
+        <v>9993720</v>
       </c>
       <c r="F221" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H221" s="1">
-        <v>44344</v>
+        <v>44431</v>
       </c>
       <c r="I221" t="s">
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="J221">
-        <v>37.879841800000001</v>
+        <v>38.428425130000001</v>
       </c>
       <c r="K221">
-        <v>140.05561349999999</v>
+        <v>140.38397399999999</v>
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.4">
@@ -10255,28 +10270,28 @@
         <v>11</v>
       </c>
       <c r="C222" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D222" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E222">
-        <v>9993112</v>
+        <v>9960301</v>
       </c>
       <c r="F222" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="H222" s="1">
-        <v>44369</v>
+        <v>44447</v>
       </c>
       <c r="I222" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="J222">
-        <v>38.15990274</v>
+        <v>38.608330559999999</v>
       </c>
       <c r="K222">
-        <v>140.37795510000001</v>
+        <v>140.1661751</v>
       </c>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.4">
@@ -10284,28 +10299,28 @@
         <v>11</v>
       </c>
       <c r="C223" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D223" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E223">
-        <v>9921461</v>
+        <v>9920076</v>
       </c>
       <c r="F223" t="s">
-        <v>1048</v>
+        <v>542</v>
       </c>
       <c r="H223" s="1">
-        <v>44498</v>
+        <v>44344</v>
       </c>
       <c r="I223" t="s">
         <v>36</v>
       </c>
       <c r="J223">
-        <v>37.776938520000002</v>
+        <v>37.879841800000001</v>
       </c>
       <c r="K223">
-        <v>140.13559369999999</v>
+        <v>140.05561349999999</v>
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.4">
@@ -10313,28 +10328,28 @@
         <v>11</v>
       </c>
       <c r="C224" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D224" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E224">
         <v>9993112</v>
       </c>
       <c r="F224" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H224" s="1">
-        <v>44375</v>
+        <v>44369</v>
       </c>
       <c r="I224" t="s">
         <v>45</v>
       </c>
       <c r="J224">
-        <v>38.159695249999999</v>
+        <v>38.15990274</v>
       </c>
       <c r="K224">
-        <v>140.37950280000001</v>
+        <v>140.37795510000001</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.4">
@@ -10342,150 +10357,150 @@
         <v>11</v>
       </c>
       <c r="C225" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D225" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E225">
-        <v>9993112</v>
+        <v>9921461</v>
       </c>
       <c r="F225" t="s">
-        <v>551</v>
+        <v>1048</v>
       </c>
       <c r="H225" s="1">
-        <v>44441</v>
+        <v>44498</v>
       </c>
       <c r="I225" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J225">
-        <v>38.159045169999999</v>
+        <v>37.776938520000002</v>
       </c>
       <c r="K225">
-        <v>140.37854129999999</v>
+        <v>140.13559369999999</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
-        <v>11</v>
-      </c>
       <c r="B226" t="s">
         <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>920</v>
+        <v>546</v>
       </c>
       <c r="D226" t="s">
-        <v>921</v>
+        <v>546</v>
       </c>
       <c r="E226">
         <v>9993112</v>
       </c>
       <c r="F226" t="s">
-        <v>922</v>
+        <v>547</v>
       </c>
       <c r="H226" s="1">
-        <v>44391</v>
+        <v>44375</v>
       </c>
       <c r="I226" t="s">
         <v>45</v>
       </c>
       <c r="J226">
-        <v>38.159705500000001</v>
+        <v>38.159695249999999</v>
       </c>
       <c r="K226">
-        <v>140.37882300000001</v>
+        <v>140.37950280000001</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A227" t="s">
-        <v>11</v>
-      </c>
       <c r="B227" t="s">
         <v>11</v>
       </c>
       <c r="C227" t="s">
-        <v>923</v>
+        <v>549</v>
       </c>
       <c r="D227" t="s">
-        <v>923</v>
+        <v>550</v>
       </c>
       <c r="E227">
         <v>9993112</v>
       </c>
       <c r="F227" t="s">
-        <v>924</v>
+        <v>551</v>
       </c>
       <c r="H227" s="1">
-        <v>44368</v>
+        <v>44441</v>
       </c>
       <c r="I227" t="s">
         <v>45</v>
       </c>
       <c r="J227">
-        <v>38.159917239999999</v>
+        <v>38.159045169999999</v>
       </c>
       <c r="K227">
-        <v>140.37790770000001</v>
+        <v>140.37854129999999</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
+        <v>11</v>
+      </c>
       <c r="B228" t="s">
         <v>11</v>
       </c>
       <c r="C228" t="s">
-        <v>552</v>
+        <v>920</v>
       </c>
       <c r="D228" t="s">
-        <v>552</v>
+        <v>921</v>
       </c>
       <c r="E228">
         <v>9993112</v>
       </c>
       <c r="F228" t="s">
-        <v>553</v>
+        <v>922</v>
       </c>
       <c r="H228" s="1">
-        <v>44504</v>
+        <v>44391</v>
       </c>
       <c r="I228" t="s">
         <v>45</v>
       </c>
       <c r="J228">
-        <v>38.15983877</v>
+        <v>38.159705500000001</v>
       </c>
       <c r="K228">
-        <v>140.37913789999999</v>
+        <v>140.37882300000001</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A229" t="s">
+        <v>11</v>
+      </c>
       <c r="B229" t="s">
         <v>11</v>
       </c>
       <c r="C229" t="s">
-        <v>554</v>
+        <v>923</v>
       </c>
       <c r="D229" t="s">
-        <v>554</v>
+        <v>923</v>
       </c>
       <c r="E229">
         <v>9993112</v>
       </c>
       <c r="F229" t="s">
-        <v>555</v>
+        <v>924</v>
       </c>
       <c r="H229" s="1">
-        <v>44441</v>
+        <v>44368</v>
       </c>
       <c r="I229" t="s">
         <v>45</v>
       </c>
       <c r="J229">
-        <v>38.159430370000003</v>
+        <v>38.159917239999999</v>
       </c>
       <c r="K229">
-        <v>140.37863239999999</v>
+        <v>140.37790770000001</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.4">
@@ -10493,28 +10508,28 @@
         <v>11</v>
       </c>
       <c r="C230" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D230" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E230">
         <v>9993112</v>
       </c>
       <c r="F230" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H230" s="1">
-        <v>44412</v>
+        <v>44504</v>
       </c>
       <c r="I230" t="s">
         <v>45</v>
       </c>
       <c r="J230">
-        <v>38.159571919999998</v>
+        <v>38.15983877</v>
       </c>
       <c r="K230">
-        <v>140.37917049999999</v>
+        <v>140.37913789999999</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.4">
@@ -10522,28 +10537,28 @@
         <v>11</v>
       </c>
       <c r="C231" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D231" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E231">
-        <v>9921461</v>
+        <v>9993112</v>
       </c>
       <c r="F231" t="s">
-        <v>1046</v>
+        <v>555</v>
       </c>
       <c r="H231" s="1">
-        <v>44448</v>
+        <v>44441</v>
       </c>
       <c r="I231" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J231">
-        <v>37.776980100000003</v>
+        <v>38.159430370000003</v>
       </c>
       <c r="K231">
-        <v>140.13519239999999</v>
+        <v>140.37863239999999</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.4">
@@ -10551,28 +10566,28 @@
         <v>11</v>
       </c>
       <c r="C232" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D232" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E232">
-        <v>9921121</v>
+        <v>9993112</v>
       </c>
       <c r="F232" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H232" s="1">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="I232" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J232">
-        <v>37.862133700000001</v>
+        <v>38.159571919999998</v>
       </c>
       <c r="K232">
-        <v>140.2382672</v>
+        <v>140.37917049999999</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.4">
@@ -10580,28 +10595,28 @@
         <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D233" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E233">
         <v>9921461</v>
       </c>
       <c r="F233" t="s">
-        <v>564</v>
+        <v>1046</v>
       </c>
       <c r="H233" s="1">
-        <v>44498</v>
+        <v>44448</v>
       </c>
       <c r="I233" t="s">
         <v>36</v>
       </c>
       <c r="J233">
-        <v>37.777220800000002</v>
+        <v>37.776980100000003</v>
       </c>
       <c r="K233">
-        <v>140.135728</v>
+        <v>140.13519239999999</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.4">
@@ -10609,28 +10624,28 @@
         <v>11</v>
       </c>
       <c r="C234" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D234" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E234">
-        <v>9993112</v>
+        <v>9921121</v>
       </c>
       <c r="F234" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H234" s="1">
-        <v>44476</v>
+        <v>44413</v>
       </c>
       <c r="I234" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J234">
-        <v>38.159483809999998</v>
+        <v>37.862133700000001</v>
       </c>
       <c r="K234">
-        <v>140.37947550000001</v>
+        <v>140.2382672</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.4">
@@ -10638,28 +10653,28 @@
         <v>11</v>
       </c>
       <c r="C235" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D235" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E235">
-        <v>9993114</v>
+        <v>9921461</v>
       </c>
       <c r="F235" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H235" s="1">
-        <v>44391</v>
+        <v>44498</v>
       </c>
       <c r="I235" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J235">
-        <v>38.124378900000004</v>
+        <v>37.777220800000002</v>
       </c>
       <c r="K235">
-        <v>140.40869029999999</v>
+        <v>140.135728</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.4">
@@ -10667,28 +10682,28 @@
         <v>11</v>
       </c>
       <c r="C236" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D236" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E236">
-        <v>9993114</v>
+        <v>9993112</v>
       </c>
       <c r="F236" t="s">
-        <v>276</v>
+        <v>567</v>
       </c>
       <c r="H236" s="1">
-        <v>44398</v>
+        <v>44476</v>
       </c>
       <c r="I236" t="s">
         <v>45</v>
       </c>
       <c r="J236">
-        <v>38.124849230000002</v>
+        <v>38.159483809999998</v>
       </c>
       <c r="K236">
-        <v>140.39355649999999</v>
+        <v>140.37947550000001</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.4">
@@ -10696,28 +10711,28 @@
         <v>11</v>
       </c>
       <c r="C237" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D237" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E237">
-        <v>9921461</v>
+        <v>9993114</v>
       </c>
       <c r="F237" t="s">
-        <v>1049</v>
+        <v>570</v>
       </c>
       <c r="H237" s="1">
         <v>44391</v>
       </c>
       <c r="I237" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J237">
-        <v>37.77772324</v>
+        <v>38.124378900000004</v>
       </c>
       <c r="K237">
-        <v>140.13578699999999</v>
+        <v>140.40869029999999</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.4">
@@ -10725,28 +10740,28 @@
         <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D238" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E238">
-        <v>9902301</v>
+        <v>9993114</v>
       </c>
       <c r="F238" t="s">
-        <v>578</v>
+        <v>276</v>
       </c>
       <c r="H238" s="1">
-        <v>44413</v>
+        <v>44398</v>
       </c>
       <c r="I238" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J238">
-        <v>38.162945700000002</v>
+        <v>38.124849230000002</v>
       </c>
       <c r="K238">
-        <v>140.39471090000001</v>
+        <v>140.39355649999999</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.4">
@@ -10754,28 +10769,28 @@
         <v>11</v>
       </c>
       <c r="C239" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D239" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E239">
-        <v>9993114</v>
+        <v>9921461</v>
       </c>
       <c r="F239" t="s">
-        <v>575</v>
+        <v>1049</v>
       </c>
       <c r="H239" s="1">
-        <v>44501</v>
+        <v>44391</v>
       </c>
       <c r="I239" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J239">
-        <v>38.125451310000003</v>
+        <v>37.77772324</v>
       </c>
       <c r="K239">
-        <v>140.39358139999999</v>
+        <v>140.13578699999999</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.4">
@@ -10783,28 +10798,28 @@
         <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D240" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E240">
-        <v>9920076</v>
+        <v>9902301</v>
       </c>
       <c r="F240" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H240" s="1">
-        <v>44372</v>
+        <v>44413</v>
       </c>
       <c r="I240" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J240">
-        <v>37.880881309999999</v>
+        <v>38.162945700000002</v>
       </c>
       <c r="K240">
-        <v>140.05243150000001</v>
+        <v>140.39471090000001</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.4">
@@ -10812,28 +10827,28 @@
         <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D241" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E241">
-        <v>9970021</v>
+        <v>9993114</v>
       </c>
       <c r="F241" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="H241" s="1">
-        <v>44427</v>
+        <v>44501</v>
       </c>
       <c r="I241" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J241">
-        <v>38.736110500000002</v>
+        <v>38.125451310000003</v>
       </c>
       <c r="K241">
-        <v>139.83616559999999</v>
+        <v>140.39358139999999</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.4">
@@ -10841,28 +10856,28 @@
         <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D242" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E242">
-        <v>9996211</v>
+        <v>9920076</v>
       </c>
       <c r="F242" t="s">
-        <v>1000</v>
+        <v>581</v>
       </c>
       <c r="H242" s="1">
-        <v>44342</v>
+        <v>44372</v>
       </c>
       <c r="I242" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J242">
-        <v>38.754444530000001</v>
+        <v>37.880881309999999</v>
       </c>
       <c r="K242">
-        <v>140.4125779</v>
+        <v>140.05243150000001</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.4">
@@ -10870,28 +10885,28 @@
         <v>11</v>
       </c>
       <c r="C243" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D243" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E243">
-        <v>9970011</v>
+        <v>9970021</v>
       </c>
       <c r="F243" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H243" s="1">
-        <v>44333</v>
+        <v>44427</v>
       </c>
       <c r="I243" t="s">
         <v>25</v>
       </c>
       <c r="J243">
-        <v>38.739648559999999</v>
+        <v>38.736110500000002</v>
       </c>
       <c r="K243">
-        <v>139.83698649999999</v>
+        <v>139.83616559999999</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.4">
@@ -10899,28 +10914,28 @@
         <v>11</v>
       </c>
       <c r="C244" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D244" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E244">
-        <v>9990602</v>
+        <v>9996211</v>
       </c>
       <c r="F244" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="H244" s="1">
-        <v>44392</v>
+        <v>44342</v>
       </c>
       <c r="I244" t="s">
-        <v>304</v>
+        <v>48</v>
       </c>
       <c r="J244">
-        <v>38.062876950000003</v>
+        <v>38.754444530000001</v>
       </c>
       <c r="K244">
-        <v>139.99177370000001</v>
+        <v>140.4125779</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.4">
@@ -10928,28 +10943,28 @@
         <v>11</v>
       </c>
       <c r="C245" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D245" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E245">
-        <v>9960002</v>
+        <v>9970011</v>
       </c>
       <c r="F245" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H245" s="1">
-        <v>44453</v>
+        <v>44333</v>
       </c>
       <c r="I245" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="J245">
-        <v>38.750298600000001</v>
+        <v>38.739648559999999</v>
       </c>
       <c r="K245">
-        <v>140.31033439999999</v>
+        <v>139.83698649999999</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.4">
@@ -10957,28 +10972,28 @@
         <v>11</v>
       </c>
       <c r="C246" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D246" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E246">
-        <v>9900031</v>
+        <v>9990602</v>
       </c>
       <c r="F246" t="s">
-        <v>595</v>
+        <v>1023</v>
       </c>
       <c r="H246" s="1">
-        <v>44357</v>
+        <v>44392</v>
       </c>
       <c r="I246" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="J246">
-        <v>38.246562859999997</v>
+        <v>38.062876950000003</v>
       </c>
       <c r="K246">
-        <v>140.33349150000001</v>
+        <v>139.99177370000001</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.4">
@@ -10986,28 +11001,28 @@
         <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D247" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E247">
-        <v>9900039</v>
+        <v>9960002</v>
       </c>
       <c r="F247" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H247" s="1">
-        <v>44424</v>
+        <v>44453</v>
       </c>
       <c r="I247" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="J247">
-        <v>38.250842540000001</v>
+        <v>38.750298600000001</v>
       </c>
       <c r="K247">
-        <v>140.32959650000001</v>
+        <v>140.31033439999999</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.4">
@@ -11015,28 +11030,28 @@
         <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D248" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E248">
-        <v>9980828</v>
+        <v>9900031</v>
       </c>
       <c r="F248" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="H248" s="1">
-        <v>44386</v>
+        <v>44357</v>
       </c>
       <c r="I248" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="J248">
-        <v>38.891120200000003</v>
+        <v>38.246562859999997</v>
       </c>
       <c r="K248">
-        <v>139.85003080000001</v>
+        <v>140.33349150000001</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.4">
@@ -11044,28 +11059,28 @@
         <v>11</v>
       </c>
       <c r="C249" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D249" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E249">
-        <v>9970857</v>
+        <v>9900039</v>
       </c>
       <c r="F249" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="H249" s="1">
-        <v>44351</v>
+        <v>44424</v>
       </c>
       <c r="I249" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J249">
-        <v>38.735079769999999</v>
+        <v>38.250842540000001</v>
       </c>
       <c r="K249">
-        <v>139.79695459999999</v>
+        <v>140.32959650000001</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.4">
@@ -11073,28 +11088,28 @@
         <v>11</v>
       </c>
       <c r="C250" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D250" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E250">
-        <v>9930041</v>
+        <v>9980828</v>
       </c>
       <c r="F250" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H250" s="1">
-        <v>44329</v>
+        <v>44386</v>
       </c>
       <c r="I250" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="J250">
-        <v>38.090858420000004</v>
+        <v>38.891120200000003</v>
       </c>
       <c r="K250">
-        <v>140.03452160000001</v>
+        <v>139.85003080000001</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.4">
@@ -11102,28 +11117,28 @@
         <v>11</v>
       </c>
       <c r="C251" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D251" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E251">
-        <v>9940025</v>
+        <v>9970857</v>
       </c>
       <c r="F251" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H251" s="1">
-        <v>44426</v>
+        <v>44351</v>
       </c>
       <c r="I251" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J251">
-        <v>38.359594250000001</v>
+        <v>38.735079769999999</v>
       </c>
       <c r="K251">
-        <v>140.3813701</v>
+        <v>139.79695459999999</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.4">
@@ -11131,60 +11146,57 @@
         <v>11</v>
       </c>
       <c r="C252" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D252" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E252">
-        <v>9902301</v>
+        <v>9930041</v>
       </c>
       <c r="F252" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H252" s="1">
-        <v>44413</v>
+        <v>44329</v>
       </c>
       <c r="I252" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J252">
-        <v>38.171771300000003</v>
+        <v>38.090858420000004</v>
       </c>
       <c r="K252">
-        <v>140.3965523</v>
+        <v>140.03452160000001</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A253" t="s">
-        <v>11</v>
-      </c>
       <c r="B253" t="s">
         <v>11</v>
       </c>
       <c r="C253" t="s">
-        <v>945</v>
+        <v>607</v>
       </c>
       <c r="D253" t="s">
-        <v>946</v>
+        <v>608</v>
       </c>
       <c r="E253">
-        <v>9920027</v>
+        <v>9940025</v>
       </c>
       <c r="F253" t="s">
-        <v>947</v>
+        <v>609</v>
       </c>
       <c r="H253" s="1">
-        <v>44480</v>
+        <v>44426</v>
       </c>
       <c r="I253" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="J253">
-        <v>37.90953391</v>
+        <v>38.359594250000001</v>
       </c>
       <c r="K253">
-        <v>140.1267192</v>
+        <v>140.3813701</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.4">
@@ -11192,57 +11204,60 @@
         <v>11</v>
       </c>
       <c r="C254" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D254" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E254">
-        <v>9900031</v>
+        <v>9902301</v>
       </c>
       <c r="F254" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H254" s="1">
-        <v>44357</v>
+        <v>44413</v>
       </c>
       <c r="I254" t="s">
         <v>32</v>
       </c>
       <c r="J254">
-        <v>38.245843729999997</v>
+        <v>38.171771300000003</v>
       </c>
       <c r="K254">
-        <v>140.3345741</v>
+        <v>140.3965523</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A255" t="s">
+        <v>11</v>
+      </c>
       <c r="B255" t="s">
         <v>11</v>
       </c>
       <c r="C255" t="s">
-        <v>614</v>
+        <v>945</v>
       </c>
       <c r="D255" t="s">
-        <v>615</v>
+        <v>946</v>
       </c>
       <c r="E255">
-        <v>9900038</v>
+        <v>9920027</v>
       </c>
       <c r="F255" t="s">
-        <v>616</v>
+        <v>947</v>
       </c>
       <c r="H255" s="1">
-        <v>44491</v>
+        <v>44480</v>
       </c>
       <c r="I255" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J255">
-        <v>38.243262999999999</v>
+        <v>37.90953391</v>
       </c>
       <c r="K255">
-        <v>140.32729140000001</v>
+        <v>140.1267192</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.4">
@@ -11250,28 +11265,28 @@
         <v>11</v>
       </c>
       <c r="C256" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D256" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E256">
-        <v>9902301</v>
+        <v>9900031</v>
       </c>
       <c r="F256" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="H256" s="1">
-        <v>44361</v>
+        <v>44357</v>
       </c>
       <c r="I256" t="s">
         <v>32</v>
       </c>
       <c r="J256">
-        <v>38.16336673</v>
+        <v>38.245843729999997</v>
       </c>
       <c r="K256">
-        <v>140.3952347</v>
+        <v>140.3345741</v>
       </c>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.4">
@@ -11279,31 +11294,28 @@
         <v>11</v>
       </c>
       <c r="C257" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D257" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E257">
-        <v>9900039</v>
+        <v>9900038</v>
       </c>
       <c r="F257" t="s">
-        <v>622</v>
-      </c>
-      <c r="G257" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="H257" s="1">
-        <v>44463</v>
+        <v>44491</v>
       </c>
       <c r="I257" t="s">
         <v>32</v>
       </c>
       <c r="J257">
-        <v>38.248550610000002</v>
+        <v>38.243262999999999</v>
       </c>
       <c r="K257">
-        <v>140.33044630000001</v>
+        <v>140.32729140000001</v>
       </c>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.4">
@@ -11311,28 +11323,28 @@
         <v>11</v>
       </c>
       <c r="C258" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D258" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E258">
-        <v>9900031</v>
+        <v>9902301</v>
       </c>
       <c r="F258" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="H258" s="1">
-        <v>44355</v>
+        <v>44361</v>
       </c>
       <c r="I258" t="s">
         <v>32</v>
       </c>
       <c r="J258">
-        <v>38.249477120000002</v>
+        <v>38.16336673</v>
       </c>
       <c r="K258">
-        <v>140.33468619999999</v>
+        <v>140.3952347</v>
       </c>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.4">
@@ -11340,28 +11352,31 @@
         <v>11</v>
       </c>
       <c r="C259" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D259" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E259">
-        <v>9995205</v>
+        <v>9900039</v>
       </c>
       <c r="F259" t="s">
-        <v>1011</v>
+        <v>622</v>
+      </c>
+      <c r="G259" t="s">
+        <v>623</v>
       </c>
       <c r="H259" s="1">
-        <v>44393</v>
+        <v>44463</v>
       </c>
       <c r="I259" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="J259">
-        <v>38.815128020000003</v>
+        <v>38.248550610000002</v>
       </c>
       <c r="K259">
-        <v>140.1523803</v>
+        <v>140.33044630000001</v>
       </c>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.4">
@@ -11369,28 +11384,28 @@
         <v>11</v>
       </c>
       <c r="C260" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D260" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E260">
-        <v>9910031</v>
+        <v>9900031</v>
       </c>
       <c r="F260" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H260" s="1">
-        <v>44441</v>
+        <v>44355</v>
       </c>
       <c r="I260" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="J260">
-        <v>38.374331699999999</v>
+        <v>38.249477120000002</v>
       </c>
       <c r="K260">
-        <v>140.2736318</v>
+        <v>140.33468619999999</v>
       </c>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.4">
@@ -11398,28 +11413,28 @@
         <v>11</v>
       </c>
       <c r="C261" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D261" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E261">
-        <v>9997464</v>
+        <v>9995205</v>
       </c>
       <c r="F261" t="s">
-        <v>632</v>
+        <v>1011</v>
       </c>
       <c r="H261" s="1">
-        <v>44334</v>
+        <v>44393</v>
       </c>
       <c r="I261" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="J261">
-        <v>38.725201050000003</v>
+        <v>38.815128020000003</v>
       </c>
       <c r="K261">
-        <v>139.6940457</v>
+        <v>140.1523803</v>
       </c>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.4">
@@ -11427,28 +11442,28 @@
         <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D262" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E262">
-        <v>9995401</v>
+        <v>9910031</v>
       </c>
       <c r="F262" t="s">
-        <v>955</v>
+        <v>629</v>
       </c>
       <c r="H262" s="1">
-        <v>44378</v>
+        <v>44441</v>
       </c>
       <c r="I262" t="s">
-        <v>635</v>
+        <v>144</v>
       </c>
       <c r="J262">
-        <v>38.916760099999998</v>
+        <v>38.374331699999999</v>
       </c>
       <c r="K262">
-        <v>140.3937182</v>
+        <v>140.2736318</v>
       </c>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.4">
@@ -11456,28 +11471,28 @@
         <v>11</v>
       </c>
       <c r="C263" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D263" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E263">
-        <v>9901574</v>
+        <v>9997464</v>
       </c>
       <c r="F263" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="H263" s="1">
-        <v>44427</v>
+        <v>44334</v>
       </c>
       <c r="I263" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="J263">
-        <v>38.304984449999999</v>
+        <v>38.725201050000003</v>
       </c>
       <c r="K263">
-        <v>140.05849129999999</v>
+        <v>139.6940457</v>
       </c>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.4">
@@ -11485,28 +11500,28 @@
         <v>11</v>
       </c>
       <c r="C264" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D264" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E264">
-        <v>9910041</v>
+        <v>9995401</v>
       </c>
       <c r="F264" t="s">
-        <v>640</v>
+        <v>955</v>
       </c>
       <c r="H264" s="1">
-        <v>44449</v>
+        <v>44378</v>
       </c>
       <c r="I264" t="s">
-        <v>144</v>
+        <v>635</v>
       </c>
       <c r="J264">
-        <v>38.36403206</v>
+        <v>38.916760099999998</v>
       </c>
       <c r="K264">
-        <v>140.256371</v>
+        <v>140.3937182</v>
       </c>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.4">
@@ -11514,28 +11529,28 @@
         <v>11</v>
       </c>
       <c r="C265" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D265" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E265">
-        <v>9910053</v>
+        <v>9901574</v>
       </c>
       <c r="F265" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H265" s="1">
-        <v>44397</v>
+        <v>44427</v>
       </c>
       <c r="I265" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
       <c r="J265">
-        <v>38.371741299999996</v>
+        <v>38.304984449999999</v>
       </c>
       <c r="K265">
-        <v>140.2736486</v>
+        <v>140.05849129999999</v>
       </c>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.4">
@@ -11543,28 +11558,28 @@
         <v>11</v>
       </c>
       <c r="C266" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D266" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E266">
-        <v>9970028</v>
+        <v>9910041</v>
       </c>
       <c r="F266" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="H266" s="1">
-        <v>44404</v>
+        <v>44449</v>
       </c>
       <c r="I266" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="J266">
-        <v>38.731767320000003</v>
+        <v>38.36403206</v>
       </c>
       <c r="K266">
-        <v>139.8332369</v>
+        <v>140.256371</v>
       </c>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.4">
@@ -11572,28 +11587,28 @@
         <v>11</v>
       </c>
       <c r="C267" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D267" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E267">
-        <v>9900042</v>
+        <v>9910053</v>
       </c>
       <c r="F267" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="H267" s="1">
-        <v>44413</v>
+        <v>44397</v>
       </c>
       <c r="I267" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="J267">
-        <v>38.253592400000002</v>
+        <v>38.371741299999996</v>
       </c>
       <c r="K267">
-        <v>140.33972879999999</v>
+        <v>140.2736486</v>
       </c>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.4">
@@ -11601,28 +11616,28 @@
         <v>11</v>
       </c>
       <c r="C268" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D268" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E268">
-        <v>9910031</v>
+        <v>9970028</v>
       </c>
       <c r="F268" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H268" s="1">
-        <v>44413</v>
+        <v>44404</v>
       </c>
       <c r="I268" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="J268">
-        <v>38.374873899999997</v>
+        <v>38.731767320000003</v>
       </c>
       <c r="K268">
-        <v>140.27410180000001</v>
+        <v>139.8332369</v>
       </c>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.4">
@@ -11630,28 +11645,28 @@
         <v>11</v>
       </c>
       <c r="C269" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D269" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E269">
-        <v>9920031</v>
+        <v>9900042</v>
       </c>
       <c r="F269" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="H269" s="1">
-        <v>44440</v>
+        <v>44413</v>
       </c>
       <c r="I269" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J269">
-        <v>37.908717500000002</v>
+        <v>38.253592400000002</v>
       </c>
       <c r="K269">
-        <v>140.11518150000001</v>
+        <v>140.33972879999999</v>
       </c>
     </row>
     <row r="270" spans="2:11" x14ac:dyDescent="0.4">
@@ -11659,28 +11674,28 @@
         <v>11</v>
       </c>
       <c r="C270" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D270" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E270">
-        <v>9971117</v>
+        <v>9910031</v>
       </c>
       <c r="F270" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="H270" s="1">
         <v>44413</v>
       </c>
       <c r="I270" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="J270">
-        <v>38.784716029999998</v>
+        <v>38.374873899999997</v>
       </c>
       <c r="K270">
-        <v>139.75978140000001</v>
+        <v>140.27410180000001</v>
       </c>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.4">
@@ -11688,28 +11703,28 @@
         <v>11</v>
       </c>
       <c r="C271" t="s">
-        <v>1054</v>
+        <v>652</v>
       </c>
       <c r="D271" t="s">
-        <v>1055</v>
+        <v>653</v>
       </c>
       <c r="E271">
-        <v>9900039</v>
+        <v>9920031</v>
       </c>
       <c r="F271" t="s">
-        <v>1056</v>
+        <v>654</v>
       </c>
       <c r="H271" s="1">
-        <v>44505</v>
+        <v>44440</v>
       </c>
       <c r="I271" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J271">
-        <v>38.249645000000001</v>
+        <v>37.908717500000002</v>
       </c>
       <c r="K271">
-        <v>140.32948709999999</v>
+        <v>140.11518150000001</v>
       </c>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.4">
@@ -11717,28 +11732,28 @@
         <v>11</v>
       </c>
       <c r="C272" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D272" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E272">
-        <v>9940024</v>
+        <v>9971117</v>
       </c>
       <c r="F272" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H272" s="1">
-        <v>44349</v>
+        <v>44413</v>
       </c>
       <c r="I272" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J272">
-        <v>38.361099959999997</v>
+        <v>38.784716029999998</v>
       </c>
       <c r="K272">
-        <v>140.38315130000001</v>
+        <v>139.75978140000001</v>
       </c>
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.4">
@@ -11746,28 +11761,28 @@
         <v>11</v>
       </c>
       <c r="C273" t="s">
-        <v>661</v>
+        <v>1054</v>
       </c>
       <c r="D273" t="s">
-        <v>662</v>
+        <v>1055</v>
       </c>
       <c r="E273">
-        <v>9920033</v>
+        <v>9900039</v>
       </c>
       <c r="F273" t="s">
-        <v>663</v>
+        <v>1056</v>
       </c>
       <c r="H273" s="1">
-        <v>44358</v>
+        <v>44505</v>
       </c>
       <c r="I273" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J273">
-        <v>37.900386449999999</v>
+        <v>38.249645000000001</v>
       </c>
       <c r="K273">
-        <v>140.120743</v>
+        <v>140.32948709999999</v>
       </c>
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.4">
@@ -11775,28 +11790,28 @@
         <v>11</v>
       </c>
       <c r="C274" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D274" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E274">
-        <v>9920039</v>
+        <v>9940024</v>
       </c>
       <c r="F274" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="H274" s="1">
-        <v>44370</v>
+        <v>44349</v>
       </c>
       <c r="I274" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="J274">
-        <v>37.910604669999998</v>
+        <v>38.361099959999997</v>
       </c>
       <c r="K274">
-        <v>140.11131839999999</v>
+        <v>140.38315130000001</v>
       </c>
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.4">
@@ -11804,28 +11819,28 @@
         <v>11</v>
       </c>
       <c r="C275" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D275" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E275">
-        <v>9902301</v>
+        <v>9920033</v>
       </c>
       <c r="F275" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="H275" s="1">
-        <v>44355</v>
+        <v>44358</v>
       </c>
       <c r="I275" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J275">
-        <v>38.162662410000003</v>
+        <v>37.900386449999999</v>
       </c>
       <c r="K275">
-        <v>140.3922091</v>
+        <v>140.120743</v>
       </c>
     </row>
     <row r="276" spans="2:11" x14ac:dyDescent="0.4">
@@ -11833,28 +11848,28 @@
         <v>11</v>
       </c>
       <c r="C276" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D276" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E276">
-        <v>9900039</v>
+        <v>9920039</v>
       </c>
       <c r="F276" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="H276" s="1">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="I276" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J276">
-        <v>38.24830283</v>
+        <v>37.910604669999998</v>
       </c>
       <c r="K276">
-        <v>140.32761880000001</v>
+        <v>140.11131839999999</v>
       </c>
     </row>
     <row r="277" spans="2:11" x14ac:dyDescent="0.4">
@@ -11862,28 +11877,28 @@
         <v>11</v>
       </c>
       <c r="C277" t="s">
-        <v>1051</v>
+        <v>667</v>
       </c>
       <c r="D277" t="s">
-        <v>1052</v>
+        <v>668</v>
       </c>
       <c r="E277">
-        <v>9920039</v>
+        <v>9902301</v>
       </c>
       <c r="F277" t="s">
-        <v>1053</v>
+        <v>669</v>
       </c>
       <c r="H277" s="1">
-        <v>44512</v>
+        <v>44355</v>
       </c>
       <c r="I277" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J277">
-        <v>37.912169990000002</v>
+        <v>38.162662410000003</v>
       </c>
       <c r="K277">
-        <v>140.11018379999999</v>
+        <v>140.3922091</v>
       </c>
     </row>
     <row r="278" spans="2:11" x14ac:dyDescent="0.4">
@@ -11891,28 +11906,28 @@
         <v>11</v>
       </c>
       <c r="C278" t="s">
-        <v>1064</v>
+        <v>670</v>
       </c>
       <c r="D278" t="s">
-        <v>1065</v>
+        <v>671</v>
       </c>
       <c r="E278">
-        <v>9902301</v>
+        <v>9900039</v>
       </c>
       <c r="F278" t="s">
-        <v>1066</v>
+        <v>672</v>
       </c>
       <c r="H278" s="1">
-        <v>44508</v>
+        <v>44326</v>
       </c>
       <c r="I278" t="s">
         <v>32</v>
       </c>
       <c r="J278">
-        <v>38.165301900000003</v>
+        <v>38.24830283</v>
       </c>
       <c r="K278">
-        <v>140.3987703</v>
+        <v>140.32761880000001</v>
       </c>
     </row>
     <row r="279" spans="2:11" x14ac:dyDescent="0.4">
@@ -11920,28 +11935,28 @@
         <v>11</v>
       </c>
       <c r="C279" t="s">
-        <v>673</v>
+        <v>1051</v>
       </c>
       <c r="D279" t="s">
-        <v>674</v>
+        <v>1052</v>
       </c>
       <c r="E279">
-        <v>9980834</v>
+        <v>9920039</v>
       </c>
       <c r="F279" t="s">
-        <v>675</v>
+        <v>1053</v>
       </c>
       <c r="H279" s="1">
-        <v>44357</v>
+        <v>44512</v>
       </c>
       <c r="I279" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="J279">
-        <v>38.907936499999998</v>
+        <v>37.912169990000002</v>
       </c>
       <c r="K279">
-        <v>139.8354989</v>
+        <v>140.11018379999999</v>
       </c>
     </row>
     <row r="280" spans="2:11" x14ac:dyDescent="0.4">
@@ -11949,28 +11964,28 @@
         <v>11</v>
       </c>
       <c r="C280" t="s">
-        <v>676</v>
+        <v>1064</v>
       </c>
       <c r="D280" t="s">
-        <v>676</v>
+        <v>1065</v>
       </c>
       <c r="E280">
         <v>9902301</v>
       </c>
       <c r="F280" t="s">
-        <v>677</v>
+        <v>1066</v>
       </c>
       <c r="H280" s="1">
-        <v>44452</v>
+        <v>44508</v>
       </c>
       <c r="I280" t="s">
         <v>32</v>
       </c>
       <c r="J280">
-        <v>38.164980110000002</v>
+        <v>38.165301900000003</v>
       </c>
       <c r="K280">
-        <v>140.39450220000001</v>
+        <v>140.3987703</v>
       </c>
     </row>
     <row r="281" spans="2:11" x14ac:dyDescent="0.4">
@@ -11978,28 +11993,28 @@
         <v>11</v>
       </c>
       <c r="C281" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D281" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E281">
-        <v>9960002</v>
+        <v>9980834</v>
       </c>
       <c r="F281" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H281" s="1">
-        <v>44487</v>
+        <v>44357</v>
       </c>
       <c r="I281" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="J281">
-        <v>38.763232100000003</v>
+        <v>38.907936499999998</v>
       </c>
       <c r="K281">
-        <v>140.30699999999999</v>
+        <v>139.8354989</v>
       </c>
     </row>
     <row r="282" spans="2:11" x14ac:dyDescent="0.4">
@@ -12007,28 +12022,28 @@
         <v>11</v>
       </c>
       <c r="C282" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D282" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E282">
-        <v>9970047</v>
+        <v>9902301</v>
       </c>
       <c r="F282" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="H282" s="1">
-        <v>44455</v>
+        <v>44452</v>
       </c>
       <c r="I282" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J282">
-        <v>38.7355971</v>
+        <v>38.164980110000002</v>
       </c>
       <c r="K282">
-        <v>139.80807279999999</v>
+        <v>140.39450220000001</v>
       </c>
     </row>
     <row r="283" spans="2:11" x14ac:dyDescent="0.4">
@@ -12036,28 +12051,28 @@
         <v>11</v>
       </c>
       <c r="C283" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D283" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E283">
-        <v>9902331</v>
+        <v>9960002</v>
       </c>
       <c r="F283" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="H283" s="1">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="I283" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="J283">
-        <v>38.21666561</v>
+        <v>38.763232100000003</v>
       </c>
       <c r="K283">
-        <v>140.3231753</v>
+        <v>140.30699999999999</v>
       </c>
     </row>
     <row r="284" spans="2:11" x14ac:dyDescent="0.4">
@@ -12065,28 +12080,28 @@
         <v>11</v>
       </c>
       <c r="C284" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D284" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E284">
-        <v>9940025</v>
+        <v>9970047</v>
       </c>
       <c r="F284" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="H284" s="1">
-        <v>44351</v>
+        <v>44455</v>
       </c>
       <c r="I284" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J284">
-        <v>38.358273189999998</v>
+        <v>38.7355971</v>
       </c>
       <c r="K284">
-        <v>140.38260249999999</v>
+        <v>139.80807279999999</v>
       </c>
     </row>
     <row r="285" spans="2:11" x14ac:dyDescent="0.4">
@@ -12094,28 +12109,28 @@
         <v>11</v>
       </c>
       <c r="C285" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D285" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E285">
-        <v>9940025</v>
+        <v>9902331</v>
       </c>
       <c r="F285" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="H285" s="1">
-        <v>44385</v>
+        <v>44488</v>
       </c>
       <c r="I285" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="J285">
-        <v>38.358837719999997</v>
+        <v>38.21666561</v>
       </c>
       <c r="K285">
-        <v>140.3806921</v>
+        <v>140.3231753</v>
       </c>
     </row>
     <row r="286" spans="2:11" x14ac:dyDescent="0.4">
@@ -12123,28 +12138,28 @@
         <v>11</v>
       </c>
       <c r="C286" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D286" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E286">
-        <v>9992211</v>
+        <v>9940025</v>
       </c>
       <c r="F286" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="H286" s="1">
-        <v>44384</v>
+        <v>44351</v>
       </c>
       <c r="I286" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="J286">
-        <v>38.045697760000003</v>
+        <v>38.358273189999998</v>
       </c>
       <c r="K286">
-        <v>140.16713390000001</v>
+        <v>140.38260249999999</v>
       </c>
     </row>
     <row r="287" spans="2:11" x14ac:dyDescent="0.4">
@@ -12152,28 +12167,28 @@
         <v>11</v>
       </c>
       <c r="C287" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D287" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E287">
-        <v>9997464</v>
+        <v>9940025</v>
       </c>
       <c r="F287" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H287" s="1">
-        <v>44456</v>
+        <v>44385</v>
       </c>
       <c r="I287" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="J287">
-        <v>38.720860010000003</v>
+        <v>38.358837719999997</v>
       </c>
       <c r="K287">
-        <v>139.68945859999999</v>
+        <v>140.3806921</v>
       </c>
     </row>
     <row r="288" spans="2:11" x14ac:dyDescent="0.4">
@@ -12181,28 +12196,28 @@
         <v>11</v>
       </c>
       <c r="C288" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D288" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E288">
-        <v>9960301</v>
+        <v>9992211</v>
       </c>
       <c r="F288" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H288" s="1">
-        <v>44447</v>
+        <v>44384</v>
       </c>
       <c r="I288" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="J288">
-        <v>38.607474170000003</v>
+        <v>38.045697760000003</v>
       </c>
       <c r="K288">
-        <v>140.16669390000001</v>
+        <v>140.16713390000001</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.4">
@@ -12210,28 +12225,28 @@
         <v>11</v>
       </c>
       <c r="C289" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D289" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E289">
-        <v>9900734</v>
+        <v>9997464</v>
       </c>
       <c r="F289" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="H289" s="1">
-        <v>44383</v>
+        <v>44456</v>
       </c>
       <c r="I289" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J289">
-        <v>38.491204699999997</v>
+        <v>38.720860010000003</v>
       </c>
       <c r="K289">
-        <v>140.00007450000001</v>
+        <v>139.68945859999999</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.4">
@@ -12239,28 +12254,28 @@
         <v>11</v>
       </c>
       <c r="C290" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D290" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E290">
         <v>9960301</v>
       </c>
       <c r="F290" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="H290" s="1">
-        <v>44483</v>
+        <v>44447</v>
       </c>
       <c r="I290" t="s">
         <v>85</v>
       </c>
       <c r="J290">
-        <v>38.607840019999998</v>
+        <v>38.607474170000003</v>
       </c>
       <c r="K290">
-        <v>140.16668300000001</v>
+        <v>140.16669390000001</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.4">
@@ -12268,60 +12283,57 @@
         <v>11</v>
       </c>
       <c r="C291" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D291" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E291">
-        <v>9996211</v>
+        <v>9900734</v>
       </c>
       <c r="F291" t="s">
-        <v>997</v>
+        <v>704</v>
       </c>
       <c r="H291" s="1">
-        <v>44426</v>
+        <v>44383</v>
       </c>
       <c r="I291" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J291">
-        <v>38.754166159999997</v>
+        <v>38.491204699999997</v>
       </c>
       <c r="K291">
-        <v>140.41070740000001</v>
+        <v>140.00007450000001</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A292" t="s">
-        <v>11</v>
-      </c>
       <c r="B292" t="s">
         <v>11</v>
       </c>
       <c r="C292" t="s">
-        <v>927</v>
+        <v>705</v>
       </c>
       <c r="D292" t="s">
-        <v>928</v>
+        <v>706</v>
       </c>
       <c r="E292">
-        <v>9995311</v>
+        <v>9960301</v>
       </c>
       <c r="F292" t="s">
-        <v>929</v>
+        <v>707</v>
       </c>
       <c r="H292" s="1">
-        <v>44363</v>
+        <v>44483</v>
       </c>
       <c r="I292" t="s">
-        <v>441</v>
+        <v>85</v>
       </c>
       <c r="J292">
-        <v>38.866926489999997</v>
+        <v>38.607840019999998</v>
       </c>
       <c r="K292">
-        <v>140.28156279999999</v>
+        <v>140.16668300000001</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.4">
@@ -12329,57 +12341,60 @@
         <v>11</v>
       </c>
       <c r="C293" t="s">
-        <v>1034</v>
+        <v>708</v>
       </c>
       <c r="D293" t="s">
-        <v>1035</v>
+        <v>709</v>
       </c>
       <c r="E293">
-        <v>9920027</v>
+        <v>9996211</v>
       </c>
       <c r="F293" t="s">
-        <v>1036</v>
+        <v>997</v>
       </c>
       <c r="H293" s="1">
-        <v>44518</v>
+        <v>44426</v>
       </c>
       <c r="I293" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J293">
-        <v>37.910426020000003</v>
+        <v>38.754166159999997</v>
       </c>
       <c r="K293">
-        <v>140.12193930000001</v>
+        <v>140.41070740000001</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A294" t="s">
+        <v>11</v>
+      </c>
       <c r="B294" t="s">
         <v>11</v>
       </c>
       <c r="C294" t="s">
-        <v>710</v>
+        <v>927</v>
       </c>
       <c r="D294" t="s">
-        <v>711</v>
+        <v>928</v>
       </c>
       <c r="E294">
-        <v>9996105</v>
+        <v>9995311</v>
       </c>
       <c r="F294" t="s">
-        <v>1008</v>
+        <v>929</v>
       </c>
       <c r="H294" s="1">
-        <v>44407</v>
+        <v>44363</v>
       </c>
       <c r="I294" t="s">
-        <v>48</v>
+        <v>441</v>
       </c>
       <c r="J294">
-        <v>38.71033302</v>
+        <v>38.866926489999997</v>
       </c>
       <c r="K294">
-        <v>140.55333619999999</v>
+        <v>140.28156279999999</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.4">
@@ -12387,28 +12402,28 @@
         <v>11</v>
       </c>
       <c r="C295" t="s">
-        <v>712</v>
+        <v>1034</v>
       </c>
       <c r="D295" t="s">
-        <v>713</v>
+        <v>1035</v>
       </c>
       <c r="E295">
-        <v>9980281</v>
+        <v>9920027</v>
       </c>
       <c r="F295" t="s">
-        <v>714</v>
+        <v>1036</v>
       </c>
       <c r="H295" s="1">
-        <v>44428</v>
+        <v>44518</v>
       </c>
       <c r="I295" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="J295">
-        <v>39.186396459999997</v>
+        <v>37.910426020000003</v>
       </c>
       <c r="K295">
-        <v>139.54693040000001</v>
+        <v>140.12193930000001</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.4">
@@ -12416,28 +12431,28 @@
         <v>11</v>
       </c>
       <c r="C296" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D296" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E296">
-        <v>9902301</v>
+        <v>9996105</v>
       </c>
       <c r="F296" t="s">
-        <v>717</v>
+        <v>1008</v>
       </c>
       <c r="H296" s="1">
-        <v>44455</v>
+        <v>44407</v>
       </c>
       <c r="I296" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J296">
-        <v>38.168863819999999</v>
+        <v>38.71033302</v>
       </c>
       <c r="K296">
-        <v>140.3977668</v>
+        <v>140.55333619999999</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.4">
@@ -12445,28 +12460,28 @@
         <v>11</v>
       </c>
       <c r="C297" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D297" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E297">
-        <v>9997126</v>
+        <v>9980281</v>
       </c>
       <c r="F297" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H297" s="1">
-        <v>44434</v>
+        <v>44428</v>
       </c>
       <c r="I297" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="J297">
-        <v>38.557965160000002</v>
+        <v>39.186396459999997</v>
       </c>
       <c r="K297">
-        <v>139.54645260000001</v>
+        <v>139.54693040000001</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.4">
@@ -12474,28 +12489,28 @@
         <v>11</v>
       </c>
       <c r="C298" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D298" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E298">
-        <v>9997126</v>
+        <v>9902301</v>
       </c>
       <c r="F298" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H298" s="1">
-        <v>44384</v>
+        <v>44455</v>
       </c>
       <c r="I298" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J298">
-        <v>38.558639919999997</v>
+        <v>38.168863819999999</v>
       </c>
       <c r="K298">
-        <v>139.54853080000001</v>
+        <v>140.3977668</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.4">
@@ -12503,28 +12518,28 @@
         <v>11</v>
       </c>
       <c r="C299" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D299" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E299">
-        <v>9991522</v>
+        <v>9997126</v>
       </c>
       <c r="F299" t="s">
-        <v>963</v>
+        <v>720</v>
       </c>
       <c r="H299" s="1">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="I299" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="J299">
-        <v>37.953314640000002</v>
+        <v>38.557965160000002</v>
       </c>
       <c r="K299">
-        <v>139.66479659999999</v>
+        <v>139.54645260000001</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.4">
@@ -12532,28 +12547,28 @@
         <v>11</v>
       </c>
       <c r="C300" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D300" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E300">
-        <v>9991452</v>
+        <v>9997126</v>
       </c>
       <c r="F300" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H300" s="1">
-        <v>44414</v>
+        <v>44384</v>
       </c>
       <c r="I300" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="J300">
-        <v>38.15220987</v>
+        <v>38.558639919999997</v>
       </c>
       <c r="K300">
-        <v>139.7801135</v>
+        <v>139.54853080000001</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.4">
@@ -12561,28 +12576,28 @@
         <v>11</v>
       </c>
       <c r="C301" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D301" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E301">
-        <v>9900721</v>
+        <v>9991522</v>
       </c>
       <c r="F301" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="H301" s="1">
-        <v>44463</v>
+        <v>44435</v>
       </c>
       <c r="I301" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="J301">
-        <v>38.39626423</v>
+        <v>37.953314640000002</v>
       </c>
       <c r="K301">
-        <v>139.9943418</v>
+        <v>139.66479659999999</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.4">
@@ -12590,28 +12605,28 @@
         <v>11</v>
       </c>
       <c r="C302" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D302" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E302">
-        <v>9996403</v>
+        <v>9991452</v>
       </c>
       <c r="F302" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H302" s="1">
-        <v>44442</v>
+        <v>44414</v>
       </c>
       <c r="I302" t="s">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="J302">
-        <v>38.6768754</v>
+        <v>38.15220987</v>
       </c>
       <c r="K302">
-        <v>140.16444419999999</v>
+        <v>139.7801135</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.4">
@@ -12619,28 +12634,28 @@
         <v>11</v>
       </c>
       <c r="C303" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D303" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E303">
-        <v>9980281</v>
+        <v>9900721</v>
       </c>
       <c r="F303" t="s">
-        <v>736</v>
+        <v>975</v>
       </c>
       <c r="H303" s="1">
-        <v>44488</v>
+        <v>44463</v>
       </c>
       <c r="I303" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="J303">
-        <v>39.188121000000002</v>
+        <v>38.39626423</v>
       </c>
       <c r="K303">
-        <v>139.54785519999999</v>
+        <v>139.9943418</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.4">
@@ -12648,28 +12663,28 @@
         <v>11</v>
       </c>
       <c r="C304" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D304" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E304">
-        <v>9993702</v>
+        <v>9996403</v>
       </c>
       <c r="F304" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="H304" s="1">
-        <v>44456</v>
+        <v>44442</v>
       </c>
       <c r="I304" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="J304">
-        <v>38.458598209999998</v>
+        <v>38.6768754</v>
       </c>
       <c r="K304">
-        <v>140.3904095</v>
+        <v>140.16444419999999</v>
       </c>
     </row>
     <row r="305" spans="2:11" x14ac:dyDescent="0.4">
@@ -12677,28 +12692,28 @@
         <v>11</v>
       </c>
       <c r="C305" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D305" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E305">
-        <v>9970034</v>
+        <v>9980281</v>
       </c>
       <c r="F305" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="H305" s="1">
-        <v>44368</v>
+        <v>44488</v>
       </c>
       <c r="I305" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="J305">
-        <v>38.729259849999998</v>
+        <v>39.188121000000002</v>
       </c>
       <c r="K305">
-        <v>139.83199020000001</v>
+        <v>139.54785519999999</v>
       </c>
     </row>
     <row r="306" spans="2:11" x14ac:dyDescent="0.4">
@@ -12706,28 +12721,28 @@
         <v>11</v>
       </c>
       <c r="C306" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D306" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E306">
-        <v>9950038</v>
+        <v>9993702</v>
       </c>
       <c r="F306" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="H306" s="1">
-        <v>44411</v>
+        <v>44456</v>
       </c>
       <c r="I306" t="s">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="J306">
-        <v>38.477221819999997</v>
+        <v>38.458598209999998</v>
       </c>
       <c r="K306">
-        <v>140.385873</v>
+        <v>140.3904095</v>
       </c>
     </row>
     <row r="307" spans="2:11" x14ac:dyDescent="0.4">
@@ -12735,28 +12750,28 @@
         <v>11</v>
       </c>
       <c r="C307" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D307" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E307">
-        <v>9993242</v>
+        <v>9970034</v>
       </c>
       <c r="F307" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="H307" s="1">
-        <v>44329</v>
+        <v>44368</v>
       </c>
       <c r="I307" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J307">
-        <v>38.150745239999999</v>
+        <v>38.729259849999998</v>
       </c>
       <c r="K307">
-        <v>140.2603896</v>
+        <v>139.83199020000001</v>
       </c>
     </row>
     <row r="308" spans="2:11" x14ac:dyDescent="0.4">
@@ -12764,28 +12779,28 @@
         <v>11</v>
       </c>
       <c r="C308" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D308" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E308">
-        <v>9902301</v>
+        <v>9950038</v>
       </c>
       <c r="F308" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="H308" s="1">
-        <v>44413</v>
+        <v>44411</v>
       </c>
       <c r="I308" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="J308">
-        <v>38.168247899999997</v>
+        <v>38.477221819999997</v>
       </c>
       <c r="K308">
-        <v>140.3976893</v>
+        <v>140.385873</v>
       </c>
     </row>
     <row r="309" spans="2:11" x14ac:dyDescent="0.4">
@@ -12793,28 +12808,28 @@
         <v>11</v>
       </c>
       <c r="C309" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D309" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E309">
-        <v>9902301</v>
+        <v>9993242</v>
       </c>
       <c r="F309" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="H309" s="1">
-        <v>44435</v>
+        <v>44329</v>
       </c>
       <c r="I309" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J309">
-        <v>38.168000980000002</v>
+        <v>38.150745239999999</v>
       </c>
       <c r="K309">
-        <v>140.3997172</v>
+        <v>140.2603896</v>
       </c>
     </row>
     <row r="310" spans="2:11" x14ac:dyDescent="0.4">
@@ -12822,28 +12837,28 @@
         <v>11</v>
       </c>
       <c r="C310" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D310" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E310">
-        <v>9994116</v>
+        <v>9902301</v>
       </c>
       <c r="F310" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="H310" s="1">
-        <v>44392</v>
+        <v>44413</v>
       </c>
       <c r="I310" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J310">
-        <v>38.594754160000001</v>
+        <v>38.168247899999997</v>
       </c>
       <c r="K310">
-        <v>140.37505440000001</v>
+        <v>140.3976893</v>
       </c>
     </row>
     <row r="311" spans="2:11" x14ac:dyDescent="0.4">
@@ -12851,28 +12866,28 @@
         <v>11</v>
       </c>
       <c r="C311" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D311" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E311">
-        <v>9992211</v>
+        <v>9902301</v>
       </c>
       <c r="F311" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="H311" s="1">
-        <v>44364</v>
+        <v>44435</v>
       </c>
       <c r="I311" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J311">
-        <v>38.048641349999997</v>
+        <v>38.168000980000002</v>
       </c>
       <c r="K311">
-        <v>140.168351</v>
+        <v>140.3997172</v>
       </c>
     </row>
     <row r="312" spans="2:11" x14ac:dyDescent="0.4">
@@ -12880,28 +12895,28 @@
         <v>11</v>
       </c>
       <c r="C312" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D312" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E312">
-        <v>9970345</v>
+        <v>9994116</v>
       </c>
       <c r="F312" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="H312" s="1">
-        <v>44382</v>
+        <v>44392</v>
       </c>
       <c r="I312" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J312">
-        <v>38.67038728</v>
+        <v>38.594754160000001</v>
       </c>
       <c r="K312">
-        <v>139.84516410000001</v>
+        <v>140.37505440000001</v>
       </c>
     </row>
     <row r="313" spans="2:11" x14ac:dyDescent="0.4">
@@ -12909,28 +12924,28 @@
         <v>11</v>
       </c>
       <c r="C313" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D313" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E313">
-        <v>9950209</v>
+        <v>9992211</v>
       </c>
       <c r="F313" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="H313" s="1">
-        <v>44438</v>
+        <v>44364</v>
       </c>
       <c r="I313" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="J313">
-        <v>38.485837529999998</v>
+        <v>38.048641349999997</v>
       </c>
       <c r="K313">
-        <v>140.34476309999999</v>
+        <v>140.168351</v>
       </c>
     </row>
     <row r="314" spans="2:11" x14ac:dyDescent="0.4">
@@ -12938,28 +12953,28 @@
         <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D314" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E314">
-        <v>9908580</v>
+        <v>9970345</v>
       </c>
       <c r="F314" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="H314" s="1">
-        <v>44343</v>
+        <v>44382</v>
       </c>
       <c r="I314" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J314">
-        <v>38.249882360000001</v>
+        <v>38.67038728</v>
       </c>
       <c r="K314">
-        <v>140.3273796</v>
+        <v>139.84516410000001</v>
       </c>
     </row>
     <row r="315" spans="2:11" x14ac:dyDescent="0.4">
@@ -12967,28 +12982,28 @@
         <v>11</v>
       </c>
       <c r="C315" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D315" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E315">
-        <v>9900043</v>
+        <v>9950209</v>
       </c>
       <c r="F315" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="H315" s="1">
-        <v>44396</v>
+        <v>44438</v>
       </c>
       <c r="I315" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="J315">
-        <v>38.250672639999998</v>
+        <v>38.485837529999998</v>
       </c>
       <c r="K315">
-        <v>140.3372924</v>
+        <v>140.34476309999999</v>
       </c>
     </row>
     <row r="316" spans="2:11" x14ac:dyDescent="0.4">
@@ -12996,28 +13011,28 @@
         <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D316" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E316">
-        <v>9971201</v>
+        <v>9908580</v>
       </c>
       <c r="F316" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="H316" s="1">
-        <v>44413</v>
+        <v>44343</v>
       </c>
       <c r="I316" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J316">
-        <v>38.782519430000001</v>
+        <v>38.249882360000001</v>
       </c>
       <c r="K316">
-        <v>139.75266360000001</v>
+        <v>140.3273796</v>
       </c>
     </row>
     <row r="317" spans="2:11" x14ac:dyDescent="0.4">
@@ -13025,28 +13040,28 @@
         <v>11</v>
       </c>
       <c r="C317" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D317" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E317">
-        <v>9993702</v>
+        <v>9900043</v>
       </c>
       <c r="F317" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="H317" s="1">
-        <v>44336</v>
+        <v>44396</v>
       </c>
       <c r="I317" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="J317">
-        <v>38.462047499999997</v>
+        <v>38.250672639999998</v>
       </c>
       <c r="K317">
-        <v>140.38916589999999</v>
+        <v>140.3372924</v>
       </c>
     </row>
     <row r="318" spans="2:11" x14ac:dyDescent="0.4">
@@ -13054,28 +13069,28 @@
         <v>11</v>
       </c>
       <c r="C318" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D318" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E318">
-        <v>9900039</v>
+        <v>9971201</v>
       </c>
       <c r="F318" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="H318" s="1">
-        <v>44368</v>
+        <v>44413</v>
       </c>
       <c r="I318" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J318">
-        <v>38.245823000000001</v>
+        <v>38.782519430000001</v>
       </c>
       <c r="K318">
-        <v>140.3314426</v>
+        <v>139.75266360000001</v>
       </c>
     </row>
     <row r="319" spans="2:11" x14ac:dyDescent="0.4">
@@ -13083,28 +13098,28 @@
         <v>11</v>
       </c>
       <c r="C319" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D319" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E319">
-        <v>9900042</v>
+        <v>9993702</v>
       </c>
       <c r="F319" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="H319" s="1">
-        <v>44328</v>
+        <v>44336</v>
       </c>
       <c r="I319" t="s">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="J319">
-        <v>38.25364269</v>
+        <v>38.462047499999997</v>
       </c>
       <c r="K319">
-        <v>140.338966</v>
+        <v>140.38916589999999</v>
       </c>
     </row>
     <row r="320" spans="2:11" x14ac:dyDescent="0.4">
@@ -13112,28 +13127,28 @@
         <v>11</v>
       </c>
       <c r="C320" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D320" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E320">
         <v>9900039</v>
       </c>
       <c r="F320" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H320" s="1">
-        <v>44419</v>
+        <v>44368</v>
       </c>
       <c r="I320" t="s">
         <v>32</v>
       </c>
       <c r="J320">
-        <v>38.250739289999999</v>
+        <v>38.245823000000001</v>
       </c>
       <c r="K320">
-        <v>140.32919509999999</v>
+        <v>140.3314426</v>
       </c>
     </row>
     <row r="321" spans="2:11" x14ac:dyDescent="0.4">
@@ -13141,28 +13156,28 @@
         <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D321" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="E321">
-        <v>9960301</v>
+        <v>9900042</v>
       </c>
       <c r="F321" t="s">
-        <v>986</v>
+        <v>784</v>
       </c>
       <c r="H321" s="1">
-        <v>44369</v>
+        <v>44328</v>
       </c>
       <c r="I321" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="J321">
-        <v>38.60674822</v>
+        <v>38.25364269</v>
       </c>
       <c r="K321">
-        <v>140.1654868</v>
+        <v>140.338966</v>
       </c>
     </row>
     <row r="322" spans="2:11" x14ac:dyDescent="0.4">
@@ -13170,28 +13185,28 @@
         <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D322" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E322">
-        <v>9960301</v>
+        <v>9900039</v>
       </c>
       <c r="F322" t="s">
-        <v>984</v>
+        <v>787</v>
       </c>
       <c r="H322" s="1">
-        <v>44438</v>
+        <v>44419</v>
       </c>
       <c r="I322" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="J322">
-        <v>38.607394960000001</v>
+        <v>38.250739289999999</v>
       </c>
       <c r="K322">
-        <v>140.1654398</v>
+        <v>140.32919509999999</v>
       </c>
     </row>
     <row r="323" spans="2:11" x14ac:dyDescent="0.4">
@@ -13199,28 +13214,28 @@
         <v>11</v>
       </c>
       <c r="C323" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D323" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E323">
-        <v>9971201</v>
+        <v>9960301</v>
       </c>
       <c r="F323" t="s">
-        <v>794</v>
+        <v>986</v>
       </c>
       <c r="H323" s="1">
-        <v>44364</v>
+        <v>44369</v>
       </c>
       <c r="I323" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J323">
-        <v>38.779253789999999</v>
+        <v>38.60674822</v>
       </c>
       <c r="K323">
-        <v>139.75050529999999</v>
+        <v>140.1654868</v>
       </c>
     </row>
     <row r="324" spans="2:11" x14ac:dyDescent="0.4">
@@ -13228,28 +13243,28 @@
         <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D324" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E324">
-        <v>9902311</v>
+        <v>9960301</v>
       </c>
       <c r="F324" t="s">
-        <v>1069</v>
+        <v>984</v>
       </c>
       <c r="H324" s="1">
-        <v>44330</v>
+        <v>44438</v>
       </c>
       <c r="I324" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="J324">
-        <v>38.190605499999997</v>
+        <v>38.607394960000001</v>
       </c>
       <c r="K324">
-        <v>140.3031819</v>
+        <v>140.1654398</v>
       </c>
     </row>
     <row r="325" spans="2:11" x14ac:dyDescent="0.4">
@@ -13257,28 +13272,28 @@
         <v>11</v>
       </c>
       <c r="C325" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D325" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E325">
-        <v>9996105</v>
+        <v>9971201</v>
       </c>
       <c r="F325" t="s">
-        <v>1006</v>
+        <v>794</v>
       </c>
       <c r="H325" s="1">
-        <v>44418</v>
+        <v>44364</v>
       </c>
       <c r="I325" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J325">
-        <v>38.710625299999997</v>
+        <v>38.779253789999999</v>
       </c>
       <c r="K325">
-        <v>140.5528879</v>
+        <v>139.75050529999999</v>
       </c>
     </row>
     <row r="326" spans="2:11" x14ac:dyDescent="0.4">
@@ -13286,28 +13301,28 @@
         <v>11</v>
       </c>
       <c r="C326" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D326" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E326">
-        <v>9971201</v>
+        <v>9902311</v>
       </c>
       <c r="F326" t="s">
-        <v>801</v>
+        <v>1069</v>
       </c>
       <c r="H326" s="1">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="I326" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J326">
-        <v>38.777857930000003</v>
+        <v>38.190605499999997</v>
       </c>
       <c r="K326">
-        <v>139.7491555</v>
+        <v>140.3031819</v>
       </c>
     </row>
     <row r="327" spans="2:11" x14ac:dyDescent="0.4">
@@ -13315,28 +13330,28 @@
         <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D327" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E327">
-        <v>9900734</v>
+        <v>9996105</v>
       </c>
       <c r="F327" t="s">
-        <v>970</v>
+        <v>1006</v>
       </c>
       <c r="H327" s="1">
-        <v>44389</v>
+        <v>44418</v>
       </c>
       <c r="I327" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J327">
-        <v>38.490909809999998</v>
+        <v>38.710625299999997</v>
       </c>
       <c r="K327">
-        <v>140.00017260000001</v>
+        <v>140.5528879</v>
       </c>
     </row>
     <row r="328" spans="2:11" x14ac:dyDescent="0.4">
@@ -13344,28 +13359,28 @@
         <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D328" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E328">
-        <v>9970752</v>
+        <v>9971201</v>
       </c>
       <c r="F328" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="H328" s="1">
-        <v>44348</v>
+        <v>44327</v>
       </c>
       <c r="I328" t="s">
         <v>25</v>
       </c>
       <c r="J328">
-        <v>38.693684470000001</v>
+        <v>38.777857930000003</v>
       </c>
       <c r="K328">
-        <v>139.76950120000001</v>
+        <v>139.7491555</v>
       </c>
     </row>
     <row r="329" spans="2:11" x14ac:dyDescent="0.4">
@@ -13373,28 +13388,28 @@
         <v>11</v>
       </c>
       <c r="C329" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D329" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E329">
-        <v>9921472</v>
+        <v>9900734</v>
       </c>
       <c r="F329" t="s">
-        <v>1041</v>
+        <v>970</v>
       </c>
       <c r="H329" s="1">
-        <v>44431</v>
+        <v>44389</v>
       </c>
       <c r="I329" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J329">
-        <v>37.779575579999999</v>
+        <v>38.490909809999998</v>
       </c>
       <c r="K329">
-        <v>140.1190665</v>
+        <v>140.00017260000001</v>
       </c>
     </row>
     <row r="330" spans="2:11" x14ac:dyDescent="0.4">
@@ -13402,28 +13417,28 @@
         <v>11</v>
       </c>
       <c r="C330" t="s">
-        <v>1013</v>
+        <v>804</v>
       </c>
       <c r="D330" t="s">
-        <v>1014</v>
+        <v>805</v>
       </c>
       <c r="E330">
         <v>9970752</v>
       </c>
       <c r="F330" t="s">
-        <v>1015</v>
+        <v>806</v>
       </c>
       <c r="H330" s="1">
-        <v>44511</v>
+        <v>44348</v>
       </c>
       <c r="I330" t="s">
         <v>25</v>
       </c>
       <c r="J330">
-        <v>38.693074439999997</v>
+        <v>38.693684470000001</v>
       </c>
       <c r="K330">
-        <v>139.7692188</v>
+        <v>139.76950120000001</v>
       </c>
     </row>
     <row r="331" spans="2:11" x14ac:dyDescent="0.4">
@@ -13431,28 +13446,28 @@
         <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D331" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E331">
-        <v>9970532</v>
+        <v>9921472</v>
       </c>
       <c r="F331" t="s">
-        <v>811</v>
+        <v>1041</v>
       </c>
       <c r="H331" s="1">
-        <v>44389</v>
+        <v>44431</v>
       </c>
       <c r="I331" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J331">
-        <v>38.540455790000003</v>
+        <v>37.779575579999999</v>
       </c>
       <c r="K331">
-        <v>139.976012</v>
+        <v>140.1190665</v>
       </c>
     </row>
     <row r="332" spans="2:11" x14ac:dyDescent="0.4">
@@ -13460,28 +13475,28 @@
         <v>11</v>
       </c>
       <c r="C332" t="s">
-        <v>812</v>
+        <v>1013</v>
       </c>
       <c r="D332" t="s">
-        <v>813</v>
+        <v>1014</v>
       </c>
       <c r="E332">
-        <v>9920342</v>
+        <v>9970752</v>
       </c>
       <c r="F332" t="s">
-        <v>993</v>
+        <v>1015</v>
       </c>
       <c r="H332" s="1">
-        <v>44357</v>
+        <v>44511</v>
       </c>
       <c r="I332" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="J332">
-        <v>38.038003799999998</v>
+        <v>38.693074439999997</v>
       </c>
       <c r="K332">
-        <v>140.20047030000001</v>
+        <v>139.7692188</v>
       </c>
     </row>
     <row r="333" spans="2:11" x14ac:dyDescent="0.4">
@@ -13489,28 +13504,28 @@
         <v>11</v>
       </c>
       <c r="C333" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D333" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E333">
-        <v>9940025</v>
+        <v>9970532</v>
       </c>
       <c r="F333" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="H333" s="1">
-        <v>44349</v>
+        <v>44389</v>
       </c>
       <c r="I333" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J333">
-        <v>38.358845479999999</v>
+        <v>38.540455790000003</v>
       </c>
       <c r="K333">
-        <v>140.3833851</v>
+        <v>139.976012</v>
       </c>
     </row>
     <row r="334" spans="2:11" x14ac:dyDescent="0.4">
@@ -13518,28 +13533,28 @@
         <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="D334" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E334">
-        <v>9997652</v>
+        <v>9920342</v>
       </c>
       <c r="F334" t="s">
-        <v>819</v>
+        <v>993</v>
       </c>
       <c r="H334" s="1">
-        <v>44377</v>
+        <v>44357</v>
       </c>
       <c r="I334" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="J334">
-        <v>38.747437349999998</v>
+        <v>38.038003799999998</v>
       </c>
       <c r="K334">
-        <v>139.9719862</v>
+        <v>140.20047030000001</v>
       </c>
     </row>
     <row r="335" spans="2:11" x14ac:dyDescent="0.4">
@@ -13547,28 +13562,28 @@
         <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D335" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E335">
-        <v>9921205</v>
+        <v>9940025</v>
       </c>
       <c r="F335" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="H335" s="1">
-        <v>44466</v>
+        <v>44349</v>
       </c>
       <c r="I335" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="J335">
-        <v>37.858201540000003</v>
+        <v>38.358845479999999</v>
       </c>
       <c r="K335">
-        <v>140.1575172</v>
+        <v>140.3833851</v>
       </c>
     </row>
     <row r="336" spans="2:11" x14ac:dyDescent="0.4">
@@ -13576,28 +13591,28 @@
         <v>11</v>
       </c>
       <c r="C336" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D336" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E336">
-        <v>9997202</v>
+        <v>9997652</v>
       </c>
       <c r="F336" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="H336" s="1">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="I336" t="s">
         <v>25</v>
       </c>
       <c r="J336">
-        <v>38.637827000000001</v>
+        <v>38.747437349999998</v>
       </c>
       <c r="K336">
-        <v>139.704306</v>
+        <v>139.9719862</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.4">
@@ -13605,28 +13620,28 @@
         <v>11</v>
       </c>
       <c r="C337" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D337" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E337">
-        <v>9971201</v>
+        <v>9921205</v>
       </c>
       <c r="F337" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="H337" s="1">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="I337" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J337">
-        <v>38.778699860000003</v>
+        <v>37.858201540000003</v>
       </c>
       <c r="K337">
-        <v>139.7505682</v>
+        <v>140.1575172</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.4">
@@ -13634,28 +13649,28 @@
         <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D338" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E338">
-        <v>9996211</v>
+        <v>9997202</v>
       </c>
       <c r="F338" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="H338" s="1">
-        <v>44358</v>
+        <v>44469</v>
       </c>
       <c r="I338" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J338">
-        <v>38.754119469999999</v>
+        <v>38.637827000000001</v>
       </c>
       <c r="K338">
-        <v>140.4135521</v>
+        <v>139.704306</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.4">
@@ -13663,28 +13678,28 @@
         <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D339" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E339">
-        <v>9920076</v>
+        <v>9971201</v>
       </c>
       <c r="F339" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="H339" s="1">
-        <v>44461</v>
+        <v>44389</v>
       </c>
       <c r="I339" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J339">
-        <v>37.880526600000003</v>
+        <v>38.778699860000003</v>
       </c>
       <c r="K339">
-        <v>140.0546411</v>
+        <v>139.7505682</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.4">
@@ -13692,28 +13707,28 @@
         <v>11</v>
       </c>
       <c r="C340" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D340" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E340">
-        <v>9996105</v>
+        <v>9996211</v>
       </c>
       <c r="F340" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="H340" s="1">
-        <v>44434</v>
+        <v>44358</v>
       </c>
       <c r="I340" t="s">
         <v>48</v>
       </c>
       <c r="J340">
-        <v>38.71136336</v>
+        <v>38.754119469999999</v>
       </c>
       <c r="K340">
-        <v>140.55079929999999</v>
+        <v>140.4135521</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.4">
@@ -13721,28 +13736,28 @@
         <v>11</v>
       </c>
       <c r="C341" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="D341" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E341">
-        <v>9960301</v>
+        <v>9920076</v>
       </c>
       <c r="F341" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="H341" s="1">
-        <v>44334</v>
+        <v>44461</v>
       </c>
       <c r="I341" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="J341">
-        <v>38.609262280000003</v>
+        <v>37.880526600000003</v>
       </c>
       <c r="K341">
-        <v>140.16743550000001</v>
+        <v>140.0546411</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.4">
@@ -13750,28 +13765,28 @@
         <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D342" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="E342">
-        <v>9992221</v>
+        <v>9996105</v>
       </c>
       <c r="F342" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="H342" s="1">
-        <v>44410</v>
+        <v>44434</v>
       </c>
       <c r="I342" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="J342">
-        <v>38.04562438</v>
+        <v>38.71136336</v>
       </c>
       <c r="K342">
-        <v>140.1659842</v>
+        <v>140.55079929999999</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.4">
@@ -13779,28 +13794,28 @@
         <v>11</v>
       </c>
       <c r="C343" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="D343" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E343">
-        <v>9997464</v>
+        <v>9960301</v>
       </c>
       <c r="F343" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="H343" s="1">
-        <v>44328</v>
+        <v>44334</v>
       </c>
       <c r="I343" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J343">
-        <v>38.724612</v>
+        <v>38.609262280000003</v>
       </c>
       <c r="K343">
-        <v>139.6921208</v>
+        <v>140.16743550000001</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.4">
@@ -13808,28 +13823,28 @@
         <v>11</v>
       </c>
       <c r="C344" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="D344" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="E344">
-        <v>9902301</v>
+        <v>9992221</v>
       </c>
       <c r="F344" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="H344" s="1">
-        <v>44375</v>
+        <v>44410</v>
       </c>
       <c r="I344" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J344">
-        <v>38.168401070000002</v>
+        <v>38.04562438</v>
       </c>
       <c r="K344">
-        <v>140.39698039999999</v>
+        <v>140.1659842</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.4">
@@ -13837,28 +13852,28 @@
         <v>11</v>
       </c>
       <c r="C345" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D345" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="E345">
-        <v>9970752</v>
+        <v>9997464</v>
       </c>
       <c r="F345" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="H345" s="1">
-        <v>44342</v>
+        <v>44328</v>
       </c>
       <c r="I345" t="s">
         <v>25</v>
       </c>
       <c r="J345">
-        <v>38.693463209999997</v>
+        <v>38.724612</v>
       </c>
       <c r="K345">
-        <v>139.7694367</v>
+        <v>139.6921208</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.4">
@@ -13866,60 +13881,57 @@
         <v>11</v>
       </c>
       <c r="C346" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D346" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E346">
-        <v>9991452</v>
+        <v>9902301</v>
       </c>
       <c r="F346" t="s">
-        <v>961</v>
+        <v>849</v>
       </c>
       <c r="H346" s="1">
-        <v>44414</v>
+        <v>44375</v>
       </c>
       <c r="I346" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="J346">
-        <v>38.160279950000003</v>
+        <v>38.168401070000002</v>
       </c>
       <c r="K346">
-        <v>139.78839550000001</v>
+        <v>140.39698039999999</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A347" t="s">
-        <v>11</v>
-      </c>
       <c r="B347" t="s">
         <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>940</v>
+        <v>850</v>
       </c>
       <c r="D347" t="s">
-        <v>941</v>
+        <v>851</v>
       </c>
       <c r="E347">
-        <v>9997463</v>
+        <v>9970752</v>
       </c>
       <c r="F347" t="s">
-        <v>942</v>
+        <v>852</v>
       </c>
       <c r="H347" s="1">
-        <v>44392</v>
+        <v>44342</v>
       </c>
       <c r="I347" t="s">
         <v>25</v>
       </c>
       <c r="J347">
-        <v>38.703204100000001</v>
+        <v>38.693463209999997</v>
       </c>
       <c r="K347">
-        <v>139.66686379999999</v>
+        <v>139.7694367</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.4">
@@ -13927,57 +13939,60 @@
         <v>11</v>
       </c>
       <c r="C348" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D348" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E348">
-        <v>9996211</v>
+        <v>9991452</v>
       </c>
       <c r="F348" t="s">
-        <v>1001</v>
+        <v>961</v>
       </c>
       <c r="H348" s="1">
-        <v>44385</v>
+        <v>44414</v>
       </c>
       <c r="I348" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="J348">
-        <v>38.754193219999998</v>
+        <v>38.160279950000003</v>
       </c>
       <c r="K348">
-        <v>140.41247619999999</v>
+        <v>139.78839550000001</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A349" t="s">
+        <v>11</v>
+      </c>
       <c r="B349" t="s">
         <v>11</v>
       </c>
       <c r="C349" t="s">
-        <v>857</v>
+        <v>940</v>
       </c>
       <c r="D349" t="s">
-        <v>858</v>
+        <v>941</v>
       </c>
       <c r="E349">
-        <v>9993242</v>
+        <v>9997463</v>
       </c>
       <c r="F349" t="s">
-        <v>859</v>
+        <v>942</v>
       </c>
       <c r="H349" s="1">
-        <v>44453</v>
+        <v>44392</v>
       </c>
       <c r="I349" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J349">
-        <v>38.14876142</v>
+        <v>38.703204100000001</v>
       </c>
       <c r="K349">
-        <v>140.26266129999999</v>
+        <v>139.66686379999999</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.4">
@@ -13985,28 +14000,28 @@
         <v>11</v>
       </c>
       <c r="C350" t="s">
-        <v>1115</v>
+        <v>855</v>
       </c>
       <c r="D350" t="s">
-        <v>1116</v>
+        <v>856</v>
       </c>
       <c r="E350">
-        <v>9992211</v>
+        <v>9996211</v>
       </c>
       <c r="F350" t="s">
-        <v>1117</v>
+        <v>1001</v>
       </c>
       <c r="H350" s="1">
-        <v>44537</v>
+        <v>44385</v>
       </c>
       <c r="I350" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="J350">
-        <v>38.050565419999998</v>
+        <v>38.754193219999998</v>
       </c>
       <c r="K350">
-        <v>140.16837169999999</v>
+        <v>140.41247619999999</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.4">
@@ -14014,28 +14029,28 @@
         <v>11</v>
       </c>
       <c r="C351" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D351" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E351">
-        <v>9994333</v>
+        <v>9993242</v>
       </c>
       <c r="F351" t="s">
-        <v>1031</v>
+        <v>859</v>
       </c>
       <c r="H351" s="1">
-        <v>44446</v>
+        <v>44453</v>
       </c>
       <c r="I351" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="J351">
-        <v>38.569570179999999</v>
+        <v>38.14876142</v>
       </c>
       <c r="K351">
-        <v>140.53128799999999</v>
+        <v>140.26266129999999</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.4">
@@ -14043,28 +14058,28 @@
         <v>11</v>
       </c>
       <c r="C352" t="s">
-        <v>862</v>
+        <v>1115</v>
       </c>
       <c r="D352" t="s">
-        <v>863</v>
+        <v>1116</v>
       </c>
       <c r="E352">
-        <v>9994333</v>
+        <v>9992211</v>
       </c>
       <c r="F352" t="s">
-        <v>1030</v>
+        <v>1117</v>
       </c>
       <c r="H352" s="1">
-        <v>44361</v>
+        <v>44537</v>
       </c>
       <c r="I352" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="J352">
-        <v>38.569601370000001</v>
+        <v>38.050565419999998</v>
       </c>
       <c r="K352">
-        <v>140.53120129999999</v>
+        <v>140.16837169999999</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.4">
@@ -14072,28 +14087,28 @@
         <v>11</v>
       </c>
       <c r="C353" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D353" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E353">
-        <v>9996105</v>
+        <v>9994333</v>
       </c>
       <c r="F353" t="s">
-        <v>1003</v>
+        <v>1031</v>
       </c>
       <c r="H353" s="1">
-        <v>44418</v>
+        <v>44446</v>
       </c>
       <c r="I353" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="J353">
-        <v>38.709274710000003</v>
+        <v>38.569570179999999</v>
       </c>
       <c r="K353">
-        <v>140.5548297</v>
+        <v>140.53128799999999</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.4">
@@ -14101,28 +14116,28 @@
         <v>11</v>
       </c>
       <c r="C354" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D354" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E354">
-        <v>9930001</v>
+        <v>9994333</v>
       </c>
       <c r="F354" t="s">
-        <v>1105</v>
+        <v>1030</v>
       </c>
       <c r="H354" s="1">
-        <v>44532</v>
+        <v>44361</v>
       </c>
       <c r="I354" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J354">
-        <v>38.10774481</v>
+        <v>38.569601370000001</v>
       </c>
       <c r="K354">
-        <v>140.039852</v>
+        <v>140.53120129999999</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.4">
@@ -14130,28 +14145,28 @@
         <v>11</v>
       </c>
       <c r="C355" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D355" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E355">
-        <v>9902301</v>
+        <v>9996105</v>
       </c>
       <c r="F355" t="s">
-        <v>868</v>
+        <v>1003</v>
       </c>
       <c r="H355" s="1">
-        <v>44347</v>
+        <v>44418</v>
       </c>
       <c r="I355" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J355">
-        <v>38.168008010000001</v>
+        <v>38.709274710000003</v>
       </c>
       <c r="K355">
-        <v>140.39562839999999</v>
+        <v>140.5548297</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.4">
@@ -14159,28 +14174,28 @@
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D356" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E356">
-        <v>9920351</v>
+        <v>9930001</v>
       </c>
       <c r="F356" t="s">
-        <v>991</v>
+        <v>1105</v>
       </c>
       <c r="H356" s="1">
-        <v>44350</v>
+        <v>44532</v>
       </c>
       <c r="I356" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="J356">
-        <v>38.000407600000003</v>
+        <v>38.10774481</v>
       </c>
       <c r="K356">
-        <v>140.1957989</v>
+        <v>140.039852</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.4">
@@ -14188,28 +14203,28 @@
         <v>11</v>
       </c>
       <c r="C357" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="D357" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E357">
-        <v>9980281</v>
+        <v>9902301</v>
       </c>
       <c r="F357" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="H357" s="1">
-        <v>44482</v>
+        <v>44347</v>
       </c>
       <c r="I357" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="J357">
-        <v>39.187297039999997</v>
+        <v>38.168008010000001</v>
       </c>
       <c r="K357">
-        <v>139.54744959999999</v>
+        <v>140.39562839999999</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.4">
@@ -14217,28 +14232,28 @@
         <v>11</v>
       </c>
       <c r="C358" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D358" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="E358">
-        <v>9993702</v>
+        <v>9920351</v>
       </c>
       <c r="F358" t="s">
-        <v>876</v>
+        <v>991</v>
       </c>
       <c r="H358" s="1">
-        <v>44390</v>
+        <v>44350</v>
       </c>
       <c r="I358" t="s">
-        <v>324</v>
+        <v>140</v>
       </c>
       <c r="J358">
-        <v>38.45775742</v>
+        <v>38.000407600000003</v>
       </c>
       <c r="K358">
-        <v>140.38918129999999</v>
+        <v>140.1957989</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.4">
@@ -14246,28 +14261,28 @@
         <v>11</v>
       </c>
       <c r="C359" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D359" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E359">
-        <v>9900734</v>
+        <v>9980281</v>
       </c>
       <c r="F359" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="H359" s="1">
-        <v>44389</v>
+        <v>44482</v>
       </c>
       <c r="I359" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="J359">
-        <v>38.491993919999999</v>
+        <v>39.187297039999997</v>
       </c>
       <c r="K359">
-        <v>139.99943529999999</v>
+        <v>139.54744959999999</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.4">
@@ -14275,28 +14290,28 @@
         <v>11</v>
       </c>
       <c r="C360" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D360" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E360">
-        <v>9997463</v>
+        <v>9993702</v>
       </c>
       <c r="F360" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="H360" s="1">
-        <v>44461</v>
+        <v>44390</v>
       </c>
       <c r="I360" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="J360">
-        <v>38.686920800000003</v>
+        <v>38.45775742</v>
       </c>
       <c r="K360">
-        <v>139.67781149999999</v>
+        <v>140.38918129999999</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.4">
@@ -14304,28 +14319,28 @@
         <v>11</v>
       </c>
       <c r="C361" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D361" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E361">
-        <v>9993242</v>
+        <v>9900734</v>
       </c>
       <c r="F361" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="H361" s="1">
-        <v>44439</v>
+        <v>44389</v>
       </c>
       <c r="I361" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J361">
-        <v>38.147896009999997</v>
+        <v>38.491993919999999</v>
       </c>
       <c r="K361">
-        <v>140.26258870000001</v>
+        <v>139.99943529999999</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.4">
@@ -14333,28 +14348,28 @@
         <v>11</v>
       </c>
       <c r="C362" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="D362" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E362">
-        <v>9992211</v>
+        <v>9997463</v>
       </c>
       <c r="F362" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="H362" s="1">
-        <v>44414</v>
+        <v>44461</v>
       </c>
       <c r="I362" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J362">
-        <v>38.05026676</v>
+        <v>38.686920800000003</v>
       </c>
       <c r="K362">
-        <v>140.16726919999999</v>
+        <v>139.67781149999999</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.4">
@@ -14362,28 +14377,28 @@
         <v>11</v>
       </c>
       <c r="C363" t="s">
-        <v>987</v>
+        <v>883</v>
       </c>
       <c r="D363" t="s">
-        <v>988</v>
+        <v>884</v>
       </c>
       <c r="E363">
-        <v>9960301</v>
+        <v>9993242</v>
       </c>
       <c r="F363" t="s">
-        <v>989</v>
+        <v>885</v>
       </c>
       <c r="H363" s="1">
-        <v>44508</v>
+        <v>44439</v>
       </c>
       <c r="I363" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="J363">
-        <v>38.607975099999997</v>
+        <v>38.147896009999997</v>
       </c>
       <c r="K363">
-        <v>140.1671412</v>
+        <v>140.26258870000001</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.4">
@@ -14391,92 +14406,86 @@
         <v>11</v>
       </c>
       <c r="C364" t="s">
+        <v>886</v>
+      </c>
+      <c r="D364" t="s">
+        <v>887</v>
+      </c>
+      <c r="E364">
+        <v>9992211</v>
+      </c>
+      <c r="F364" t="s">
+        <v>888</v>
+      </c>
+      <c r="H364" s="1">
+        <v>44414</v>
+      </c>
+      <c r="I364" t="s">
+        <v>15</v>
+      </c>
+      <c r="J364">
+        <v>38.05026676</v>
+      </c>
+      <c r="K364">
+        <v>140.16726919999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B365" t="s">
+        <v>11</v>
+      </c>
+      <c r="C365" t="s">
+        <v>987</v>
+      </c>
+      <c r="D365" t="s">
+        <v>988</v>
+      </c>
+      <c r="E365">
+        <v>9960301</v>
+      </c>
+      <c r="F365" t="s">
+        <v>989</v>
+      </c>
+      <c r="H365" s="1">
+        <v>44508</v>
+      </c>
+      <c r="I365" t="s">
+        <v>85</v>
+      </c>
+      <c r="J365">
+        <v>38.607975099999997</v>
+      </c>
+      <c r="K365">
+        <v>140.1671412</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B366" t="s">
+        <v>11</v>
+      </c>
+      <c r="C366" t="s">
         <v>889</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D366" t="s">
         <v>890</v>
       </c>
-      <c r="E364">
+      <c r="E366">
         <v>9902301</v>
       </c>
-      <c r="F364" t="s">
+      <c r="F366" t="s">
         <v>891</v>
       </c>
-      <c r="H364" s="1">
+      <c r="H366" s="1">
         <v>44398</v>
-      </c>
-      <c r="I364" t="s">
-        <v>32</v>
-      </c>
-      <c r="J364">
-        <v>38.166095300000002</v>
-      </c>
-      <c r="K364">
-        <v>140.39884280000001</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A365" t="s">
-        <v>11</v>
-      </c>
-      <c r="B365" t="s">
-        <v>11</v>
-      </c>
-      <c r="C365" t="s">
-        <v>930</v>
-      </c>
-      <c r="D365" t="s">
-        <v>931</v>
-      </c>
-      <c r="E365">
-        <v>9900733</v>
-      </c>
-      <c r="F365" t="s">
-        <v>967</v>
-      </c>
-      <c r="H365" s="1">
-        <v>44365</v>
-      </c>
-      <c r="I365" t="s">
-        <v>18</v>
-      </c>
-      <c r="J365">
-        <v>38.454796760000001</v>
-      </c>
-      <c r="K365">
-        <v>140.00722540000001</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A366" t="s">
-        <v>11</v>
-      </c>
-      <c r="B366" t="s">
-        <v>11</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E366">
-        <v>9902405</v>
-      </c>
-      <c r="F366" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H366" s="1">
-        <v>44519</v>
       </c>
       <c r="I366" t="s">
         <v>32</v>
       </c>
       <c r="J366">
-        <v>38.1961674</v>
+        <v>38.166095300000002</v>
       </c>
       <c r="K366">
-        <v>140.37522229999999</v>
+        <v>140.39884280000001</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.4">
@@ -14487,118 +14496,121 @@
         <v>11</v>
       </c>
       <c r="C367" t="s">
-        <v>915</v>
+        <v>930</v>
       </c>
       <c r="D367" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="E367">
-        <v>9902301</v>
+        <v>9900733</v>
       </c>
       <c r="F367" t="s">
-        <v>916</v>
+        <v>967</v>
       </c>
       <c r="H367" s="1">
-        <v>44501</v>
+        <v>44365</v>
       </c>
       <c r="I367" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J367">
-        <v>38.170156089999999</v>
+        <v>38.454796760000001</v>
       </c>
       <c r="K367">
-        <v>140.39523840000001</v>
+        <v>140.00722540000001</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A368" t="s">
+        <v>11</v>
+      </c>
       <c r="B368" t="s">
         <v>11</v>
       </c>
       <c r="C368" t="s">
-        <v>892</v>
+        <v>1070</v>
       </c>
       <c r="D368" t="s">
-        <v>892</v>
+        <v>1071</v>
       </c>
       <c r="E368">
-        <v>9902301</v>
+        <v>9902405</v>
       </c>
       <c r="F368" t="s">
-        <v>893</v>
+        <v>1072</v>
       </c>
       <c r="H368" s="1">
-        <v>44484</v>
+        <v>44519</v>
       </c>
       <c r="I368" t="s">
         <v>32</v>
       </c>
       <c r="J368">
+        <v>38.1961674</v>
+      </c>
+      <c r="K368">
+        <v>140.37522229999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A369" t="s">
+        <v>11</v>
+      </c>
+      <c r="B369" t="s">
+        <v>11</v>
+      </c>
+      <c r="C369" t="s">
+        <v>915</v>
+      </c>
+      <c r="D369" t="s">
+        <v>915</v>
+      </c>
+      <c r="E369">
+        <v>9902301</v>
+      </c>
+      <c r="F369" t="s">
+        <v>916</v>
+      </c>
+      <c r="H369" s="1">
+        <v>44501</v>
+      </c>
+      <c r="I369" t="s">
+        <v>32</v>
+      </c>
+      <c r="J369">
+        <v>38.170156089999999</v>
+      </c>
+      <c r="K369">
+        <v>140.39523840000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B370" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370" t="s">
+        <v>892</v>
+      </c>
+      <c r="D370" t="s">
+        <v>892</v>
+      </c>
+      <c r="E370">
+        <v>9902301</v>
+      </c>
+      <c r="F370" t="s">
+        <v>893</v>
+      </c>
+      <c r="H370" s="1">
+        <v>44484</v>
+      </c>
+      <c r="I370" t="s">
+        <v>32</v>
+      </c>
+      <c r="J370">
         <v>38.166421700000001</v>
       </c>
-      <c r="K368">
+      <c r="K370">
         <v>140.39818360000001</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B369" t="s">
-        <v>11</v>
-      </c>
-      <c r="C369" t="s">
-        <v>894</v>
-      </c>
-      <c r="D369" t="s">
-        <v>895</v>
-      </c>
-      <c r="E369">
-        <v>9960301</v>
-      </c>
-      <c r="F369" t="s">
-        <v>981</v>
-      </c>
-      <c r="H369" s="1">
-        <v>44396</v>
-      </c>
-      <c r="I369" t="s">
-        <v>85</v>
-      </c>
-      <c r="J369">
-        <v>38.607663000000002</v>
-      </c>
-      <c r="K369">
-        <v>140.16648180000001</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A370" t="s">
-        <v>11</v>
-      </c>
-      <c r="B370" t="s">
-        <v>11</v>
-      </c>
-      <c r="C370" t="s">
-        <v>907</v>
-      </c>
-      <c r="D370" t="s">
-        <v>908</v>
-      </c>
-      <c r="E370">
-        <v>9996101</v>
-      </c>
-      <c r="F370" t="s">
-        <v>995</v>
-      </c>
-      <c r="H370" s="1">
-        <v>44418</v>
-      </c>
-      <c r="I370" t="s">
-        <v>48</v>
-      </c>
-      <c r="J370">
-        <v>38.798514539999999</v>
-      </c>
-      <c r="K370">
-        <v>140.55506260000001</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.4">
@@ -14606,31 +14618,95 @@
         <v>11</v>
       </c>
       <c r="C371" t="s">
+        <v>894</v>
+      </c>
+      <c r="D371" t="s">
+        <v>895</v>
+      </c>
+      <c r="E371">
+        <v>9960301</v>
+      </c>
+      <c r="F371" t="s">
+        <v>981</v>
+      </c>
+      <c r="H371" s="1">
+        <v>44396</v>
+      </c>
+      <c r="I371" t="s">
+        <v>85</v>
+      </c>
+      <c r="J371">
+        <v>38.607663000000002</v>
+      </c>
+      <c r="K371">
+        <v>140.16648180000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A372" t="s">
+        <v>11</v>
+      </c>
+      <c r="B372" t="s">
+        <v>11</v>
+      </c>
+      <c r="C372" t="s">
+        <v>907</v>
+      </c>
+      <c r="D372" t="s">
+        <v>908</v>
+      </c>
+      <c r="E372">
+        <v>9996101</v>
+      </c>
+      <c r="F372" t="s">
+        <v>995</v>
+      </c>
+      <c r="H372" s="1">
+        <v>44418</v>
+      </c>
+      <c r="I372" t="s">
+        <v>48</v>
+      </c>
+      <c r="J372">
+        <v>38.798514539999999</v>
+      </c>
+      <c r="K372">
+        <v>140.55506260000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B373" t="s">
+        <v>11</v>
+      </c>
+      <c r="C373" t="s">
         <v>896</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D373" t="s">
         <v>897</v>
       </c>
-      <c r="E371">
+      <c r="E373">
         <v>9996105</v>
       </c>
-      <c r="F371" t="s">
+      <c r="F373" t="s">
         <v>1004</v>
       </c>
-      <c r="H371" s="1">
+      <c r="H373" s="1">
         <v>44356</v>
       </c>
-      <c r="I371" t="s">
+      <c r="I373" t="s">
         <v>48</v>
       </c>
-      <c r="J371">
+      <c r="J373">
         <v>38.709343230000002</v>
       </c>
-      <c r="K371">
+      <c r="K373">
         <v>140.55579929999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K373">
+    <sortCondition ref="D2:D373"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
